--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C0EB4-08E1-4A9B-A19B-62254442AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF2832-01A5-42BB-84E7-AC33F6CD947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -858,13 +858,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45277.36459571759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.317669675926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-17T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-18T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -906,7 +906,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -1565,6 +1565,56 @@
     <n v="0.496"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.748"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.70599999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.69399999999999995"/>
+    <s v="Washington Capitals"/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.57399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
     <x v="4"/>
   </r>
   <r>
@@ -1955,7 +2005,7 @@
   <dimension ref="A3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2050,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,18 +2058,18 @@
         <v>52</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,18 +2077,18 @@
         <v>53</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F6" s="5">
         <f>F5/F4</f>
-        <v>0.63636363636363635</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,14 +2096,14 @@
         <v>54</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.61904761904761907</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2064,18 +2114,18 @@
         <v>55</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.65217391304347827</v>
+        <v>0.625</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,14 +2133,14 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.63380281690140849</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
@@ -2101,7 +2151,7 @@
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.63636363636363635</v>
+        <v>0.60869565217391308</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,6 +3986,9 @@
       <c r="F68" t="s">
         <v>17</v>
       </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
       <c r="H68" t="str" cm="1">
         <f t="array" ref="H68">_xlfn.IFS(C68 &gt;= 0.85, "85  &lt;", AND(C68 &gt;=0.8, C68 &lt; 0.85), "80-85", AND(C68 &gt;= 0.7, C68 &lt; 0.8), "70-80", AND(C68 &gt;= 0.6, C68 &lt; 0.7),  "60-70", AND(C68 &gt;= 0.5, C68 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
@@ -3960,6 +4013,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
       <c r="H69" t="str" cm="1">
         <f t="array" ref="H69">_xlfn.IFS(C69 &gt;= 0.85, "85  &lt;", AND(C69 &gt;=0.8, C69 &lt; 0.85), "80-85", AND(C69 &gt;= 0.7, C69 &lt; 0.8), "70-80", AND(C69 &gt;= 0.6, C69 &lt; 0.7),  "60-70", AND(C69 &gt;= 0.5, C69 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -3984,6 +4040,9 @@
       <c r="F70" t="s">
         <v>62</v>
       </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
       <c r="H70" t="str" cm="1">
         <f t="array" ref="H70">_xlfn.IFS(C70 &gt;= 0.85, "85  &lt;", AND(C70 &gt;=0.8, C70 &lt; 0.85), "80-85", AND(C70 &gt;= 0.7, C70 &lt; 0.8), "70-80", AND(C70 &gt;= 0.6, C70 &lt; 0.7),  "60-70", AND(C70 &gt;= 0.5, C70 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -4008,6 +4067,9 @@
       <c r="F71" t="s">
         <v>79</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
       <c r="H71" t="str" cm="1">
         <f t="array" ref="H71">_xlfn.IFS(C71 &gt;= 0.85, "85  &lt;", AND(C71 &gt;=0.8, C71 &lt; 0.85), "80-85", AND(C71 &gt;= 0.7, C71 &lt; 0.8), "70-80", AND(C71 &gt;= 0.6, C71 &lt; 0.7),  "60-70", AND(C71 &gt;= 0.5, C71 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -4032,8 +4094,131 @@
       <c r="F72" t="s">
         <v>73</v>
       </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72" t="str" cm="1">
         <f t="array" ref="H72">_xlfn.IFS(C72 &gt;= 0.85, "85  &lt;", AND(C72 &gt;=0.8, C72 &lt; 0.85), "80-85", AND(C72 &gt;= 0.7, C72 &lt; 0.8), "70-80", AND(C72 &gt;= 0.6, C72 &lt; 0.7),  "60-70", AND(C72 &gt;= 0.5, C72 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="str" cm="1">
+        <f t="array" ref="H73">_xlfn.IFS(C73 &gt;= 0.85, "85  &lt;", AND(C73 &gt;=0.8, C73 &lt; 0.85), "80-85", AND(C73 &gt;= 0.7, C73 &lt; 0.8), "70-80", AND(C73 &gt;= 0.6, C73 &lt; 0.7),  "60-70", AND(C73 &gt;= 0.5, C73 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" t="str" cm="1">
+        <f t="array" ref="H74">_xlfn.IFS(C74 &gt;= 0.85, "85  &lt;", AND(C74 &gt;=0.8, C74 &lt; 0.85), "80-85", AND(C74 &gt;= 0.7, C74 &lt; 0.8), "70-80", AND(C74 &gt;= 0.6, C74 &lt; 0.7),  "60-70", AND(C74 &gt;= 0.5, C74 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="str" cm="1">
+        <f t="array" ref="H75">_xlfn.IFS(C75 &gt;= 0.85, "85  &lt;", AND(C75 &gt;=0.8, C75 &lt; 0.85), "80-85", AND(C75 &gt;= 0.7, C75 &lt; 0.8), "70-80", AND(C75 &gt;= 0.6, C75 &lt; 0.7),  "60-70", AND(C75 &gt;= 0.5, C75 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="F76" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" t="str" cm="1">
+        <f t="array" ref="H76">_xlfn.IFS(C76 &gt;= 0.85, "85  &lt;", AND(C76 &gt;=0.8, C76 &lt; 0.85), "80-85", AND(C76 &gt;= 0.7, C76 &lt; 0.8), "70-80", AND(C76 &gt;= 0.6, C76 &lt; 0.7),  "60-70", AND(C76 &gt;= 0.5, C76 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="F77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="str" cm="1">
+        <f t="array" ref="H77">_xlfn.IFS(C77 &gt;= 0.85, "85  &lt;", AND(C77 &gt;=0.8, C77 &lt; 0.85), "80-85", AND(C77 &gt;= 0.7, C77 &lt; 0.8), "70-80", AND(C77 &gt;= 0.6, C77 &lt; 0.7),  "60-70", AND(C77 &gt;= 0.5, C77 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF2832-01A5-42BB-84E7-AC33F6CD947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD98BD5-8CF3-4A60-88EA-D53A9DBFC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -305,6 +306,30 @@
   </si>
   <si>
     <t>Playing At:  Winnipeg Jets   Home</t>
+  </si>
+  <si>
+    <t>GF Prediction</t>
+  </si>
+  <si>
+    <t>GA Prediction</t>
+  </si>
+  <si>
+    <t>GF Actual</t>
+  </si>
+  <si>
+    <t>GA Actual</t>
+  </si>
+  <si>
+    <t>GF ABS Error</t>
+  </si>
+  <si>
+    <t>GA ABS Error</t>
+  </si>
+  <si>
+    <t>Average of GF ABS Error</t>
+  </si>
+  <si>
+    <t>Average of GA ABS Error</t>
   </si>
 </sst>
 </file>
@@ -789,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -798,6 +823,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -858,22 +885,28 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.317669675926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{00000000-000A-0000-FFFF-FFFF11000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.986818055557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="Predictions"/>
+    <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="15">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-18T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-19T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GF Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
       <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GA Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
@@ -885,15 +918,26 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="6">
         <s v="85 &lt;"/>
         <s v="80-85"/>
         <s v="70-80"/>
         <s v="60-70"/>
         <s v="50-60"/>
         <m/>
-        <s v="&gt; 85" u="1"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="GF Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GA Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GF ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="GA ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
   </cacheFields>
@@ -905,719 +949,1290 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.987060648149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="76" xr:uid="{BDF98BF0-8A81-4081-88AB-36B060A6E7CD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N77" sheet="Predictions"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-12-09T00:00:00" maxDate="2023-12-19T00:00:00"/>
+    </cacheField>
+    <cacheField name="Winner" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GF Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Winner Probability" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+    </cacheField>
+    <cacheField name="Loser" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GA Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Loser Probability" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="5">
+        <s v="85 &lt;"/>
+        <s v="80-85"/>
+        <s v="70-80"/>
+        <s v="60-70"/>
+        <s v="50-60"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GF Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GA Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GF ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="GA ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
+    <m/>
     <n v="0.876"/>
     <s v="Arizona Coyotes"/>
+    <m/>
     <n v="0.124"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="1"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Colorado Avalanche"/>
+    <m/>
     <n v="0.85"/>
     <s v="Philadelphia Flyers"/>
+    <m/>
     <n v="0.15"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="St. Louis Blues"/>
+    <m/>
     <n v="0.81"/>
     <s v="Chicago Blackhawks"/>
+    <m/>
     <n v="0.19"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="0"/>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
+    <m/>
     <n v="0.79800000000000004"/>
     <s v="Nashville Predators"/>
+    <m/>
     <n v="0.20200000000000001"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
+    <m/>
     <n v="0.77800000000000002"/>
     <s v="Seattle Kraken"/>
+    <m/>
     <n v="0.222"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="New York Rangers"/>
+    <m/>
     <n v="0.71199999999999997"/>
     <s v="Washington Capitals"/>
+    <m/>
     <n v="0.28799999999999998"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="0"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Dallas Stars"/>
+    <m/>
     <n v="0.69799999999999995"/>
     <s v="Vegas Golden Knights"/>
+    <m/>
     <n v="0.30199999999999999"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Calgary Flames"/>
+    <m/>
     <n v="0.64200000000000002"/>
     <s v="New Jersey Devils"/>
+    <m/>
     <n v="0.35799999999999998"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Ottawa Senators"/>
+    <m/>
     <n v="0.57999999999999996"/>
     <s v="Detroit Red Wings"/>
+    <m/>
     <n v="0.42"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="New York Islanders"/>
+    <m/>
     <n v="0.56999999999999995"/>
     <s v="Los Angeles Kings"/>
+    <m/>
     <n v="0.43"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Vancouver Canucks"/>
+    <m/>
     <n v="0.53800000000000003"/>
     <s v="Carolina Hurricanes"/>
+    <m/>
     <n v="0.46200000000000002"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Montreal Canadiens"/>
+    <m/>
     <n v="0.50600000000000001"/>
     <s v="Buffalo Sabres"/>
+    <m/>
     <n v="0.49399999999999999"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Vegas Golden Knights"/>
+    <m/>
     <n v="0.87"/>
     <s v="San Jose Sharks"/>
+    <m/>
     <n v="0.13"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Edmonton Oilers"/>
+    <m/>
     <n v="0.82199999999999995"/>
     <s v="New Jersey Devils"/>
+    <m/>
     <n v="0.17799999999999999"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="1"/>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Winnipeg Jets"/>
+    <m/>
     <n v="0.80200000000000005"/>
     <s v="Anaheim Ducks"/>
+    <m/>
     <n v="0.19800000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Minnesota Wild"/>
+    <m/>
     <n v="0.76400000000000001"/>
     <s v="Seattle Kraken"/>
+    <m/>
     <n v="0.23599999999999999"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Nashville Predators"/>
+    <m/>
     <n v="0.74399999999999999"/>
     <s v="Montreal Canadiens"/>
+    <m/>
     <n v="0.25600000000000001"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Washington Capitals"/>
+    <m/>
     <n v="0.70199999999999996"/>
     <s v="Chicago Blackhawks"/>
+    <m/>
     <n v="0.29799999999999999"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="New York Rangers"/>
+    <m/>
     <n v="0.69"/>
     <s v="Los Angeles Kings"/>
+    <m/>
     <n v="0.31"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Florida Panthers"/>
+    <m/>
     <n v="0.60199999999999998"/>
     <s v="Columbus Blue Jackets"/>
+    <m/>
     <n v="0.39800000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Colorado Avalanche"/>
+    <m/>
     <n v="0.68799999999999994"/>
     <s v="Calgary Flames"/>
+    <m/>
     <n v="0.312"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Dallas Stars"/>
+    <m/>
     <n v="0.622"/>
     <s v="Detroit Red Wings"/>
+    <m/>
     <n v="0.378"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Buffalo Sabres"/>
+    <m/>
     <n v="0.52200000000000002"/>
     <s v="Arizona Coyotes"/>
+    <m/>
     <n v="0.47799999999999998"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
+    <m/>
     <n v="0.502"/>
     <s v="New York Islanders"/>
+    <m/>
     <n v="0.498"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Edmonton Oilers"/>
+    <m/>
     <n v="0.82399999999999995"/>
     <s v="Chicago Blackhawks"/>
+    <m/>
     <n v="0.17599999999999999"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="1"/>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Winnipeg Jets"/>
+    <m/>
     <n v="0.77800000000000002"/>
     <s v="San Jose Sharks"/>
+    <m/>
     <n v="0.222"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="0"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Vegas Golden Knights"/>
+    <m/>
     <n v="0.69199999999999995"/>
     <s v="Calgary Flames"/>
+    <m/>
     <n v="0.308"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Florida Panthers"/>
+    <m/>
     <n v="0.68200000000000005"/>
     <s v="Seattle Kraken"/>
+    <m/>
     <n v="0.318"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Nashville Predators"/>
+    <m/>
     <n v="0.68"/>
     <s v="Philadelphia Flyers"/>
+    <m/>
     <n v="0.32"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="New York Rangers"/>
+    <m/>
     <n v="0.65200000000000002"/>
     <s v="Toronto Maple Leafs"/>
+    <m/>
     <n v="0.34799999999999998"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Vancouver Canucks"/>
+    <m/>
     <n v="0.57199999999999995"/>
     <s v="Tampa Bay Lightning"/>
+    <m/>
     <n v="0.42799999999999999"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Ottawa Senators"/>
+    <m/>
     <n v="0.56200000000000006"/>
     <s v="Carolina Hurricanes"/>
+    <m/>
     <n v="0.438"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="St. Louis Blues"/>
+    <m/>
     <n v="0.52200000000000002"/>
     <s v="Detroit Red Wings"/>
+    <m/>
     <n v="0.47799999999999998"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
+    <m/>
     <n v="0.51600000000000001"/>
     <s v="Arizona Coyotes"/>
+    <m/>
     <n v="0.48399999999999999"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
+    <m/>
     <n v="0.73"/>
     <s v="Montreal Canadiens"/>
+    <m/>
     <n v="0.27"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="New York Islanders"/>
+    <m/>
     <n v="0.624"/>
     <s v="Anaheim Ducks"/>
+    <m/>
     <n v="0.376"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Colorado Avalanche"/>
+    <m/>
     <n v="0.622"/>
     <s v="Buffalo Sabres"/>
+    <m/>
     <n v="0.378"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Boston Bruins"/>
+    <m/>
     <n v="0.622"/>
     <s v="New Jersey Devils"/>
+    <m/>
     <n v="0.378"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Los Angeles Kings"/>
+    <m/>
     <n v="0.56999999999999995"/>
     <s v="Winnipeg Jets"/>
+    <m/>
     <n v="0.43"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Edmonton Oilers"/>
+    <m/>
     <n v="0.74399999999999999"/>
     <s v="Tampa Bay Lightning"/>
+    <m/>
     <n v="0.25600000000000001"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="0"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Minnesota Wild"/>
+    <m/>
     <n v="0.70599999999999996"/>
     <s v="Calgary Flames"/>
+    <m/>
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
+    <m/>
     <n v="0.69799999999999995"/>
     <s v="Columbus Blue Jackets"/>
+    <m/>
     <n v="0.30199999999999999"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Vancouver Canucks"/>
+    <m/>
     <n v="0.57399999999999995"/>
     <s v="Florida Panthers"/>
+    <m/>
     <n v="0.42599999999999999"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Carolina Hurricanes"/>
+    <m/>
     <n v="0.54200000000000004"/>
     <s v="Detroit Red Wings"/>
+    <m/>
     <n v="0.45800000000000002"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Seattle Kraken"/>
+    <m/>
     <n v="0.53800000000000003"/>
     <s v="Chicago Blackhawks"/>
+    <m/>
     <n v="0.46200000000000002"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Washington Capitals"/>
+    <m/>
     <n v="0.52200000000000002"/>
     <s v="Philadelphia Flyers"/>
+    <m/>
     <n v="0.47799999999999998"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="St. Louis Blues"/>
+    <m/>
     <n v="0.50600000000000001"/>
     <s v="Ottawa Senators"/>
+    <m/>
     <n v="0.49399999999999999"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Carolina Hurricanes"/>
+    <m/>
     <n v="0.75800000000000001"/>
     <s v="Nashville Predators"/>
+    <m/>
     <n v="0.24199999999999999"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="0"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="New York Rangers"/>
+    <m/>
     <n v="0.72399999999999998"/>
     <s v="Anaheim Ducks"/>
+    <m/>
     <n v="0.27600000000000002"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Vegas Golden Knights"/>
+    <m/>
     <n v="0.71"/>
     <s v="Buffalo Sabres"/>
+    <m/>
     <n v="0.28999999999999998"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="0"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Dallas Stars"/>
+    <m/>
     <n v="0.69199999999999995"/>
     <s v="Ottawa Senators"/>
+    <m/>
     <n v="0.308"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Boston Bruins"/>
+    <m/>
     <n v="0.57999999999999996"/>
     <s v="New York Islanders"/>
+    <m/>
     <n v="0.42"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="San Jose Sharks"/>
+    <m/>
     <n v="0.50800000000000001"/>
     <s v="Arizona Coyotes"/>
+    <m/>
     <n v="0.49199999999999999"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="New York Islanders"/>
+    <m/>
     <n v="0.76400000000000001"/>
     <s v="Montreal Canadiens"/>
+    <m/>
     <n v="0.23599999999999999"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="0"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Minnesota Wild"/>
+    <m/>
     <n v="0.72199999999999998"/>
     <s v="Vancouver Canucks"/>
+    <m/>
     <n v="0.27800000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Winnipeg Jets"/>
+    <m/>
     <n v="0.67800000000000005"/>
     <s v="Colorado Avalanche"/>
+    <m/>
     <n v="0.32200000000000001"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Boston Bruins"/>
+    <m/>
     <n v="0.67400000000000004"/>
     <s v="New York Rangers"/>
+    <m/>
     <n v="0.32600000000000001"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
+    <m/>
     <n v="0.65600000000000003"/>
     <s v="Pittsburgh Penguins"/>
+    <m/>
     <n v="0.34399999999999997"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="New Jersey Devils"/>
+    <m/>
     <n v="0.628"/>
     <s v="Columbus Blue Jackets"/>
+    <m/>
     <n v="0.372"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Buffalo Sabres"/>
+    <m/>
     <n v="0.624"/>
     <s v="Arizona Coyotes"/>
+    <m/>
     <n v="0.376"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Nashville Predators"/>
+    <m/>
     <n v="0.61"/>
     <s v="Washington Capitals"/>
+    <m/>
     <n v="0.39"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="1"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Calgary Flames"/>
+    <m/>
     <n v="0.59199999999999997"/>
     <s v="Tampa Bay Lightning"/>
+    <m/>
     <n v="0.40799999999999997"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Philadelphia Flyers"/>
+    <m/>
     <n v="0.57399999999999995"/>
     <s v="Detroit Red Wings"/>
+    <m/>
     <n v="0.42599999999999999"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Edmonton Oilers"/>
+    <m/>
     <n v="0.56599999999999995"/>
     <s v="Florida Panthers"/>
+    <m/>
     <n v="0.434"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Dallas Stars"/>
+    <m/>
     <n v="0.55200000000000005"/>
     <s v="St. Louis Blues"/>
+    <m/>
     <n v="0.44800000000000001"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Los Angeles Kings"/>
+    <m/>
     <n v="0.504"/>
     <s v="Seattle Kraken"/>
+    <m/>
     <n v="0.496"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Vancouver Canucks"/>
+    <m/>
     <n v="0.81"/>
     <s v="Chicago Blackhawks"/>
+    <m/>
     <n v="0.19"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Colorado Avalanche"/>
+    <m/>
     <n v="0.748"/>
     <s v="San Jose Sharks"/>
+    <m/>
     <n v="0.252"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Vegas Golden Knights"/>
+    <m/>
     <n v="0.70599999999999996"/>
     <s v="Ottawa Senators"/>
+    <m/>
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Carolina Hurricanes"/>
+    <m/>
     <n v="0.69399999999999995"/>
     <s v="Washington Capitals"/>
+    <m/>
     <n v="0.30599999999999999"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="0"/>
     <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="New Jersey Devils"/>
+    <s v="GF Prediction"/>
     <n v="0.57399999999999995"/>
     <s v="Anaheim Ducks"/>
+    <s v="GA Prediction"/>
     <n v="0.42599999999999999"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
     <x v="4"/>
-  </r>
-  <r>
+    <s v="GF Actual"/>
+    <s v="GA Actual"/>
+    <s v="GF ABS Error"/>
+    <s v="GA ABS Error"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.72"/>
+    <s v="Montreal Canadiens"/>
+    <n v="3"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.67400000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="2"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="3"/>
+    <n v="0.58599999999999997"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.58399999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.502"/>
+    <s v="Anaheim Ducks"/>
+    <n v="3"/>
+    <n v="0.498"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1626,37 +2241,1345 @@
     <m/>
     <m/>
     <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.876"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.124"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.85"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.15"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.79800000000000004"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.71199999999999997"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.64200000000000002"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.87"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.13"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82199999999999995"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.17799999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.80200000000000005"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.70199999999999996"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.69"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.31"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.60199999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.68799999999999994"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.312"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.502"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.498"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.17599999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.68200000000000005"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.318"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.32"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.65200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57199999999999995"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.56200000000000006"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.438"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.51600000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.48399999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.73"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.27"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.54200000000000004"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.75800000000000001"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.72399999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.71"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.28999999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.50800000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.72199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.67800000000000005"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.32200000000000001"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.67400000000000004"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.65600000000000003"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.628"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.372"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.61"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.39"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.59199999999999997"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.56599999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.434"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.55200000000000005"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.44800000000000001"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.504"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.496"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.748"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.252"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.69399999999999995"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <s v="GF Prediction"/>
+    <n v="0.57399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <s v="GA Prediction"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="GF Actual"/>
+    <s v="GA Actual"/>
+    <s v="GF ABS Error"/>
+    <s v="GA ABS Error"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.72"/>
+    <s v="Montreal Canadiens"/>
+    <n v="3"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.67400000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="2"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="3"/>
+    <n v="0.58599999999999997"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.58399999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.502"/>
+    <s v="Anaheim Ducks"/>
+    <n v="3"/>
+    <n v="0.498"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8474DBBF-D7BE-4FA8-9762-D31395D1F75C}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of GF ABS Error" fld="12" subtotal="average" baseField="9" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of GA ABS Error" fld="13" subtotal="average" baseField="9" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="8">
+      <items count="7">
         <item h="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item h="1" m="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="7"/>
+    <field x="9"/>
   </rowFields>
   <rowItems count="6">
     <i>
@@ -1691,7 +3614,7 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2002,17 +3925,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2038,10 +3961,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -2050,17 +3973,17 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
       <c r="D5" s="5">
@@ -2076,34 +3999,34 @@
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
         <v>11</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.6470588235294118</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F6" s="5">
         <f>F5/F4</f>
-        <v>0.68</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
+      <c r="B7" s="6">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.59090909090909094</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2113,73 +4036,149 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
+      <c r="B8" s="6">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>17</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <v>71</v>
-      </c>
-      <c r="C9">
-        <v>45</v>
+      <c r="B9" s="6">
+        <v>76</v>
+      </c>
+      <c r="C9" s="6">
+        <v>48</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.63380281690140849</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.60869565217391308</v>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2187,2043 +4186,2194 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45269</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>0.876</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>0.124</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45269</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0.85</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>0.15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45269</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.81</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>0.19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>0.20200000000000001</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45269</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>0.222</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45269</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>0.71199999999999997</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45269</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45269</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45269</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>0.42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45269</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>0.43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45269</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45269</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>0.49399999999999999</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45270</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>0.87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>0.13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45270</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>0.82199999999999995</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45270</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45270</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45270</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>64</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45270</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>0.70199999999999996</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>0.29799999999999999</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>17</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45270</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>0.69</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>0.31</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>65</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45270</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>0.60199999999999998</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>0.39800000000000002</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>37</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45271</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>0.312</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="H22" t="str" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(C22 &gt;= 0.85, "85  &lt;", AND(C22 &gt;=0.8, C22 &lt; 0.85), "80-85", AND(C22 &gt;= 0.7, C22 &lt; 0.8), "70-80", AND(C22 &gt;= 0.6, C22 &lt; 0.7),  "60-70", AND(C22 &gt;= 0.5, C22 &lt; 0.6), "50-60")</f>
+      <c r="J22" t="str" cm="1">
+        <f t="array" ref="J22">_xlfn.IFS(D22 &gt;= 0.85, "85  &lt;", AND(D22 &gt;=0.8, D22 &lt; 0.85), "80-85", AND(D22 &gt;= 0.7, D22 &lt; 0.8), "70-80", AND(D22 &gt;= 0.6, D22 &lt; 0.7),  "60-70", AND(D22 &gt;= 0.5, D22 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45271</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>0.622</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>0.378</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="H23" t="str" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(C23 &gt;= 0.85, "85  &lt;", AND(C23 &gt;=0.8, C23 &lt; 0.85), "80-85", AND(C23 &gt;= 0.7, C23 &lt; 0.8), "70-80", AND(C23 &gt;= 0.6, C23 &lt; 0.7),  "60-70", AND(C23 &gt;= 0.5, C23 &lt; 0.6), "50-60")</f>
+      <c r="J23" t="str" cm="1">
+        <f t="array" ref="J23">_xlfn.IFS(D23 &gt;= 0.85, "85  &lt;", AND(D23 &gt;=0.8, D23 &lt; 0.85), "80-85", AND(D23 &gt;= 0.7, D23 &lt; 0.8), "70-80", AND(D23 &gt;= 0.6, D23 &lt; 0.7),  "60-70", AND(D23 &gt;= 0.5, D23 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45271</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>49</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="H24" t="str" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(C24 &gt;= 0.85, "85  &lt;", AND(C24 &gt;=0.8, C24 &lt; 0.85), "80-85", AND(C24 &gt;= 0.7, C24 &lt; 0.8), "70-80", AND(C24 &gt;= 0.6, C24 &lt; 0.7),  "60-70", AND(C24 &gt;= 0.5, C24 &lt; 0.6), "50-60")</f>
+      <c r="J24" t="str" cm="1">
+        <f t="array" ref="J24">_xlfn.IFS(D24 &gt;= 0.85, "85  &lt;", AND(D24 &gt;=0.8, D24 &lt; 0.85), "80-85", AND(D24 &gt;= 0.7, D24 &lt; 0.8), "70-80", AND(D24 &gt;= 0.6, D24 &lt; 0.7),  "60-70", AND(D24 &gt;= 0.5, D24 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45271</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>0.502</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>0.498</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="H25" t="str" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(C25 &gt;= 0.85, "85  &lt;", AND(C25 &gt;=0.8, C25 &lt; 0.85), "80-85", AND(C25 &gt;= 0.7, C25 &lt; 0.8), "70-80", AND(C25 &gt;= 0.6, C25 &lt; 0.7),  "60-70", AND(C25 &gt;= 0.5, C25 &lt; 0.6), "50-60")</f>
+      <c r="J25" t="str" cm="1">
+        <f t="array" ref="J25">_xlfn.IFS(D25 &gt;= 0.85, "85  &lt;", AND(D25 &gt;=0.8, D25 &lt; 0.85), "80-85", AND(D25 &gt;= 0.7, D25 &lt; 0.8), "70-80", AND(D25 &gt;= 0.6, D25 &lt; 0.7),  "60-70", AND(D25 &gt;= 0.5, D25 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45272</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>0.82399999999999995</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>14</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="H26" t="str" cm="1">
-        <f t="array" ref="H26">_xlfn.IFS(C26 &gt;= 0.85, "85  &lt;", AND(C26 &gt;=0.8, C26 &lt; 0.85), "80-85", AND(C26 &gt;= 0.7, C26 &lt; 0.8), "70-80", AND(C26 &gt;= 0.6, C26 &lt; 0.7),  "60-70", AND(C26 &gt;= 0.5, C26 &lt; 0.6), "50-60")</f>
+      <c r="J26" t="str" cm="1">
+        <f t="array" ref="J26">_xlfn.IFS(D26 &gt;= 0.85, "85  &lt;", AND(D26 &gt;=0.8, D26 &lt; 0.85), "80-85", AND(D26 &gt;= 0.7, D26 &lt; 0.8), "70-80", AND(D26 &gt;= 0.6, D26 &lt; 0.7),  "60-70", AND(D26 &gt;= 0.5, D26 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45272</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>0.222</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>67</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="H27" t="str" cm="1">
-        <f t="array" ref="H27">_xlfn.IFS(C27 &gt;= 0.85, "85  &lt;", AND(C27 &gt;=0.8, C27 &lt; 0.85), "80-85", AND(C27 &gt;= 0.7, C27 &lt; 0.8), "70-80", AND(C27 &gt;= 0.6, C27 &lt; 0.7),  "60-70", AND(C27 &gt;= 0.5, C27 &lt; 0.6), "50-60")</f>
+      <c r="J27" t="str" cm="1">
+        <f t="array" ref="J27">_xlfn.IFS(D27 &gt;= 0.85, "85  &lt;", AND(D27 &gt;=0.8, D27 &lt; 0.85), "80-85", AND(D27 &gt;= 0.7, D27 &lt; 0.8), "70-80", AND(D27 &gt;= 0.6, D27 &lt; 0.7),  "60-70", AND(D27 &gt;= 0.5, D27 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45272</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>0.308</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>62</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="H28" t="str" cm="1">
-        <f t="array" ref="H28">_xlfn.IFS(C28 &gt;= 0.85, "85  &lt;", AND(C28 &gt;=0.8, C28 &lt; 0.85), "80-85", AND(C28 &gt;= 0.7, C28 &lt; 0.8), "70-80", AND(C28 &gt;= 0.6, C28 &lt; 0.7),  "60-70", AND(C28 &gt;= 0.5, C28 &lt; 0.6), "50-60")</f>
+      <c r="J28" t="str" cm="1">
+        <f t="array" ref="J28">_xlfn.IFS(D28 &gt;= 0.85, "85  &lt;", AND(D28 &gt;=0.8, D28 &lt; 0.85), "80-85", AND(D28 &gt;= 0.7, D28 &lt; 0.8), "70-80", AND(D28 &gt;= 0.6, D28 &lt; 0.7),  "60-70", AND(D28 &gt;= 0.5, D28 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45272</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>0.318</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>26</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="H29" t="str" cm="1">
-        <f t="array" ref="H29">_xlfn.IFS(C29 &gt;= 0.85, "85  &lt;", AND(C29 &gt;=0.8, C29 &lt; 0.85), "80-85", AND(C29 &gt;= 0.7, C29 &lt; 0.8), "70-80", AND(C29 &gt;= 0.6, C29 &lt; 0.7),  "60-70", AND(C29 &gt;= 0.5, C29 &lt; 0.6), "50-60")</f>
+      <c r="J29" t="str" cm="1">
+        <f t="array" ref="J29">_xlfn.IFS(D29 &gt;= 0.85, "85  &lt;", AND(D29 &gt;=0.8, D29 &lt; 0.85), "80-85", AND(D29 &gt;= 0.7, D29 &lt; 0.8), "70-80", AND(D29 &gt;= 0.6, D29 &lt; 0.7),  "60-70", AND(D29 &gt;= 0.5, D29 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45272</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>0.68</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>0.32</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>68</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="H30" t="str" cm="1">
-        <f t="array" ref="H30">_xlfn.IFS(C30 &gt;= 0.85, "85  &lt;", AND(C30 &gt;=0.8, C30 &lt; 0.85), "80-85", AND(C30 &gt;= 0.7, C30 &lt; 0.8), "70-80", AND(C30 &gt;= 0.6, C30 &lt; 0.7),  "60-70", AND(C30 &gt;= 0.5, C30 &lt; 0.6), "50-60")</f>
+      <c r="J30" t="str" cm="1">
+        <f t="array" ref="J30">_xlfn.IFS(D30 &gt;= 0.85, "85  &lt;", AND(D30 &gt;=0.8, D30 &lt; 0.85), "80-85", AND(D30 &gt;= 0.7, D30 &lt; 0.8), "70-80", AND(D30 &gt;= 0.6, D30 &lt; 0.7),  "60-70", AND(D30 &gt;= 0.5, D30 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45272</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>65</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0</v>
       </c>
-      <c r="H31" t="str" cm="1">
-        <f t="array" ref="H31">_xlfn.IFS(C31 &gt;= 0.85, "85  &lt;", AND(C31 &gt;=0.8, C31 &lt; 0.85), "80-85", AND(C31 &gt;= 0.7, C31 &lt; 0.8), "70-80", AND(C31 &gt;= 0.6, C31 &lt; 0.7),  "60-70", AND(C31 &gt;= 0.5, C31 &lt; 0.6), "50-60")</f>
+      <c r="J31" t="str" cm="1">
+        <f t="array" ref="J31">_xlfn.IFS(D31 &gt;= 0.85, "85  &lt;", AND(D31 &gt;=0.8, D31 &lt; 0.85), "80-85", AND(D31 &gt;= 0.7, D31 &lt; 0.8), "70-80", AND(D31 &gt;= 0.6, D31 &lt; 0.7),  "60-70", AND(D31 &gt;= 0.5, D31 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45272</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>0.42799999999999999</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="H32" t="str" cm="1">
-        <f t="array" ref="H32">_xlfn.IFS(C32 &gt;= 0.85, "85  &lt;", AND(C32 &gt;=0.8, C32 &lt; 0.85), "80-85", AND(C32 &gt;= 0.7, C32 &lt; 0.8), "70-80", AND(C32 &gt;= 0.6, C32 &lt; 0.7),  "60-70", AND(C32 &gt;= 0.5, C32 &lt; 0.6), "50-60")</f>
+      <c r="J32" t="str" cm="1">
+        <f t="array" ref="J32">_xlfn.IFS(D32 &gt;= 0.85, "85  &lt;", AND(D32 &gt;=0.8, D32 &lt; 0.85), "80-85", AND(D32 &gt;= 0.7, D32 &lt; 0.8), "70-80", AND(D32 &gt;= 0.6, D32 &lt; 0.7),  "60-70", AND(D32 &gt;= 0.5, D32 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45272</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>0.438</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>69</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0</v>
       </c>
-      <c r="H33" t="str" cm="1">
-        <f t="array" ref="H33">_xlfn.IFS(C33 &gt;= 0.85, "85  &lt;", AND(C33 &gt;=0.8, C33 &lt; 0.85), "80-85", AND(C33 &gt;= 0.7, C33 &lt; 0.8), "70-80", AND(C33 &gt;= 0.6, C33 &lt; 0.7),  "60-70", AND(C33 &gt;= 0.5, C33 &lt; 0.6), "50-60")</f>
+      <c r="J33" t="str" cm="1">
+        <f t="array" ref="J33">_xlfn.IFS(D33 &gt;= 0.85, "85  &lt;", AND(D33 &gt;=0.8, D33 &lt; 0.85), "80-85", AND(D33 &gt;= 0.7, D33 &lt; 0.8), "70-80", AND(D33 &gt;= 0.6, D33 &lt; 0.7),  "60-70", AND(D33 &gt;= 0.5, D33 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45272</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>70</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="H34" t="str" cm="1">
-        <f t="array" ref="H34">_xlfn.IFS(C34 &gt;= 0.85, "85  &lt;", AND(C34 &gt;=0.8, C34 &lt; 0.85), "80-85", AND(C34 &gt;= 0.7, C34 &lt; 0.8), "70-80", AND(C34 &gt;= 0.6, C34 &lt; 0.7),  "60-70", AND(C34 &gt;= 0.5, C34 &lt; 0.6), "50-60")</f>
+      <c r="J34" t="str" cm="1">
+        <f t="array" ref="J34">_xlfn.IFS(D34 &gt;= 0.85, "85  &lt;", AND(D34 &gt;=0.8, D34 &lt; 0.85), "80-85", AND(D34 &gt;= 0.7, D34 &lt; 0.8), "70-80", AND(D34 &gt;= 0.6, D34 &lt; 0.7),  "60-70", AND(D34 &gt;= 0.5, D34 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45272</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G35" s="2">
         <v>0.48399999999999999</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>72</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="H35" t="str" cm="1">
-        <f t="array" ref="H35">_xlfn.IFS(C35 &gt;= 0.85, "85  &lt;", AND(C35 &gt;=0.8, C35 &lt; 0.85), "80-85", AND(C35 &gt;= 0.7, C35 &lt; 0.8), "70-80", AND(C35 &gt;= 0.6, C35 &lt; 0.7),  "60-70", AND(C35 &gt;= 0.5, C35 &lt; 0.6), "50-60")</f>
+      <c r="J35" t="str" cm="1">
+        <f t="array" ref="J35">_xlfn.IFS(D35 &gt;= 0.85, "85  &lt;", AND(D35 &gt;=0.8, D35 &lt; 0.85), "80-85", AND(D35 &gt;= 0.7, D35 &lt; 0.8), "70-80", AND(D35 &gt;= 0.6, D35 &lt; 0.7),  "60-70", AND(D35 &gt;= 0.5, D35 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45273</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>0.73</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>0.27</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>64</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="H36" t="str" cm="1">
-        <f t="array" ref="H36">_xlfn.IFS(C36 &gt;= 0.85, "85  &lt;", AND(C36 &gt;=0.8, C36 &lt; 0.85), "80-85", AND(C36 &gt;= 0.7, C36 &lt; 0.8), "70-80", AND(C36 &gt;= 0.6, C36 &lt; 0.7),  "60-70", AND(C36 &gt;= 0.5, C36 &lt; 0.6), "50-60")</f>
+      <c r="J36" t="str" cm="1">
+        <f t="array" ref="J36">_xlfn.IFS(D36 &gt;= 0.85, "85  &lt;", AND(D36 &gt;=0.8, D36 &lt; 0.85), "80-85", AND(D36 &gt;= 0.7, D36 &lt; 0.8), "70-80", AND(D36 &gt;= 0.6, D36 &lt; 0.7),  "60-70", AND(D36 &gt;= 0.5, D36 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45273</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>0.624</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>0.376</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>43</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="H37" t="str" cm="1">
-        <f t="array" ref="H37">_xlfn.IFS(C37 &gt;= 0.85, "85  &lt;", AND(C37 &gt;=0.8, C37 &lt; 0.85), "80-85", AND(C37 &gt;= 0.7, C37 &lt; 0.8), "70-80", AND(C37 &gt;= 0.6, C37 &lt; 0.7),  "60-70", AND(C37 &gt;= 0.5, C37 &lt; 0.6), "50-60")</f>
+      <c r="J37" t="str" cm="1">
+        <f t="array" ref="J37">_xlfn.IFS(D37 &gt;= 0.85, "85  &lt;", AND(D37 &gt;=0.8, D37 &lt; 0.85), "80-85", AND(D37 &gt;= 0.7, D37 &lt; 0.8), "70-80", AND(D37 &gt;= 0.6, D37 &lt; 0.7),  "60-70", AND(D37 &gt;= 0.5, D37 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45273</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>0.622</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>0.378</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>11</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="H38" t="str" cm="1">
-        <f t="array" ref="H38">_xlfn.IFS(C38 &gt;= 0.85, "85  &lt;", AND(C38 &gt;=0.8, C38 &lt; 0.85), "80-85", AND(C38 &gt;= 0.7, C38 &lt; 0.8), "70-80", AND(C38 &gt;= 0.6, C38 &lt; 0.7),  "60-70", AND(C38 &gt;= 0.5, C38 &lt; 0.6), "50-60")</f>
+      <c r="J38" t="str" cm="1">
+        <f t="array" ref="J38">_xlfn.IFS(D38 &gt;= 0.85, "85  &lt;", AND(D38 &gt;=0.8, D38 &lt; 0.85), "80-85", AND(D38 &gt;= 0.7, D38 &lt; 0.8), "70-80", AND(D38 &gt;= 0.6, D38 &lt; 0.7),  "60-70", AND(D38 &gt;= 0.5, D38 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45273</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>0.622</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>0.378</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>73</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="H39" t="str" cm="1">
-        <f t="array" ref="H39">_xlfn.IFS(C39 &gt;= 0.85, "85  &lt;", AND(C39 &gt;=0.8, C39 &lt; 0.85), "80-85", AND(C39 &gt;= 0.7, C39 &lt; 0.8), "70-80", AND(C39 &gt;= 0.6, C39 &lt; 0.7),  "60-70", AND(C39 &gt;= 0.5, C39 &lt; 0.6), "50-60")</f>
+      <c r="J39" t="str" cm="1">
+        <f t="array" ref="J39">_xlfn.IFS(D39 &gt;= 0.85, "85  &lt;", AND(D39 &gt;=0.8, D39 &lt; 0.85), "80-85", AND(D39 &gt;= 0.7, D39 &lt; 0.8), "70-80", AND(D39 &gt;= 0.6, D39 &lt; 0.7),  "60-70", AND(D39 &gt;= 0.5, D39 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45273</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="2">
+      <c r="G40" s="2">
         <v>0.43</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>74</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="H40" t="str" cm="1">
-        <f t="array" ref="H40">_xlfn.IFS(C40 &gt;= 0.85, "85  &lt;", AND(C40 &gt;=0.8, C40 &lt; 0.85), "80-85", AND(C40 &gt;= 0.7, C40 &lt; 0.8), "70-80", AND(C40 &gt;= 0.6, C40 &lt; 0.7),  "60-70", AND(C40 &gt;= 0.5, C40 &lt; 0.6), "50-60")</f>
+      <c r="J40" t="str" cm="1">
+        <f t="array" ref="J40">_xlfn.IFS(D40 &gt;= 0.85, "85  &lt;", AND(D40 &gt;=0.8, D40 &lt; 0.85), "80-85", AND(D40 &gt;= 0.7, D40 &lt; 0.8), "70-80", AND(D40 &gt;= 0.6, D40 &lt; 0.7),  "60-70", AND(D40 &gt;= 0.5, D40 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45274</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="2">
+      <c r="G41" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="H41" t="str" cm="1">
-        <f t="array" ref="H41">_xlfn.IFS(C41 &gt;= 0.85, "85  &lt;", AND(C41 &gt;=0.8, C41 &lt; 0.85), "80-85", AND(C41 &gt;= 0.7, C41 &lt; 0.8), "70-80", AND(C41 &gt;= 0.6, C41 &lt; 0.7),  "60-70", AND(C41 &gt;= 0.5, C41 &lt; 0.6), "50-60")</f>
+      <c r="J41" t="str" cm="1">
+        <f t="array" ref="J41">_xlfn.IFS(D41 &gt;= 0.85, "85  &lt;", AND(D41 &gt;=0.8, D41 &lt; 0.85), "80-85", AND(D41 &gt;= 0.7, D41 &lt; 0.8), "70-80", AND(D41 &gt;= 0.6, D41 &lt; 0.7),  "60-70", AND(D41 &gt;= 0.5, D41 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45274</v>
       </c>
       <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="2">
+      <c r="G42" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>77</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="H42" t="str" cm="1">
-        <f t="array" ref="H42">_xlfn.IFS(C42 &gt;= 0.85, "85  &lt;", AND(C42 &gt;=0.8, C42 &lt; 0.85), "80-85", AND(C42 &gt;= 0.7, C42 &lt; 0.8), "70-80", AND(C42 &gt;= 0.6, C42 &lt; 0.7),  "60-70", AND(C42 &gt;= 0.5, C42 &lt; 0.6), "50-60")</f>
+      <c r="J42" t="str" cm="1">
+        <f t="array" ref="J42">_xlfn.IFS(D42 &gt;= 0.85, "85  &lt;", AND(D42 &gt;=0.8, D42 &lt; 0.85), "80-85", AND(D42 &gt;= 0.7, D42 &lt; 0.8), "70-80", AND(D42 &gt;= 0.6, D42 &lt; 0.7),  "60-70", AND(D42 &gt;= 0.5, D42 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45274</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="2">
+      <c r="G43" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>23</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="H43" t="str" cm="1">
-        <f t="array" ref="H43">_xlfn.IFS(C43 &gt;= 0.85, "85  &lt;", AND(C43 &gt;=0.8, C43 &lt; 0.85), "80-85", AND(C43 &gt;= 0.7, C43 &lt; 0.8), "70-80", AND(C43 &gt;= 0.6, C43 &lt; 0.7),  "60-70", AND(C43 &gt;= 0.5, C43 &lt; 0.6), "50-60")</f>
+      <c r="J43" t="str" cm="1">
+        <f t="array" ref="J43">_xlfn.IFS(D43 &gt;= 0.85, "85  &lt;", AND(D43 &gt;=0.8, D43 &lt; 0.85), "80-85", AND(D43 &gt;= 0.7, D43 &lt; 0.8), "70-80", AND(D43 &gt;= 0.6, D43 &lt; 0.7),  "60-70", AND(D43 &gt;= 0.5, D43 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45274</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="2">
+      <c r="G44" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>46</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="H44" t="str" cm="1">
-        <f t="array" ref="H44">_xlfn.IFS(C44 &gt;= 0.85, "85  &lt;", AND(C44 &gt;=0.8, C44 &lt; 0.85), "80-85", AND(C44 &gt;= 0.7, C44 &lt; 0.8), "70-80", AND(C44 &gt;= 0.6, C44 &lt; 0.7),  "60-70", AND(C44 &gt;= 0.5, C44 &lt; 0.6), "50-60")</f>
+      <c r="J44" t="str" cm="1">
+        <f t="array" ref="J44">_xlfn.IFS(D44 &gt;= 0.85, "85  &lt;", AND(D44 &gt;=0.8, D44 &lt; 0.85), "80-85", AND(D44 &gt;= 0.7, D44 &lt; 0.8), "70-80", AND(D44 &gt;= 0.6, D44 &lt; 0.7),  "60-70", AND(D44 &gt;= 0.5, D44 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45274</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>0.54200000000000004</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="2">
+      <c r="G45" s="2">
         <v>0.45800000000000002</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>40</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="H45" t="str" cm="1">
-        <f t="array" ref="H45">_xlfn.IFS(C45 &gt;= 0.85, "85  &lt;", AND(C45 &gt;=0.8, C45 &lt; 0.85), "80-85", AND(C45 &gt;= 0.7, C45 &lt; 0.8), "70-80", AND(C45 &gt;= 0.6, C45 &lt; 0.7),  "60-70", AND(C45 &gt;= 0.5, C45 &lt; 0.6), "50-60")</f>
+      <c r="J45" t="str" cm="1">
+        <f t="array" ref="J45">_xlfn.IFS(D45 &gt;= 0.85, "85  &lt;", AND(D45 &gt;=0.8, D45 &lt; 0.85), "80-85", AND(D45 &gt;= 0.7, D45 &lt; 0.8), "70-80", AND(D45 &gt;= 0.6, D45 &lt; 0.7),  "60-70", AND(D45 &gt;= 0.5, D45 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45274</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2">
+      <c r="G46" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>26</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="H46" t="str" cm="1">
-        <f t="array" ref="H46">_xlfn.IFS(C46 &gt;= 0.85, "85  &lt;", AND(C46 &gt;=0.8, C46 &lt; 0.85), "80-85", AND(C46 &gt;= 0.7, C46 &lt; 0.8), "70-80", AND(C46 &gt;= 0.6, C46 &lt; 0.7),  "60-70", AND(C46 &gt;= 0.5, C46 &lt; 0.6), "50-60")</f>
+      <c r="J46" t="str" cm="1">
+        <f t="array" ref="J46">_xlfn.IFS(D46 &gt;= 0.85, "85  &lt;", AND(D46 &gt;=0.8, D46 &lt; 0.85), "80-85", AND(D46 &gt;= 0.7, D46 &lt; 0.8), "70-80", AND(D46 &gt;= 0.6, D46 &lt; 0.7),  "60-70", AND(D46 &gt;= 0.5, D46 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45274</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="2">
+      <c r="G47" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>78</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="H47" t="str" cm="1">
-        <f t="array" ref="H47">_xlfn.IFS(C47 &gt;= 0.85, "85  &lt;", AND(C47 &gt;=0.8, C47 &lt; 0.85), "80-85", AND(C47 &gt;= 0.7, C47 &lt; 0.8), "70-80", AND(C47 &gt;= 0.6, C47 &lt; 0.7),  "60-70", AND(C47 &gt;= 0.5, C47 &lt; 0.6), "50-60")</f>
+      <c r="J47" t="str" cm="1">
+        <f t="array" ref="J47">_xlfn.IFS(D47 &gt;= 0.85, "85  &lt;", AND(D47 &gt;=0.8, D47 &lt; 0.85), "80-85", AND(D47 &gt;= 0.7, D47 &lt; 0.8), "70-80", AND(D47 &gt;= 0.6, D47 &lt; 0.7),  "60-70", AND(D47 &gt;= 0.5, D47 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45274</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="2">
+      <c r="G48" s="2">
         <v>0.49399999999999999</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>70</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="H48" t="str" cm="1">
-        <f t="array" ref="H48">_xlfn.IFS(C48 &gt;= 0.85, "85  &lt;", AND(C48 &gt;=0.8, C48 &lt; 0.85), "80-85", AND(C48 &gt;= 0.7, C48 &lt; 0.8), "70-80", AND(C48 &gt;= 0.6, C48 &lt; 0.7),  "60-70", AND(C48 &gt;= 0.5, C48 &lt; 0.6), "50-60")</f>
+      <c r="J48" t="str" cm="1">
+        <f t="array" ref="J48">_xlfn.IFS(D48 &gt;= 0.85, "85  &lt;", AND(D48 &gt;=0.8, D48 &lt; 0.85), "80-85", AND(D48 &gt;= 0.7, D48 &lt; 0.8), "70-80", AND(D48 &gt;= 0.6, D48 &lt; 0.7),  "60-70", AND(D48 &gt;= 0.5, D48 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45275</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>0.75800000000000001</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="2">
+      <c r="G49" s="2">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>79</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="H49" t="str" cm="1">
-        <f t="array" ref="H49">_xlfn.IFS(C49 &gt;= 0.85, "85  &lt;", AND(C49 &gt;=0.8, C49 &lt; 0.85), "80-85", AND(C49 &gt;= 0.7, C49 &lt; 0.8), "70-80", AND(C49 &gt;= 0.6, C49 &lt; 0.7),  "60-70", AND(C49 &gt;= 0.5, C49 &lt; 0.6), "50-60")</f>
+      <c r="J49" t="str" cm="1">
+        <f t="array" ref="J49">_xlfn.IFS(D49 &gt;= 0.85, "85  &lt;", AND(D49 &gt;=0.8, D49 &lt; 0.85), "80-85", AND(D49 &gt;= 0.7, D49 &lt; 0.8), "70-80", AND(D49 &gt;= 0.6, D49 &lt; 0.7),  "60-70", AND(D49 &gt;= 0.5, D49 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45275</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>0.72399999999999998</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="2">
+      <c r="G50" s="2">
         <v>0.27600000000000002</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>65</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="H50" t="str" cm="1">
-        <f t="array" ref="H50">_xlfn.IFS(C50 &gt;= 0.85, "85  &lt;", AND(C50 &gt;=0.8, C50 &lt; 0.85), "80-85", AND(C50 &gt;= 0.7, C50 &lt; 0.8), "70-80", AND(C50 &gt;= 0.6, C50 &lt; 0.7),  "60-70", AND(C50 &gt;= 0.5, C50 &lt; 0.6), "50-60")</f>
+      <c r="J50" t="str" cm="1">
+        <f t="array" ref="J50">_xlfn.IFS(D50 &gt;= 0.85, "85  &lt;", AND(D50 &gt;=0.8, D50 &lt; 0.85), "80-85", AND(D50 &gt;= 0.7, D50 &lt; 0.8), "70-80", AND(D50 &gt;= 0.6, D50 &lt; 0.7),  "60-70", AND(D50 &gt;= 0.5, D50 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45275</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>0.71</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="2">
+      <c r="G51" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>62</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="H51" t="str" cm="1">
-        <f t="array" ref="H51">_xlfn.IFS(C51 &gt;= 0.85, "85  &lt;", AND(C51 &gt;=0.8, C51 &lt; 0.85), "80-85", AND(C51 &gt;= 0.7, C51 &lt; 0.8), "70-80", AND(C51 &gt;= 0.6, C51 &lt; 0.7),  "60-70", AND(C51 &gt;= 0.5, C51 &lt; 0.6), "50-60")</f>
+      <c r="J51" t="str" cm="1">
+        <f t="array" ref="J51">_xlfn.IFS(D51 &gt;= 0.85, "85  &lt;", AND(D51 &gt;=0.8, D51 &lt; 0.85), "80-85", AND(D51 &gt;= 0.7, D51 &lt; 0.8), "70-80", AND(D51 &gt;= 0.6, D51 &lt; 0.7),  "60-70", AND(D51 &gt;= 0.5, D51 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45275</v>
       </c>
       <c r="B52" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="2">
+      <c r="G52" s="2">
         <v>0.308</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>32</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="H52" t="str" cm="1">
-        <f t="array" ref="H52">_xlfn.IFS(C52 &gt;= 0.85, "85  &lt;", AND(C52 &gt;=0.8, C52 &lt; 0.85), "80-85", AND(C52 &gt;= 0.7, C52 &lt; 0.8), "70-80", AND(C52 &gt;= 0.6, C52 &lt; 0.7),  "60-70", AND(C52 &gt;= 0.5, C52 &lt; 0.6), "50-60")</f>
+      <c r="J52" t="str" cm="1">
+        <f t="array" ref="J52">_xlfn.IFS(D52 &gt;= 0.85, "85  &lt;", AND(D52 &gt;=0.8, D52 &lt; 0.85), "80-85", AND(D52 &gt;= 0.7, D52 &lt; 0.8), "70-80", AND(D52 &gt;= 0.6, D52 &lt; 0.7),  "60-70", AND(D52 &gt;= 0.5, D52 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45275</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D53" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="2">
+      <c r="G53" s="2">
         <v>0.42</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>43</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>1</v>
       </c>
-      <c r="H53" t="str" cm="1">
-        <f t="array" ref="H53">_xlfn.IFS(C53 &gt;= 0.85, "85  &lt;", AND(C53 &gt;=0.8, C53 &lt; 0.85), "80-85", AND(C53 &gt;= 0.7, C53 &lt; 0.8), "70-80", AND(C53 &gt;= 0.6, C53 &lt; 0.7),  "60-70", AND(C53 &gt;= 0.5, C53 &lt; 0.6), "50-60")</f>
+      <c r="J53" t="str" cm="1">
+        <f t="array" ref="J53">_xlfn.IFS(D53 &gt;= 0.85, "85  &lt;", AND(D53 &gt;=0.8, D53 &lt; 0.85), "80-85", AND(D53 &gt;= 0.7, D53 &lt; 0.8), "70-80", AND(D53 &gt;= 0.6, D53 &lt; 0.7),  "60-70", AND(D53 &gt;= 0.5, D53 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45275</v>
       </c>
       <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D54" s="2">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="2">
+      <c r="G54" s="2">
         <v>0.49199999999999999</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>80</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="H54" t="str" cm="1">
-        <f t="array" ref="H54">_xlfn.IFS(C54 &gt;= 0.85, "85  &lt;", AND(C54 &gt;=0.8, C54 &lt; 0.85), "80-85", AND(C54 &gt;= 0.7, C54 &lt; 0.8), "70-80", AND(C54 &gt;= 0.6, C54 &lt; 0.7),  "60-70", AND(C54 &gt;= 0.5, C54 &lt; 0.6), "50-60")</f>
+      <c r="J54" t="str" cm="1">
+        <f t="array" ref="J54">_xlfn.IFS(D54 &gt;= 0.85, "85  &lt;", AND(D54 &gt;=0.8, D54 &lt; 0.85), "80-85", AND(D54 &gt;= 0.7, D54 &lt; 0.8), "70-80", AND(D54 &gt;= 0.6, D54 &lt; 0.7),  "60-70", AND(D54 &gt;= 0.5, D54 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45276</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="2">
+      <c r="G55" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>64</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="H55" t="str" cm="1">
-        <f t="array" ref="H55">_xlfn.IFS(C55 &gt;= 0.85, "85  &lt;", AND(C55 &gt;=0.8, C55 &lt; 0.85), "80-85", AND(C55 &gt;= 0.7, C55 &lt; 0.8), "70-80", AND(C55 &gt;= 0.6, C55 &lt; 0.7),  "60-70", AND(C55 &gt;= 0.5, C55 &lt; 0.6), "50-60")</f>
+      <c r="J55" t="str" cm="1">
+        <f t="array" ref="J55">_xlfn.IFS(D55 &gt;= 0.85, "85  &lt;", AND(D55 &gt;=0.8, D55 &lt; 0.85), "80-85", AND(D55 &gt;= 0.7, D55 &lt; 0.8), "70-80", AND(D55 &gt;= 0.6, D55 &lt; 0.7),  "60-70", AND(D55 &gt;= 0.5, D55 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45276</v>
       </c>
       <c r="B56" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D56" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="2">
+      <c r="G56" s="2">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>77</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>1</v>
       </c>
-      <c r="H56" t="str" cm="1">
-        <f t="array" ref="H56">_xlfn.IFS(C56 &gt;= 0.85, "85  &lt;", AND(C56 &gt;=0.8, C56 &lt; 0.85), "80-85", AND(C56 &gt;= 0.7, C56 &lt; 0.8), "70-80", AND(C56 &gt;= 0.6, C56 &lt; 0.7),  "60-70", AND(C56 &gt;= 0.5, C56 &lt; 0.6), "50-60")</f>
+      <c r="J56" t="str" cm="1">
+        <f t="array" ref="J56">_xlfn.IFS(D56 &gt;= 0.85, "85  &lt;", AND(D56 &gt;=0.8, D56 &lt; 0.85), "80-85", AND(D56 &gt;= 0.7, D56 &lt; 0.8), "70-80", AND(D56 &gt;= 0.6, D56 &lt; 0.7),  "60-70", AND(D56 &gt;= 0.5, D56 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45276</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" s="2">
         <v>0.67800000000000005</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="2">
+      <c r="G57" s="2">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>81</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="H57" t="str" cm="1">
-        <f t="array" ref="H57">_xlfn.IFS(C57 &gt;= 0.85, "85  &lt;", AND(C57 &gt;=0.8, C57 &lt; 0.85), "80-85", AND(C57 &gt;= 0.7, C57 &lt; 0.8), "70-80", AND(C57 &gt;= 0.6, C57 &lt; 0.7),  "60-70", AND(C57 &gt;= 0.5, C57 &lt; 0.6), "50-60")</f>
+      <c r="J57" t="str" cm="1">
+        <f t="array" ref="J57">_xlfn.IFS(D57 &gt;= 0.85, "85  &lt;", AND(D57 &gt;=0.8, D57 &lt; 0.85), "80-85", AND(D57 &gt;= 0.7, D57 &lt; 0.8), "70-80", AND(D57 &gt;= 0.6, D57 &lt; 0.7),  "60-70", AND(D57 &gt;= 0.5, D57 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45276</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D58" s="2">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="2">
+      <c r="G58" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>8</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="H58" t="str" cm="1">
-        <f t="array" ref="H58">_xlfn.IFS(C58 &gt;= 0.85, "85  &lt;", AND(C58 &gt;=0.8, C58 &lt; 0.85), "80-85", AND(C58 &gt;= 0.7, C58 &lt; 0.8), "70-80", AND(C58 &gt;= 0.6, C58 &lt; 0.7),  "60-70", AND(C58 &gt;= 0.5, C58 &lt; 0.6), "50-60")</f>
+      <c r="J58" t="str" cm="1">
+        <f t="array" ref="J58">_xlfn.IFS(D58 &gt;= 0.85, "85  &lt;", AND(D58 &gt;=0.8, D58 &lt; 0.85), "80-85", AND(D58 &gt;= 0.7, D58 &lt; 0.8), "70-80", AND(D58 &gt;= 0.6, D58 &lt; 0.7),  "60-70", AND(D58 &gt;= 0.5, D58 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45276</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" s="2">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="2">
+      <c r="G59" s="2">
         <v>0.34399999999999997</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>23</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="H59" t="str" cm="1">
-        <f t="array" ref="H59">_xlfn.IFS(C59 &gt;= 0.85, "85  &lt;", AND(C59 &gt;=0.8, C59 &lt; 0.85), "80-85", AND(C59 &gt;= 0.7, C59 &lt; 0.8), "70-80", AND(C59 &gt;= 0.6, C59 &lt; 0.7),  "60-70", AND(C59 &gt;= 0.5, C59 &lt; 0.6), "50-60")</f>
+      <c r="J59" t="str" cm="1">
+        <f t="array" ref="J59">_xlfn.IFS(D59 &gt;= 0.85, "85  &lt;", AND(D59 &gt;=0.8, D59 &lt; 0.85), "80-85", AND(D59 &gt;= 0.7, D59 &lt; 0.8), "70-80", AND(D59 &gt;= 0.6, D59 &lt; 0.7),  "60-70", AND(D59 &gt;= 0.5, D59 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45276</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D60" s="2">
         <v>0.628</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="2">
+      <c r="G60" s="2">
         <v>0.372</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>37</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="H60" t="str" cm="1">
-        <f t="array" ref="H60">_xlfn.IFS(C60 &gt;= 0.85, "85  &lt;", AND(C60 &gt;=0.8, C60 &lt; 0.85), "80-85", AND(C60 &gt;= 0.7, C60 &lt; 0.8), "70-80", AND(C60 &gt;= 0.6, C60 &lt; 0.7),  "60-70", AND(C60 &gt;= 0.5, C60 &lt; 0.6), "50-60")</f>
+      <c r="J60" t="str" cm="1">
+        <f t="array" ref="J60">_xlfn.IFS(D60 &gt;= 0.85, "85  &lt;", AND(D60 &gt;=0.8, D60 &lt; 0.85), "80-85", AND(D60 &gt;= 0.7, D60 &lt; 0.8), "70-80", AND(D60 &gt;= 0.6, D60 &lt; 0.7),  "60-70", AND(D60 &gt;= 0.5, D60 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45276</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D61" s="2">
         <v>0.624</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="2">
+      <c r="G61" s="2">
         <v>0.376</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>80</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="H61" t="str" cm="1">
-        <f t="array" ref="H61">_xlfn.IFS(C61 &gt;= 0.85, "85  &lt;", AND(C61 &gt;=0.8, C61 &lt; 0.85), "80-85", AND(C61 &gt;= 0.7, C61 &lt; 0.8), "70-80", AND(C61 &gt;= 0.6, C61 &lt; 0.7),  "60-70", AND(C61 &gt;= 0.5, C61 &lt; 0.6), "50-60")</f>
+      <c r="J61" t="str" cm="1">
+        <f t="array" ref="J61">_xlfn.IFS(D61 &gt;= 0.85, "85  &lt;", AND(D61 &gt;=0.8, D61 &lt; 0.85), "80-85", AND(D61 &gt;= 0.7, D61 &lt; 0.8), "70-80", AND(D61 &gt;= 0.6, D61 &lt; 0.7),  "60-70", AND(D61 &gt;= 0.5, D61 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45276</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" s="2">
         <v>0.61</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="2">
+      <c r="G62" s="2">
         <v>0.39</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>68</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="H62" t="str" cm="1">
-        <f t="array" ref="H62">_xlfn.IFS(C62 &gt;= 0.85, "85  &lt;", AND(C62 &gt;=0.8, C62 &lt; 0.85), "80-85", AND(C62 &gt;= 0.7, C62 &lt; 0.8), "70-80", AND(C62 &gt;= 0.6, C62 &lt; 0.7),  "60-70", AND(C62 &gt;= 0.5, C62 &lt; 0.6), "50-60")</f>
+      <c r="J62" t="str" cm="1">
+        <f t="array" ref="J62">_xlfn.IFS(D62 &gt;= 0.85, "85  &lt;", AND(D62 &gt;=0.8, D62 &lt; 0.85), "80-85", AND(D62 &gt;= 0.7, D62 &lt; 0.8), "70-80", AND(D62 &gt;= 0.6, D62 &lt; 0.7),  "60-70", AND(D62 &gt;= 0.5, D62 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45276</v>
       </c>
       <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="2">
+      <c r="D63" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="2">
+      <c r="G63" s="2">
         <v>0.40799999999999997</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>34</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="H63" t="str" cm="1">
-        <f t="array" ref="H63">_xlfn.IFS(C63 &gt;= 0.85, "85  &lt;", AND(C63 &gt;=0.8, C63 &lt; 0.85), "80-85", AND(C63 &gt;= 0.7, C63 &lt; 0.8), "70-80", AND(C63 &gt;= 0.6, C63 &lt; 0.7),  "60-70", AND(C63 &gt;= 0.5, C63 &lt; 0.6), "50-60")</f>
+      <c r="J63" t="str" cm="1">
+        <f t="array" ref="J63">_xlfn.IFS(D63 &gt;= 0.85, "85  &lt;", AND(D63 &gt;=0.8, D63 &lt; 0.85), "80-85", AND(D63 &gt;= 0.7, D63 &lt; 0.8), "70-80", AND(D63 &gt;= 0.6, D63 &lt; 0.7),  "60-70", AND(D63 &gt;= 0.5, D63 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45276</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="2">
+      <c r="D64" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="2">
+      <c r="G64" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>78</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="H64" t="str" cm="1">
-        <f t="array" ref="H64">_xlfn.IFS(C64 &gt;= 0.85, "85  &lt;", AND(C64 &gt;=0.8, C64 &lt; 0.85), "80-85", AND(C64 &gt;= 0.7, C64 &lt; 0.8), "70-80", AND(C64 &gt;= 0.6, C64 &lt; 0.7),  "60-70", AND(C64 &gt;= 0.5, C64 &lt; 0.6), "50-60")</f>
+      <c r="J64" t="str" cm="1">
+        <f t="array" ref="J64">_xlfn.IFS(D64 &gt;= 0.85, "85  &lt;", AND(D64 &gt;=0.8, D64 &lt; 0.85), "80-85", AND(D64 &gt;= 0.7, D64 &lt; 0.8), "70-80", AND(D64 &gt;= 0.6, D64 &lt; 0.7),  "60-70", AND(D64 &gt;= 0.5, D64 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45276</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="2">
+      <c r="D65" s="2">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="2">
+      <c r="G65" s="2">
         <v>0.434</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>0</v>
       </c>
-      <c r="H65" t="str" cm="1">
-        <f t="array" ref="H65">_xlfn.IFS(C65 &gt;= 0.85, "85  &lt;", AND(C65 &gt;=0.8, C65 &lt; 0.85), "80-85", AND(C65 &gt;= 0.7, C65 &lt; 0.8), "70-80", AND(C65 &gt;= 0.6, C65 &lt; 0.7),  "60-70", AND(C65 &gt;= 0.5, C65 &lt; 0.6), "50-60")</f>
+      <c r="J65" t="str" cm="1">
+        <f t="array" ref="J65">_xlfn.IFS(D65 &gt;= 0.85, "85  &lt;", AND(D65 &gt;=0.8, D65 &lt; 0.85), "80-85", AND(D65 &gt;= 0.7, D65 &lt; 0.8), "70-80", AND(D65 &gt;= 0.6, D65 &lt; 0.7),  "60-70", AND(D65 &gt;= 0.5, D65 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45276</v>
       </c>
       <c r="B66" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D66" s="2">
         <v>0.55200000000000005</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="2">
+      <c r="G66" s="2">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>70</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="H66" t="str" cm="1">
-        <f t="array" ref="H66">_xlfn.IFS(C66 &gt;= 0.85, "85  &lt;", AND(C66 &gt;=0.8, C66 &lt; 0.85), "80-85", AND(C66 &gt;= 0.7, C66 &lt; 0.8), "70-80", AND(C66 &gt;= 0.6, C66 &lt; 0.7),  "60-70", AND(C66 &gt;= 0.5, C66 &lt; 0.6), "50-60")</f>
+      <c r="J66" t="str" cm="1">
+        <f t="array" ref="J66">_xlfn.IFS(D66 &gt;= 0.85, "85  &lt;", AND(D66 &gt;=0.8, D66 &lt; 0.85), "80-85", AND(D66 &gt;= 0.7, D66 &lt; 0.8), "70-80", AND(D66 &gt;= 0.6, D66 &lt; 0.7),  "60-70", AND(D66 &gt;= 0.5, D66 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45276</v>
       </c>
       <c r="B67" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="2">
+      <c r="D67" s="2">
         <v>0.504</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="2">
+      <c r="G67" s="2">
         <v>0.496</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>26</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="H67" t="str" cm="1">
-        <f t="array" ref="H67">_xlfn.IFS(C67 &gt;= 0.85, "85  &lt;", AND(C67 &gt;=0.8, C67 &lt; 0.85), "80-85", AND(C67 &gt;= 0.7, C67 &lt; 0.8), "70-80", AND(C67 &gt;= 0.6, C67 &lt; 0.7),  "60-70", AND(C67 &gt;= 0.5, C67 &lt; 0.6), "50-60")</f>
+      <c r="J67" t="str" cm="1">
+        <f t="array" ref="J67">_xlfn.IFS(D67 &gt;= 0.85, "85  &lt;", AND(D67 &gt;=0.8, D67 &lt; 0.85), "80-85", AND(D67 &gt;= 0.7, D67 &lt; 0.8), "70-80", AND(D67 &gt;= 0.6, D67 &lt; 0.7),  "60-70", AND(D67 &gt;= 0.5, D67 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45277</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="2">
+      <c r="D68" s="2">
         <v>0.81</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="2">
+      <c r="G68" s="2">
         <v>0.19</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>17</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="H68" t="str" cm="1">
-        <f t="array" ref="H68">_xlfn.IFS(C68 &gt;= 0.85, "85  &lt;", AND(C68 &gt;=0.8, C68 &lt; 0.85), "80-85", AND(C68 &gt;= 0.7, C68 &lt; 0.8), "70-80", AND(C68 &gt;= 0.6, C68 &lt; 0.7),  "60-70", AND(C68 &gt;= 0.5, C68 &lt; 0.6), "50-60")</f>
+      <c r="J68" t="str" cm="1">
+        <f t="array" ref="J68">_xlfn.IFS(D68 &gt;= 0.85, "85  &lt;", AND(D68 &gt;=0.8, D68 &lt; 0.85), "80-85", AND(D68 &gt;= 0.7, D68 &lt; 0.8), "70-80", AND(D68 &gt;= 0.6, D68 &lt; 0.7),  "60-70", AND(D68 &gt;= 0.5, D68 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45277</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="2">
+      <c r="D69" s="2">
         <v>0.748</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>61</v>
       </c>
-      <c r="E69" s="2">
+      <c r="G69" s="2">
         <v>0.252</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>11</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>1</v>
       </c>
-      <c r="H69" t="str" cm="1">
-        <f t="array" ref="H69">_xlfn.IFS(C69 &gt;= 0.85, "85  &lt;", AND(C69 &gt;=0.8, C69 &lt; 0.85), "80-85", AND(C69 &gt;= 0.7, C69 &lt; 0.8), "70-80", AND(C69 &gt;= 0.6, C69 &lt; 0.7),  "60-70", AND(C69 &gt;= 0.5, C69 &lt; 0.6), "50-60")</f>
+      <c r="J69" t="str" cm="1">
+        <f t="array" ref="J69">_xlfn.IFS(D69 &gt;= 0.85, "85  &lt;", AND(D69 &gt;=0.8, D69 &lt; 0.85), "80-85", AND(D69 &gt;= 0.7, D69 &lt; 0.8), "70-80", AND(D69 &gt;= 0.6, D69 &lt; 0.7),  "60-70", AND(D69 &gt;= 0.5, D69 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45277</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="2">
+      <c r="D70" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="2">
+      <c r="G70" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>62</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="H70" t="str" cm="1">
-        <f t="array" ref="H70">_xlfn.IFS(C70 &gt;= 0.85, "85  &lt;", AND(C70 &gt;=0.8, C70 &lt; 0.85), "80-85", AND(C70 &gt;= 0.7, C70 &lt; 0.8), "70-80", AND(C70 &gt;= 0.6, C70 &lt; 0.7),  "60-70", AND(C70 &gt;= 0.5, C70 &lt; 0.6), "50-60")</f>
+      <c r="J70" t="str" cm="1">
+        <f t="array" ref="J70">_xlfn.IFS(D70 &gt;= 0.85, "85  &lt;", AND(D70 &gt;=0.8, D70 &lt; 0.85), "80-85", AND(D70 &gt;= 0.7, D70 &lt; 0.8), "70-80", AND(D70 &gt;= 0.6, D70 &lt; 0.7),  "60-70", AND(D70 &gt;= 0.5, D70 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45277</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="2">
+      <c r="D71" s="2">
         <v>0.69399999999999995</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="2">
+      <c r="G71" s="2">
         <v>0.30599999999999999</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>79</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="H71" t="str" cm="1">
-        <f t="array" ref="H71">_xlfn.IFS(C71 &gt;= 0.85, "85  &lt;", AND(C71 &gt;=0.8, C71 &lt; 0.85), "80-85", AND(C71 &gt;= 0.7, C71 &lt; 0.8), "70-80", AND(C71 &gt;= 0.6, C71 &lt; 0.7),  "60-70", AND(C71 &gt;= 0.5, C71 &lt; 0.6), "50-60")</f>
+      <c r="J71" t="str" cm="1">
+        <f t="array" ref="J71">_xlfn.IFS(D71 &gt;= 0.85, "85  &lt;", AND(D71 &gt;=0.8, D71 &lt; 0.85), "80-85", AND(D71 &gt;= 0.7, D71 &lt; 0.8), "70-80", AND(D71 &gt;= 0.6, D71 &lt; 0.7),  "60-70", AND(D71 &gt;= 0.5, D71 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45277</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>73</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="H72" t="str" cm="1">
-        <f t="array" ref="H72">_xlfn.IFS(C72 &gt;= 0.85, "85  &lt;", AND(C72 &gt;=0.8, C72 &lt; 0.85), "80-85", AND(C72 &gt;= 0.7, C72 &lt; 0.8), "70-80", AND(C72 &gt;= 0.6, C72 &lt; 0.7),  "60-70", AND(C72 &gt;= 0.5, C72 &lt; 0.6), "50-60")</f>
+      <c r="J72" t="str" cm="1">
+        <f t="array" ref="J72">_xlfn.IFS(D72 &gt;= 0.85, "85  &lt;", AND(D72 &gt;=0.8, D72 &lt; 0.85), "80-85", AND(D72 &gt;= 0.7, D72 &lt; 0.8), "70-80", AND(D72 &gt;= 0.6, D72 &lt; 0.7),  "60-70", AND(D72 &gt;= 0.5, D72 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>84</v>
+      </c>
+      <c r="L72" t="s">
+        <v>85</v>
+      </c>
+      <c r="M72" t="s">
+        <v>86</v>
+      </c>
+      <c r="N72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45278</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
         <v>0.72</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>81</v>
       </c>
-      <c r="H73" t="str" cm="1">
-        <f t="array" ref="H73">_xlfn.IFS(C73 &gt;= 0.85, "85  &lt;", AND(C73 &gt;=0.8, C73 &lt; 0.85), "80-85", AND(C73 &gt;= 0.7, C73 &lt; 0.8), "70-80", AND(C73 &gt;= 0.6, C73 &lt; 0.7),  "60-70", AND(C73 &gt;= 0.5, C73 &lt; 0.6), "50-60")</f>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="str" cm="1">
+        <f t="array" ref="J73">_xlfn.IFS(D73 &gt;= 0.85, "85  &lt;", AND(D73 &gt;=0.8, D73 &lt; 0.85), "80-85", AND(D73 &gt;= 0.7, D73 &lt; 0.8), "70-80", AND(D73 &gt;= 0.6, D73 &lt; 0.7),  "60-70", AND(D73 &gt;= 0.5, D73 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <f>ABS(C73-K73)</f>
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f>ABS(F73-L73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45278</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>32</v>
       </c>
-      <c r="H74" t="str" cm="1">
-        <f t="array" ref="H74">_xlfn.IFS(C74 &gt;= 0.85, "85  &lt;", AND(C74 &gt;=0.8, C74 &lt; 0.85), "80-85", AND(C74 &gt;= 0.7, C74 &lt; 0.8), "70-80", AND(C74 &gt;= 0.6, C74 &lt; 0.7),  "60-70", AND(C74 &gt;= 0.5, C74 &lt; 0.6), "50-60")</f>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="str" cm="1">
+        <f t="array" ref="J74">_xlfn.IFS(D74 &gt;= 0.85, "85  &lt;", AND(D74 &gt;=0.8, D74 &lt; 0.85), "80-85", AND(D74 &gt;= 0.7, D74 &lt; 0.8), "70-80", AND(D74 &gt;= 0.6, D74 &lt; 0.7),  "60-70", AND(D74 &gt;= 0.5, D74 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74:M77" si="0">ABS(C74-K74)</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74:N77" si="1">ABS(F74-L74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45278</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" s="2">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>34</v>
       </c>
-      <c r="H75" t="str" cm="1">
-        <f t="array" ref="H75">_xlfn.IFS(C75 &gt;= 0.85, "85  &lt;", AND(C75 &gt;=0.8, C75 &lt; 0.85), "80-85", AND(C75 &gt;= 0.7, C75 &lt; 0.8), "70-80", AND(C75 &gt;= 0.6, C75 &lt; 0.7),  "60-70", AND(C75 &gt;= 0.5, C75 &lt; 0.6), "50-60")</f>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="str" cm="1">
+        <f t="array" ref="J75">_xlfn.IFS(D75 &gt;= 0.85, "85  &lt;", AND(D75 &gt;=0.8, D75 &lt; 0.85), "80-85", AND(D75 &gt;= 0.7, D75 &lt; 0.8), "70-80", AND(D75 &gt;= 0.6, D75 &lt; 0.7),  "60-70", AND(D75 &gt;= 0.5, D75 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45278</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
         <v>0.58399999999999996</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" s="2">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>72</v>
       </c>
-      <c r="H76" t="str" cm="1">
-        <f t="array" ref="H76">_xlfn.IFS(C76 &gt;= 0.85, "85  &lt;", AND(C76 &gt;=0.8, C76 &lt; 0.85), "80-85", AND(C76 &gt;= 0.7, C76 &lt; 0.8), "70-80", AND(C76 &gt;= 0.6, C76 &lt; 0.7),  "60-70", AND(C76 &gt;= 0.5, C76 &lt; 0.6), "50-60")</f>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="str" cm="1">
+        <f t="array" ref="J76">_xlfn.IFS(D76 &gt;= 0.85, "85  &lt;", AND(D76 &gt;=0.8, D76 &lt; 0.85), "80-85", AND(D76 &gt;= 0.7, D76 &lt; 0.8), "70-80", AND(D76 &gt;= 0.6, D76 &lt; 0.7),  "60-70", AND(D76 &gt;= 0.5, D76 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45278</v>
       </c>
       <c r="B77" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2">
         <v>0.502</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2">
         <v>0.498</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>40</v>
       </c>
-      <c r="H77" t="str" cm="1">
-        <f t="array" ref="H77">_xlfn.IFS(C77 &gt;= 0.85, "85  &lt;", AND(C77 &gt;=0.8, C77 &lt; 0.85), "80-85", AND(C77 &gt;= 0.7, C77 &lt; 0.8), "70-80", AND(C77 &gt;= 0.6, C77 &lt; 0.7),  "60-70", AND(C77 &gt;= 0.5, C77 &lt; 0.6), "50-60")</f>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="str" cm="1">
+        <f t="array" ref="J77">_xlfn.IFS(D77 &gt;= 0.85, "85  &lt;", AND(D77 &gt;=0.8, D77 &lt; 0.85), "80-85", AND(D77 &gt;= 0.7, D77 &lt; 0.8), "70-80", AND(D77 &gt;= 0.6, D77 &lt; 0.7),  "60-70", AND(D77 &gt;= 0.5, D77 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C22:C35">
+  <conditionalFormatting sqref="D22:D35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4233,7 +6383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E35">
+  <conditionalFormatting sqref="G22:G35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD98BD5-8CF3-4A60-88EA-D53A9DBFC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E161E5-EEC2-44F9-8704-B218C3DC296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>Average of GA ABS Error</t>
+  </si>
+  <si>
+    <t>Used RF Model 3 - only 60 game location averages - poor results</t>
+  </si>
+  <si>
+    <t>Playing At:  Tampa Bay Lightning   Home</t>
+  </si>
+  <si>
+    <t>Switched to RF 4 Model - Location data back up to latest 82 games, general accuracy was 63%, above 70 was 72%</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,6 +661,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -814,7 +829,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -823,8 +838,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -885,71 +902,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.986818055557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-19T00:00:00"/>
-    </cacheField>
-    <cacheField name="Winner" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GF Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
-    </cacheField>
-    <cacheField name="Loser" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GA Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
-    </cacheField>
-    <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
-    </cacheField>
-    <cacheField name="Site" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Model" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="85 &lt;"/>
-        <s v="80-85"/>
-        <s v="70-80"/>
-        <s v="60-70"/>
-        <s v="50-60"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="GA ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.987060648149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="76" xr:uid="{BDF98BF0-8A81-4081-88AB-36B060A6E7CD}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N77" sheet="Predictions"/>
@@ -1012,8 +964,73 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45279.312514930556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-19T00:00:00"/>
+    </cacheField>
+    <cacheField name="Winner" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GF Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Winner Probability" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+    </cacheField>
+    <cacheField name="Loser" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GA Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Loser Probability" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="85 &lt;"/>
+        <s v="80-85"/>
+        <s v="70-80"/>
+        <s v="60-70"/>
+        <s v="50-60"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GF Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GA Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GF ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+    </cacheField>
+    <cacheField name="GA ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -2230,27 +2247,11 @@
     <n v="1"/>
     <n v="1"/>
   </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -3422,17 +3423,17 @@
   <r>
     <d v="2023-12-18T00:00:00"/>
     <s v="Florida Panthers"/>
-    <n v="3"/>
+    <n v="1"/>
     <n v="0.58599999999999997"/>
     <s v="Calgary Flames"/>
     <n v="3"/>
     <n v="0.41399999999999998"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="4"/>
     <n v="3"/>
     <n v="2"/>
-    <n v="0"/>
+    <n v="2"/>
     <n v="1"/>
   </r>
   <r>
@@ -3467,11 +3468,27 @@
     <n v="1"/>
     <n v="1"/>
   </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8474DBBF-D7BE-4FA8-9762-D31395D1F75C}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8474DBBF-D7BE-4FA8-9762-D31395D1F75C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3549,7 +3566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3928,14 +3945,14 @@
   <dimension ref="A3:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3961,10 +3978,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -3980,10 +3997,10 @@
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="5">
@@ -3999,10 +4016,10 @@
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" s="5">
@@ -4018,10 +4035,10 @@
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>14</v>
       </c>
       <c r="D7" s="5">
@@ -4036,15 +4053,15 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
-        <v>17</v>
+      <c r="C8">
+        <v>16</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.62962962962962965</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
@@ -4055,26 +4072,26 @@
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>76</v>
       </c>
-      <c r="C9" s="6">
-        <v>48</v>
+      <c r="C9">
+        <v>47</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.61842105263157898</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,24 +4109,24 @@
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4117,10 +4134,10 @@
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>0</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4128,10 +4145,10 @@
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -4139,10 +4156,10 @@
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>0.4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0.6</v>
       </c>
     </row>
@@ -4154,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5984,392 +6001,728 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
         <v>45277</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="9">
         <v>0.81</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="9">
         <v>0.19</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <v>1</v>
       </c>
-      <c r="J68" t="str" cm="1">
+      <c r="J68" s="8" t="str" cm="1">
         <f t="array" ref="J68">_xlfn.IFS(D68 &gt;= 0.85, "85  &lt;", AND(D68 &gt;=0.8, D68 &lt; 0.85), "80-85", AND(D68 &gt;= 0.7, D68 &lt; 0.8), "70-80", AND(D68 &gt;= 0.6, D68 &lt; 0.7),  "60-70", AND(D68 &gt;= 0.5, D68 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="K68" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>45277</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="9">
         <v>0.748</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="9">
         <v>0.252</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <v>1</v>
       </c>
-      <c r="J69" t="str" cm="1">
+      <c r="J69" s="8" t="str" cm="1">
         <f t="array" ref="J69">_xlfn.IFS(D69 &gt;= 0.85, "85  &lt;", AND(D69 &gt;=0.8, D69 &lt; 0.85), "80-85", AND(D69 &gt;= 0.7, D69 &lt; 0.8), "70-80", AND(D69 &gt;= 0.6, D69 &lt; 0.7),  "60-70", AND(D69 &gt;= 0.5, D69 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
         <v>45277</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="9">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="9">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <v>1</v>
       </c>
-      <c r="J70" t="str" cm="1">
+      <c r="J70" s="8" t="str" cm="1">
         <f t="array" ref="J70">_xlfn.IFS(D70 &gt;= 0.85, "85  &lt;", AND(D70 &gt;=0.8, D70 &lt; 0.85), "80-85", AND(D70 &gt;= 0.7, D70 &lt; 0.8), "70-80", AND(D70 &gt;= 0.6, D70 &lt; 0.7),  "60-70", AND(D70 &gt;= 0.5, D70 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
         <v>45277</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="9">
         <v>0.69399999999999995</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="9">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <v>0</v>
       </c>
-      <c r="J71" t="str" cm="1">
+      <c r="J71" s="8" t="str" cm="1">
         <f t="array" ref="J71">_xlfn.IFS(D71 &gt;= 0.85, "85  &lt;", AND(D71 &gt;=0.8, D71 &lt; 0.85), "80-85", AND(D71 &gt;= 0.7, D71 &lt; 0.8), "70-80", AND(D71 &gt;= 0.6, D71 &lt; 0.7),  "60-70", AND(D71 &gt;= 0.5, D71 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>45277</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="9">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="9">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="8">
         <v>0</v>
       </c>
-      <c r="J72" t="str" cm="1">
+      <c r="J72" s="8" t="str" cm="1">
         <f t="array" ref="J72">_xlfn.IFS(D72 &gt;= 0.85, "85  &lt;", AND(D72 &gt;=0.8, D72 &lt; 0.85), "80-85", AND(D72 &gt;= 0.7, D72 &lt; 0.8), "70-80", AND(D72 &gt;= 0.6, D72 &lt; 0.7),  "60-70", AND(D72 &gt;= 0.5, D72 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
         <v>45278</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="8">
         <v>3</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="9">
         <v>0.72</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="8">
         <v>3</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="8">
         <v>0</v>
       </c>
-      <c r="J73" t="str" cm="1">
+      <c r="J73" s="8" t="str" cm="1">
         <f t="array" ref="J73">_xlfn.IFS(D73 &gt;= 0.85, "85  &lt;", AND(D73 &gt;=0.8, D73 &lt; 0.85), "80-85", AND(D73 &gt;= 0.7, D73 &lt; 0.8), "70-80", AND(D73 &gt;= 0.6, D73 &lt; 0.7),  "60-70", AND(D73 &gt;= 0.5, D73 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="8">
         <v>2</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="8">
         <v>3</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="8">
         <f>ABS(C73-K73)</f>
         <v>1</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="8">
         <f>ABS(F73-L73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
         <v>45278</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="8">
         <v>4</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="9">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="8">
         <v>2</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="9">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="8">
         <v>1</v>
       </c>
-      <c r="J74" t="str" cm="1">
+      <c r="J74" s="8" t="str" cm="1">
         <f t="array" ref="J74">_xlfn.IFS(D74 &gt;= 0.85, "85  &lt;", AND(D74 &gt;=0.8, D74 &lt; 0.85), "80-85", AND(D74 &gt;= 0.7, D74 &lt; 0.8), "70-80", AND(D74 &gt;= 0.6, D74 &lt; 0.7),  "60-70", AND(D74 &gt;= 0.5, D74 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="8">
         <v>4</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="8">
         <v>3</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="8">
         <f t="shared" ref="M74:M77" si="0">ABS(C74-K74)</f>
         <v>0</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="8">
         <f t="shared" ref="N74:N77" si="1">ABS(F74-L74)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
         <v>45278</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="8">
         <v>3</v>
       </c>
-      <c r="D75" s="2">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="E75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75" s="2">
+      <c r="G75" s="9">
         <v>0.41399999999999998</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75" t="str" cm="1">
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8" t="str" cm="1">
         <f t="array" ref="J75">_xlfn.IFS(D75 &gt;= 0.85, "85  &lt;", AND(D75 &gt;=0.8, D75 &lt; 0.85), "80-85", AND(D75 &gt;= 0.7, D75 &lt; 0.8), "70-80", AND(D75 &gt;= 0.6, D75 &lt; 0.7),  "60-70", AND(D75 &gt;= 0.5, D75 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="8">
         <v>3</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="8">
         <v>2</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N75" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>45278</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="8">
+        <v>4</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="8">
+        <v>3</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76" s="8">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8" t="str" cm="1">
+        <f t="array" ref="J76">_xlfn.IFS(D76 &gt;= 0.85, "85  &lt;", AND(D76 &gt;=0.8, D76 &lt; 0.85), "80-85", AND(D76 &gt;= 0.7, D76 &lt; 0.8), "70-80", AND(D76 &gt;= 0.6, D76 &lt; 0.7),  "60-70", AND(D76 &gt;= 0.5, D76 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="K76" s="8">
+        <v>4</v>
+      </c>
+      <c r="L76" s="8">
+        <v>3</v>
+      </c>
+      <c r="M76" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N75">
+      <c r="N76" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>45278</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="8">
+        <v>4</v>
+      </c>
+      <c r="D77" s="9">
+        <v>0.502</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="8">
+        <v>3</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0.498</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
+      </c>
+      <c r="J77" s="8" t="str" cm="1">
+        <f t="array" ref="J77">_xlfn.IFS(D77 &gt;= 0.85, "85  &lt;", AND(D77 &gt;=0.8, D77 &lt; 0.85), "80-85", AND(D77 &gt;= 0.7, D77 &lt; 0.8), "70-80", AND(D77 &gt;= 0.6, D77 &lt; 0.7),  "60-70", AND(D77 &gt;= 0.5, D77 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="K77" s="8">
+        <v>3</v>
+      </c>
+      <c r="L77" s="8">
+        <v>4</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N77" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E78" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="D76" s="2">
+      <c r="G78" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" t="str" cm="1">
+        <f t="array" ref="J78">_xlfn.IFS(D78 &gt;= 0.85, "85  &lt;", AND(D78 &gt;=0.8, D78 &lt; 0.85), "80-85", AND(D78 &gt;= 0.7, D78 &lt; 0.8), "70-80", AND(D78 &gt;= 0.6, D78 &lt; 0.7),  "60-70", AND(D78 &gt;= 0.5, D78 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+      <c r="K78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="str" cm="1">
+        <f t="array" ref="J79">_xlfn.IFS(D79 &gt;= 0.85, "85  &lt;", AND(D79 &gt;=0.8, D79 &lt; 0.85), "80-85", AND(D79 &gt;= 0.7, D79 &lt; 0.8), "70-80", AND(D79 &gt;= 0.6, D79 &lt; 0.7),  "60-70", AND(D79 &gt;= 0.5, D79 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H80" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" t="str" cm="1">
+        <f t="array" ref="J80">_xlfn.IFS(D80 &gt;= 0.85, "85  &lt;", AND(D80 &gt;=0.8, D80 &lt; 0.85), "80-85", AND(D80 &gt;= 0.7, D80 &lt; 0.8), "70-80", AND(D80 &gt;= 0.6, D80 &lt; 0.7),  "60-70", AND(D80 &gt;= 0.5, D80 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" t="str" cm="1">
+        <f t="array" ref="J81">_xlfn.IFS(D81 &gt;= 0.85, "85  &lt;", AND(D81 &gt;=0.8, D81 &lt; 0.85), "80-85", AND(D81 &gt;= 0.7, D81 &lt; 0.8), "70-80", AND(D81 &gt;= 0.6, D81 &lt; 0.7),  "60-70", AND(D81 &gt;= 0.5, D81 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H82" t="s">
+        <v>68</v>
+      </c>
+      <c r="J82" t="str" cm="1">
+        <f t="array" ref="J82">_xlfn.IFS(D82 &gt;= 0.85, "85  &lt;", AND(D82 &gt;=0.8, D82 &lt; 0.85), "80-85", AND(D82 &gt;= 0.7, D82 &lt; 0.8), "70-80", AND(D82 &gt;= 0.6, D82 &lt; 0.7),  "60-70", AND(D82 &gt;= 0.5, D82 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" t="str" cm="1">
+        <f t="array" ref="J83">_xlfn.IFS(D83 &gt;= 0.85, "85  &lt;", AND(D83 &gt;=0.8, D83 &lt; 0.85), "80-85", AND(D83 &gt;= 0.7, D83 &lt; 0.8), "70-80", AND(D83 &gt;= 0.6, D83 &lt; 0.7),  "60-70", AND(D83 &gt;= 0.5, D83 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="J84" t="str" cm="1">
+        <f t="array" ref="J84">_xlfn.IFS(D84 &gt;= 0.85, "85  &lt;", AND(D84 &gt;=0.8, D84 &lt; 0.85), "80-85", AND(D84 &gt;= 0.7, D84 &lt; 0.8), "70-80", AND(D84 &gt;= 0.6, D84 &lt; 0.7),  "60-70", AND(D84 &gt;= 0.5, D84 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" t="str" cm="1">
+        <f t="array" ref="J85">_xlfn.IFS(D85 &gt;= 0.85, "85  &lt;", AND(D85 &gt;=0.8, D85 &lt; 0.85), "80-85", AND(D85 &gt;= 0.7, D85 &lt; 0.8), "70-80", AND(D85 &gt;= 0.6, D85 &lt; 0.7),  "60-70", AND(D85 &gt;= 0.5, D85 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E76" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76">
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" t="str" cm="1">
+        <f t="array" ref="J86">_xlfn.IFS(D86 &gt;= 0.85, "85  &lt;", AND(D86 &gt;=0.8, D86 &lt; 0.85), "80-85", AND(D86 &gt;= 0.7, D86 &lt; 0.8), "70-80", AND(D86 &gt;= 0.6, D86 &lt; 0.7),  "60-70", AND(D86 &gt;= 0.5, D86 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87">
         <v>3</v>
       </c>
-      <c r="G76" s="2">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="H76" t="s">
-        <v>72</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76" t="str" cm="1">
-        <f t="array" ref="J76">_xlfn.IFS(D76 &gt;= 0.85, "85  &lt;", AND(D76 &gt;=0.8, D76 &lt; 0.85), "80-85", AND(D76 &gt;= 0.7, D76 &lt; 0.8), "70-80", AND(D76 &gt;= 0.6, D76 &lt; 0.7),  "60-70", AND(D76 &gt;= 0.5, D76 &lt; 0.6), "50-60")</f>
+      <c r="G87" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="H87" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87" t="str" cm="1">
+        <f t="array" ref="J87">_xlfn.IFS(D87 &gt;= 0.85, "85  &lt;", AND(D87 &gt;=0.8, D87 &lt; 0.85), "80-85", AND(D87 &gt;= 0.7, D87 &lt; 0.8), "70-80", AND(D87 &gt;= 0.6, D87 &lt; 0.7),  "60-70", AND(D87 &gt;= 0.5, D87 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K76">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88">
         <v>4</v>
       </c>
-      <c r="L76">
-        <v>3</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="E77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77" s="2">
-        <v>0.498</v>
-      </c>
-      <c r="H77" t="s">
-        <v>40</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" t="str" cm="1">
-        <f t="array" ref="J77">_xlfn.IFS(D77 &gt;= 0.85, "85  &lt;", AND(D77 &gt;=0.8, D77 &lt; 0.85), "80-85", AND(D77 &gt;= 0.7, D77 &lt; 0.8), "70-80", AND(D77 &gt;= 0.6, D77 &lt; 0.7),  "60-70", AND(D77 &gt;= 0.5, D77 &lt; 0.6), "50-60")</f>
+      <c r="G88" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H88" t="s">
+        <v>80</v>
+      </c>
+      <c r="J88" t="str" cm="1">
+        <f t="array" ref="J88">_xlfn.IFS(D88 &gt;= 0.85, "85  &lt;", AND(D88 &gt;=0.8, D88 &lt; 0.85), "80-85", AND(D88 &gt;= 0.7, D88 &lt; 0.8), "70-80", AND(D88 &gt;= 0.6, D88 &lt; 0.7),  "60-70", AND(D88 &gt;= 0.5, D88 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77">
-        <v>4</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E161E5-EEC2-44F9-8704-B218C3DC296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3777ED-2B0F-4FD9-A80D-8A953C9B96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>Playing At:  Tampa Bay Lightning   Home</t>
-  </si>
-  <si>
-    <t>Switched to RF 4 Model - Location data back up to latest 82 games, general accuracy was 63%, above 70 was 72%</t>
   </si>
 </sst>
 </file>
@@ -829,7 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -842,6 +839,8 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -965,19 +964,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45279.312514930556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45280.368018518522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="88" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-19T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-20T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="GF Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
@@ -986,7 +985,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="GA Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
@@ -1008,16 +1007,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
     </cacheField>
     <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="2"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
     </cacheField>
     <cacheField name="GA ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
     <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
   </cacheFields>
@@ -2251,7 +2250,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -3319,7 +3318,7 @@
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
     <x v="1"/>
-    <m/>
+    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
     <m/>
     <m/>
     <m/>
@@ -3467,6 +3466,182 @@
     <n v="4"/>
     <n v="1"/>
     <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="2"/>
+    <n v="0.84399999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.156"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="2"/>
+    <n v="0.80200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="5"/>
+    <n v="0.72199999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="2"/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.67400000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.63200000000000001"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="3"/>
+    <n v="0.61399999999999999"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="2"/>
+    <n v="0.60399999999999998"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.58399999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="4"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.56000000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="3"/>
+    <n v="0.44"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.54800000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="4"/>
+    <n v="0.45200000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <m/>
@@ -3566,7 +3741,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3945,14 +4120,14 @@
   <dimension ref="A3:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3978,10 +4153,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -3990,60 +4165,60 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
+      <c r="B6" s="11">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11">
+        <v>12</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="F6" s="5">
         <f>F5/F4</f>
-        <v>0.65384615384615385</v>
+        <v>0.65517241379310343</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
+      <c r="B7" s="11">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11">
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.60869565217391308</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -4053,45 +4228,45 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="11">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11">
         <v>16</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.59259259259259256</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <v>76</v>
-      </c>
-      <c r="C9">
-        <v>47</v>
+      <c r="B9" s="11">
+        <v>87</v>
+      </c>
+      <c r="C9" s="11">
+        <v>50</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.61842105263157898</v>
+        <v>0.57471264367816088</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.6</v>
+        <v>0.53448275862068961</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,15 +4346,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -6243,11 +6418,11 @@
         <v>3</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" ref="M74:M77" si="0">ABS(C74-K74)</f>
+        <f t="shared" ref="M74:M91" si="0">ABS(C74-K74)</f>
         <v>0</v>
       </c>
       <c r="N74" s="8">
-        <f t="shared" ref="N74:N77" si="1">ABS(F74-L74)</f>
+        <f t="shared" ref="N74:N91" si="1">ABS(F74-L74)</f>
         <v>1</v>
       </c>
     </row>
@@ -6417,12 +6592,26 @@
       <c r="H78" t="s">
         <v>67</v>
       </c>
-      <c r="J78" t="str" cm="1">
+      <c r="I78" s="10">
+        <v>1</v>
+      </c>
+      <c r="J78" s="10" t="str" cm="1">
         <f t="array" ref="J78">_xlfn.IFS(D78 &gt;= 0.85, "85  &lt;", AND(D78 &gt;=0.8, D78 &lt; 0.85), "80-85", AND(D78 &gt;= 0.7, D78 &lt; 0.8), "70-80", AND(D78 &gt;= 0.6, D78 &lt; 0.7),  "60-70", AND(D78 &gt;= 0.5, D78 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K78" t="s">
-        <v>92</v>
+      <c r="K78" s="10">
+        <v>4</v>
+      </c>
+      <c r="L78" s="10">
+        <v>1</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -6450,9 +6639,26 @@
       <c r="H79" t="s">
         <v>17</v>
       </c>
-      <c r="J79" t="str" cm="1">
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10" t="str" cm="1">
         <f t="array" ref="J79">_xlfn.IFS(D79 &gt;= 0.85, "85  &lt;", AND(D79 &gt;=0.8, D79 &lt; 0.85), "80-85", AND(D79 &gt;= 0.7, D79 &lt; 0.8), "70-80", AND(D79 &gt;= 0.6, D79 &lt; 0.7),  "60-70", AND(D79 &gt;= 0.5, D79 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
+      </c>
+      <c r="K79" s="10">
+        <v>2</v>
+      </c>
+      <c r="L79" s="10">
+        <v>3</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -6480,12 +6686,29 @@
       <c r="H80" t="s">
         <v>91</v>
       </c>
-      <c r="J80" t="str" cm="1">
+      <c r="I80" s="10">
+        <v>1</v>
+      </c>
+      <c r="J80" s="10" t="str" cm="1">
         <f t="array" ref="J80">_xlfn.IFS(D80 &gt;= 0.85, "85  &lt;", AND(D80 &gt;=0.8, D80 &lt; 0.85), "80-85", AND(D80 &gt;= 0.7, D80 &lt; 0.8), "70-80", AND(D80 &gt;= 0.6, D80 &lt; 0.7),  "60-70", AND(D80 &gt;= 0.5, D80 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="10">
+        <v>6</v>
+      </c>
+      <c r="L80" s="10">
+        <v>1</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45279</v>
       </c>
@@ -6510,12 +6733,29 @@
       <c r="H81" t="s">
         <v>8</v>
       </c>
-      <c r="J81" t="str" cm="1">
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10" t="str" cm="1">
         <f t="array" ref="J81">_xlfn.IFS(D81 &gt;= 0.85, "85  &lt;", AND(D81 &gt;=0.8, D81 &lt; 0.85), "80-85", AND(D81 &gt;= 0.7, D81 &lt; 0.8), "70-80", AND(D81 &gt;= 0.6, D81 &lt; 0.7),  "60-70", AND(D81 &gt;= 0.5, D81 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="10">
+        <v>3</v>
+      </c>
+      <c r="L81" s="10">
+        <v>4</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45279</v>
       </c>
@@ -6540,12 +6780,29 @@
       <c r="H82" t="s">
         <v>68</v>
       </c>
-      <c r="J82" t="str" cm="1">
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10" t="str" cm="1">
         <f t="array" ref="J82">_xlfn.IFS(D82 &gt;= 0.85, "85  &lt;", AND(D82 &gt;=0.8, D82 &lt; 0.85), "80-85", AND(D82 &gt;= 0.7, D82 &lt; 0.8), "70-80", AND(D82 &gt;= 0.6, D82 &lt; 0.7),  "60-70", AND(D82 &gt;= 0.5, D82 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="10">
+        <v>2</v>
+      </c>
+      <c r="L82" s="10">
+        <v>5</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45279</v>
       </c>
@@ -6570,12 +6827,29 @@
       <c r="H83" t="s">
         <v>73</v>
       </c>
-      <c r="J83" t="str" cm="1">
+      <c r="I83" s="10">
+        <v>0</v>
+      </c>
+      <c r="J83" s="10" t="str" cm="1">
         <f t="array" ref="J83">_xlfn.IFS(D83 &gt;= 0.85, "85  &lt;", AND(D83 &gt;=0.8, D83 &lt; 0.85), "80-85", AND(D83 &gt;= 0.7, D83 &lt; 0.8), "70-80", AND(D83 &gt;= 0.6, D83 &lt; 0.7),  "60-70", AND(D83 &gt;= 0.5, D83 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="10">
+        <v>2</v>
+      </c>
+      <c r="L83" s="10">
+        <v>3</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45279</v>
       </c>
@@ -6600,12 +6874,29 @@
       <c r="H84" t="s">
         <v>79</v>
       </c>
-      <c r="J84" t="str" cm="1">
+      <c r="I84" s="10">
+        <v>1</v>
+      </c>
+      <c r="J84" s="10" t="str" cm="1">
         <f t="array" ref="J84">_xlfn.IFS(D84 &gt;= 0.85, "85  &lt;", AND(D84 &gt;=0.8, D84 &lt; 0.85), "80-85", AND(D84 &gt;= 0.7, D84 &lt; 0.8), "70-80", AND(D84 &gt;= 0.6, D84 &lt; 0.7),  "60-70", AND(D84 &gt;= 0.5, D84 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="10">
+        <v>6</v>
+      </c>
+      <c r="L84" s="10">
+        <v>3</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N84" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45279</v>
       </c>
@@ -6630,12 +6921,29 @@
       <c r="H85" t="s">
         <v>23</v>
       </c>
-      <c r="J85" t="str" cm="1">
+      <c r="I85" s="10">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10" t="str" cm="1">
         <f t="array" ref="J85">_xlfn.IFS(D85 &gt;= 0.85, "85  &lt;", AND(D85 &gt;=0.8, D85 &lt; 0.85), "80-85", AND(D85 &gt;= 0.7, D85 &lt; 0.8), "70-80", AND(D85 &gt;= 0.6, D85 &lt; 0.7),  "60-70", AND(D85 &gt;= 0.5, D85 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="10">
+        <v>2</v>
+      </c>
+      <c r="L85" s="10">
+        <v>5</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45279</v>
       </c>
@@ -6660,12 +6968,29 @@
       <c r="H86" t="s">
         <v>43</v>
       </c>
-      <c r="J86" t="str" cm="1">
+      <c r="I86" s="10">
+        <v>0</v>
+      </c>
+      <c r="J86" s="10" t="str" cm="1">
         <f t="array" ref="J86">_xlfn.IFS(D86 &gt;= 0.85, "85  &lt;", AND(D86 &gt;=0.8, D86 &lt; 0.85), "80-85", AND(D86 &gt;= 0.7, D86 &lt; 0.8), "70-80", AND(D86 &gt;= 0.6, D86 &lt; 0.7),  "60-70", AND(D86 &gt;= 0.5, D86 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="10">
+        <v>1</v>
+      </c>
+      <c r="L86" s="10">
+        <v>3</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N86" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45279</v>
       </c>
@@ -6690,12 +7015,29 @@
       <c r="H87" t="s">
         <v>49</v>
       </c>
-      <c r="J87" t="str" cm="1">
+      <c r="I87" s="10">
+        <v>0</v>
+      </c>
+      <c r="J87" s="10" t="str" cm="1">
         <f t="array" ref="J87">_xlfn.IFS(D87 &gt;= 0.85, "85  &lt;", AND(D87 &gt;=0.8, D87 &lt; 0.85), "80-85", AND(D87 &gt;= 0.7, D87 &lt; 0.8), "70-80", AND(D87 &gt;= 0.6, D87 &lt; 0.7),  "60-70", AND(D87 &gt;= 0.5, D87 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="10">
+        <v>4</v>
+      </c>
+      <c r="L87" s="10">
+        <v>9</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45279</v>
       </c>
@@ -6720,9 +7062,140 @@
       <c r="H88" t="s">
         <v>80</v>
       </c>
-      <c r="J88" t="str" cm="1">
+      <c r="I88" s="10">
+        <v>0</v>
+      </c>
+      <c r="J88" s="10" t="str" cm="1">
         <f t="array" ref="J88">_xlfn.IFS(D88 &gt;= 0.85, "85  &lt;", AND(D88 &gt;=0.8, D88 &lt; 0.85), "80-85", AND(D88 &gt;= 0.7, D88 &lt; 0.8), "70-80", AND(D88 &gt;= 0.6, D88 &lt; 0.7),  "60-70", AND(D88 &gt;= 0.5, D88 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+      <c r="K88" s="10">
+        <v>3</v>
+      </c>
+      <c r="L88" s="10">
+        <v>4</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="H89" t="s">
+        <v>81</v>
+      </c>
+      <c r="J89" s="10" t="str" cm="1">
+        <f t="array" ref="J89">_xlfn.IFS(D89 &gt;= 0.85, "85  &lt;", AND(D89 &gt;=0.8, D89 &lt; 0.85), "80-85", AND(D89 &gt;= 0.7, D89 &lt; 0.8), "70-80", AND(D89 &gt;= 0.6, D89 &lt; 0.7),  "60-70", AND(D89 &gt;= 0.5, D89 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N89" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" s="10" t="str" cm="1">
+        <f t="array" ref="J90">_xlfn.IFS(D90 &gt;= 0.85, "85  &lt;", AND(D90 &gt;=0.8, D90 &lt; 0.85), "80-85", AND(D90 &gt;= 0.7, D90 &lt; 0.8), "70-80", AND(D90 &gt;= 0.6, D90 &lt; 0.7),  "60-70", AND(D90 &gt;= 0.5, D90 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N90" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="10" t="str" cm="1">
+        <f t="array" ref="J91">_xlfn.IFS(D91 &gt;= 0.85, "85  &lt;", AND(D91 &gt;=0.8, D91 &lt; 0.85), "80-85", AND(D91 &gt;= 0.7, D91 &lt; 0.8), "70-80", AND(D91 &gt;= 0.6, D91 &lt; 0.7),  "60-70", AND(D91 &gt;= 0.5, D91 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N91" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3777ED-2B0F-4FD9-A80D-8A953C9B96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973C76B6-74E0-4590-A9EF-D3764BECCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -336,6 +335,12 @@
   </si>
   <si>
     <t>Playing At:  Tampa Bay Lightning   Home</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Playing At:  Florida Panthers   Home</t>
   </si>
 </sst>
 </file>
@@ -826,7 +831,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -839,7 +844,6 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -901,76 +905,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45278.987060648149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="76" xr:uid="{BDF98BF0-8A81-4081-88AB-36B060A6E7CD}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N77" sheet="Predictions"/>
-  </cacheSource>
-  <cacheFields count="14">
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-12-09T00:00:00" maxDate="2023-12-19T00:00:00"/>
-    </cacheField>
-    <cacheField name="Winner" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="GF Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Winner Probability" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.502" maxValue="0.876"/>
-    </cacheField>
-    <cacheField name="Loser" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="GA Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
-    </cacheField>
-    <cacheField name="Loser Probability" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.124" maxValue="0.498"/>
-    </cacheField>
-    <cacheField name="Site" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Model" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="5">
-        <s v="85 &lt;"/>
-        <s v="80-85"/>
-        <s v="70-80"/>
-        <s v="60-70"/>
-        <s v="50-60"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="GA ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45280.368018518522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="88" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45281.366735763891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="103" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-20T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-22T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1013,7 +954,7 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
     </cacheField>
     <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
     </cacheField>
     <cacheField name="GA ABS Error" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
@@ -1029,7 +970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="103">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -2097,7 +2038,7 @@
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
     <x v="1"/>
-    <m/>
+    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
     <m/>
     <m/>
     <m/>
@@ -2201,1227 +2142,6 @@
   <r>
     <d v="2023-12-18T00:00:00"/>
     <s v="Florida Panthers"/>
-    <n v="3"/>
-    <n v="0.58599999999999997"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.41399999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="4"/>
-    <n v="0.58399999999999996"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.502"/>
-    <s v="Anaheim Ducks"/>
-    <n v="3"/>
-    <n v="0.498"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.876"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.124"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.85"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.15"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.79800000000000004"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.20200000000000001"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.71199999999999997"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.64200000000000002"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.87"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.13"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82199999999999995"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.17799999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.80200000000000005"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.70199999999999996"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.69"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.31"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.60199999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.68799999999999994"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.312"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.502"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.498"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82399999999999995"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.17599999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.68200000000000005"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.318"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.68"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.32"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.65200000000000002"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57199999999999995"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.42799999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.56200000000000006"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.438"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.51600000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.48399999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.73"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.27"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.54200000000000004"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.75800000000000001"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.72399999999999998"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.27600000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.71"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.28999999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.50800000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.49199999999999999"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.72199999999999998"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.67800000000000005"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.32200000000000001"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.67400000000000004"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.65600000000000003"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.34399999999999997"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.628"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.372"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.61"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.39"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.59199999999999997"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.40799999999999997"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.56599999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.434"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.55200000000000005"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.44800000000000001"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.504"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.496"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.748"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.252"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.69399999999999995"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.30599999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <s v="GF Prediction"/>
-    <n v="0.57399999999999995"/>
-    <s v="Anaheim Ducks"/>
-    <s v="GA Prediction"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <s v="GF Actual"/>
-    <s v="GA Actual"/>
-    <s v="GF ABS Error"/>
-    <s v="GA ABS Error"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.72"/>
-    <s v="Montreal Canadiens"/>
-    <n v="3"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.67400000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="2"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Florida Panthers"/>
     <n v="1"/>
     <n v="0.58599999999999997"/>
     <s v="Calgary Flames"/>
@@ -3644,6 +2364,246 @@
     <n v="0"/>
   </r>
   <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.71199999999999997"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.66600000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="2"/>
+    <n v="0.55400000000000005"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="4"/>
+    <n v="0.80400000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.75"/>
+    <s v="St. Louis Blues"/>
+    <n v="3"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="2"/>
+    <n v="0.72"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.71599999999999997"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.70799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.66800000000000004"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.33200000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.63400000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36599999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.622"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.52"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.48"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.51800000000000002"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.48199999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="3"/>
+    <n v="0.51400000000000001"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -3663,9 +2623,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8474DBBF-D7BE-4FA8-9762-D31395D1F75C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3676,7 +2636,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="6">
+      <items count="7">
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3689,11 +2650,12 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -3708,6 +2670,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -3741,7 +2706,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -4117,17 +3082,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F23"/>
+  <dimension ref="A3:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4153,10 +3118,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -4165,60 +3130,60 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="11">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
+      <c r="B5" s="10">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="11">
-        <v>19</v>
-      </c>
-      <c r="C6" s="11">
-        <v>12</v>
+      <c r="B6" s="10">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
+        <v>17</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F6" s="5">
         <f>F5/F4</f>
-        <v>0.65517241379310343</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="11">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11">
-        <v>15</v>
+      <c r="B7" s="10">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10">
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.5357142857142857</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -4228,45 +3193,45 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="11">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11">
-        <v>16</v>
+      <c r="B8" s="10">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10">
+        <v>17</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="11">
-        <v>87</v>
-      </c>
-      <c r="C9" s="11">
-        <v>50</v>
+      <c r="B9" s="10">
+        <v>102</v>
+      </c>
+      <c r="C9" s="10">
+        <v>58</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.57471264367816088</v>
+        <v>0.56862745098039214</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.53448275862068961</v>
+        <v>0.4925373134328358</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,60 +3247,71 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="C21" s="6">
-        <v>1</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6">
-        <v>0.33333333333333331</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="C22" s="6">
-        <v>0.66666666666666663</v>
+        <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.6</v>
+      <c r="B24" s="6">
+        <v>1.8709677419354838</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4346,16 +3322,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -6418,11 +5394,11 @@
         <v>3</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" ref="M74:M91" si="0">ABS(C74-K74)</f>
+        <f t="shared" ref="M74:M103" si="0">ABS(C74-K74)</f>
         <v>0</v>
       </c>
       <c r="N74" s="8">
-        <f t="shared" ref="N74:N91" si="1">ABS(F74-L74)</f>
+        <f t="shared" ref="N74:N103" si="1">ABS(F74-L74)</f>
         <v>1</v>
       </c>
     </row>
@@ -6592,24 +5568,24 @@
       <c r="H78" t="s">
         <v>67</v>
       </c>
-      <c r="I78" s="10">
-        <v>1</v>
-      </c>
-      <c r="J78" s="10" t="str" cm="1">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="str" cm="1">
         <f t="array" ref="J78">_xlfn.IFS(D78 &gt;= 0.85, "85  &lt;", AND(D78 &gt;=0.8, D78 &lt; 0.85), "80-85", AND(D78 &gt;= 0.7, D78 &lt; 0.8), "70-80", AND(D78 &gt;= 0.6, D78 &lt; 0.7),  "60-70", AND(D78 &gt;= 0.5, D78 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78">
         <v>4</v>
       </c>
-      <c r="L78" s="10">
-        <v>1</v>
-      </c>
-      <c r="M78" s="10">
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N78" s="10">
+      <c r="N78">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6639,24 +5615,24 @@
       <c r="H79" t="s">
         <v>17</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="10" t="str" cm="1">
+      <c r="J79" t="str" cm="1">
         <f t="array" ref="J79">_xlfn.IFS(D79 &gt;= 0.85, "85  &lt;", AND(D79 &gt;=0.8, D79 &lt; 0.85), "80-85", AND(D79 &gt;= 0.7, D79 &lt; 0.8), "70-80", AND(D79 &gt;= 0.6, D79 &lt; 0.7),  "60-70", AND(D79 &gt;= 0.5, D79 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79">
         <v>2</v>
       </c>
-      <c r="L79" s="10">
+      <c r="L79">
         <v>3</v>
       </c>
-      <c r="M79" s="10">
+      <c r="M79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N79" s="10">
+      <c r="N79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6686,24 +5662,24 @@
       <c r="H80" t="s">
         <v>91</v>
       </c>
-      <c r="I80" s="10">
-        <v>1</v>
-      </c>
-      <c r="J80" s="10" t="str" cm="1">
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="str" cm="1">
         <f t="array" ref="J80">_xlfn.IFS(D80 &gt;= 0.85, "85  &lt;", AND(D80 &gt;=0.8, D80 &lt; 0.85), "80-85", AND(D80 &gt;= 0.7, D80 &lt; 0.8), "70-80", AND(D80 &gt;= 0.6, D80 &lt; 0.7),  "60-70", AND(D80 &gt;= 0.5, D80 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80">
         <v>6</v>
       </c>
-      <c r="L80" s="10">
-        <v>1</v>
-      </c>
-      <c r="M80" s="10">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N80" s="10">
+      <c r="N80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6733,24 +5709,24 @@
       <c r="H81" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" s="10" t="str" cm="1">
+      <c r="J81" t="str" cm="1">
         <f t="array" ref="J81">_xlfn.IFS(D81 &gt;= 0.85, "85  &lt;", AND(D81 &gt;=0.8, D81 &lt; 0.85), "80-85", AND(D81 &gt;= 0.7, D81 &lt; 0.8), "70-80", AND(D81 &gt;= 0.6, D81 &lt; 0.7),  "60-70", AND(D81 &gt;= 0.5, D81 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K81">
         <v>3</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81">
         <v>4</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N81">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6780,24 +5756,24 @@
       <c r="H82" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" s="10" t="str" cm="1">
+      <c r="J82" t="str" cm="1">
         <f t="array" ref="J82">_xlfn.IFS(D82 &gt;= 0.85, "85  &lt;", AND(D82 &gt;=0.8, D82 &lt; 0.85), "80-85", AND(D82 &gt;= 0.7, D82 &lt; 0.8), "70-80", AND(D82 &gt;= 0.6, D82 &lt; 0.7),  "60-70", AND(D82 &gt;= 0.5, D82 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K82">
         <v>2</v>
       </c>
-      <c r="L82" s="10">
+      <c r="L82">
         <v>5</v>
       </c>
-      <c r="M82" s="10">
+      <c r="M82">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N82" s="10">
+      <c r="N82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6827,24 +5803,24 @@
       <c r="H83" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="10" t="str" cm="1">
+      <c r="J83" t="str" cm="1">
         <f t="array" ref="J83">_xlfn.IFS(D83 &gt;= 0.85, "85  &lt;", AND(D83 &gt;=0.8, D83 &lt; 0.85), "80-85", AND(D83 &gt;= 0.7, D83 &lt; 0.8), "70-80", AND(D83 &gt;= 0.6, D83 &lt; 0.7),  "60-70", AND(D83 &gt;= 0.5, D83 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83">
         <v>2</v>
       </c>
-      <c r="L83" s="10">
+      <c r="L83">
         <v>3</v>
       </c>
-      <c r="M83" s="10">
+      <c r="M83">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N83" s="10">
+      <c r="N83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6874,24 +5850,24 @@
       <c r="H84" t="s">
         <v>79</v>
       </c>
-      <c r="I84" s="10">
-        <v>1</v>
-      </c>
-      <c r="J84" s="10" t="str" cm="1">
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="str" cm="1">
         <f t="array" ref="J84">_xlfn.IFS(D84 &gt;= 0.85, "85  &lt;", AND(D84 &gt;=0.8, D84 &lt; 0.85), "80-85", AND(D84 &gt;= 0.7, D84 &lt; 0.8), "70-80", AND(D84 &gt;= 0.6, D84 &lt; 0.7),  "60-70", AND(D84 &gt;= 0.5, D84 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K84">
         <v>6</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84">
         <v>3</v>
       </c>
-      <c r="M84" s="10">
+      <c r="M84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N84" s="10">
+      <c r="N84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6921,24 +5897,24 @@
       <c r="H85" t="s">
         <v>23</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="10" t="str" cm="1">
+      <c r="J85" t="str" cm="1">
         <f t="array" ref="J85">_xlfn.IFS(D85 &gt;= 0.85, "85  &lt;", AND(D85 &gt;=0.8, D85 &lt; 0.85), "80-85", AND(D85 &gt;= 0.7, D85 &lt; 0.8), "70-80", AND(D85 &gt;= 0.6, D85 &lt; 0.7),  "60-70", AND(D85 &gt;= 0.5, D85 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85">
         <v>2</v>
       </c>
-      <c r="L85" s="10">
+      <c r="L85">
         <v>5</v>
       </c>
-      <c r="M85" s="10">
+      <c r="M85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N85" s="10">
+      <c r="N85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6968,24 +5944,24 @@
       <c r="H86" t="s">
         <v>43</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="10" t="str" cm="1">
+      <c r="J86" t="str" cm="1">
         <f t="array" ref="J86">_xlfn.IFS(D86 &gt;= 0.85, "85  &lt;", AND(D86 &gt;=0.8, D86 &lt; 0.85), "80-85", AND(D86 &gt;= 0.7, D86 &lt; 0.8), "70-80", AND(D86 &gt;= 0.6, D86 &lt; 0.7),  "60-70", AND(D86 &gt;= 0.5, D86 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K86" s="10">
-        <v>1</v>
-      </c>
-      <c r="L86" s="10">
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
         <v>3</v>
       </c>
-      <c r="M86" s="10">
+      <c r="M86">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N86" s="10">
+      <c r="N86">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7015,24 +5991,24 @@
       <c r="H87" t="s">
         <v>49</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="10" t="str" cm="1">
+      <c r="J87" t="str" cm="1">
         <f t="array" ref="J87">_xlfn.IFS(D87 &gt;= 0.85, "85  &lt;", AND(D87 &gt;=0.8, D87 &lt; 0.85), "80-85", AND(D87 &gt;= 0.7, D87 &lt; 0.8), "70-80", AND(D87 &gt;= 0.6, D87 &lt; 0.7),  "60-70", AND(D87 &gt;= 0.5, D87 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K87">
         <v>4</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L87">
         <v>9</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N87">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -7062,24 +6038,24 @@
       <c r="H88" t="s">
         <v>80</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="10" t="str" cm="1">
+      <c r="J88" t="str" cm="1">
         <f t="array" ref="J88">_xlfn.IFS(D88 &gt;= 0.85, "85  &lt;", AND(D88 &gt;=0.8, D88 &lt; 0.85), "80-85", AND(D88 &gt;= 0.7, D88 &lt; 0.8), "70-80", AND(D88 &gt;= 0.6, D88 &lt; 0.7),  "60-70", AND(D88 &gt;= 0.5, D88 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K88">
         <v>3</v>
       </c>
-      <c r="L88" s="10">
+      <c r="L88">
         <v>4</v>
       </c>
-      <c r="M88" s="10">
+      <c r="M88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N88" s="10">
+      <c r="N88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7109,17 +6085,26 @@
       <c r="H89" t="s">
         <v>81</v>
       </c>
-      <c r="J89" s="10" t="str" cm="1">
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="str" cm="1">
         <f t="array" ref="J89">_xlfn.IFS(D89 &gt;= 0.85, "85  &lt;", AND(D89 &gt;=0.8, D89 &lt; 0.85), "80-85", AND(D89 &gt;= 0.7, D89 &lt; 0.8), "70-80", AND(D89 &gt;= 0.6, D89 &lt; 0.7),  "60-70", AND(D89 &gt;= 0.5, D89 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="M89" s="10">
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N89" s="10">
+        <v>2</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -7147,17 +6132,26 @@
       <c r="H90" t="s">
         <v>74</v>
       </c>
-      <c r="J90" s="10" t="str" cm="1">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="str" cm="1">
         <f t="array" ref="J90">_xlfn.IFS(D90 &gt;= 0.85, "85  &lt;", AND(D90 &gt;=0.8, D90 &lt; 0.85), "80-85", AND(D90 &gt;= 0.7, D90 &lt; 0.8), "70-80", AND(D90 &gt;= 0.6, D90 &lt; 0.7),  "60-70", AND(D90 &gt;= 0.5, D90 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="M90" s="10">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N90" s="10">
+        <v>2</v>
+      </c>
+      <c r="N90">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -7185,15 +6179,480 @@
       <c r="H91" t="s">
         <v>29</v>
       </c>
-      <c r="J91" s="10" t="str" cm="1">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="str" cm="1">
         <f t="array" ref="J91">_xlfn.IFS(D91 &gt;= 0.85, "85  &lt;", AND(D91 &gt;=0.8, D91 &lt; 0.85), "80-85", AND(D91 &gt;= 0.7, D91 &lt; 0.8), "70-80", AND(D91 &gt;= 0.6, D91 &lt; 0.7),  "60-70", AND(D91 &gt;= 0.5, D91 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="M91" s="10">
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" t="str" cm="1">
+        <f t="array" ref="J92">_xlfn.IFS(D92 &gt;= 0.85, "85  &lt;", AND(D92 &gt;=0.8, D92 &lt; 0.85), "80-85", AND(D92 &gt;= 0.7, D92 &lt; 0.8), "70-80", AND(D92 &gt;= 0.6, D92 &lt; 0.7),  "60-70", AND(D92 &gt;= 0.5, D92 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H93" t="s">
+        <v>93</v>
+      </c>
+      <c r="J93" t="str" cm="1">
+        <f t="array" ref="J93">_xlfn.IFS(D93 &gt;= 0.85, "85  &lt;", AND(D93 &gt;=0.8, D93 &lt; 0.85), "80-85", AND(D93 &gt;= 0.7, D93 &lt; 0.8), "70-80", AND(D93 &gt;= 0.6, D93 &lt; 0.7),  "60-70", AND(D93 &gt;= 0.5, D93 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H94" t="s">
+        <v>67</v>
+      </c>
+      <c r="J94" t="str" cm="1">
+        <f t="array" ref="J94">_xlfn.IFS(D94 &gt;= 0.85, "85  &lt;", AND(D94 &gt;=0.8, D94 &lt; 0.85), "80-85", AND(D94 &gt;= 0.7, D94 &lt; 0.8), "70-80", AND(D94 &gt;= 0.6, D94 &lt; 0.7),  "60-70", AND(D94 &gt;= 0.5, D94 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N91" s="10">
+      <c r="N94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="str" cm="1">
+        <f t="array" ref="J95">_xlfn.IFS(D95 &gt;= 0.85, "85  &lt;", AND(D95 &gt;=0.8, D95 &lt; 0.85), "80-85", AND(D95 &gt;= 0.7, D95 &lt; 0.8), "70-80", AND(D95 &gt;= 0.6, D95 &lt; 0.7),  "60-70", AND(D95 &gt;= 0.5, D95 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" t="str" cm="1">
+        <f t="array" ref="J96">_xlfn.IFS(D96 &gt;= 0.85, "85  &lt;", AND(D96 &gt;=0.8, D96 &lt; 0.85), "80-85", AND(D96 &gt;= 0.7, D96 &lt; 0.8), "70-80", AND(D96 &gt;= 0.6, D96 &lt; 0.7),  "60-70", AND(D96 &gt;= 0.5, D96 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J97" t="str" cm="1">
+        <f t="array" ref="J97">_xlfn.IFS(D97 &gt;= 0.85, "85  &lt;", AND(D97 &gt;=0.8, D97 &lt; 0.85), "80-85", AND(D97 &gt;= 0.7, D97 &lt; 0.8), "70-80", AND(D97 &gt;= 0.6, D97 &lt; 0.7),  "60-70", AND(D97 &gt;= 0.5, D97 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="H98" t="s">
+        <v>91</v>
+      </c>
+      <c r="J98" t="str" cm="1">
+        <f t="array" ref="J98">_xlfn.IFS(D98 &gt;= 0.85, "85  &lt;", AND(D98 &gt;=0.8, D98 &lt; 0.85), "80-85", AND(D98 &gt;= 0.7, D98 &lt; 0.8), "70-80", AND(D98 &gt;= 0.6, D98 &lt; 0.7),  "60-70", AND(D98 &gt;= 0.5, D98 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="H99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" t="str" cm="1">
+        <f t="array" ref="J99">_xlfn.IFS(D99 &gt;= 0.85, "85  &lt;", AND(D99 &gt;=0.8, D99 &lt; 0.85), "80-85", AND(D99 &gt;= 0.7, D99 &lt; 0.8), "70-80", AND(D99 &gt;= 0.6, D99 &lt; 0.7),  "60-70", AND(D99 &gt;= 0.5, D99 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="J100" t="str" cm="1">
+        <f t="array" ref="J100">_xlfn.IFS(D100 &gt;= 0.85, "85  &lt;", AND(D100 &gt;=0.8, D100 &lt; 0.85), "80-85", AND(D100 &gt;= 0.7, D100 &lt; 0.8), "70-80", AND(D100 &gt;= 0.6, D100 &lt; 0.7),  "60-70", AND(D100 &gt;= 0.5, D100 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="J101" t="str" cm="1">
+        <f t="array" ref="J101">_xlfn.IFS(D101 &gt;= 0.85, "85  &lt;", AND(D101 &gt;=0.8, D101 &lt; 0.85), "80-85", AND(D101 &gt;= 0.7, D101 &lt; 0.8), "70-80", AND(D101 &gt;= 0.6, D101 &lt; 0.7),  "60-70", AND(D101 &gt;= 0.5, D101 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H102" t="s">
+        <v>78</v>
+      </c>
+      <c r="J102" t="str" cm="1">
+        <f t="array" ref="J102">_xlfn.IFS(D102 &gt;= 0.85, "85  &lt;", AND(D102 &gt;=0.8, D102 &lt; 0.85), "80-85", AND(D102 &gt;= 0.7, D102 &lt; 0.8), "70-80", AND(D102 &gt;= 0.6, D102 &lt; 0.7),  "60-70", AND(D102 &gt;= 0.5, D102 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H103" t="s">
+        <v>72</v>
+      </c>
+      <c r="J103" t="str" cm="1">
+        <f t="array" ref="J103">_xlfn.IFS(D103 &gt;= 0.85, "85  &lt;", AND(D103 &gt;=0.8, D103 &lt; 0.85), "80-85", AND(D103 &gt;= 0.7, D103 &lt; 0.8), "70-80", AND(D103 &gt;= 0.6, D103 &lt; 0.7),  "60-70", AND(D103 &gt;= 0.5, D103 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N103">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973C76B6-74E0-4590-A9EF-D3764BECCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF03AE-ACB8-4B34-9835-0E7A4D6584D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -844,7 +844,6 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -905,7 +904,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45281.366735763891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="103" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45282.440002662035" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="103" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
   </cacheSource>
@@ -951,10 +950,10 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
     </cacheField>
     <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
     </cacheField>
     <cacheField name="GA ABS Error" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
@@ -2422,10 +2421,10 @@
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
     <x v="1"/>
-    <m/>
-    <m/>
     <n v="4"/>
-    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2436,12 +2435,12 @@
     <n v="3"/>
     <n v="0.25"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <n v="1"/>
     <n v="4"/>
     <n v="3"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2454,10 +2453,10 @@
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <n v="5"/>
     <n v="2"/>
-    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2470,9 +2469,9 @@
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
     <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="4"/>
   </r>
   <r>
@@ -2486,10 +2485,10 @@
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
+    <n v="6"/>
     <n v="4"/>
-    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2500,12 +2499,12 @@
     <n v="3"/>
     <n v="0.33200000000000002"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
     <n v="4"/>
     <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2516,12 +2515,12 @@
     <n v="3"/>
     <n v="0.36599999999999999"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2532,12 +2531,12 @@
     <n v="4"/>
     <n v="0.37"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
     <n v="3"/>
-    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="5"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2548,12 +2547,12 @@
     <n v="4"/>
     <n v="0.378"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
     <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="4"/>
+    <n v="2"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2564,12 +2563,12 @@
     <n v="4"/>
     <n v="0.48"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="4"/>
-    <m/>
-    <m/>
+    <n v="6"/>
     <n v="3"/>
-    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2580,12 +2579,12 @@
     <n v="3"/>
     <n v="0.48199999999999998"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <d v="2023-12-21T00:00:00"/>
@@ -2596,12 +2595,12 @@
     <n v="3"/>
     <n v="0.48599999999999999"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
   </r>
   <r>
     <m/>
@@ -2623,7 +2622,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -2706,7 +2705,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -3085,19 +3084,19 @@
   <dimension ref="A3:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -3114,14 +3113,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="5">
@@ -3133,14 +3132,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" s="5">
@@ -3149,92 +3148,92 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>24</v>
       </c>
-      <c r="C6" s="10">
-        <v>17</v>
+      <c r="C6">
+        <v>16</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="5">
         <f>F5/F4</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.68571428571428572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>33</v>
       </c>
-      <c r="C7" s="10">
-        <v>16</v>
+      <c r="C7">
+        <v>18</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>0.48484848484848486</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>34</v>
       </c>
-      <c r="C8" s="10">
-        <v>17</v>
+      <c r="C8">
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>102</v>
       </c>
-      <c r="C9" s="10">
-        <v>58</v>
+      <c r="C9">
+        <v>60</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.56862745098039214</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="5">
         <f>F9/F8</f>
-        <v>0.4925373134328358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.53731343283582089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -3245,73 +3244,73 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C20" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="6">
-        <v>2.4285714285714284</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="C21" s="6">
-        <v>2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="6">
-        <v>1.8181818181818181</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C22" s="6">
-        <v>1.8181818181818181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2727272727272727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C23" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="6">
-        <v>1.8709677419354838</v>
+        <v>1.096774193548387</v>
       </c>
       <c r="C24" s="6">
-        <v>2</v>
+        <v>1.3870967741935485</v>
       </c>
     </row>
   </sheetData>
@@ -3322,31 +3321,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103:N107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45269</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45269</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45269</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45269</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45269</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45269</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45269</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45269</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45269</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45269</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45269</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45269</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45270</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45270</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45270</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45270</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45270</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45270</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45270</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45270</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45271</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45271</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45271</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45271</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45272</v>
       </c>
@@ -4045,7 +4044,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45272</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45272</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45272</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45272</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45272</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45272</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45272</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45272</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45272</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45273</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45273</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45273</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45273</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45273</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45274</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45274</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45274</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45274</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45274</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45274</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45274</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45274</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45275</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45275</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45275</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45275</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45275</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45275</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45276</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45276</v>
       </c>
@@ -4855,7 +4854,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>45276</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>45276</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>45276</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>45276</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>45276</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>45276</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>45276</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45276</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>45276</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>45276</v>
       </c>
@@ -5125,7 +5124,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>45276</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>45277</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>45277</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>45277</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>45277</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>45277</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>45278</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>45278</v>
       </c>
@@ -5394,15 +5393,15 @@
         <v>3</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" ref="M74:M103" si="0">ABS(C74-K74)</f>
+        <f t="shared" ref="M74:M107" si="0">ABS(C74-K74)</f>
         <v>0</v>
       </c>
       <c r="N74" s="8">
-        <f t="shared" ref="N74:N103" si="1">ABS(F74-L74)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N74:N107" si="1">ABS(F74-L74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>45278</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>45278</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>45278</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>45279</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>45279</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>45279</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>45279</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>45279</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>45279</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>45279</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>45279</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>45279</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>45279</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>45279</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>45280</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>45280</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>45280</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>45281</v>
       </c>
@@ -6225,21 +6224,30 @@
       </c>
       <c r="H92" t="s">
         <v>77</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f t="array" ref="J92">_xlfn.IFS(D92 &gt;= 0.85, "85  &lt;", AND(D92 &gt;=0.8, D92 &lt; 0.85), "80-85", AND(D92 &gt;= 0.7, D92 &lt; 0.8), "70-80", AND(D92 &gt;= 0.6, D92 &lt; 0.7),  "60-70", AND(D92 &gt;= 0.5, D92 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
       <c r="M92">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45281</v>
       </c>
@@ -6263,21 +6271,30 @@
       </c>
       <c r="H93" t="s">
         <v>93</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f t="array" ref="J93">_xlfn.IFS(D93 &gt;= 0.85, "85  &lt;", AND(D93 &gt;=0.8, D93 &lt; 0.85), "80-85", AND(D93 &gt;= 0.7, D93 &lt; 0.8), "70-80", AND(D93 &gt;= 0.6, D93 &lt; 0.7),  "60-70", AND(D93 &gt;= 0.5, D93 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
       <c r="M93">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>45281</v>
       </c>
@@ -6301,21 +6318,30 @@
       </c>
       <c r="H94" t="s">
         <v>67</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f t="array" ref="J94">_xlfn.IFS(D94 &gt;= 0.85, "85  &lt;", AND(D94 &gt;=0.8, D94 &lt; 0.85), "80-85", AND(D94 &gt;= 0.7, D94 &lt; 0.8), "70-80", AND(D94 &gt;= 0.6, D94 &lt; 0.7),  "60-70", AND(D94 &gt;= 0.5, D94 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
       <c r="M94">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>45281</v>
       </c>
@@ -6339,21 +6365,30 @@
       </c>
       <c r="H95" t="s">
         <v>20</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f t="array" ref="J95">_xlfn.IFS(D95 &gt;= 0.85, "85  &lt;", AND(D95 &gt;=0.8, D95 &lt; 0.85), "80-85", AND(D95 &gt;= 0.7, D95 &lt; 0.8), "70-80", AND(D95 &gt;= 0.6, D95 &lt; 0.7),  "60-70", AND(D95 &gt;= 0.5, D95 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
       <c r="M95">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>45281</v>
       </c>
@@ -6377,21 +6412,30 @@
       </c>
       <c r="H96" t="s">
         <v>11</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f t="array" ref="J96">_xlfn.IFS(D96 &gt;= 0.85, "85  &lt;", AND(D96 &gt;=0.8, D96 &lt; 0.85), "80-85", AND(D96 &gt;= 0.7, D96 &lt; 0.8), "70-80", AND(D96 &gt;= 0.6, D96 &lt; 0.7),  "60-70", AND(D96 &gt;= 0.5, D96 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
       <c r="M96">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N96">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>45281</v>
       </c>
@@ -6415,21 +6459,30 @@
       </c>
       <c r="H97" t="s">
         <v>32</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f t="array" ref="J97">_xlfn.IFS(D97 &gt;= 0.85, "85  &lt;", AND(D97 &gt;=0.8, D97 &lt; 0.85), "80-85", AND(D97 &gt;= 0.7, D97 &lt; 0.8), "70-80", AND(D97 &gt;= 0.6, D97 &lt; 0.7),  "60-70", AND(D97 &gt;= 0.5, D97 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
       <c r="M97">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>45281</v>
       </c>
@@ -6453,21 +6506,30 @@
       </c>
       <c r="H98" t="s">
         <v>91</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f t="array" ref="J98">_xlfn.IFS(D98 &gt;= 0.85, "85  &lt;", AND(D98 &gt;=0.8, D98 &lt; 0.85), "80-85", AND(D98 &gt;= 0.7, D98 &lt; 0.8), "70-80", AND(D98 &gt;= 0.6, D98 &lt; 0.7),  "60-70", AND(D98 &gt;= 0.5, D98 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
       <c r="M98">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>45281</v>
       </c>
@@ -6491,21 +6553,30 @@
       </c>
       <c r="H99" t="s">
         <v>49</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f t="array" ref="J99">_xlfn.IFS(D99 &gt;= 0.85, "85  &lt;", AND(D99 &gt;=0.8, D99 &lt; 0.85), "80-85", AND(D99 &gt;= 0.7, D99 &lt; 0.8), "70-80", AND(D99 &gt;= 0.6, D99 &lt; 0.7),  "60-70", AND(D99 &gt;= 0.5, D99 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>9</v>
+      </c>
       <c r="M99">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>45281</v>
       </c>
@@ -6529,21 +6600,30 @@
       </c>
       <c r="H100" t="s">
         <v>37</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f t="array" ref="J100">_xlfn.IFS(D100 &gt;= 0.85, "85  &lt;", AND(D100 &gt;=0.8, D100 &lt; 0.85), "80-85", AND(D100 &gt;= 0.7, D100 &lt; 0.8), "70-80", AND(D100 &gt;= 0.6, D100 &lt; 0.7),  "60-70", AND(D100 &gt;= 0.5, D100 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
       <c r="M100">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>45281</v>
       </c>
@@ -6567,21 +6647,30 @@
       </c>
       <c r="H101" t="s">
         <v>73</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f t="array" ref="J101">_xlfn.IFS(D101 &gt;= 0.85, "85  &lt;", AND(D101 &gt;=0.8, D101 &lt; 0.85), "80-85", AND(D101 &gt;= 0.7, D101 &lt; 0.8), "70-80", AND(D101 &gt;= 0.6, D101 &lt; 0.7),  "60-70", AND(D101 &gt;= 0.5, D101 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
       <c r="M101">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N101">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>45281</v>
       </c>
@@ -6605,21 +6694,30 @@
       </c>
       <c r="H102" t="s">
         <v>78</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f t="array" ref="J102">_xlfn.IFS(D102 &gt;= 0.85, "85  &lt;", AND(D102 &gt;=0.8, D102 &lt; 0.85), "80-85", AND(D102 &gt;= 0.7, D102 &lt; 0.8), "70-80", AND(D102 &gt;= 0.6, D102 &lt; 0.7),  "60-70", AND(D102 &gt;= 0.5, D102 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>4</v>
+      </c>
       <c r="M102">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>45281</v>
       </c>
@@ -6643,18 +6741,179 @@
       </c>
       <c r="H103" t="s">
         <v>72</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
       </c>
       <c r="J103" t="str" cm="1">
         <f t="array" ref="J103">_xlfn.IFS(D103 &gt;= 0.85, "85  &lt;", AND(D103 &gt;=0.8, D103 &lt; 0.85), "80-85", AND(D103 &gt;= 0.7, D103 &lt; 0.8), "70-80", AND(D103 &gt;= 0.6, D103 &lt; 0.7),  "60-70", AND(D103 &gt;= 0.5, D103 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
       <c r="M103">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" t="str" cm="1">
+        <f t="array" ref="J104">_xlfn.IFS(D104 &gt;= 0.85, "85  &lt;", AND(D104 &gt;=0.8, D104 &lt; 0.85), "80-85", AND(D104 &gt;= 0.7, D104 &lt; 0.8), "70-80", AND(D104 &gt;= 0.6, D104 &lt; 0.7),  "60-70", AND(D104 &gt;= 0.5, D104 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
         <v>3</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H105" t="s">
+        <v>65</v>
+      </c>
+      <c r="J105" t="str" cm="1">
+        <f t="array" ref="J105">_xlfn.IFS(D105 &gt;= 0.85, "85  &lt;", AND(D105 &gt;=0.8, D105 &lt; 0.85), "80-85", AND(D105 &gt;= 0.7, D105 &lt; 0.8), "70-80", AND(D105 &gt;= 0.6, D105 &lt; 0.7),  "60-70", AND(D105 &gt;= 0.5, D105 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H106" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106" t="str" cm="1">
+        <f t="array" ref="J106">_xlfn.IFS(D106 &gt;= 0.85, "85  &lt;", AND(D106 &gt;=0.8, D106 &lt; 0.85), "80-85", AND(D106 &gt;= 0.7, D106 &lt; 0.8), "70-80", AND(D106 &gt;= 0.6, D106 &lt; 0.7),  "60-70", AND(D106 &gt;= 0.5, D106 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H107" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" t="str" cm="1">
+        <f t="array" ref="J107">_xlfn.IFS(D107 &gt;= 0.85, "85  &lt;", AND(D107 &gt;=0.8, D107 &lt; 0.85), "80-85", AND(D107 &gt;= 0.7, D107 &lt; 0.8), "70-80", AND(D107 &gt;= 0.6, D107 &lt; 0.7),  "60-70", AND(D107 &gt;= 0.5, D107 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF03AE-ACB8-4B34-9835-0E7A4D6584D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D359D49-FDD8-4D11-896E-09A688A78957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -342,12 +343,36 @@
   <si>
     <t>Playing At:  Florida Panthers   Home</t>
   </si>
+  <si>
+    <t>Model Used</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>RF3</t>
+  </si>
+  <si>
+    <t>RF4</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +507,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,12 +694,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -831,7 +856,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -841,9 +866,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -904,13 +931,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45282.440002662035" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="103" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45282.963541203702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="107" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1048576" sheet="Predictions"/>
+    <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-22T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-23T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -947,7 +974,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
     </cacheField>
     <cacheField name="GA Actual" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
@@ -968,8 +995,83 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45283.467378240741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="121" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Model Used" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="RF1"/>
+        <s v="RF2"/>
+        <s v="RF3"/>
+        <s v="RF4"/>
+        <s v="RF5"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-24T00:00:00"/>
+    </cacheField>
+    <cacheField name="Winner" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GF Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Winner Probability" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+    </cacheField>
+    <cacheField name="Loser" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GA Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Loser Probability" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="85 &lt;"/>
+        <s v="80-85"/>
+        <s v="70-80"/>
+        <s v="60-70"/>
+        <s v="50-60"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GF Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="GA Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+    </cacheField>
+    <cacheField name="GF ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="GA ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="103">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="107">
   <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
@@ -2603,6 +2705,2132 @@
     <n v="2"/>
   </r>
   <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.748"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.66200000000000003"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.51400000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="2"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="121">
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.876"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.124"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.85"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.15"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.79800000000000004"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.71199999999999997"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.64200000000000002"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.87"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.13"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82199999999999995"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.17799999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.80200000000000005"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.70199999999999996"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.69"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.31"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.60199999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.68799999999999994"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.312"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.502"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.498"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.17599999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.68200000000000005"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.318"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.32"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.65200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57199999999999995"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.56200000000000006"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.438"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.51600000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.48399999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.73"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.27"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.54200000000000004"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.75800000000000001"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.72399999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.71"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.28999999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.50800000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.72199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.67800000000000005"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.32200000000000001"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.67400000000000004"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.65600000000000003"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.628"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.372"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.61"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.39"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.59199999999999997"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.56599999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.434"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.55200000000000005"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.44800000000000001"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.504"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.496"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.748"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.252"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.69399999999999995"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <s v="GF Prediction"/>
+    <n v="0.57399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <s v="GA Prediction"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="GF Actual"/>
+    <s v="GA Actual"/>
+    <s v="GF ABS Error"/>
+    <s v="GA ABS Error"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.72"/>
+    <s v="Montreal Canadiens"/>
+    <n v="3"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.67400000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="2"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="1"/>
+    <n v="0.58599999999999997"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.58399999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.502"/>
+    <s v="Anaheim Ducks"/>
+    <n v="3"/>
+    <n v="0.498"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="2"/>
+    <n v="0.84399999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.156"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="2"/>
+    <n v="0.80200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="5"/>
+    <n v="0.72199999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="2"/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.67400000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.63200000000000001"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="3"/>
+    <n v="0.61399999999999999"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="2"/>
+    <n v="0.60399999999999998"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.58399999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="4"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.56000000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="3"/>
+    <n v="0.44"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.54800000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="4"/>
+    <n v="0.45200000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.71199999999999997"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.66600000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="2"/>
+    <n v="0.55400000000000005"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="4"/>
+    <n v="0.80400000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.75"/>
+    <s v="St. Louis Blues"/>
+    <n v="3"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="2"/>
+    <n v="0.72"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.71599999999999997"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.70799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.66800000000000004"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.33200000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.63400000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36599999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.622"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.52"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.48"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.51800000000000002"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.48199999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="3"/>
+    <n v="0.51400000000000001"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.748"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.66200000000000003"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.51400000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="2"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="5"/>
+    <n v="0.75800000000000001"/>
+    <s v="San Jose Sharks"/>
+    <n v="2"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.752"/>
+    <s v="Arizona Coyotes"/>
+    <n v="3"/>
+    <n v="0.248"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.70599999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.67"/>
+    <s v="New York Islanders"/>
+    <n v="3"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="4"/>
+    <n v="0.65200000000000002"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="3"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.63600000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36399999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="3"/>
+    <n v="0.37"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.62"/>
+    <s v="Calgary Flames"/>
+    <n v="4"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.60399999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.58199999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="4"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.57799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.42199999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Dallas Stars"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.56200000000000006"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.438"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -2705,9 +4933,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420DC215-C76E-466F-8429-1264AA85119D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -2735,7 +4974,7 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="9"/>
+    <field x="10"/>
   </rowFields>
   <rowItems count="6">
     <i>
@@ -2768,9 +5007,12 @@
       <x v="1"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
   <dataFields count="2">
-    <dataField name="Count of Winner" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3081,22 +5323,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -3113,127 +5363,127 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <f>C4/B4</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
         <v>0.75</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="11">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F6" s="5">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.68571428571428572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>33</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="11">
+        <v>41</v>
+      </c>
+      <c r="C7" s="11">
         <v>18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.43902439024390244</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="11">
+        <v>40</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.52941176470588236</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <v>102</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="11">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.58823529411764708</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.53731343283582089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.46913580246913578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -3244,21 +5494,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -3269,48 +5519,48 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="6">
-        <v>1.7142857142857142</v>
+        <v>1.875</v>
       </c>
       <c r="C21" s="6">
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="6">
-        <v>0.81818181818181823</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C22" s="6">
-        <v>1.2727272727272727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="C23" s="6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="6">
-        <v>1.096774193548387</v>
+        <v>1.2285714285714286</v>
       </c>
       <c r="C24" s="6">
-        <v>1.3870967741935485</v>
+        <v>1.4857142857142858</v>
       </c>
     </row>
   </sheetData>
@@ -3321,3603 +5571,4536 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103:N107"/>
+    <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1">
         <v>45269</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.876</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1">
         <v>45269</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.85</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1">
         <v>45269</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.81</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1">
         <v>45269</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.79800000000000004</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.20200000000000001</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1">
         <v>45269</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.222</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1">
         <v>45269</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.71199999999999997</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1">
         <v>45269</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.69799999999999995</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1">
         <v>45269</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>0.64200000000000002</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0.35799999999999998</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1">
         <v>45269</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.42</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1">
         <v>45269</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0.43</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1">
         <v>45269</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1">
         <v>45269</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>0.50600000000000001</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.49399999999999999</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>49</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1">
         <v>45270</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>0.87</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0.13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>62</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1">
         <v>45270</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1">
         <v>45270</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1">
         <v>45270</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1">
         <v>45270</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>64</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1">
         <v>45270</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>0.70199999999999996</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
         <v>45270</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>0.69</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>0.31</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>65</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1">
         <v>45270</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0.39800000000000002</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>37</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1">
         <v>45271</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>0.312</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="J22" t="str" cm="1">
-        <f t="array" ref="J22">_xlfn.IFS(D22 &gt;= 0.85, "85  &lt;", AND(D22 &gt;=0.8, D22 &lt; 0.85), "80-85", AND(D22 &gt;= 0.7, D22 &lt; 0.8), "70-80", AND(D22 &gt;= 0.6, D22 &lt; 0.7),  "60-70", AND(D22 &gt;= 0.5, D22 &lt; 0.6), "50-60")</f>
+      <c r="K22" t="str" cm="1">
+        <f t="array" ref="K22">_xlfn.IFS(E22 &gt;= 0.85, "85  &lt;", AND(E22 &gt;=0.8, E22 &lt; 0.85), "80-85", AND(E22 &gt;= 0.7, E22 &lt; 0.8), "70-80", AND(E22 &gt;= 0.6, E22 &lt; 0.7),  "60-70", AND(E22 &gt;= 0.5, E22 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1">
         <v>45271</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>0.622</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>0.378</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>32</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="J23" t="str" cm="1">
-        <f t="array" ref="J23">_xlfn.IFS(D23 &gt;= 0.85, "85  &lt;", AND(D23 &gt;=0.8, D23 &lt; 0.85), "80-85", AND(D23 &gt;= 0.7, D23 &lt; 0.8), "70-80", AND(D23 &gt;= 0.6, D23 &lt; 0.7),  "60-70", AND(D23 &gt;= 0.5, D23 &lt; 0.6), "50-60")</f>
+      <c r="K23" t="str" cm="1">
+        <f t="array" ref="K23">_xlfn.IFS(E23 &gt;= 0.85, "85  &lt;", AND(E23 &gt;=0.8, E23 &lt; 0.85), "80-85", AND(E23 &gt;= 0.7, E23 &lt; 0.8), "70-80", AND(E23 &gt;= 0.6, E23 &lt; 0.7),  "60-70", AND(E23 &gt;= 0.5, E23 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1">
         <v>45271</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>49</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="J24" t="str" cm="1">
-        <f t="array" ref="J24">_xlfn.IFS(D24 &gt;= 0.85, "85  &lt;", AND(D24 &gt;=0.8, D24 &lt; 0.85), "80-85", AND(D24 &gt;= 0.7, D24 &lt; 0.8), "70-80", AND(D24 &gt;= 0.6, D24 &lt; 0.7),  "60-70", AND(D24 &gt;= 0.5, D24 &lt; 0.6), "50-60")</f>
+      <c r="K24" t="str" cm="1">
+        <f t="array" ref="K24">_xlfn.IFS(E24 &gt;= 0.85, "85  &lt;", AND(E24 &gt;=0.8, E24 &lt; 0.85), "80-85", AND(E24 &gt;= 0.7, E24 &lt; 0.8), "70-80", AND(E24 &gt;= 0.6, E24 &lt; 0.7),  "60-70", AND(E24 &gt;= 0.5, E24 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1">
         <v>45271</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>0.502</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>0.498</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>43</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0</v>
       </c>
-      <c r="J25" t="str" cm="1">
-        <f t="array" ref="J25">_xlfn.IFS(D25 &gt;= 0.85, "85  &lt;", AND(D25 &gt;=0.8, D25 &lt; 0.85), "80-85", AND(D25 &gt;= 0.7, D25 &lt; 0.8), "70-80", AND(D25 &gt;= 0.6, D25 &lt; 0.7),  "60-70", AND(D25 &gt;= 0.5, D25 &lt; 0.6), "50-60")</f>
+      <c r="K25" t="str" cm="1">
+        <f t="array" ref="K25">_xlfn.IFS(E25 &gt;= 0.85, "85  &lt;", AND(E25 &gt;=0.8, E25 &lt; 0.85), "80-85", AND(E25 &gt;= 0.7, E25 &lt; 0.8), "70-80", AND(E25 &gt;= 0.6, E25 &lt; 0.7),  "60-70", AND(E25 &gt;= 0.5, E25 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1">
         <v>45272</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>14</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1</v>
       </c>
-      <c r="J26" t="str" cm="1">
-        <f t="array" ref="J26">_xlfn.IFS(D26 &gt;= 0.85, "85  &lt;", AND(D26 &gt;=0.8, D26 &lt; 0.85), "80-85", AND(D26 &gt;= 0.7, D26 &lt; 0.8), "70-80", AND(D26 &gt;= 0.6, D26 &lt; 0.7),  "60-70", AND(D26 &gt;= 0.5, D26 &lt; 0.6), "50-60")</f>
+      <c r="K26" t="str" cm="1">
+        <f t="array" ref="K26">_xlfn.IFS(E26 &gt;= 0.85, "85  &lt;", AND(E26 &gt;=0.8, E26 &lt; 0.85), "80-85", AND(E26 &gt;= 0.7, E26 &lt; 0.8), "70-80", AND(E26 &gt;= 0.6, E26 &lt; 0.7),  "60-70", AND(E26 &gt;= 0.5, E26 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1">
         <v>45272</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>0.222</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>67</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="J27" t="str" cm="1">
-        <f t="array" ref="J27">_xlfn.IFS(D27 &gt;= 0.85, "85  &lt;", AND(D27 &gt;=0.8, D27 &lt; 0.85), "80-85", AND(D27 &gt;= 0.7, D27 &lt; 0.8), "70-80", AND(D27 &gt;= 0.6, D27 &lt; 0.7),  "60-70", AND(D27 &gt;= 0.5, D27 &lt; 0.6), "50-60")</f>
+      <c r="K27" t="str" cm="1">
+        <f t="array" ref="K27">_xlfn.IFS(E27 &gt;= 0.85, "85  &lt;", AND(E27 &gt;=0.8, E27 &lt; 0.85), "80-85", AND(E27 &gt;= 0.7, E27 &lt; 0.8), "70-80", AND(E27 &gt;= 0.6, E27 &lt; 0.7),  "60-70", AND(E27 &gt;= 0.5, E27 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="1">
         <v>45272</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>0.308</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>62</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="J28" t="str" cm="1">
-        <f t="array" ref="J28">_xlfn.IFS(D28 &gt;= 0.85, "85  &lt;", AND(D28 &gt;=0.8, D28 &lt; 0.85), "80-85", AND(D28 &gt;= 0.7, D28 &lt; 0.8), "70-80", AND(D28 &gt;= 0.6, D28 &lt; 0.7),  "60-70", AND(D28 &gt;= 0.5, D28 &lt; 0.6), "50-60")</f>
+      <c r="K28" t="str" cm="1">
+        <f t="array" ref="K28">_xlfn.IFS(E28 &gt;= 0.85, "85  &lt;", AND(E28 &gt;=0.8, E28 &lt; 0.85), "80-85", AND(E28 &gt;= 0.7, E28 &lt; 0.8), "70-80", AND(E28 &gt;= 0.6, E28 &lt; 0.7),  "60-70", AND(E28 &gt;= 0.5, E28 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1">
         <v>45272</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>0.318</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>26</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0</v>
       </c>
-      <c r="J29" t="str" cm="1">
-        <f t="array" ref="J29">_xlfn.IFS(D29 &gt;= 0.85, "85  &lt;", AND(D29 &gt;=0.8, D29 &lt; 0.85), "80-85", AND(D29 &gt;= 0.7, D29 &lt; 0.8), "70-80", AND(D29 &gt;= 0.6, D29 &lt; 0.7),  "60-70", AND(D29 &gt;= 0.5, D29 &lt; 0.6), "50-60")</f>
+      <c r="K29" t="str" cm="1">
+        <f t="array" ref="K29">_xlfn.IFS(E29 &gt;= 0.85, "85  &lt;", AND(E29 &gt;=0.8, E29 &lt; 0.85), "80-85", AND(E29 &gt;= 0.7, E29 &lt; 0.8), "70-80", AND(E29 &gt;= 0.6, E29 &lt; 0.7),  "60-70", AND(E29 &gt;= 0.5, E29 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1">
         <v>45272</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>0.68</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>0.32</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>68</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="J30" t="str" cm="1">
-        <f t="array" ref="J30">_xlfn.IFS(D30 &gt;= 0.85, "85  &lt;", AND(D30 &gt;=0.8, D30 &lt; 0.85), "80-85", AND(D30 &gt;= 0.7, D30 &lt; 0.8), "70-80", AND(D30 &gt;= 0.6, D30 &lt; 0.7),  "60-70", AND(D30 &gt;= 0.5, D30 &lt; 0.6), "50-60")</f>
+      <c r="K30" t="str" cm="1">
+        <f t="array" ref="K30">_xlfn.IFS(E30 &gt;= 0.85, "85  &lt;", AND(E30 &gt;=0.8, E30 &lt; 0.85), "80-85", AND(E30 &gt;= 0.7, E30 &lt; 0.8), "70-80", AND(E30 &gt;= 0.6, E30 &lt; 0.7),  "60-70", AND(E30 &gt;= 0.5, E30 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1">
         <v>45272</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>65</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="J31" t="str" cm="1">
-        <f t="array" ref="J31">_xlfn.IFS(D31 &gt;= 0.85, "85  &lt;", AND(D31 &gt;=0.8, D31 &lt; 0.85), "80-85", AND(D31 &gt;= 0.7, D31 &lt; 0.8), "70-80", AND(D31 &gt;= 0.6, D31 &lt; 0.7),  "60-70", AND(D31 &gt;= 0.5, D31 &lt; 0.6), "50-60")</f>
+      <c r="K31" t="str" cm="1">
+        <f t="array" ref="K31">_xlfn.IFS(E31 &gt;= 0.85, "85  &lt;", AND(E31 &gt;=0.8, E31 &lt; 0.85), "80-85", AND(E31 &gt;= 0.7, E31 &lt; 0.8), "70-80", AND(E31 &gt;= 0.6, E31 &lt; 0.7),  "60-70", AND(E31 &gt;= 0.5, E31 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1">
         <v>45272</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>0.57199999999999995</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>0.42799999999999999</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>46</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1</v>
       </c>
-      <c r="J32" t="str" cm="1">
-        <f t="array" ref="J32">_xlfn.IFS(D32 &gt;= 0.85, "85  &lt;", AND(D32 &gt;=0.8, D32 &lt; 0.85), "80-85", AND(D32 &gt;= 0.7, D32 &lt; 0.8), "70-80", AND(D32 &gt;= 0.6, D32 &lt; 0.7),  "60-70", AND(D32 &gt;= 0.5, D32 &lt; 0.6), "50-60")</f>
+      <c r="K32" t="str" cm="1">
+        <f t="array" ref="K32">_xlfn.IFS(E32 &gt;= 0.85, "85  &lt;", AND(E32 &gt;=0.8, E32 &lt; 0.85), "80-85", AND(E32 &gt;= 0.7, E32 &lt; 0.8), "70-80", AND(E32 &gt;= 0.6, E32 &lt; 0.7),  "60-70", AND(E32 &gt;= 0.5, E32 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1">
         <v>45272</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>0.438</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>69</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0</v>
       </c>
-      <c r="J33" t="str" cm="1">
-        <f t="array" ref="J33">_xlfn.IFS(D33 &gt;= 0.85, "85  &lt;", AND(D33 &gt;=0.8, D33 &lt; 0.85), "80-85", AND(D33 &gt;= 0.7, D33 &lt; 0.8), "70-80", AND(D33 &gt;= 0.6, D33 &lt; 0.7),  "60-70", AND(D33 &gt;= 0.5, D33 &lt; 0.6), "50-60")</f>
+      <c r="K33" t="str" cm="1">
+        <f t="array" ref="K33">_xlfn.IFS(E33 &gt;= 0.85, "85  &lt;", AND(E33 &gt;=0.8, E33 &lt; 0.85), "80-85", AND(E33 &gt;= 0.7, E33 &lt; 0.8), "70-80", AND(E33 &gt;= 0.6, E33 &lt; 0.7),  "60-70", AND(E33 &gt;= 0.5, E33 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1">
         <v>45272</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>70</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0</v>
       </c>
-      <c r="J34" t="str" cm="1">
-        <f t="array" ref="J34">_xlfn.IFS(D34 &gt;= 0.85, "85  &lt;", AND(D34 &gt;=0.8, D34 &lt; 0.85), "80-85", AND(D34 &gt;= 0.7, D34 &lt; 0.8), "70-80", AND(D34 &gt;= 0.6, D34 &lt; 0.7),  "60-70", AND(D34 &gt;= 0.5, D34 &lt; 0.6), "50-60")</f>
+      <c r="K34" t="str" cm="1">
+        <f t="array" ref="K34">_xlfn.IFS(E34 &gt;= 0.85, "85  &lt;", AND(E34 &gt;=0.8, E34 &lt; 0.85), "80-85", AND(E34 &gt;= 0.7, E34 &lt; 0.8), "70-80", AND(E34 &gt;= 0.6, E34 &lt; 0.7),  "60-70", AND(E34 &gt;= 0.5, E34 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1">
         <v>45272</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="J35" t="str" cm="1">
-        <f t="array" ref="J35">_xlfn.IFS(D35 &gt;= 0.85, "85  &lt;", AND(D35 &gt;=0.8, D35 &lt; 0.85), "80-85", AND(D35 &gt;= 0.7, D35 &lt; 0.8), "70-80", AND(D35 &gt;= 0.6, D35 &lt; 0.7),  "60-70", AND(D35 &gt;= 0.5, D35 &lt; 0.6), "50-60")</f>
+      <c r="K35" t="str" cm="1">
+        <f t="array" ref="K35">_xlfn.IFS(E35 &gt;= 0.85, "85  &lt;", AND(E35 &gt;=0.8, E35 &lt; 0.85), "80-85", AND(E35 &gt;= 0.7, E35 &lt; 0.8), "70-80", AND(E35 &gt;= 0.6, E35 &lt; 0.7),  "60-70", AND(E35 &gt;= 0.5, E35 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1">
         <v>45273</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>0.73</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>0.27</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>64</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="J36" t="str" cm="1">
-        <f t="array" ref="J36">_xlfn.IFS(D36 &gt;= 0.85, "85  &lt;", AND(D36 &gt;=0.8, D36 &lt; 0.85), "80-85", AND(D36 &gt;= 0.7, D36 &lt; 0.8), "70-80", AND(D36 &gt;= 0.6, D36 &lt; 0.7),  "60-70", AND(D36 &gt;= 0.5, D36 &lt; 0.6), "50-60")</f>
+      <c r="K36" t="str" cm="1">
+        <f t="array" ref="K36">_xlfn.IFS(E36 &gt;= 0.85, "85  &lt;", AND(E36 &gt;=0.8, E36 &lt; 0.85), "80-85", AND(E36 &gt;= 0.7, E36 &lt; 0.8), "70-80", AND(E36 &gt;= 0.6, E36 &lt; 0.7),  "60-70", AND(E36 &gt;= 0.5, E36 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1">
         <v>45273</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>0.624</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>0.376</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>43</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1</v>
       </c>
-      <c r="J37" t="str" cm="1">
-        <f t="array" ref="J37">_xlfn.IFS(D37 &gt;= 0.85, "85  &lt;", AND(D37 &gt;=0.8, D37 &lt; 0.85), "80-85", AND(D37 &gt;= 0.7, D37 &lt; 0.8), "70-80", AND(D37 &gt;= 0.6, D37 &lt; 0.7),  "60-70", AND(D37 &gt;= 0.5, D37 &lt; 0.6), "50-60")</f>
+      <c r="K37" t="str" cm="1">
+        <f t="array" ref="K37">_xlfn.IFS(E37 &gt;= 0.85, "85  &lt;", AND(E37 &gt;=0.8, E37 &lt; 0.85), "80-85", AND(E37 &gt;= 0.7, E37 &lt; 0.8), "70-80", AND(E37 &gt;= 0.6, E37 &lt; 0.7),  "60-70", AND(E37 &gt;= 0.5, E37 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1">
         <v>45273</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>0.622</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>0.378</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="J38" t="str" cm="1">
-        <f t="array" ref="J38">_xlfn.IFS(D38 &gt;= 0.85, "85  &lt;", AND(D38 &gt;=0.8, D38 &lt; 0.85), "80-85", AND(D38 &gt;= 0.7, D38 &lt; 0.8), "70-80", AND(D38 &gt;= 0.6, D38 &lt; 0.7),  "60-70", AND(D38 &gt;= 0.5, D38 &lt; 0.6), "50-60")</f>
+      <c r="K38" t="str" cm="1">
+        <f t="array" ref="K38">_xlfn.IFS(E38 &gt;= 0.85, "85  &lt;", AND(E38 &gt;=0.8, E38 &lt; 0.85), "80-85", AND(E38 &gt;= 0.7, E38 &lt; 0.8), "70-80", AND(E38 &gt;= 0.6, E38 &lt; 0.7),  "60-70", AND(E38 &gt;= 0.5, E38 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1">
         <v>45273</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>0.622</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>0.378</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>73</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0</v>
       </c>
-      <c r="J39" t="str" cm="1">
-        <f t="array" ref="J39">_xlfn.IFS(D39 &gt;= 0.85, "85  &lt;", AND(D39 &gt;=0.8, D39 &lt; 0.85), "80-85", AND(D39 &gt;= 0.7, D39 &lt; 0.8), "70-80", AND(D39 &gt;= 0.6, D39 &lt; 0.7),  "60-70", AND(D39 &gt;= 0.5, D39 &lt; 0.6), "50-60")</f>
+      <c r="K39" t="str" cm="1">
+        <f t="array" ref="K39">_xlfn.IFS(E39 &gt;= 0.85, "85  &lt;", AND(E39 &gt;=0.8, E39 &lt; 0.85), "80-85", AND(E39 &gt;= 0.7, E39 &lt; 0.8), "70-80", AND(E39 &gt;= 0.6, E39 &lt; 0.7),  "60-70", AND(E39 &gt;= 0.5, E39 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1">
         <v>45273</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>0.43</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>74</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0</v>
       </c>
-      <c r="J40" t="str" cm="1">
-        <f t="array" ref="J40">_xlfn.IFS(D40 &gt;= 0.85, "85  &lt;", AND(D40 &gt;=0.8, D40 &lt; 0.85), "80-85", AND(D40 &gt;= 0.7, D40 &lt; 0.8), "70-80", AND(D40 &gt;= 0.6, D40 &lt; 0.7),  "60-70", AND(D40 &gt;= 0.5, D40 &lt; 0.6), "50-60")</f>
+      <c r="K40" t="str" cm="1">
+        <f t="array" ref="K40">_xlfn.IFS(E40 &gt;= 0.85, "85  &lt;", AND(E40 &gt;=0.8, E40 &lt; 0.85), "80-85", AND(E40 &gt;= 0.7, E40 &lt; 0.8), "70-80", AND(E40 &gt;= 0.6, E40 &lt; 0.7),  "60-70", AND(E40 &gt;= 0.5, E40 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1">
         <v>45274</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>14</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0</v>
       </c>
-      <c r="J41" t="str" cm="1">
-        <f t="array" ref="J41">_xlfn.IFS(D41 &gt;= 0.85, "85  &lt;", AND(D41 &gt;=0.8, D41 &lt; 0.85), "80-85", AND(D41 &gt;= 0.7, D41 &lt; 0.8), "70-80", AND(D41 &gt;= 0.6, D41 &lt; 0.7),  "60-70", AND(D41 &gt;= 0.5, D41 &lt; 0.6), "50-60")</f>
+      <c r="K41" t="str" cm="1">
+        <f t="array" ref="K41">_xlfn.IFS(E41 &gt;= 0.85, "85  &lt;", AND(E41 &gt;=0.8, E41 &lt; 0.85), "80-85", AND(E41 &gt;= 0.7, E41 &lt; 0.8), "70-80", AND(E41 &gt;= 0.6, E41 &lt; 0.7),  "60-70", AND(E41 &gt;= 0.5, E41 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1">
         <v>45274</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>77</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="J42" t="str" cm="1">
-        <f t="array" ref="J42">_xlfn.IFS(D42 &gt;= 0.85, "85  &lt;", AND(D42 &gt;=0.8, D42 &lt; 0.85), "80-85", AND(D42 &gt;= 0.7, D42 &lt; 0.8), "70-80", AND(D42 &gt;= 0.6, D42 &lt; 0.7),  "60-70", AND(D42 &gt;= 0.5, D42 &lt; 0.6), "50-60")</f>
+      <c r="K42" t="str" cm="1">
+        <f t="array" ref="K42">_xlfn.IFS(E42 &gt;= 0.85, "85  &lt;", AND(E42 &gt;=0.8, E42 &lt; 0.85), "80-85", AND(E42 &gt;= 0.7, E42 &lt; 0.8), "70-80", AND(E42 &gt;= 0.6, E42 &lt; 0.7),  "60-70", AND(E42 &gt;= 0.5, E42 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1">
         <v>45274</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>0.69799999999999995</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>23</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="J43" t="str" cm="1">
-        <f t="array" ref="J43">_xlfn.IFS(D43 &gt;= 0.85, "85  &lt;", AND(D43 &gt;=0.8, D43 &lt; 0.85), "80-85", AND(D43 &gt;= 0.7, D43 &lt; 0.8), "70-80", AND(D43 &gt;= 0.6, D43 &lt; 0.7),  "60-70", AND(D43 &gt;= 0.5, D43 &lt; 0.6), "50-60")</f>
+      <c r="K43" t="str" cm="1">
+        <f t="array" ref="K43">_xlfn.IFS(E43 &gt;= 0.85, "85  &lt;", AND(E43 &gt;=0.8, E43 &lt; 0.85), "80-85", AND(E43 &gt;= 0.7, E43 &lt; 0.8), "70-80", AND(E43 &gt;= 0.6, E43 &lt; 0.7),  "60-70", AND(E43 &gt;= 0.5, E43 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1">
         <v>45274</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>46</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="J44" t="str" cm="1">
-        <f t="array" ref="J44">_xlfn.IFS(D44 &gt;= 0.85, "85  &lt;", AND(D44 &gt;=0.8, D44 &lt; 0.85), "80-85", AND(D44 &gt;= 0.7, D44 &lt; 0.8), "70-80", AND(D44 &gt;= 0.6, D44 &lt; 0.7),  "60-70", AND(D44 &gt;= 0.5, D44 &lt; 0.6), "50-60")</f>
+      <c r="K44" t="str" cm="1">
+        <f t="array" ref="K44">_xlfn.IFS(E44 &gt;= 0.85, "85  &lt;", AND(E44 &gt;=0.8, E44 &lt; 0.85), "80-85", AND(E44 &gt;= 0.7, E44 &lt; 0.8), "70-80", AND(E44 &gt;= 0.6, E44 &lt; 0.7),  "60-70", AND(E44 &gt;= 0.5, E44 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="1">
         <v>45274</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>0.54200000000000004</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>0.45800000000000002</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>40</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1</v>
       </c>
-      <c r="J45" t="str" cm="1">
-        <f t="array" ref="J45">_xlfn.IFS(D45 &gt;= 0.85, "85  &lt;", AND(D45 &gt;=0.8, D45 &lt; 0.85), "80-85", AND(D45 &gt;= 0.7, D45 &lt; 0.8), "70-80", AND(D45 &gt;= 0.6, D45 &lt; 0.7),  "60-70", AND(D45 &gt;= 0.5, D45 &lt; 0.6), "50-60")</f>
+      <c r="K45" t="str" cm="1">
+        <f t="array" ref="K45">_xlfn.IFS(E45 &gt;= 0.85, "85  &lt;", AND(E45 &gt;=0.8, E45 &lt; 0.85), "80-85", AND(E45 &gt;= 0.7, E45 &lt; 0.8), "70-80", AND(E45 &gt;= 0.6, E45 &lt; 0.7),  "60-70", AND(E45 &gt;= 0.5, E45 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="1">
         <v>45274</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>0.46200000000000002</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>26</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1</v>
       </c>
-      <c r="J46" t="str" cm="1">
-        <f t="array" ref="J46">_xlfn.IFS(D46 &gt;= 0.85, "85  &lt;", AND(D46 &gt;=0.8, D46 &lt; 0.85), "80-85", AND(D46 &gt;= 0.7, D46 &lt; 0.8), "70-80", AND(D46 &gt;= 0.6, D46 &lt; 0.7),  "60-70", AND(D46 &gt;= 0.5, D46 &lt; 0.6), "50-60")</f>
+      <c r="K46" t="str" cm="1">
+        <f t="array" ref="K46">_xlfn.IFS(E46 &gt;= 0.85, "85  &lt;", AND(E46 &gt;=0.8, E46 &lt; 0.85), "80-85", AND(E46 &gt;= 0.7, E46 &lt; 0.8), "70-80", AND(E46 &gt;= 0.6, E46 &lt; 0.7),  "60-70", AND(E46 &gt;= 0.5, E46 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1">
         <v>45274</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>0.52200000000000002</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>78</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0</v>
       </c>
-      <c r="J47" t="str" cm="1">
-        <f t="array" ref="J47">_xlfn.IFS(D47 &gt;= 0.85, "85  &lt;", AND(D47 &gt;=0.8, D47 &lt; 0.85), "80-85", AND(D47 &gt;= 0.7, D47 &lt; 0.8), "70-80", AND(D47 &gt;= 0.6, D47 &lt; 0.7),  "60-70", AND(D47 &gt;= 0.5, D47 &lt; 0.6), "50-60")</f>
+      <c r="K47" t="str" cm="1">
+        <f t="array" ref="K47">_xlfn.IFS(E47 &gt;= 0.85, "85  &lt;", AND(E47 &gt;=0.8, E47 &lt; 0.85), "80-85", AND(E47 &gt;= 0.7, E47 &lt; 0.8), "70-80", AND(E47 &gt;= 0.6, E47 &lt; 0.7),  "60-70", AND(E47 &gt;= 0.5, E47 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="1">
         <v>45274</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>0.50600000000000001</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>0.49399999999999999</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>70</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1</v>
       </c>
-      <c r="J48" t="str" cm="1">
-        <f t="array" ref="J48">_xlfn.IFS(D48 &gt;= 0.85, "85  &lt;", AND(D48 &gt;=0.8, D48 &lt; 0.85), "80-85", AND(D48 &gt;= 0.7, D48 &lt; 0.8), "70-80", AND(D48 &gt;= 0.6, D48 &lt; 0.7),  "60-70", AND(D48 &gt;= 0.5, D48 &lt; 0.6), "50-60")</f>
+      <c r="K48" t="str" cm="1">
+        <f t="array" ref="K48">_xlfn.IFS(E48 &gt;= 0.85, "85  &lt;", AND(E48 &gt;=0.8, E48 &lt; 0.85), "80-85", AND(E48 &gt;= 0.7, E48 &lt; 0.8), "70-80", AND(E48 &gt;= 0.6, E48 &lt; 0.7),  "60-70", AND(E48 &gt;= 0.5, E48 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1">
         <v>45275</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>0.24199999999999999</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>79</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0</v>
       </c>
-      <c r="J49" t="str" cm="1">
-        <f t="array" ref="J49">_xlfn.IFS(D49 &gt;= 0.85, "85  &lt;", AND(D49 &gt;=0.8, D49 &lt; 0.85), "80-85", AND(D49 &gt;= 0.7, D49 &lt; 0.8), "70-80", AND(D49 &gt;= 0.6, D49 &lt; 0.7),  "60-70", AND(D49 &gt;= 0.5, D49 &lt; 0.6), "50-60")</f>
+      <c r="K49" t="str" cm="1">
+        <f t="array" ref="K49">_xlfn.IFS(E49 &gt;= 0.85, "85  &lt;", AND(E49 &gt;=0.8, E49 &lt; 0.85), "80-85", AND(E49 &gt;= 0.7, E49 &lt; 0.8), "70-80", AND(E49 &gt;= 0.6, E49 &lt; 0.7),  "60-70", AND(E49 &gt;= 0.5, E49 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1">
         <v>45275</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>0.72399999999999998</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>65</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1</v>
       </c>
-      <c r="J50" t="str" cm="1">
-        <f t="array" ref="J50">_xlfn.IFS(D50 &gt;= 0.85, "85  &lt;", AND(D50 &gt;=0.8, D50 &lt; 0.85), "80-85", AND(D50 &gt;= 0.7, D50 &lt; 0.8), "70-80", AND(D50 &gt;= 0.6, D50 &lt; 0.7),  "60-70", AND(D50 &gt;= 0.5, D50 &lt; 0.6), "50-60")</f>
+      <c r="K50" t="str" cm="1">
+        <f t="array" ref="K50">_xlfn.IFS(E50 &gt;= 0.85, "85  &lt;", AND(E50 &gt;=0.8, E50 &lt; 0.85), "80-85", AND(E50 &gt;= 0.7, E50 &lt; 0.8), "70-80", AND(E50 &gt;= 0.6, E50 &lt; 0.7),  "60-70", AND(E50 &gt;= 0.5, E50 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1">
         <v>45275</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>0.71</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>62</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0</v>
       </c>
-      <c r="J51" t="str" cm="1">
-        <f t="array" ref="J51">_xlfn.IFS(D51 &gt;= 0.85, "85  &lt;", AND(D51 &gt;=0.8, D51 &lt; 0.85), "80-85", AND(D51 &gt;= 0.7, D51 &lt; 0.8), "70-80", AND(D51 &gt;= 0.6, D51 &lt; 0.7),  "60-70", AND(D51 &gt;= 0.5, D51 &lt; 0.6), "50-60")</f>
+      <c r="K51" t="str" cm="1">
+        <f t="array" ref="K51">_xlfn.IFS(E51 &gt;= 0.85, "85  &lt;", AND(E51 &gt;=0.8, E51 &lt; 0.85), "80-85", AND(E51 &gt;= 0.7, E51 &lt; 0.8), "70-80", AND(E51 &gt;= 0.6, E51 &lt; 0.7),  "60-70", AND(E51 &gt;= 0.5, E51 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="1">
         <v>45275</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>0.308</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>32</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1</v>
       </c>
-      <c r="J52" t="str" cm="1">
-        <f t="array" ref="J52">_xlfn.IFS(D52 &gt;= 0.85, "85  &lt;", AND(D52 &gt;=0.8, D52 &lt; 0.85), "80-85", AND(D52 &gt;= 0.7, D52 &lt; 0.8), "70-80", AND(D52 &gt;= 0.6, D52 &lt; 0.7),  "60-70", AND(D52 &gt;= 0.5, D52 &lt; 0.6), "50-60")</f>
+      <c r="K52" t="str" cm="1">
+        <f t="array" ref="K52">_xlfn.IFS(E52 &gt;= 0.85, "85  &lt;", AND(E52 &gt;=0.8, E52 &lt; 0.85), "80-85", AND(E52 &gt;= 0.7, E52 &lt; 0.8), "70-80", AND(E52 &gt;= 0.6, E52 &lt; 0.7),  "60-70", AND(E52 &gt;= 0.5, E52 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="1">
         <v>45275</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>0.42</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>43</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>1</v>
       </c>
-      <c r="J53" t="str" cm="1">
-        <f t="array" ref="J53">_xlfn.IFS(D53 &gt;= 0.85, "85  &lt;", AND(D53 &gt;=0.8, D53 &lt; 0.85), "80-85", AND(D53 &gt;= 0.7, D53 &lt; 0.8), "70-80", AND(D53 &gt;= 0.6, D53 &lt; 0.7),  "60-70", AND(D53 &gt;= 0.5, D53 &lt; 0.6), "50-60")</f>
+      <c r="K53" t="str" cm="1">
+        <f t="array" ref="K53">_xlfn.IFS(E53 &gt;= 0.85, "85  &lt;", AND(E53 &gt;=0.8, E53 &lt; 0.85), "80-85", AND(E53 &gt;= 0.7, E53 &lt; 0.8), "70-80", AND(E53 &gt;= 0.6, E53 &lt; 0.7),  "60-70", AND(E53 &gt;= 0.5, E53 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1">
         <v>45275</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>0.49199999999999999</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>80</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0</v>
       </c>
-      <c r="J54" t="str" cm="1">
-        <f t="array" ref="J54">_xlfn.IFS(D54 &gt;= 0.85, "85  &lt;", AND(D54 &gt;=0.8, D54 &lt; 0.85), "80-85", AND(D54 &gt;= 0.7, D54 &lt; 0.8), "70-80", AND(D54 &gt;= 0.6, D54 &lt; 0.7),  "60-70", AND(D54 &gt;= 0.5, D54 &lt; 0.6), "50-60")</f>
+      <c r="K54" t="str" cm="1">
+        <f t="array" ref="K54">_xlfn.IFS(E54 &gt;= 0.85, "85  &lt;", AND(E54 &gt;=0.8, E54 &lt; 0.85), "80-85", AND(E54 &gt;= 0.7, E54 &lt; 0.8), "70-80", AND(E54 &gt;= 0.6, E54 &lt; 0.7),  "60-70", AND(E54 &gt;= 0.5, E54 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="1">
         <v>45276</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>64</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0</v>
       </c>
-      <c r="J55" t="str" cm="1">
-        <f t="array" ref="J55">_xlfn.IFS(D55 &gt;= 0.85, "85  &lt;", AND(D55 &gt;=0.8, D55 &lt; 0.85), "80-85", AND(D55 &gt;= 0.7, D55 &lt; 0.8), "70-80", AND(D55 &gt;= 0.6, D55 &lt; 0.7),  "60-70", AND(D55 &gt;= 0.5, D55 &lt; 0.6), "50-60")</f>
+      <c r="K55" t="str" cm="1">
+        <f t="array" ref="K55">_xlfn.IFS(E55 &gt;= 0.85, "85  &lt;", AND(E55 &gt;=0.8, E55 &lt; 0.85), "80-85", AND(E55 &gt;= 0.7, E55 &lt; 0.8), "70-80", AND(E55 &gt;= 0.6, E55 &lt; 0.7),  "60-70", AND(E55 &gt;= 0.5, E55 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="1">
         <v>45276</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>0.27800000000000002</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>77</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>1</v>
       </c>
-      <c r="J56" t="str" cm="1">
-        <f t="array" ref="J56">_xlfn.IFS(D56 &gt;= 0.85, "85  &lt;", AND(D56 &gt;=0.8, D56 &lt; 0.85), "80-85", AND(D56 &gt;= 0.7, D56 &lt; 0.8), "70-80", AND(D56 &gt;= 0.6, D56 &lt; 0.7),  "60-70", AND(D56 &gt;= 0.5, D56 &lt; 0.6), "50-60")</f>
+      <c r="K56" t="str" cm="1">
+        <f t="array" ref="K56">_xlfn.IFS(E56 &gt;= 0.85, "85  &lt;", AND(E56 &gt;=0.8, E56 &lt; 0.85), "80-85", AND(E56 &gt;= 0.7, E56 &lt; 0.8), "70-80", AND(E56 &gt;= 0.6, E56 &lt; 0.7),  "60-70", AND(E56 &gt;= 0.5, E56 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="1">
         <v>45276</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>0.32200000000000001</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>81</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>1</v>
       </c>
-      <c r="J57" t="str" cm="1">
-        <f t="array" ref="J57">_xlfn.IFS(D57 &gt;= 0.85, "85  &lt;", AND(D57 &gt;=0.8, D57 &lt; 0.85), "80-85", AND(D57 &gt;= 0.7, D57 &lt; 0.8), "70-80", AND(D57 &gt;= 0.6, D57 &lt; 0.7),  "60-70", AND(D57 &gt;= 0.5, D57 &lt; 0.6), "50-60")</f>
+      <c r="K57" t="str" cm="1">
+        <f t="array" ref="K57">_xlfn.IFS(E57 &gt;= 0.85, "85  &lt;", AND(E57 &gt;=0.8, E57 &lt; 0.85), "80-85", AND(E57 &gt;= 0.7, E57 &lt; 0.8), "70-80", AND(E57 &gt;= 0.6, E57 &lt; 0.7),  "60-70", AND(E57 &gt;= 0.5, E57 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="1">
         <v>45276</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>8</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0</v>
       </c>
-      <c r="J58" t="str" cm="1">
-        <f t="array" ref="J58">_xlfn.IFS(D58 &gt;= 0.85, "85  &lt;", AND(D58 &gt;=0.8, D58 &lt; 0.85), "80-85", AND(D58 &gt;= 0.7, D58 &lt; 0.8), "70-80", AND(D58 &gt;= 0.6, D58 &lt; 0.7),  "60-70", AND(D58 &gt;= 0.5, D58 &lt; 0.6), "50-60")</f>
+      <c r="K58" t="str" cm="1">
+        <f t="array" ref="K58">_xlfn.IFS(E58 &gt;= 0.85, "85  &lt;", AND(E58 &gt;=0.8, E58 &lt; 0.85), "80-85", AND(E58 &gt;= 0.7, E58 &lt; 0.8), "70-80", AND(E58 &gt;= 0.6, E58 &lt; 0.7),  "60-70", AND(E58 &gt;= 0.5, E58 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="1">
         <v>45276</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>0.65600000000000003</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>23</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1</v>
       </c>
-      <c r="J59" t="str" cm="1">
-        <f t="array" ref="J59">_xlfn.IFS(D59 &gt;= 0.85, "85  &lt;", AND(D59 &gt;=0.8, D59 &lt; 0.85), "80-85", AND(D59 &gt;= 0.7, D59 &lt; 0.8), "70-80", AND(D59 &gt;= 0.6, D59 &lt; 0.7),  "60-70", AND(D59 &gt;= 0.5, D59 &lt; 0.6), "50-60")</f>
+      <c r="K59" t="str" cm="1">
+        <f t="array" ref="K59">_xlfn.IFS(E59 &gt;= 0.85, "85  &lt;", AND(E59 &gt;=0.8, E59 &lt; 0.85), "80-85", AND(E59 &gt;= 0.7, E59 &lt; 0.8), "70-80", AND(E59 &gt;= 0.6, E59 &lt; 0.7),  "60-70", AND(E59 &gt;= 0.5, E59 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="1">
         <v>45276</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>0.628</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>0.372</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>37</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1</v>
       </c>
-      <c r="J60" t="str" cm="1">
-        <f t="array" ref="J60">_xlfn.IFS(D60 &gt;= 0.85, "85  &lt;", AND(D60 &gt;=0.8, D60 &lt; 0.85), "80-85", AND(D60 &gt;= 0.7, D60 &lt; 0.8), "70-80", AND(D60 &gt;= 0.6, D60 &lt; 0.7),  "60-70", AND(D60 &gt;= 0.5, D60 &lt; 0.6), "50-60")</f>
+      <c r="K60" t="str" cm="1">
+        <f t="array" ref="K60">_xlfn.IFS(E60 &gt;= 0.85, "85  &lt;", AND(E60 &gt;=0.8, E60 &lt; 0.85), "80-85", AND(E60 &gt;= 0.7, E60 &lt; 0.8), "70-80", AND(E60 &gt;= 0.6, E60 &lt; 0.7),  "60-70", AND(E60 &gt;= 0.5, E60 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="1">
         <v>45276</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>0.624</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>0.376</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>80</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0</v>
       </c>
-      <c r="J61" t="str" cm="1">
-        <f t="array" ref="J61">_xlfn.IFS(D61 &gt;= 0.85, "85  &lt;", AND(D61 &gt;=0.8, D61 &lt; 0.85), "80-85", AND(D61 &gt;= 0.7, D61 &lt; 0.8), "70-80", AND(D61 &gt;= 0.6, D61 &lt; 0.7),  "60-70", AND(D61 &gt;= 0.5, D61 &lt; 0.6), "50-60")</f>
+      <c r="K61" t="str" cm="1">
+        <f t="array" ref="K61">_xlfn.IFS(E61 &gt;= 0.85, "85  &lt;", AND(E61 &gt;=0.8, E61 &lt; 0.85), "80-85", AND(E61 &gt;= 0.7, E61 &lt; 0.8), "70-80", AND(E61 &gt;= 0.6, E61 &lt; 0.7),  "60-70", AND(E61 &gt;= 0.5, E61 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="1">
         <v>45276</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>0.61</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>0.39</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>68</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1</v>
       </c>
-      <c r="J62" t="str" cm="1">
-        <f t="array" ref="J62">_xlfn.IFS(D62 &gt;= 0.85, "85  &lt;", AND(D62 &gt;=0.8, D62 &lt; 0.85), "80-85", AND(D62 &gt;= 0.7, D62 &lt; 0.8), "70-80", AND(D62 &gt;= 0.6, D62 &lt; 0.7),  "60-70", AND(D62 &gt;= 0.5, D62 &lt; 0.6), "50-60")</f>
+      <c r="K62" t="str" cm="1">
+        <f t="array" ref="K62">_xlfn.IFS(E62 &gt;= 0.85, "85  &lt;", AND(E62 &gt;=0.8, E62 &lt; 0.85), "80-85", AND(E62 &gt;= 0.7, E62 &lt; 0.8), "70-80", AND(E62 &gt;= 0.6, E62 &lt; 0.7),  "60-70", AND(E62 &gt;= 0.5, E62 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="1">
         <v>45276</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>0.40799999999999997</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>34</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1</v>
       </c>
-      <c r="J63" t="str" cm="1">
-        <f t="array" ref="J63">_xlfn.IFS(D63 &gt;= 0.85, "85  &lt;", AND(D63 &gt;=0.8, D63 &lt; 0.85), "80-85", AND(D63 &gt;= 0.7, D63 &lt; 0.8), "70-80", AND(D63 &gt;= 0.6, D63 &lt; 0.7),  "60-70", AND(D63 &gt;= 0.5, D63 &lt; 0.6), "50-60")</f>
+      <c r="K63" t="str" cm="1">
+        <f t="array" ref="K63">_xlfn.IFS(E63 &gt;= 0.85, "85  &lt;", AND(E63 &gt;=0.8, E63 &lt; 0.85), "80-85", AND(E63 &gt;= 0.7, E63 &lt; 0.8), "70-80", AND(E63 &gt;= 0.6, E63 &lt; 0.7),  "60-70", AND(E63 &gt;= 0.5, E63 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="1">
         <v>45276</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>78</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="J64" t="str" cm="1">
-        <f t="array" ref="J64">_xlfn.IFS(D64 &gt;= 0.85, "85  &lt;", AND(D64 &gt;=0.8, D64 &lt; 0.85), "80-85", AND(D64 &gt;= 0.7, D64 &lt; 0.8), "70-80", AND(D64 &gt;= 0.6, D64 &lt; 0.7),  "60-70", AND(D64 &gt;= 0.5, D64 &lt; 0.6), "50-60")</f>
+      <c r="K64" t="str" cm="1">
+        <f t="array" ref="K64">_xlfn.IFS(E64 &gt;= 0.85, "85  &lt;", AND(E64 &gt;=0.8, E64 &lt; 0.85), "80-85", AND(E64 &gt;= 0.7, E64 &lt; 0.8), "70-80", AND(E64 &gt;= 0.6, E64 &lt; 0.7),  "60-70", AND(E64 &gt;= 0.5, E64 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="1">
         <v>45276</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>35</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>0.434</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>14</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0</v>
       </c>
-      <c r="J65" t="str" cm="1">
-        <f t="array" ref="J65">_xlfn.IFS(D65 &gt;= 0.85, "85  &lt;", AND(D65 &gt;=0.8, D65 &lt; 0.85), "80-85", AND(D65 &gt;= 0.7, D65 &lt; 0.8), "70-80", AND(D65 &gt;= 0.6, D65 &lt; 0.7),  "60-70", AND(D65 &gt;= 0.5, D65 &lt; 0.6), "50-60")</f>
+      <c r="K65" t="str" cm="1">
+        <f t="array" ref="K65">_xlfn.IFS(E65 &gt;= 0.85, "85  &lt;", AND(E65 &gt;=0.8, E65 &lt; 0.85), "80-85", AND(E65 &gt;= 0.7, E65 &lt; 0.8), "70-80", AND(E65 &gt;= 0.6, E65 &lt; 0.7),  "60-70", AND(E65 &gt;= 0.5, E65 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1">
         <v>45276</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>0.55200000000000005</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>70</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0</v>
       </c>
-      <c r="J66" t="str" cm="1">
-        <f t="array" ref="J66">_xlfn.IFS(D66 &gt;= 0.85, "85  &lt;", AND(D66 &gt;=0.8, D66 &lt; 0.85), "80-85", AND(D66 &gt;= 0.7, D66 &lt; 0.8), "70-80", AND(D66 &gt;= 0.6, D66 &lt; 0.7),  "60-70", AND(D66 &gt;= 0.5, D66 &lt; 0.6), "50-60")</f>
+      <c r="K66" t="str" cm="1">
+        <f t="array" ref="K66">_xlfn.IFS(E66 &gt;= 0.85, "85  &lt;", AND(E66 &gt;=0.8, E66 &lt; 0.85), "80-85", AND(E66 &gt;= 0.7, E66 &lt; 0.8), "70-80", AND(E66 &gt;= 0.6, E66 &lt; 0.7),  "60-70", AND(E66 &gt;= 0.5, E66 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1">
         <v>45276</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>0.504</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>0.496</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1</v>
       </c>
-      <c r="J67" t="str" cm="1">
-        <f t="array" ref="J67">_xlfn.IFS(D67 &gt;= 0.85, "85  &lt;", AND(D67 &gt;=0.8, D67 &lt; 0.85), "80-85", AND(D67 &gt;= 0.7, D67 &lt; 0.8), "70-80", AND(D67 &gt;= 0.6, D67 &lt; 0.7),  "60-70", AND(D67 &gt;= 0.5, D67 &lt; 0.6), "50-60")</f>
+      <c r="K67" t="str" cm="1">
+        <f t="array" ref="K67">_xlfn.IFS(E67 &gt;= 0.85, "85  &lt;", AND(E67 &gt;=0.8, E67 &lt; 0.85), "80-85", AND(E67 &gt;= 0.7, E67 &lt; 0.8), "70-80", AND(E67 &gt;= 0.6, E67 &lt; 0.7),  "60-70", AND(E67 &gt;= 0.5, E67 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
+    <row r="68" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="9">
         <v>45277</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="9">
+      <c r="E68" s="10">
         <v>0.81</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="9">
+      <c r="H68" s="10">
         <v>0.19</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="I68" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="8">
+      <c r="J68" s="8">
         <v>1</v>
       </c>
-      <c r="J68" s="8" t="str" cm="1">
-        <f t="array" ref="J68">_xlfn.IFS(D68 &gt;= 0.85, "85  &lt;", AND(D68 &gt;=0.8, D68 &lt; 0.85), "80-85", AND(D68 &gt;= 0.7, D68 &lt; 0.8), "70-80", AND(D68 &gt;= 0.6, D68 &lt; 0.7),  "60-70", AND(D68 &gt;= 0.5, D68 &lt; 0.6), "50-60")</f>
+      <c r="K68" s="8" t="str" cm="1">
+        <f t="array" ref="K68">_xlfn.IFS(E68 &gt;= 0.85, "85  &lt;", AND(E68 &gt;=0.8, E68 &lt; 0.85), "80-85", AND(E68 &gt;= 0.7, E68 &lt; 0.8), "70-80", AND(E68 &gt;= 0.6, E68 &lt; 0.7),  "60-70", AND(E68 &gt;= 0.5, E68 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="L68" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
+    <row r="69" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="9">
         <v>45277</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="9">
+      <c r="E69" s="10">
         <v>0.748</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="9">
+      <c r="H69" s="10">
         <v>0.252</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="I69" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="8">
+      <c r="J69" s="8">
         <v>1</v>
       </c>
-      <c r="J69" s="8" t="str" cm="1">
-        <f t="array" ref="J69">_xlfn.IFS(D69 &gt;= 0.85, "85  &lt;", AND(D69 &gt;=0.8, D69 &lt; 0.85), "80-85", AND(D69 &gt;= 0.7, D69 &lt; 0.8), "70-80", AND(D69 &gt;= 0.6, D69 &lt; 0.7),  "60-70", AND(D69 &gt;= 0.5, D69 &lt; 0.6), "50-60")</f>
+      <c r="K69" s="8" t="str" cm="1">
+        <f t="array" ref="K69">_xlfn.IFS(E69 &gt;= 0.85, "85  &lt;", AND(E69 &gt;=0.8, E69 &lt; 0.85), "80-85", AND(E69 &gt;= 0.7, E69 &lt; 0.8), "70-80", AND(E69 &gt;= 0.6, E69 &lt; 0.7),  "60-70", AND(E69 &gt;= 0.5, E69 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
+    <row r="70" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="9">
         <v>45277</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="9">
+      <c r="E70" s="10">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="9">
+      <c r="H70" s="10">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I70" s="8">
+      <c r="J70" s="8">
         <v>1</v>
       </c>
-      <c r="J70" s="8" t="str" cm="1">
-        <f t="array" ref="J70">_xlfn.IFS(D70 &gt;= 0.85, "85  &lt;", AND(D70 &gt;=0.8, D70 &lt; 0.85), "80-85", AND(D70 &gt;= 0.7, D70 &lt; 0.8), "70-80", AND(D70 &gt;= 0.6, D70 &lt; 0.7),  "60-70", AND(D70 &gt;= 0.5, D70 &lt; 0.6), "50-60")</f>
+      <c r="K70" s="8" t="str" cm="1">
+        <f t="array" ref="K70">_xlfn.IFS(E70 &gt;= 0.85, "85  &lt;", AND(E70 &gt;=0.8, E70 &lt; 0.85), "80-85", AND(E70 &gt;= 0.7, E70 &lt; 0.8), "70-80", AND(E70 &gt;= 0.6, E70 &lt; 0.7),  "60-70", AND(E70 &gt;= 0.5, E70 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="7">
+    <row r="71" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="9">
         <v>45277</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="9">
+      <c r="E71" s="10">
         <v>0.69399999999999995</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="F71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="9">
+      <c r="H71" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I71" s="8">
+      <c r="J71" s="8">
         <v>0</v>
       </c>
-      <c r="J71" s="8" t="str" cm="1">
-        <f t="array" ref="J71">_xlfn.IFS(D71 &gt;= 0.85, "85  &lt;", AND(D71 &gt;=0.8, D71 &lt; 0.85), "80-85", AND(D71 &gt;= 0.7, D71 &lt; 0.8), "70-80", AND(D71 &gt;= 0.6, D71 &lt; 0.7),  "60-70", AND(D71 &gt;= 0.5, D71 &lt; 0.6), "50-60")</f>
+      <c r="K71" s="8" t="str" cm="1">
+        <f t="array" ref="K71">_xlfn.IFS(E71 &gt;= 0.85, "85  &lt;", AND(E71 &gt;=0.8, E71 &lt; 0.85), "80-85", AND(E71 &gt;= 0.7, E71 &lt; 0.8), "70-80", AND(E71 &gt;= 0.6, E71 &lt; 0.7),  "60-70", AND(E71 &gt;= 0.5, E71 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7">
+    <row r="72" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="9">
         <v>45277</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="9">
+      <c r="E72" s="10">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="F72" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="G72" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G72" s="9">
+      <c r="H72" s="10">
         <v>0.42599999999999999</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="8">
+      <c r="J72" s="8">
         <v>0</v>
       </c>
-      <c r="J72" s="8" t="str" cm="1">
-        <f t="array" ref="J72">_xlfn.IFS(D72 &gt;= 0.85, "85  &lt;", AND(D72 &gt;=0.8, D72 &lt; 0.85), "80-85", AND(D72 &gt;= 0.7, D72 &lt; 0.8), "70-80", AND(D72 &gt;= 0.6, D72 &lt; 0.7),  "60-70", AND(D72 &gt;= 0.5, D72 &lt; 0.6), "50-60")</f>
+      <c r="K72" s="8" t="str" cm="1">
+        <f t="array" ref="K72">_xlfn.IFS(E72 &gt;= 0.85, "85  &lt;", AND(E72 &gt;=0.8, E72 &lt; 0.85), "80-85", AND(E72 &gt;= 0.7, E72 &lt; 0.8), "70-80", AND(E72 &gt;= 0.6, E72 &lt; 0.7),  "60-70", AND(E72 &gt;= 0.5, E72 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="L72" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="M72" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M72" s="8" t="s">
+      <c r="N72" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="N72" s="8" t="s">
+      <c r="O72" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
+    <row r="73" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="9">
         <v>45278</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="8">
+      <c r="D73" s="8">
         <v>3</v>
       </c>
-      <c r="D73" s="9">
+      <c r="E73" s="10">
         <v>0.72</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="8">
+      <c r="G73" s="8">
         <v>3</v>
       </c>
-      <c r="G73" s="9">
+      <c r="H73" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I73" s="8">
+      <c r="J73" s="8">
         <v>0</v>
       </c>
-      <c r="J73" s="8" t="str" cm="1">
-        <f t="array" ref="J73">_xlfn.IFS(D73 &gt;= 0.85, "85  &lt;", AND(D73 &gt;=0.8, D73 &lt; 0.85), "80-85", AND(D73 &gt;= 0.7, D73 &lt; 0.8), "70-80", AND(D73 &gt;= 0.6, D73 &lt; 0.7),  "60-70", AND(D73 &gt;= 0.5, D73 &lt; 0.6), "50-60")</f>
+      <c r="K73" s="8" t="str" cm="1">
+        <f t="array" ref="K73">_xlfn.IFS(E73 &gt;= 0.85, "85  &lt;", AND(E73 &gt;=0.8, E73 &lt; 0.85), "80-85", AND(E73 &gt;= 0.7, E73 &lt; 0.8), "70-80", AND(E73 &gt;= 0.6, E73 &lt; 0.7),  "60-70", AND(E73 &gt;= 0.5, E73 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K73" s="8">
+      <c r="L73" s="8">
         <v>2</v>
       </c>
-      <c r="L73" s="8">
+      <c r="M73" s="8">
         <v>3</v>
       </c>
-      <c r="M73" s="8">
-        <f>ABS(C73-K73)</f>
+      <c r="N73" s="8">
+        <f>ABS(D73-L73)</f>
         <v>1</v>
       </c>
-      <c r="N73" s="8">
-        <f>ABS(F73-L73)</f>
+      <c r="O73" s="8">
+        <f>ABS(G73-M73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
+    <row r="74" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="9">
         <v>45278</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="8">
+      <c r="D74" s="8">
         <v>4</v>
       </c>
-      <c r="D74" s="9">
+      <c r="E74" s="10">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F74" s="8">
+      <c r="G74" s="8">
         <v>2</v>
       </c>
-      <c r="G74" s="9">
+      <c r="H74" s="10">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I74" s="8">
+      <c r="J74" s="8">
         <v>1</v>
       </c>
-      <c r="J74" s="8" t="str" cm="1">
-        <f t="array" ref="J74">_xlfn.IFS(D74 &gt;= 0.85, "85  &lt;", AND(D74 &gt;=0.8, D74 &lt; 0.85), "80-85", AND(D74 &gt;= 0.7, D74 &lt; 0.8), "70-80", AND(D74 &gt;= 0.6, D74 &lt; 0.7),  "60-70", AND(D74 &gt;= 0.5, D74 &lt; 0.6), "50-60")</f>
+      <c r="K74" s="8" t="str" cm="1">
+        <f t="array" ref="K74">_xlfn.IFS(E74 &gt;= 0.85, "85  &lt;", AND(E74 &gt;=0.8, E74 &lt; 0.85), "80-85", AND(E74 &gt;= 0.7, E74 &lt; 0.8), "70-80", AND(E74 &gt;= 0.6, E74 &lt; 0.7),  "60-70", AND(E74 &gt;= 0.5, E74 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K74" s="8">
+      <c r="L74" s="8">
         <v>4</v>
       </c>
-      <c r="L74" s="8">
+      <c r="M74" s="8">
         <v>3</v>
       </c>
-      <c r="M74" s="8">
-        <f t="shared" ref="M74:M107" si="0">ABS(C74-K74)</f>
+      <c r="N74" s="8">
+        <f t="shared" ref="N74:N121" si="0">ABS(D74-L74)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="8">
-        <f t="shared" ref="N74:N107" si="1">ABS(F74-L74)</f>
+      <c r="O74" s="8">
+        <f t="shared" ref="O74:O121" si="1">ABS(G74-M74)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
+    <row r="75" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="9">
         <v>45278</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="8">
+      <c r="D75" s="8">
         <v>1</v>
       </c>
-      <c r="D75" s="9">
+      <c r="E75" s="10">
         <v>0.58599999999999997</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F75" s="8">
+      <c r="G75" s="8">
         <v>3</v>
       </c>
-      <c r="G75" s="9">
+      <c r="H75" s="10">
         <v>0.41399999999999998</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="I75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I75" s="8">
+      <c r="J75" s="8">
         <v>0</v>
       </c>
-      <c r="J75" s="8" t="str" cm="1">
-        <f t="array" ref="J75">_xlfn.IFS(D75 &gt;= 0.85, "85  &lt;", AND(D75 &gt;=0.8, D75 &lt; 0.85), "80-85", AND(D75 &gt;= 0.7, D75 &lt; 0.8), "70-80", AND(D75 &gt;= 0.6, D75 &lt; 0.7),  "60-70", AND(D75 &gt;= 0.5, D75 &lt; 0.6), "50-60")</f>
+      <c r="K75" s="8" t="str" cm="1">
+        <f t="array" ref="K75">_xlfn.IFS(E75 &gt;= 0.85, "85  &lt;", AND(E75 &gt;=0.8, E75 &lt; 0.85), "80-85", AND(E75 &gt;= 0.7, E75 &lt; 0.8), "70-80", AND(E75 &gt;= 0.6, E75 &lt; 0.7),  "60-70", AND(E75 &gt;= 0.5, E75 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K75" s="8">
+      <c r="L75" s="8">
         <v>3</v>
       </c>
-      <c r="L75" s="8">
+      <c r="M75" s="8">
         <v>2</v>
       </c>
-      <c r="M75" s="8">
+      <c r="N75" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N75" s="8">
+      <c r="O75" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
+    <row r="76" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="9">
         <v>45278</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="8">
+      <c r="D76" s="8">
         <v>4</v>
       </c>
-      <c r="D76" s="9">
+      <c r="E76" s="10">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="F76" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="8">
+      <c r="G76" s="8">
         <v>3</v>
       </c>
-      <c r="G76" s="9">
+      <c r="H76" s="10">
         <v>0.41599999999999998</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="I76" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I76" s="8">
+      <c r="J76" s="8">
         <v>1</v>
       </c>
-      <c r="J76" s="8" t="str" cm="1">
-        <f t="array" ref="J76">_xlfn.IFS(D76 &gt;= 0.85, "85  &lt;", AND(D76 &gt;=0.8, D76 &lt; 0.85), "80-85", AND(D76 &gt;= 0.7, D76 &lt; 0.8), "70-80", AND(D76 &gt;= 0.6, D76 &lt; 0.7),  "60-70", AND(D76 &gt;= 0.5, D76 &lt; 0.6), "50-60")</f>
+      <c r="K76" s="8" t="str" cm="1">
+        <f t="array" ref="K76">_xlfn.IFS(E76 &gt;= 0.85, "85  &lt;", AND(E76 &gt;=0.8, E76 &lt; 0.85), "80-85", AND(E76 &gt;= 0.7, E76 &lt; 0.8), "70-80", AND(E76 &gt;= 0.6, E76 &lt; 0.7),  "60-70", AND(E76 &gt;= 0.5, E76 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K76" s="8">
+      <c r="L76" s="8">
         <v>4</v>
       </c>
-      <c r="L76" s="8">
+      <c r="M76" s="8">
         <v>3</v>
       </c>
-      <c r="M76" s="8">
+      <c r="N76" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N76" s="8">
+      <c r="O76" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
+    <row r="77" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="9">
         <v>45278</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="8">
+      <c r="D77" s="8">
         <v>4</v>
       </c>
-      <c r="D77" s="9">
+      <c r="E77" s="10">
         <v>0.502</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="F77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="8">
+      <c r="G77" s="8">
         <v>3</v>
       </c>
-      <c r="G77" s="9">
+      <c r="H77" s="10">
         <v>0.498</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="I77" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="8">
+      <c r="J77" s="8">
         <v>0</v>
       </c>
-      <c r="J77" s="8" t="str" cm="1">
-        <f t="array" ref="J77">_xlfn.IFS(D77 &gt;= 0.85, "85  &lt;", AND(D77 &gt;=0.8, D77 &lt; 0.85), "80-85", AND(D77 &gt;= 0.7, D77 &lt; 0.8), "70-80", AND(D77 &gt;= 0.6, D77 &lt; 0.7),  "60-70", AND(D77 &gt;= 0.5, D77 &lt; 0.6), "50-60")</f>
+      <c r="K77" s="8" t="str" cm="1">
+        <f t="array" ref="K77">_xlfn.IFS(E77 &gt;= 0.85, "85  &lt;", AND(E77 &gt;=0.8, E77 &lt; 0.85), "80-85", AND(E77 &gt;= 0.7, E77 &lt; 0.8), "70-80", AND(E77 &gt;= 0.6, E77 &lt; 0.7),  "60-70", AND(E77 &gt;= 0.5, E77 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K77" s="8">
+      <c r="L77" s="8">
         <v>3</v>
       </c>
-      <c r="L77" s="8">
+      <c r="M77" s="8">
         <v>4</v>
       </c>
-      <c r="M77" s="8">
+      <c r="N77" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N77" s="8">
+      <c r="O77" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="1">
         <v>45279</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>42</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>2</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>0.84399999999999997</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>61</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>4</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>0.156</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>67</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1</v>
       </c>
-      <c r="J78" t="str" cm="1">
-        <f t="array" ref="J78">_xlfn.IFS(D78 &gt;= 0.85, "85  &lt;", AND(D78 &gt;=0.8, D78 &lt; 0.85), "80-85", AND(D78 &gt;= 0.7, D78 &lt; 0.8), "70-80", AND(D78 &gt;= 0.6, D78 &lt; 0.7),  "60-70", AND(D78 &gt;= 0.5, D78 &lt; 0.6), "50-60")</f>
+      <c r="K78" t="str" cm="1">
+        <f t="array" ref="K78">_xlfn.IFS(E78 &gt;= 0.85, "85  &lt;", AND(E78 &gt;=0.8, E78 &lt; 0.85), "80-85", AND(E78 &gt;= 0.7, E78 &lt; 0.8), "70-80", AND(E78 &gt;= 0.6, E78 &lt; 0.7),  "60-70", AND(E78 &gt;= 0.5, E78 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>4</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>1</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="1">
         <v>45279</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>16</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>4</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>17</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0</v>
       </c>
-      <c r="J79" t="str" cm="1">
-        <f t="array" ref="J79">_xlfn.IFS(D79 &gt;= 0.85, "85  &lt;", AND(D79 &gt;=0.8, D79 &lt; 0.85), "80-85", AND(D79 &gt;= 0.7, D79 &lt; 0.8), "70-80", AND(D79 &gt;= 0.6, D79 &lt; 0.7),  "60-70", AND(D79 &gt;= 0.5, D79 &lt; 0.6), "50-60")</f>
+      <c r="K79" t="str" cm="1">
+        <f t="array" ref="K79">_xlfn.IFS(E79 &gt;= 0.85, "85  &lt;", AND(E79 &gt;=0.8, E79 &lt; 0.85), "80-85", AND(E79 &gt;= 0.7, E79 &lt; 0.8), "70-80", AND(E79 &gt;= 0.6, E79 &lt; 0.7),  "60-70", AND(E79 &gt;= 0.5, E79 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>2</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>3</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="1">
         <v>45279</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>24</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>5</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>2</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>0.27800000000000002</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>91</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>1</v>
       </c>
-      <c r="J80" t="str" cm="1">
-        <f t="array" ref="J80">_xlfn.IFS(D80 &gt;= 0.85, "85  &lt;", AND(D80 &gt;=0.8, D80 &lt; 0.85), "80-85", AND(D80 &gt;= 0.7, D80 &lt; 0.8), "70-80", AND(D80 &gt;= 0.6, D80 &lt; 0.7),  "60-70", AND(D80 &gt;= 0.5, D80 &lt; 0.6), "50-60")</f>
+      <c r="K80" t="str" cm="1">
+        <f t="array" ref="K80">_xlfn.IFS(E80 &gt;= 0.85, "85  &lt;", AND(E80 &gt;=0.8, E80 &lt; 0.85), "80-85", AND(E80 &gt;= 0.7, E80 &lt; 0.8), "70-80", AND(E80 &gt;= 0.6, E80 &lt; 0.7),  "60-70", AND(E80 &gt;= 0.5, E80 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>6</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>1</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="1">
         <v>45279</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>3</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>63</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>3</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>8</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0</v>
       </c>
-      <c r="J81" t="str" cm="1">
-        <f t="array" ref="J81">_xlfn.IFS(D81 &gt;= 0.85, "85  &lt;", AND(D81 &gt;=0.8, D81 &lt; 0.85), "80-85", AND(D81 &gt;= 0.7, D81 &lt; 0.8), "70-80", AND(D81 &gt;= 0.6, D81 &lt; 0.7),  "60-70", AND(D81 &gt;= 0.5, D81 &lt; 0.6), "50-60")</f>
+      <c r="K81" t="str" cm="1">
+        <f t="array" ref="K81">_xlfn.IFS(E81 &gt;= 0.85, "85  &lt;", AND(E81 &gt;=0.8, E81 &lt; 0.85), "80-85", AND(E81 &gt;= 0.7, E81 &lt; 0.8), "70-80", AND(E81 &gt;= 0.6, E81 &lt; 0.7),  "60-70", AND(E81 &gt;= 0.5, E81 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>4</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="1">
         <v>45279</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>22</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>3</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>0.63200000000000001</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>44</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>3</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>0.36799999999999999</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>68</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0</v>
       </c>
-      <c r="J82" t="str" cm="1">
-        <f t="array" ref="J82">_xlfn.IFS(D82 &gt;= 0.85, "85  &lt;", AND(D82 &gt;=0.8, D82 &lt; 0.85), "80-85", AND(D82 &gt;= 0.7, D82 &lt; 0.8), "70-80", AND(D82 &gt;= 0.6, D82 &lt; 0.7),  "60-70", AND(D82 &gt;= 0.5, D82 &lt; 0.6), "50-60")</f>
+      <c r="K82" t="str" cm="1">
+        <f t="array" ref="K82">_xlfn.IFS(E82 &gt;= 0.85, "85  &lt;", AND(E82 &gt;=0.8, E82 &lt; 0.85), "80-85", AND(E82 &gt;= 0.7, E82 &lt; 0.8), "70-80", AND(E82 &gt;= 0.6, E82 &lt; 0.7),  "60-70", AND(E82 &gt;= 0.5, E82 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>2</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>5</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1">
         <v>45279</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>3</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>0.61399999999999999</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>10</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>3</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>0.38600000000000001</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>73</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0</v>
       </c>
-      <c r="J83" t="str" cm="1">
-        <f t="array" ref="J83">_xlfn.IFS(D83 &gt;= 0.85, "85  &lt;", AND(D83 &gt;=0.8, D83 &lt; 0.85), "80-85", AND(D83 &gt;= 0.7, D83 &lt; 0.8), "70-80", AND(D83 &gt;= 0.6, D83 &lt; 0.7),  "60-70", AND(D83 &gt;= 0.5, D83 &lt; 0.6), "50-60")</f>
+      <c r="K83" t="str" cm="1">
+        <f t="array" ref="K83">_xlfn.IFS(E83 &gt;= 0.85, "85  &lt;", AND(E83 &gt;=0.8, E83 &lt; 0.85), "80-85", AND(E83 &gt;= 0.7, E83 &lt; 0.8), "70-80", AND(E83 &gt;= 0.6, E83 &lt; 0.7),  "60-70", AND(E83 &gt;= 0.5, E83 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>2</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>3</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="1">
         <v>45279</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>45</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>3</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>31</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>3</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <v>0.39400000000000002</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>79</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>1</v>
       </c>
-      <c r="J84" t="str" cm="1">
-        <f t="array" ref="J84">_xlfn.IFS(D84 &gt;= 0.85, "85  &lt;", AND(D84 &gt;=0.8, D84 &lt; 0.85), "80-85", AND(D84 &gt;= 0.7, D84 &lt; 0.8), "70-80", AND(D84 &gt;= 0.6, D84 &lt; 0.7),  "60-70", AND(D84 &gt;= 0.5, D84 &lt; 0.6), "50-60")</f>
+      <c r="K84" t="str" cm="1">
+        <f t="array" ref="K84">_xlfn.IFS(E84 &gt;= 0.85, "85  &lt;", AND(E84 &gt;=0.8, E84 &lt; 0.85), "80-85", AND(E84 &gt;= 0.7, E84 &lt; 0.8), "70-80", AND(E84 &gt;= 0.6, E84 &lt; 0.7),  "60-70", AND(E84 &gt;= 0.5, E84 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>6</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>3</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="1">
         <v>45279</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>21</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>2</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>0.60399999999999998</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>27</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>4</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>0.39600000000000002</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>23</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0</v>
       </c>
-      <c r="J85" t="str" cm="1">
-        <f t="array" ref="J85">_xlfn.IFS(D85 &gt;= 0.85, "85  &lt;", AND(D85 &gt;=0.8, D85 &lt; 0.85), "80-85", AND(D85 &gt;= 0.7, D85 &lt; 0.8), "70-80", AND(D85 &gt;= 0.6, D85 &lt; 0.7),  "60-70", AND(D85 &gt;= 0.5, D85 &lt; 0.6), "50-60")</f>
+      <c r="K85" t="str" cm="1">
+        <f t="array" ref="K85">_xlfn.IFS(E85 &gt;= 0.85, "85  &lt;", AND(E85 &gt;=0.8, E85 &lt; 0.85), "80-85", AND(E85 &gt;= 0.7, E85 &lt; 0.8), "70-80", AND(E85 &gt;= 0.6, E85 &lt; 0.7),  "60-70", AND(E85 &gt;= 0.5, E85 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>2</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>5</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="1">
         <v>45279</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>12</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>0.58399999999999996</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>41</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>4</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>0.41599999999999998</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>43</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0</v>
       </c>
-      <c r="J86" t="str" cm="1">
-        <f t="array" ref="J86">_xlfn.IFS(D86 &gt;= 0.85, "85  &lt;", AND(D86 &gt;=0.8, D86 &lt; 0.85), "80-85", AND(D86 &gt;= 0.7, D86 &lt; 0.8), "70-80", AND(D86 &gt;= 0.6, D86 &lt; 0.7),  "60-70", AND(D86 &gt;= 0.5, D86 &lt; 0.6), "50-60")</f>
+      <c r="K86" t="str" cm="1">
+        <f t="array" ref="K86">_xlfn.IFS(E86 &gt;= 0.85, "85  &lt;", AND(E86 &gt;=0.8, E86 &lt; 0.85), "80-85", AND(E86 &gt;= 0.7, E86 &lt; 0.8), "70-80", AND(E86 &gt;= 0.6, E86 &lt; 0.7),  "60-70", AND(E86 &gt;= 0.5, E86 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>1</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>3</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="1">
         <v>45279</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>48</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>4</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>36</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>3</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <v>0.44</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>49</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0</v>
       </c>
-      <c r="J87" t="str" cm="1">
-        <f t="array" ref="J87">_xlfn.IFS(D87 &gt;= 0.85, "85  &lt;", AND(D87 &gt;=0.8, D87 &lt; 0.85), "80-85", AND(D87 &gt;= 0.7, D87 &lt; 0.8), "70-80", AND(D87 &gt;= 0.6, D87 &lt; 0.7),  "60-70", AND(D87 &gt;= 0.5, D87 &lt; 0.6), "50-60")</f>
+      <c r="K87" t="str" cm="1">
+        <f t="array" ref="K87">_xlfn.IFS(E87 &gt;= 0.85, "85  &lt;", AND(E87 &gt;=0.8, E87 &lt; 0.85), "80-85", AND(E87 &gt;= 0.7, E87 &lt; 0.8), "70-80", AND(E87 &gt;= 0.6, E87 &lt; 0.7),  "60-70", AND(E87 &gt;= 0.5, E87 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>4</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>9</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="1">
         <v>45279</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>38</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>7</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>4</v>
       </c>
-      <c r="G88" s="2">
+      <c r="H88" s="2">
         <v>0.45200000000000001</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>80</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0</v>
       </c>
-      <c r="J88" t="str" cm="1">
-        <f t="array" ref="J88">_xlfn.IFS(D88 &gt;= 0.85, "85  &lt;", AND(D88 &gt;=0.8, D88 &lt; 0.85), "80-85", AND(D88 &gt;= 0.7, D88 &lt; 0.8), "70-80", AND(D88 &gt;= 0.6, D88 &lt; 0.7),  "60-70", AND(D88 &gt;= 0.5, D88 &lt; 0.6), "50-60")</f>
+      <c r="K88" t="str" cm="1">
+        <f t="array" ref="K88">_xlfn.IFS(E88 &gt;= 0.85, "85  &lt;", AND(E88 &gt;=0.8, E88 &lt; 0.85), "80-85", AND(E88 &gt;= 0.7, E88 &lt; 0.8), "70-80", AND(E88 &gt;= 0.6, E88 &lt; 0.7),  "60-70", AND(E88 &gt;= 0.5, E88 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>3</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>4</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="1">
         <v>45280</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>18</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>3</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>0.71199999999999997</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>39</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>3</v>
       </c>
-      <c r="G89" s="2">
+      <c r="H89" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>81</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1</v>
       </c>
-      <c r="J89" t="str" cm="1">
-        <f t="array" ref="J89">_xlfn.IFS(D89 &gt;= 0.85, "85  &lt;", AND(D89 &gt;=0.8, D89 &lt; 0.85), "80-85", AND(D89 &gt;= 0.7, D89 &lt; 0.8), "70-80", AND(D89 &gt;= 0.6, D89 &lt; 0.7),  "60-70", AND(D89 &gt;= 0.5, D89 &lt; 0.6), "50-60")</f>
+      <c r="K89" t="str" cm="1">
+        <f t="array" ref="K89">_xlfn.IFS(E89 &gt;= 0.85, "85  &lt;", AND(E89 &gt;=0.8, E89 &lt; 0.85), "80-85", AND(E89 &gt;= 0.7, E89 &lt; 0.8), "70-80", AND(E89 &gt;= 0.6, E89 &lt; 0.7),  "60-70", AND(E89 &gt;= 0.5, E89 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>5</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>2</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="1">
         <v>45280</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>42</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>3</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>25</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>3</v>
       </c>
-      <c r="G90" s="2">
+      <c r="H90" s="2">
         <v>0.33400000000000002</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>74</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0</v>
       </c>
-      <c r="J90" t="str" cm="1">
-        <f t="array" ref="J90">_xlfn.IFS(D90 &gt;= 0.85, "85  &lt;", AND(D90 &gt;=0.8, D90 &lt; 0.85), "80-85", AND(D90 &gt;= 0.7, D90 &lt; 0.8), "70-80", AND(D90 &gt;= 0.6, D90 &lt; 0.7),  "60-70", AND(D90 &gt;= 0.5, D90 &lt; 0.6), "50-60")</f>
+      <c r="K90" t="str" cm="1">
+        <f t="array" ref="K90">_xlfn.IFS(E90 &gt;= 0.85, "85  &lt;", AND(E90 &gt;=0.8, E90 &lt; 0.85), "80-85", AND(E90 &gt;= 0.7, E90 &lt; 0.8), "70-80", AND(E90 &gt;= 0.6, E90 &lt; 0.7),  "60-70", AND(E90 &gt;= 0.5, E90 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>1</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>2</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="1">
         <v>45280</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>41</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>2</v>
       </c>
-      <c r="D91" s="2">
+      <c r="E91" s="2">
         <v>0.55400000000000005</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>28</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>3</v>
       </c>
-      <c r="G91" s="2">
+      <c r="H91" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>29</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0</v>
       </c>
-      <c r="J91" t="str" cm="1">
-        <f t="array" ref="J91">_xlfn.IFS(D91 &gt;= 0.85, "85  &lt;", AND(D91 &gt;=0.8, D91 &lt; 0.85), "80-85", AND(D91 &gt;= 0.7, D91 &lt; 0.8), "70-80", AND(D91 &gt;= 0.6, D91 &lt; 0.7),  "60-70", AND(D91 &gt;= 0.5, D91 &lt; 0.6), "50-60")</f>
+      <c r="K91" t="str" cm="1">
+        <f t="array" ref="K91">_xlfn.IFS(E91 &gt;= 0.85, "85  &lt;", AND(E91 &gt;=0.8, E91 &lt; 0.85), "80-85", AND(E91 &gt;= 0.7, E91 &lt; 0.8), "70-80", AND(E91 &gt;= 0.6, E91 &lt; 0.7),  "60-70", AND(E91 &gt;= 0.5, E91 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>3</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>2</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="1">
         <v>45281</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>63</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>4</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>0.80400000000000005</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>47</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>2</v>
       </c>
-      <c r="G92" s="2">
+      <c r="H92" s="2">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>77</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1</v>
       </c>
-      <c r="J92" t="str" cm="1">
-        <f t="array" ref="J92">_xlfn.IFS(D92 &gt;= 0.85, "85  &lt;", AND(D92 &gt;=0.8, D92 &lt; 0.85), "80-85", AND(D92 &gt;= 0.7, D92 &lt; 0.8), "70-80", AND(D92 &gt;= 0.6, D92 &lt; 0.7),  "60-70", AND(D92 &gt;= 0.5, D92 &lt; 0.6), "50-60")</f>
+      <c r="K92" t="str" cm="1">
+        <f t="array" ref="K92">_xlfn.IFS(E92 &gt;= 0.85, "85  &lt;", AND(E92 &gt;=0.8, E92 &lt; 0.85), "80-85", AND(E92 &gt;= 0.7, E92 &lt; 0.8), "70-80", AND(E92 &gt;= 0.6, E92 &lt; 0.7),  "60-70", AND(E92 &gt;= 0.5, E92 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>4</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>3</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="1">
         <v>45281</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>35</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>4</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>0.75</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>15</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>3</v>
       </c>
-      <c r="G93" s="2">
+      <c r="H93" s="2">
         <v>0.25</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>93</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>0</v>
       </c>
-      <c r="J93" t="str" cm="1">
-        <f t="array" ref="J93">_xlfn.IFS(D93 &gt;= 0.85, "85  &lt;", AND(D93 &gt;=0.8, D93 &lt; 0.85), "80-85", AND(D93 &gt;= 0.7, D93 &lt; 0.8), "70-80", AND(D93 &gt;= 0.6, D93 &lt; 0.7),  "60-70", AND(D93 &gt;= 0.5, D93 &lt; 0.6), "50-60")</f>
+      <c r="K93" t="str" cm="1">
+        <f t="array" ref="K93">_xlfn.IFS(E93 &gt;= 0.85, "85  &lt;", AND(E93 &gt;=0.8, E93 &lt; 0.85), "80-85", AND(E93 &gt;= 0.7, E93 &lt; 0.8), "70-80", AND(E93 &gt;= 0.6, E93 &lt; 0.7),  "60-70", AND(E93 &gt;= 0.5, E93 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>1</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>4</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="1">
         <v>45281</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>2</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>0.72</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>61</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>4</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>67</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>1</v>
       </c>
-      <c r="J94" t="str" cm="1">
-        <f t="array" ref="J94">_xlfn.IFS(D94 &gt;= 0.85, "85  &lt;", AND(D94 &gt;=0.8, D94 &lt; 0.85), "80-85", AND(D94 &gt;= 0.7, D94 &lt; 0.8), "70-80", AND(D94 &gt;= 0.6, D94 &lt; 0.7),  "60-70", AND(D94 &gt;= 0.5, D94 &lt; 0.6), "50-60")</f>
+      <c r="K94" t="str" cm="1">
+        <f t="array" ref="K94">_xlfn.IFS(E94 &gt;= 0.85, "85  &lt;", AND(E94 &gt;=0.8, E94 &lt; 0.85), "80-85", AND(E94 &gt;= 0.7, E94 &lt; 0.8), "70-80", AND(E94 &gt;= 0.6, E94 &lt; 0.7),  "60-70", AND(E94 &gt;= 0.5, E94 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>5</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>2</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="1">
         <v>45281</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>33</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>3</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>0.71599999999999997</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>19</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>4</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>0.28399999999999997</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>20</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>1</v>
       </c>
-      <c r="J95" t="str" cm="1">
-        <f t="array" ref="J95">_xlfn.IFS(D95 &gt;= 0.85, "85  &lt;", AND(D95 &gt;=0.8, D95 &lt; 0.85), "80-85", AND(D95 &gt;= 0.7, D95 &lt; 0.8), "70-80", AND(D95 &gt;= 0.6, D95 &lt; 0.7),  "60-70", AND(D95 &gt;= 0.5, D95 &lt; 0.6), "50-60")</f>
+      <c r="K95" t="str" cm="1">
+        <f t="array" ref="K95">_xlfn.IFS(E95 &gt;= 0.85, "85  &lt;", AND(E95 &gt;=0.8, E95 &lt; 0.85), "80-85", AND(E95 &gt;= 0.7, E95 &lt; 0.8), "70-80", AND(E95 &gt;= 0.6, E95 &lt; 0.7),  "60-70", AND(E95 &gt;= 0.5, E95 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>3</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>0</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="1">
         <v>45281</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>4</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>38</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>3</v>
       </c>
-      <c r="G96" s="2">
+      <c r="H96" s="2">
         <v>0.29199999999999998</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>11</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>1</v>
       </c>
-      <c r="J96" t="str" cm="1">
-        <f t="array" ref="J96">_xlfn.IFS(D96 &gt;= 0.85, "85  &lt;", AND(D96 &gt;=0.8, D96 &lt; 0.85), "80-85", AND(D96 &gt;= 0.7, D96 &lt; 0.8), "70-80", AND(D96 &gt;= 0.6, D96 &lt; 0.7),  "60-70", AND(D96 &gt;= 0.5, D96 &lt; 0.6), "50-60")</f>
+      <c r="K96" t="str" cm="1">
+        <f t="array" ref="K96">_xlfn.IFS(E96 &gt;= 0.85, "85  &lt;", AND(E96 &gt;=0.8, E96 &lt; 0.85), "80-85", AND(E96 &gt;= 0.7, E96 &lt; 0.8), "70-80", AND(E96 &gt;= 0.6, E96 &lt; 0.7),  "60-70", AND(E96 &gt;= 0.5, E96 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>6</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>4</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1">
         <v>45281</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>30</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>4</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>0.66800000000000004</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>44</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>3</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>0.33200000000000002</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>32</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1</v>
       </c>
-      <c r="J97" t="str" cm="1">
-        <f t="array" ref="J97">_xlfn.IFS(D97 &gt;= 0.85, "85  &lt;", AND(D97 &gt;=0.8, D97 &lt; 0.85), "80-85", AND(D97 &gt;= 0.7, D97 &lt; 0.8), "70-80", AND(D97 &gt;= 0.6, D97 &lt; 0.7),  "60-70", AND(D97 &gt;= 0.5, D97 &lt; 0.6), "50-60")</f>
+      <c r="K97" t="str" cm="1">
+        <f t="array" ref="K97">_xlfn.IFS(E97 &gt;= 0.85, "85  &lt;", AND(E97 &gt;=0.8, E97 &lt; 0.85), "80-85", AND(E97 &gt;= 0.7, E97 &lt; 0.8), "70-80", AND(E97 &gt;= 0.6, E97 &lt; 0.7),  "60-70", AND(E97 &gt;= 0.5, E97 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>4</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>3</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1">
         <v>45281</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>24</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>3</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>31</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>3</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>91</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1</v>
       </c>
-      <c r="J98" t="str" cm="1">
-        <f t="array" ref="J98">_xlfn.IFS(D98 &gt;= 0.85, "85  &lt;", AND(D98 &gt;=0.8, D98 &lt; 0.85), "80-85", AND(D98 &gt;= 0.7, D98 &lt; 0.8), "70-80", AND(D98 &gt;= 0.6, D98 &lt; 0.7),  "60-70", AND(D98 &gt;= 0.5, D98 &lt; 0.6), "50-60")</f>
+      <c r="K98" t="str" cm="1">
+        <f t="array" ref="K98">_xlfn.IFS(E98 &gt;= 0.85, "85  &lt;", AND(E98 &gt;=0.8, E98 &lt; 0.85), "80-85", AND(E98 &gt;= 0.7, E98 &lt; 0.8), "70-80", AND(E98 &gt;= 0.6, E98 &lt; 0.7),  "60-70", AND(E98 &gt;= 0.5, E98 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>5</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>4</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
         <v>45281</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>21</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>3</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>0.63</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>48</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>4</v>
       </c>
-      <c r="G99" s="2">
+      <c r="H99" s="2">
         <v>0.37</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>49</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0</v>
       </c>
-      <c r="J99" t="str" cm="1">
-        <f t="array" ref="J99">_xlfn.IFS(D99 &gt;= 0.85, "85  &lt;", AND(D99 &gt;=0.8, D99 &lt; 0.85), "80-85", AND(D99 &gt;= 0.7, D99 &lt; 0.8), "70-80", AND(D99 &gt;= 0.6, D99 &lt; 0.7),  "60-70", AND(D99 &gt;= 0.5, D99 &lt; 0.6), "50-60")</f>
+      <c r="K99" t="str" cm="1">
+        <f t="array" ref="K99">_xlfn.IFS(E99 &gt;= 0.85, "85  &lt;", AND(E99 &gt;=0.8, E99 &lt; 0.85), "80-85", AND(E99 &gt;= 0.7, E99 &lt; 0.8), "70-80", AND(E99 &gt;= 0.6, E99 &lt; 0.7),  "60-70", AND(E99 &gt;= 0.5, E99 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>3</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>9</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
         <v>45281</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>28</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>3</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>0.622</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>36</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>4</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <v>0.378</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>37</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>1</v>
       </c>
-      <c r="J100" t="str" cm="1">
-        <f t="array" ref="J100">_xlfn.IFS(D100 &gt;= 0.85, "85  &lt;", AND(D100 &gt;=0.8, D100 &lt; 0.85), "80-85", AND(D100 &gt;= 0.7, D100 &lt; 0.8), "70-80", AND(D100 &gt;= 0.6, D100 &lt; 0.7),  "60-70", AND(D100 &gt;= 0.5, D100 &lt; 0.6), "50-60")</f>
+      <c r="K100" t="str" cm="1">
+        <f t="array" ref="K100">_xlfn.IFS(E100 &gt;= 0.85, "85  &lt;", AND(E100 &gt;=0.8, E100 &lt; 0.85), "80-85", AND(E100 &gt;= 0.7, E100 &lt; 0.8), "70-80", AND(E100 &gt;= 0.6, E100 &lt; 0.7),  "60-70", AND(E100 &gt;= 0.5, E100 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>3</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>2</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
         <v>45281</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>3</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>0.52</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>13</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>4</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H101" s="2">
         <v>0.48</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>73</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1</v>
       </c>
-      <c r="J101" t="str" cm="1">
-        <f t="array" ref="J101">_xlfn.IFS(D101 &gt;= 0.85, "85  &lt;", AND(D101 &gt;=0.8, D101 &lt; 0.85), "80-85", AND(D101 &gt;= 0.7, D101 &lt; 0.8), "70-80", AND(D101 &gt;= 0.6, D101 &lt; 0.7),  "60-70", AND(D101 &gt;= 0.5, D101 &lt; 0.6), "50-60")</f>
+      <c r="K101" t="str" cm="1">
+        <f t="array" ref="K101">_xlfn.IFS(E101 &gt;= 0.85, "85  &lt;", AND(E101 &gt;=0.8, E101 &lt; 0.85), "80-85", AND(E101 &gt;= 0.7, E101 &lt; 0.8), "70-80", AND(E101 &gt;= 0.6, E101 &lt; 0.7),  "60-70", AND(E101 &gt;= 0.5, E101 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>6</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>3</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1">
         <v>45281</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>10</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>3</v>
       </c>
-      <c r="D102" s="2">
+      <c r="E102" s="2">
         <v>0.51800000000000002</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>22</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>3</v>
       </c>
-      <c r="G102" s="2">
+      <c r="H102" s="2">
         <v>0.48199999999999998</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>78</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>0</v>
       </c>
-      <c r="J102" t="str" cm="1">
-        <f t="array" ref="J102">_xlfn.IFS(D102 &gt;= 0.85, "85  &lt;", AND(D102 &gt;=0.8, D102 &lt; 0.85), "80-85", AND(D102 &gt;= 0.7, D102 &lt; 0.8), "70-80", AND(D102 &gt;= 0.6, D102 &lt; 0.7),  "60-70", AND(D102 &gt;= 0.5, D102 &lt; 0.6), "50-60")</f>
+      <c r="K102" t="str" cm="1">
+        <f t="array" ref="K102">_xlfn.IFS(E102 &gt;= 0.85, "85  &lt;", AND(E102 &gt;=0.8, E102 &lt; 0.85), "80-85", AND(E102 &gt;= 0.7, E102 &lt; 0.8), "70-80", AND(E102 &gt;= 0.6, E102 &lt; 0.7),  "60-70", AND(E102 &gt;= 0.5, E102 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>2</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>4</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="1">
         <v>45281</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>71</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>3</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>0.51400000000000001</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>45</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>3</v>
       </c>
-      <c r="G103" s="2">
+      <c r="H103" s="2">
         <v>0.48599999999999999</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>72</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1</v>
       </c>
-      <c r="J103" t="str" cm="1">
-        <f t="array" ref="J103">_xlfn.IFS(D103 &gt;= 0.85, "85  &lt;", AND(D103 &gt;=0.8, D103 &lt; 0.85), "80-85", AND(D103 &gt;= 0.7, D103 &lt; 0.8), "70-80", AND(D103 &gt;= 0.6, D103 &lt; 0.7),  "60-70", AND(D103 &gt;= 0.5, D103 &lt; 0.6), "50-60")</f>
+      <c r="K103" t="str" cm="1">
+        <f t="array" ref="K103">_xlfn.IFS(E103 &gt;= 0.85, "85  &lt;", AND(E103 &gt;=0.8, E103 &lt; 0.85), "80-85", AND(E103 &gt;= 0.7, E103 &lt; 0.8), "70-80", AND(E103 &gt;= 0.6, E103 &lt; 0.7),  "60-70", AND(E103 &gt;= 0.5, E103 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>2</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>1</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="1">
         <v>45282</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>47</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>2</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>0.748</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>16</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>4</v>
       </c>
-      <c r="G104" s="2">
+      <c r="H104" s="2">
         <v>0.252</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>17</v>
       </c>
-      <c r="J104" t="str" cm="1">
-        <f t="array" ref="J104">_xlfn.IFS(D104 &gt;= 0.85, "85  &lt;", AND(D104 &gt;=0.8, D104 &lt; 0.85), "80-85", AND(D104 &gt;= 0.7, D104 &lt; 0.8), "70-80", AND(D104 &gt;= 0.6, D104 &lt; 0.7),  "60-70", AND(D104 &gt;= 0.5, D104 &lt; 0.6), "50-60")</f>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="str" cm="1">
+        <f t="array" ref="K104">_xlfn.IFS(E104 &gt;= 0.85, "85  &lt;", AND(E104 &gt;=0.8, E104 &lt; 0.85), "80-85", AND(E104 &gt;= 0.7, E104 &lt; 0.8), "70-80", AND(E104 &gt;= 0.6, E104 &lt; 0.7),  "60-70", AND(E104 &gt;= 0.5, E104 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
       <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I105" t="s">
+        <v>65</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="str" cm="1">
+        <f t="array" ref="K105">_xlfn.IFS(E105 &gt;= 0.85, "85  &lt;", AND(E105 &gt;=0.8, E105 &lt; 0.85), "80-85", AND(E105 &gt;= 0.7, E105 &lt; 0.8), "70-80", AND(E105 &gt;= 0.6, E105 &lt; 0.7),  "60-70", AND(E105 &gt;= 0.5, E105 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>4</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I106" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="str" cm="1">
+        <f t="array" ref="K106">_xlfn.IFS(E106 &gt;= 0.85, "85  &lt;", AND(E106 &gt;=0.8, E106 &lt; 0.85), "80-85", AND(E106 &gt;= 0.7, E106 &lt; 0.8), "70-80", AND(E106 &gt;= 0.6, E106 &lt; 0.7),  "60-70", AND(E106 &gt;= 0.5, E106 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N104">
+      <c r="O106">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C107" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I107" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="str" cm="1">
+        <f t="array" ref="K107">_xlfn.IFS(E107 &gt;= 0.85, "85  &lt;", AND(E107 &gt;=0.8, E107 &lt; 0.85), "80-85", AND(E107 &gt;= 0.7, E107 &lt; 0.8), "70-80", AND(E107 &gt;= 0.6, E107 &lt; 0.7),  "60-70", AND(E107 &gt;= 0.5, E107 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="L107">
+        <v>7</v>
+      </c>
+      <c r="M107">
+        <v>6</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O107">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F108" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" t="str" cm="1">
+        <f t="array" ref="K108">_xlfn.IFS(E108 &gt;= 0.85, "85  &lt;", AND(E108 &gt;=0.8, E108 &lt; 0.85), "80-85", AND(E108 &gt;= 0.7, E108 &lt; 0.8), "70-80", AND(E108 &gt;= 0.6, E108 &lt; 0.7),  "60-70", AND(E108 &gt;= 0.5, E108 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
         <v>4</v>
       </c>
-      <c r="D105" s="2">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E105" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105">
+      <c r="E109" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109">
         <v>3</v>
       </c>
-      <c r="G105" s="2">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="H105" t="s">
-        <v>65</v>
-      </c>
-      <c r="J105" t="str" cm="1">
-        <f t="array" ref="J105">_xlfn.IFS(D105 &gt;= 0.85, "85  &lt;", AND(D105 &gt;=0.8, D105 &lt; 0.85), "80-85", AND(D105 &gt;= 0.7, D105 &lt; 0.8), "70-80", AND(D105 &gt;= 0.6, D105 &lt; 0.7),  "60-70", AND(D105 &gt;= 0.5, D105 &lt; 0.6), "50-60")</f>
-        <v>60-70</v>
-      </c>
-      <c r="M105">
+      <c r="H109" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" t="str" cm="1">
+        <f t="array" ref="K109">_xlfn.IFS(E109 &gt;= 0.85, "85  &lt;", AND(E109 &gt;=0.8, E109 &lt; 0.85), "80-85", AND(E109 &gt;= 0.7, E109 &lt; 0.8), "70-80", AND(E109 &gt;= 0.6, E109 &lt; 0.7),  "60-70", AND(E109 &gt;= 0.5, E109 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N109">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N105">
+      <c r="O109">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110">
         <v>3</v>
       </c>
-      <c r="D106" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-      <c r="G106" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="H106" t="s">
-        <v>81</v>
-      </c>
-      <c r="J106" t="str" cm="1">
-        <f t="array" ref="J106">_xlfn.IFS(D106 &gt;= 0.85, "85  &lt;", AND(D106 &gt;=0.8, D106 &lt; 0.85), "80-85", AND(D106 &gt;= 0.7, D106 &lt; 0.8), "70-80", AND(D106 &gt;= 0.6, D106 &lt; 0.7),  "60-70", AND(D106 &gt;= 0.5, D106 &lt; 0.6), "50-60")</f>
-        <v>50-60</v>
-      </c>
-      <c r="M106">
+      <c r="E110" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" t="str" cm="1">
+        <f t="array" ref="K110">_xlfn.IFS(E110 &gt;= 0.85, "85  &lt;", AND(E110 &gt;=0.8, E110 &lt; 0.85), "80-85", AND(E110 &gt;= 0.7, E110 &lt; 0.8), "70-80", AND(E110 &gt;= 0.6, E110 &lt; 0.7),  "60-70", AND(E110 &gt;= 0.5, E110 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N110">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N106">
+      <c r="O110">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="F111" t="s">
+        <v>41</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>79</v>
+      </c>
+      <c r="K111" t="str" cm="1">
+        <f t="array" ref="K111">_xlfn.IFS(E111 &gt;= 0.85, "85  &lt;", AND(E111 &gt;=0.8, E111 &lt; 0.85), "80-85", AND(E111 &gt;= 0.7, E111 &lt; 0.8), "70-80", AND(E111 &gt;= 0.6, E111 &lt; 0.7),  "60-70", AND(E111 &gt;= 0.5, E111 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112">
         <v>4</v>
       </c>
-      <c r="D107" s="2">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="G107" s="2">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="H107" t="s">
-        <v>40</v>
-      </c>
-      <c r="J107" t="str" cm="1">
-        <f t="array" ref="J107">_xlfn.IFS(D107 &gt;= 0.85, "85  &lt;", AND(D107 &gt;=0.8, D107 &lt; 0.85), "80-85", AND(D107 &gt;= 0.7, D107 &lt; 0.8), "70-80", AND(D107 &gt;= 0.6, D107 &lt; 0.7),  "60-70", AND(D107 &gt;= 0.5, D107 &lt; 0.6), "50-60")</f>
-        <v>50-60</v>
-      </c>
-      <c r="M107">
+      <c r="E112" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I112" t="s">
+        <v>70</v>
+      </c>
+      <c r="K112" t="str" cm="1">
+        <f t="array" ref="K112">_xlfn.IFS(E112 &gt;= 0.85, "85  &lt;", AND(E112 &gt;=0.8, E112 &lt; 0.85), "80-85", AND(E112 &gt;= 0.7, E112 &lt; 0.8), "70-80", AND(E112 &gt;= 0.6, E112 &lt; 0.7),  "60-70", AND(E112 &gt;= 0.5, E112 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N107">
+      <c r="O112">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F113" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I113" t="s">
+        <v>93</v>
+      </c>
+      <c r="K113" t="str" cm="1">
+        <f t="array" ref="K113">_xlfn.IFS(E113 &gt;= 0.85, "85  &lt;", AND(E113 &gt;=0.8, E113 &lt; 0.85), "80-85", AND(E113 &gt;= 0.7, E113 &lt; 0.8), "70-80", AND(E113 &gt;= 0.6, E113 &lt; 0.7),  "60-70", AND(E113 &gt;= 0.5, E113 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="F114" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="I114" t="s">
+        <v>65</v>
+      </c>
+      <c r="K114" t="str" cm="1">
+        <f t="array" ref="K114">_xlfn.IFS(E114 &gt;= 0.85, "85  &lt;", AND(E114 &gt;=0.8, E114 &lt; 0.85), "80-85", AND(E114 &gt;= 0.7, E114 &lt; 0.8), "70-80", AND(E114 &gt;= 0.6, E114 &lt; 0.7),  "60-70", AND(E114 &gt;= 0.5, E114 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115">
+        <v>4</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="I115" t="s">
+        <v>74</v>
+      </c>
+      <c r="K115" t="str" cm="1">
+        <f t="array" ref="K115">_xlfn.IFS(E115 &gt;= 0.85, "85  &lt;", AND(E115 &gt;=0.8, E115 &lt; 0.85), "80-85", AND(E115 &gt;= 0.7, E115 &lt; 0.8), "70-80", AND(E115 &gt;= 0.6, E115 &lt; 0.7),  "60-70", AND(E115 &gt;= 0.5, E115 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="I116" t="s">
+        <v>77</v>
+      </c>
+      <c r="K116" t="str" cm="1">
+        <f t="array" ref="K116">_xlfn.IFS(E116 &gt;= 0.85, "85  &lt;", AND(E116 &gt;=0.8, E116 &lt; 0.85), "80-85", AND(E116 &gt;= 0.7, E116 &lt; 0.8), "70-80", AND(E116 &gt;= 0.6, E116 &lt; 0.7),  "60-70", AND(E116 &gt;= 0.5, E116 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117">
+        <v>4</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I117" t="s">
+        <v>37</v>
+      </c>
+      <c r="K117" t="str" cm="1">
+        <f t="array" ref="K117">_xlfn.IFS(E117 &gt;= 0.85, "85  &lt;", AND(E117 &gt;=0.8, E117 &lt; 0.85), "80-85", AND(E117 &gt;= 0.7, E117 &lt; 0.8), "70-80", AND(E117 &gt;= 0.6, E117 &lt; 0.7),  "60-70", AND(E117 &gt;= 0.5, E117 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I118" t="s">
+        <v>29</v>
+      </c>
+      <c r="K118" t="str" cm="1">
+        <f t="array" ref="K118">_xlfn.IFS(E118 &gt;= 0.85, "85  &lt;", AND(E118 &gt;=0.8, E118 &lt; 0.85), "80-85", AND(E118 &gt;= 0.7, E118 &lt; 0.8), "70-80", AND(E118 &gt;= 0.6, E118 &lt; 0.7),  "60-70", AND(E118 &gt;= 0.5, E118 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C119" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I119" t="s">
+        <v>69</v>
+      </c>
+      <c r="K119" t="str" cm="1">
+        <f t="array" ref="K119">_xlfn.IFS(E119 &gt;= 0.85, "85  &lt;", AND(E119 &gt;=0.8, E119 &lt; 0.85), "80-85", AND(E119 &gt;= 0.7, E119 &lt; 0.8), "70-80", AND(E119 &gt;= 0.6, E119 &lt; 0.7),  "60-70", AND(E119 &gt;= 0.5, E119 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I120" t="s">
+        <v>68</v>
+      </c>
+      <c r="K120" t="str" cm="1">
+        <f t="array" ref="K120">_xlfn.IFS(E120 &gt;= 0.85, "85  &lt;", AND(E120 &gt;=0.8, E120 &lt; 0.85), "80-85", AND(E120 &gt;= 0.7, E120 &lt; 0.8), "70-80", AND(E120 &gt;= 0.6, E120 &lt; 0.7),  "60-70", AND(E120 &gt;= 0.5, E120 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121">
+        <v>4</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="I121" t="s">
+        <v>73</v>
+      </c>
+      <c r="K121" t="str" cm="1">
+        <f t="array" ref="K121">_xlfn.IFS(E121 &gt;= 0.85, "85  &lt;", AND(E121 &gt;=0.8, E121 &lt; 0.85), "80-85", AND(E121 &gt;= 0.7, E121 &lt; 0.8), "70-80", AND(E121 &gt;= 0.6, E121 &lt; 0.7),  "60-70", AND(E121 &gt;= 0.5, E121 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D22:D35">
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="E22:E35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6927,7 +10110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G35">
+  <conditionalFormatting sqref="H22:H35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D359D49-FDD8-4D11-896E-09A688A78957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F09A8-A798-404B-8CB4-480A88602964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -856,7 +856,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -867,9 +867,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -931,13 +928,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45282.963541203702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="107" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45284.035674884261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="121" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
+    <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
-  <cacheFields count="15">
+  <cacheFields count="16">
+    <cacheField name="Model Used" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="RF1"/>
+        <s v="RF2"/>
+        <s v="RF3"/>
+        <s v="RF4"/>
+        <s v="RF5"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-23T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-24T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -996,21 +1003,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45283.467378240741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="121" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45284.035676273146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="121" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
+    <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
   </cacheSource>
-  <cacheFields count="16">
-    <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="RF1"/>
-        <s v="RF2"/>
-        <s v="RF3"/>
-        <s v="RF4"/>
-        <s v="RF5"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
+  <cacheFields count="15">
     <cacheField name="Date" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-24T00:00:00"/>
     </cacheField>
@@ -1055,7 +1052,7 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
     </cacheField>
     <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
     </cacheField>
     <cacheField name="GA ABS Error" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
@@ -1071,1723 +1068,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="107">
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.876"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.124"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.85"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.15"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.79800000000000004"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.20200000000000001"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.71199999999999997"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.64200000000000002"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.87"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.13"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82199999999999995"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.17799999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.80200000000000005"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.70199999999999996"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.69"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.31"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.60199999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.68799999999999994"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.312"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.502"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.498"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82399999999999995"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.17599999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.68200000000000005"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.318"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.68"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.32"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.65200000000000002"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57199999999999995"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.42799999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.56200000000000006"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.438"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.51600000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.48399999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.73"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.27"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.54200000000000004"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.75800000000000001"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.72399999999999998"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.27600000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.71"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.28999999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.50800000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.49199999999999999"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.72199999999999998"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.67800000000000005"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.32200000000000001"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.67400000000000004"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.65600000000000003"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.34399999999999997"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.628"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.372"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.61"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.39"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.59199999999999997"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.40799999999999997"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.56599999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.434"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.55200000000000005"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.44800000000000001"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.504"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.496"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.748"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.252"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.69399999999999995"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.30599999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <s v="GF Prediction"/>
-    <n v="0.57399999999999995"/>
-    <s v="Anaheim Ducks"/>
-    <s v="GA Prediction"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <s v="GF Actual"/>
-    <s v="GA Actual"/>
-    <s v="GF ABS Error"/>
-    <s v="GA ABS Error"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.72"/>
-    <s v="Montreal Canadiens"/>
-    <n v="3"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.67400000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="2"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="1"/>
-    <n v="0.58599999999999997"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.41399999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="4"/>
-    <n v="0.58399999999999996"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.502"/>
-    <s v="Anaheim Ducks"/>
-    <n v="3"/>
-    <n v="0.498"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="2"/>
-    <n v="0.84399999999999997"/>
-    <s v="San Jose Sharks"/>
-    <n v="4"/>
-    <n v="0.156"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="2"/>
-    <n v="0.80200000000000005"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="5"/>
-    <n v="0.72199999999999998"/>
-    <s v="St. Louis Blues"/>
-    <n v="2"/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.67400000000000004"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.63200000000000001"/>
-    <s v="Vancouver Canucks"/>
-    <n v="3"/>
-    <n v="0.36799999999999999"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="3"/>
-    <n v="0.61399999999999999"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="3"/>
-    <n v="0.38600000000000001"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.60599999999999998"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="2"/>
-    <n v="0.60399999999999998"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.58399999999999996"/>
-    <s v="New York Islanders"/>
-    <n v="4"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.56000000000000005"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="3"/>
-    <n v="0.44"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.54800000000000004"/>
-    <s v="Arizona Coyotes"/>
-    <n v="4"/>
-    <n v="0.45200000000000001"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.71199999999999997"/>
-    <s v="Detroit Red Wings"/>
-    <n v="3"/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="3"/>
-    <n v="0.66600000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="3"/>
-    <n v="0.33400000000000002"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="2"/>
-    <n v="0.55400000000000005"/>
-    <s v="Washington Capitals"/>
-    <n v="3"/>
-    <n v="0.44600000000000001"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="4"/>
-    <n v="0.80400000000000005"/>
-    <s v="Montreal Canadiens"/>
-    <n v="2"/>
-    <n v="0.19600000000000001"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="4"/>
-    <n v="0.75"/>
-    <s v="St. Louis Blues"/>
-    <n v="3"/>
-    <n v="0.25"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="2"/>
-    <n v="0.72"/>
-    <s v="San Jose Sharks"/>
-    <n v="4"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.71599999999999997"/>
-    <s v="Anaheim Ducks"/>
-    <n v="4"/>
-    <n v="0.28399999999999997"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="4"/>
-    <n v="0.70799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.29199999999999998"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.66800000000000004"/>
-    <s v="Vancouver Canucks"/>
-    <n v="3"/>
-    <n v="0.33200000000000002"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="3"/>
-    <n v="0.63400000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.36599999999999999"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="3"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.37"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <n v="3"/>
-    <n v="0.622"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="4"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.52"/>
-    <s v="New Jersey Devils"/>
-    <n v="4"/>
-    <n v="0.48"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="3"/>
-    <n v="0.51800000000000002"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.48199999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="3"/>
-    <n v="0.51400000000000001"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <n v="2"/>
-    <n v="0.748"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.252"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.66200000000000003"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.56999999999999995"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.51400000000000001"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="2"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="7"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="121">
   <r>
     <x v="0"/>
@@ -4601,11 +2881,11 @@
     <n v="2"/>
     <n v="0.24199999999999999"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <n v="5"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="2"/>
     <n v="2"/>
   </r>
   <r>
@@ -4618,12 +2898,12 @@
     <n v="3"/>
     <n v="0.248"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <n v="4"/>
-    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -4635,12 +2915,12 @@
     <n v="4"/>
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -4652,12 +2932,12 @@
     <n v="3"/>
     <n v="0.33"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -4669,12 +2949,12 @@
     <n v="3"/>
     <n v="0.34799999999999998"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="4"/>
-    <n v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -4686,12 +2966,12 @@
     <n v="3"/>
     <n v="0.36399999999999999"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="4"/>
-    <n v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -4703,12 +2983,12 @@
     <n v="3"/>
     <n v="0.37"/>
     <s v="Playing At:  New York Rangers   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="4"/>
-    <n v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -4720,12 +3000,12 @@
     <n v="4"/>
     <n v="0.38"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="4"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -4737,12 +3017,12 @@
     <n v="3"/>
     <n v="0.39400000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -4754,12 +3034,12 @@
     <n v="4"/>
     <n v="0.39600000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="4"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -4771,12 +3051,12 @@
     <n v="4"/>
     <n v="0.41799999999999998"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -4788,12 +3068,12 @@
     <n v="3"/>
     <n v="0.42199999999999999"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <n v="4"/>
-    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -4805,12 +3085,12 @@
     <n v="3"/>
     <n v="0.43"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -4822,15 +3102,1956 @@
     <n v="4"/>
     <n v="0.438"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <n v="3"/>
-    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="121">
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.876"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.124"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.85"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.15"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.79800000000000004"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.71199999999999997"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.64200000000000002"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.87"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.13"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82199999999999995"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.17799999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.80200000000000005"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.70199999999999996"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.69"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.31"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.60199999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.68799999999999994"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.312"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.502"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.498"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.17599999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.68200000000000005"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.318"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.32"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.65200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57199999999999995"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.56200000000000006"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.438"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.51600000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.48399999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.73"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.27"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.54200000000000004"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.75800000000000001"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.72399999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.71"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.28999999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.50800000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.72199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.67800000000000005"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.32200000000000001"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.67400000000000004"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.65600000000000003"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.628"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.372"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.61"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.39"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.59199999999999997"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.56599999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.434"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.55200000000000005"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.44800000000000001"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.504"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.496"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.748"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.252"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.69399999999999995"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <s v="GF Prediction"/>
+    <n v="0.57399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <s v="GA Prediction"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="GF Actual"/>
+    <s v="GA Actual"/>
+    <s v="GF ABS Error"/>
+    <s v="GA ABS Error"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.72"/>
+    <s v="Montreal Canadiens"/>
+    <n v="3"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.67400000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="2"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="1"/>
+    <n v="0.58599999999999997"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.58399999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.502"/>
+    <s v="Anaheim Ducks"/>
+    <n v="3"/>
+    <n v="0.498"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="2"/>
+    <n v="0.84399999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.156"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="2"/>
+    <n v="0.80200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="5"/>
+    <n v="0.72199999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="2"/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.67400000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.63200000000000001"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="3"/>
+    <n v="0.61399999999999999"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="2"/>
+    <n v="0.60399999999999998"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.58399999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="4"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.56000000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="3"/>
+    <n v="0.44"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.54800000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="4"/>
+    <n v="0.45200000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.71199999999999997"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.66600000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="2"/>
+    <n v="0.55400000000000005"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="4"/>
+    <n v="0.80400000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.75"/>
+    <s v="St. Louis Blues"/>
+    <n v="3"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="2"/>
+    <n v="0.72"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.71599999999999997"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.70799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.66800000000000004"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.33200000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.63400000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36599999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.622"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.52"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.48"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.51800000000000002"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.48199999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="3"/>
+    <n v="0.51400000000000001"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.748"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.66200000000000003"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.51400000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="2"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="5"/>
+    <n v="0.75800000000000001"/>
+    <s v="San Jose Sharks"/>
+    <n v="2"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.752"/>
+    <s v="Arizona Coyotes"/>
+    <n v="3"/>
+    <n v="0.248"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.70599999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.67"/>
+    <s v="New York Islanders"/>
+    <n v="3"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="4"/>
+    <n v="0.65200000000000002"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="3"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.63600000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36399999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="3"/>
+    <n v="0.37"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.62"/>
+    <s v="Calgary Flames"/>
+    <n v="4"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.60399999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.58199999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="4"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.57799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.42199999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Dallas Stars"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.56200000000000006"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.438"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -4850,7 +5071,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -4933,7 +5154,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5326,14 +5547,14 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5367,10 +5588,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -5386,10 +5607,10 @@
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>6</v>
       </c>
       <c r="D5" s="7">
@@ -5398,41 +5619,41 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>28</v>
       </c>
-      <c r="C6" s="11">
-        <v>17</v>
+      <c r="C6" s="8">
+        <v>20</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.6071428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.64102564102564108</v>
+        <v>0.71794871794871795</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>41</v>
       </c>
-      <c r="C7" s="11">
-        <v>18</v>
+      <c r="C7" s="8">
+        <v>24</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.43902439024390244</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -5442,15 +5663,15 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>40</v>
       </c>
-      <c r="C8" s="11">
-        <v>20</v>
+      <c r="C8" s="8">
+        <v>21</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
@@ -5461,26 +5682,26 @@
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>120</v>
       </c>
-      <c r="C9" s="11">
-        <v>63</v>
+      <c r="C9" s="8">
+        <v>73</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.46913580246913578</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5524,10 +5745,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="6">
-        <v>1.875</v>
+        <v>1.5454545454545454</v>
       </c>
       <c r="C21" s="6">
-        <v>1.5</v>
+        <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5535,10 +5756,10 @@
         <v>54</v>
       </c>
       <c r="B22" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="C22" s="6">
-        <v>1.25</v>
+        <v>1.3157894736842106</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5546,10 +5767,10 @@
         <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>1.3333333333333333</v>
+        <v>1.1875</v>
       </c>
       <c r="C23" s="6">
-        <v>1.6666666666666667</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,10 +5778,10 @@
         <v>57</v>
       </c>
       <c r="B24" s="6">
-        <v>1.2285714285714286</v>
+        <v>1.1224489795918366</v>
       </c>
       <c r="C24" s="6">
-        <v>1.4857142857142858</v>
+        <v>1.510204081632653</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +5795,7 @@
   <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7603,429 +7824,429 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="1">
         <v>45277</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="2">
         <v>0.81</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="2">
         <v>0.19</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="8">
-        <v>1</v>
-      </c>
-      <c r="K68" s="8" t="str" cm="1">
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="str" cm="1">
         <f t="array" ref="K68">_xlfn.IFS(E68 &gt;= 0.85, "85  &lt;", AND(E68 &gt;=0.8, E68 &lt; 0.85), "80-85", AND(E68 &gt;= 0.7, E68 &lt; 0.8), "70-80", AND(E68 &gt;= 0.6, E68 &lt; 0.7),  "60-70", AND(E68 &gt;= 0.5, E68 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="1">
         <v>45277</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="2">
         <v>0.748</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" t="s">
         <v>61</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="2">
         <v>0.252</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="8">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8" t="str" cm="1">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="str" cm="1">
         <f t="array" ref="K69">_xlfn.IFS(E69 &gt;= 0.85, "85  &lt;", AND(E69 &gt;=0.8, E69 &lt; 0.85), "80-85", AND(E69 &gt;= 0.7, E69 &lt; 0.8), "70-80", AND(E69 &gt;= 0.6, E69 &lt; 0.7),  "60-70", AND(E69 &gt;= 0.5, E69 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="1">
         <v>45277</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="2">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" t="s">
         <v>62</v>
       </c>
-      <c r="J70" s="8">
-        <v>1</v>
-      </c>
-      <c r="K70" s="8" t="str" cm="1">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="str" cm="1">
         <f t="array" ref="K70">_xlfn.IFS(E70 &gt;= 0.85, "85  &lt;", AND(E70 &gt;=0.8, E70 &lt; 0.85), "80-85", AND(E70 &gt;= 0.7, E70 &lt; 0.8), "70-80", AND(E70 &gt;= 0.6, E70 &lt; 0.7),  "60-70", AND(E70 &gt;= 0.5, E70 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="1">
         <v>45277</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="2">
         <v>0.69399999999999995</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="2">
         <v>0.30599999999999999</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" t="s">
         <v>79</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71" s="8" t="str" cm="1">
+      <c r="K71" t="str" cm="1">
         <f t="array" ref="K71">_xlfn.IFS(E71 &gt;= 0.85, "85  &lt;", AND(E71 &gt;=0.8, E71 &lt; 0.85), "80-85", AND(E71 &gt;= 0.7, E71 &lt; 0.8), "70-80", AND(E71 &gt;= 0.6, E71 &lt; 0.7),  "60-70", AND(E71 &gt;= 0.5, E71 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="1">
         <v>45277</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="2">
         <v>0.42599999999999999</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" t="s">
         <v>73</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72" s="8" t="str" cm="1">
+      <c r="K72" t="str" cm="1">
         <f t="array" ref="K72">_xlfn.IFS(E72 &gt;= 0.85, "85  &lt;", AND(E72 &gt;=0.8, E72 &lt; 0.85), "80-85", AND(E72 &gt;= 0.7, E72 &lt; 0.8), "70-80", AND(E72 &gt;= 0.6, E72 &lt; 0.7),  "60-70", AND(E72 &gt;= 0.5, E72 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" t="s">
         <v>84</v>
       </c>
-      <c r="M72" s="8" t="s">
+      <c r="M72" t="s">
         <v>85</v>
       </c>
-      <c r="N72" s="8" t="s">
+      <c r="N72" t="s">
         <v>86</v>
       </c>
-      <c r="O72" s="8" t="s">
+      <c r="O72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="1">
         <v>45278</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="2">
         <v>0.72</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" t="s">
         <v>81</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73">
         <v>0</v>
       </c>
-      <c r="K73" s="8" t="str" cm="1">
+      <c r="K73" t="str" cm="1">
         <f t="array" ref="K73">_xlfn.IFS(E73 &gt;= 0.85, "85  &lt;", AND(E73 &gt;=0.8, E73 &lt; 0.85), "80-85", AND(E73 &gt;= 0.7, E73 &lt; 0.8), "70-80", AND(E73 &gt;= 0.6, E73 &lt; 0.7),  "60-70", AND(E73 &gt;= 0.5, E73 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73">
         <v>2</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73">
         <v>3</v>
       </c>
-      <c r="N73" s="8">
+      <c r="N73">
         <f>ABS(D73-L73)</f>
         <v>1</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O73">
         <f>ABS(G73-M73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="1">
         <v>45278</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74">
         <v>4</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="2">
         <v>0.67400000000000004</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" t="s">
         <v>25</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74">
         <v>2</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="2">
         <v>0.32600000000000001</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="I74" t="s">
         <v>32</v>
       </c>
-      <c r="J74" s="8">
-        <v>1</v>
-      </c>
-      <c r="K74" s="8" t="str" cm="1">
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="str" cm="1">
         <f t="array" ref="K74">_xlfn.IFS(E74 &gt;= 0.85, "85  &lt;", AND(E74 &gt;=0.8, E74 &lt; 0.85), "80-85", AND(E74 &gt;= 0.7, E74 &lt; 0.8), "70-80", AND(E74 &gt;= 0.6, E74 &lt; 0.7),  "60-70", AND(E74 &gt;= 0.5, E74 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74">
         <v>4</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="N74" s="8">
+      <c r="N74">
         <f t="shared" ref="N74:N121" si="0">ABS(D74-L74)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74">
         <f t="shared" ref="O74:O121" si="1">ABS(G74-M74)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="1">
         <v>45278</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="8">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
         <v>0.58599999999999997</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75">
         <v>3</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="2">
         <v>0.41399999999999998</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" t="s">
         <v>34</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75" s="8" t="str" cm="1">
+      <c r="K75" t="str" cm="1">
         <f t="array" ref="K75">_xlfn.IFS(E75 &gt;= 0.85, "85  &lt;", AND(E75 &gt;=0.8, E75 &lt; 0.85), "80-85", AND(E75 &gt;= 0.7, E75 &lt; 0.8), "70-80", AND(E75 &gt;= 0.6, E75 &lt; 0.7),  "60-70", AND(E75 &gt;= 0.5, E75 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75">
         <v>3</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M75">
         <v>2</v>
       </c>
-      <c r="N75" s="8">
+      <c r="N75">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="1">
         <v>45278</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76">
         <v>4</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="2">
         <v>0.58399999999999996</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76">
         <v>3</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="2">
         <v>0.41599999999999998</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" t="s">
         <v>72</v>
       </c>
-      <c r="J76" s="8">
-        <v>1</v>
-      </c>
-      <c r="K76" s="8" t="str" cm="1">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="str" cm="1">
         <f t="array" ref="K76">_xlfn.IFS(E76 &gt;= 0.85, "85  &lt;", AND(E76 &gt;=0.8, E76 &lt; 0.85), "80-85", AND(E76 &gt;= 0.7, E76 &lt; 0.8), "70-80", AND(E76 &gt;= 0.6, E76 &lt; 0.7),  "60-70", AND(E76 &gt;= 0.5, E76 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76">
         <v>4</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M76">
         <v>3</v>
       </c>
-      <c r="N76" s="8">
+      <c r="N76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="1">
         <v>45278</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77">
         <v>4</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="2">
         <v>0.502</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77">
         <v>3</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="2">
         <v>0.498</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" t="s">
         <v>40</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77">
         <v>0</v>
       </c>
-      <c r="K77" s="8" t="str" cm="1">
+      <c r="K77" t="str" cm="1">
         <f t="array" ref="K77">_xlfn.IFS(E77 &gt;= 0.85, "85  &lt;", AND(E77 &gt;=0.8, E77 &lt; 0.85), "80-85", AND(E77 &gt;= 0.7, E77 &lt; 0.8), "70-80", AND(E77 &gt;= 0.6, E77 &lt; 0.7),  "60-70", AND(E77 &gt;= 0.5, E77 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77">
         <v>3</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77">
         <v>4</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="1">
@@ -8075,7 +8296,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" t="s">
         <v>98</v>
       </c>
       <c r="B79" s="1">
@@ -8125,7 +8346,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" t="s">
         <v>98</v>
       </c>
       <c r="B80" s="1">
@@ -8175,7 +8396,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" t="s">
         <v>98</v>
       </c>
       <c r="B81" s="1">
@@ -8225,7 +8446,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" t="s">
         <v>98</v>
       </c>
       <c r="B82" s="1">
@@ -8275,7 +8496,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" t="s">
         <v>98</v>
       </c>
       <c r="B83" s="1">
@@ -8325,7 +8546,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" t="s">
         <v>98</v>
       </c>
       <c r="B84" s="1">
@@ -8375,7 +8596,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="1">
@@ -8425,7 +8646,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" t="s">
         <v>98</v>
       </c>
       <c r="B86" s="1">
@@ -8475,7 +8696,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" t="s">
         <v>98</v>
       </c>
       <c r="B87" s="1">
@@ -8525,7 +8746,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="1">
@@ -8575,7 +8796,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" t="s">
         <v>98</v>
       </c>
       <c r="B89" s="1">
@@ -8625,7 +8846,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" t="s">
         <v>98</v>
       </c>
       <c r="B90" s="1">
@@ -8675,7 +8896,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="1">
@@ -8725,7 +8946,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="1">
@@ -8775,7 +8996,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="1">
@@ -8825,7 +9046,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" t="s">
         <v>98</v>
       </c>
       <c r="B94" s="1">
@@ -8875,7 +9096,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="1">
@@ -8925,7 +9146,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="1">
@@ -8975,7 +9196,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="1">
@@ -9025,7 +9246,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="1">
@@ -9075,7 +9296,7 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -9125,7 +9346,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="1">
@@ -9175,7 +9396,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" t="s">
         <v>98</v>
       </c>
       <c r="B101" s="1">
@@ -9225,7 +9446,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" t="s">
         <v>98</v>
       </c>
       <c r="B102" s="1">
@@ -9275,7 +9496,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" t="s">
         <v>98</v>
       </c>
       <c r="B103" s="1">
@@ -9325,7 +9546,7 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" t="s">
         <v>98</v>
       </c>
       <c r="B104" s="1">
@@ -9375,7 +9596,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="1">
@@ -9425,7 +9646,7 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" t="s">
         <v>98</v>
       </c>
       <c r="B106" s="1">
@@ -9475,7 +9696,7 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" t="s">
         <v>98</v>
       </c>
       <c r="B107" s="1">
@@ -9525,7 +9746,7 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="A108" t="s">
         <v>99</v>
       </c>
       <c r="B108" s="1">
@@ -9551,14 +9772,23 @@
       </c>
       <c r="I108" t="s">
         <v>46</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
       </c>
       <c r="K108" t="str" cm="1">
         <f t="array" ref="K108">_xlfn.IFS(E108 &gt;= 0.85, "85  &lt;", AND(E108 &gt;=0.8, E108 &lt; 0.85), "80-85", AND(E108 &gt;= 0.7, E108 &lt; 0.8), "70-80", AND(E108 &gt;= 0.6, E108 &lt; 0.7),  "60-70", AND(E108 &gt;= 0.5, E108 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="L108">
+        <v>7</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
       <c r="N108">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O108">
         <f t="shared" si="1"/>
@@ -9566,7 +9796,7 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" t="s">
         <v>99</v>
       </c>
       <c r="B109" s="1">
@@ -9592,22 +9822,31 @@
       </c>
       <c r="I109" t="s">
         <v>11</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
       </c>
       <c r="K109" t="str" cm="1">
         <f t="array" ref="K109">_xlfn.IFS(E109 &gt;= 0.85, "85  &lt;", AND(E109 &gt;=0.8, E109 &lt; 0.85), "80-85", AND(E109 &gt;= 0.7, E109 &lt; 0.8), "70-80", AND(E109 &gt;= 0.6, E109 &lt; 0.7),  "60-70", AND(E109 &gt;= 0.5, E109 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
       <c r="N109">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O109">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" t="s">
         <v>99</v>
       </c>
       <c r="B110" s="1">
@@ -9633,22 +9872,31 @@
       </c>
       <c r="I110" t="s">
         <v>20</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
       </c>
       <c r="K110" t="str" cm="1">
         <f t="array" ref="K110">_xlfn.IFS(E110 &gt;= 0.85, "85  &lt;", AND(E110 &gt;=0.8, E110 &lt; 0.85), "80-85", AND(E110 &gt;= 0.7, E110 &lt; 0.8), "70-80", AND(E110 &gt;= 0.6, E110 &lt; 0.7),  "60-70", AND(E110 &gt;= 0.5, E110 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
       <c r="N110">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O110">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="A111" t="s">
         <v>99</v>
       </c>
       <c r="B111" s="1">
@@ -9674,22 +9922,31 @@
       </c>
       <c r="I111" t="s">
         <v>79</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
       </c>
       <c r="K111" t="str" cm="1">
         <f t="array" ref="K111">_xlfn.IFS(E111 &gt;= 0.85, "85  &lt;", AND(E111 &gt;=0.8, E111 &lt; 0.85), "80-85", AND(E111 &gt;= 0.7, E111 &lt; 0.8), "70-80", AND(E111 &gt;= 0.6, E111 &lt; 0.7),  "60-70", AND(E111 &gt;= 0.5, E111 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
       <c r="N111">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O111">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" t="s">
         <v>99</v>
       </c>
       <c r="B112" s="1">
@@ -9715,22 +9972,31 @@
       </c>
       <c r="I112" t="s">
         <v>70</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
       </c>
       <c r="K112" t="str" cm="1">
         <f t="array" ref="K112">_xlfn.IFS(E112 &gt;= 0.85, "85  &lt;", AND(E112 &gt;=0.8, E112 &lt; 0.85), "80-85", AND(E112 &gt;= 0.7, E112 &lt; 0.8), "70-80", AND(E112 &gt;= 0.6, E112 &lt; 0.7),  "60-70", AND(E112 &gt;= 0.5, E112 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L112">
+        <v>7</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
       <c r="N112">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O112">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" t="s">
         <v>99</v>
       </c>
       <c r="B113" s="1">
@@ -9756,22 +10022,31 @@
       </c>
       <c r="I113" t="s">
         <v>93</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
       </c>
       <c r="K113" t="str" cm="1">
         <f t="array" ref="K113">_xlfn.IFS(E113 &gt;= 0.85, "85  &lt;", AND(E113 &gt;=0.8, E113 &lt; 0.85), "80-85", AND(E113 &gt;= 0.7, E113 &lt; 0.8), "70-80", AND(E113 &gt;= 0.6, E113 &lt; 0.7),  "60-70", AND(E113 &gt;= 0.5, E113 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
       <c r="N113">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O113">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="A114" t="s">
         <v>99</v>
       </c>
       <c r="B114" s="1">
@@ -9797,22 +10072,31 @@
       </c>
       <c r="I114" t="s">
         <v>65</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
       </c>
       <c r="K114" t="str" cm="1">
         <f t="array" ref="K114">_xlfn.IFS(E114 &gt;= 0.85, "85  &lt;", AND(E114 &gt;=0.8, E114 &lt; 0.85), "80-85", AND(E114 &gt;= 0.7, E114 &lt; 0.8), "70-80", AND(E114 &gt;= 0.6, E114 &lt; 0.7),  "60-70", AND(E114 &gt;= 0.5, E114 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
       <c r="N114">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O114">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="A115" t="s">
         <v>99</v>
       </c>
       <c r="B115" s="1">
@@ -9838,22 +10122,31 @@
       </c>
       <c r="I115" t="s">
         <v>74</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
       </c>
       <c r="K115" t="str" cm="1">
         <f t="array" ref="K115">_xlfn.IFS(E115 &gt;= 0.85, "85  &lt;", AND(E115 &gt;=0.8, E115 &lt; 0.85), "80-85", AND(E115 &gt;= 0.7, E115 &lt; 0.8), "70-80", AND(E115 &gt;= 0.6, E115 &lt; 0.7),  "60-70", AND(E115 &gt;= 0.5, E115 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
       <c r="N115">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O115">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="A116" t="s">
         <v>99</v>
       </c>
       <c r="B116" s="1">
@@ -9879,22 +10172,31 @@
       </c>
       <c r="I116" t="s">
         <v>77</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
       </c>
       <c r="K116" t="str" cm="1">
         <f t="array" ref="K116">_xlfn.IFS(E116 &gt;= 0.85, "85  &lt;", AND(E116 &gt;=0.8, E116 &lt; 0.85), "80-85", AND(E116 &gt;= 0.7, E116 &lt; 0.8), "70-80", AND(E116 &gt;= 0.6, E116 &lt; 0.7),  "60-70", AND(E116 &gt;= 0.5, E116 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
       <c r="N116">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O116">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" t="s">
         <v>99</v>
       </c>
       <c r="B117" s="1">
@@ -9920,22 +10222,31 @@
       </c>
       <c r="I117" t="s">
         <v>37</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
       </c>
       <c r="K117" t="str" cm="1">
         <f t="array" ref="K117">_xlfn.IFS(E117 &gt;= 0.85, "85  &lt;", AND(E117 &gt;=0.8, E117 &lt; 0.85), "80-85", AND(E117 &gt;= 0.7, E117 &lt; 0.8), "70-80", AND(E117 &gt;= 0.6, E117 &lt; 0.7),  "60-70", AND(E117 &gt;= 0.5, E117 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
       <c r="N117">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="A118" t="s">
         <v>99</v>
       </c>
       <c r="B118" s="1">
@@ -9961,22 +10272,31 @@
       </c>
       <c r="I118" t="s">
         <v>29</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
       </c>
       <c r="K118" t="str" cm="1">
         <f t="array" ref="K118">_xlfn.IFS(E118 &gt;= 0.85, "85  &lt;", AND(E118 &gt;=0.8, E118 &lt; 0.85), "80-85", AND(E118 &gt;= 0.7, E118 &lt; 0.8), "70-80", AND(E118 &gt;= 0.6, E118 &lt; 0.7),  "60-70", AND(E118 &gt;= 0.5, E118 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
       <c r="N118">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O118">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="A119" t="s">
         <v>99</v>
       </c>
       <c r="B119" s="1">
@@ -10002,22 +10322,31 @@
       </c>
       <c r="I119" t="s">
         <v>69</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
       </c>
       <c r="K119" t="str" cm="1">
         <f t="array" ref="K119">_xlfn.IFS(E119 &gt;= 0.85, "85  &lt;", AND(E119 &gt;=0.8, E119 &lt; 0.85), "80-85", AND(E119 &gt;= 0.7, E119 &lt; 0.8), "70-80", AND(E119 &gt;= 0.6, E119 &lt; 0.7),  "60-70", AND(E119 &gt;= 0.5, E119 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>5</v>
+      </c>
       <c r="N119">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O119">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
+      <c r="A120" t="s">
         <v>99</v>
       </c>
       <c r="B120" s="1">
@@ -10043,22 +10372,31 @@
       </c>
       <c r="I120" t="s">
         <v>68</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
       </c>
       <c r="K120" t="str" cm="1">
         <f t="array" ref="K120">_xlfn.IFS(E120 &gt;= 0.85, "85  &lt;", AND(E120 &gt;=0.8, E120 &lt; 0.85), "80-85", AND(E120 &gt;= 0.7, E120 &lt; 0.8), "70-80", AND(E120 &gt;= 0.6, E120 &lt; 0.7),  "60-70", AND(E120 &gt;= 0.5, E120 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
       <c r="N120">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" t="s">
         <v>99</v>
       </c>
       <c r="B121" s="1">
@@ -10084,18 +10422,27 @@
       </c>
       <c r="I121" t="s">
         <v>73</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
       </c>
       <c r="K121" t="str" cm="1">
         <f t="array" ref="K121">_xlfn.IFS(E121 &gt;= 0.85, "85  &lt;", AND(E121 &gt;=0.8, E121 &lt; 0.85), "80-85", AND(E121 &gt;= 0.7, E121 &lt; 0.8), "70-80", AND(E121 &gt;= 0.6, E121 &lt; 0.7),  "60-70", AND(E121 &gt;= 0.5, E121 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
       <c r="N121">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O121">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F09A8-A798-404B-8CB4-480A88602964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F97A9-EE35-41DE-A3A2-BD3C7DE8646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -928,81 +928,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45284.035674884261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="121" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
-  </cacheSource>
-  <cacheFields count="16">
-    <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="RF1"/>
-        <s v="RF2"/>
-        <s v="RF3"/>
-        <s v="RF4"/>
-        <s v="RF5"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-24T00:00:00"/>
-    </cacheField>
-    <cacheField name="Winner" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GF Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
-    </cacheField>
-    <cacheField name="Loser" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GA Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
-    </cacheField>
-    <cacheField name="Site" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Model" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="85 &lt;"/>
-        <s v="80-85"/>
-        <s v="70-80"/>
-        <s v="60-70"/>
-        <s v="50-60"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
-    </cacheField>
-    <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
-    </cacheField>
-    <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
-    </cacheField>
-    <cacheField name="GA ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
-    </cacheField>
-    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45284.035676273146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="121" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
@@ -1067,8 +992,2024 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45287.396903125002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="135" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Model Used" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="RF1"/>
+        <s v="RF2"/>
+        <s v="RF3"/>
+        <s v="RF4"/>
+        <s v="RF5"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-28T00:00:00"/>
+    </cacheField>
+    <cacheField name="Winner" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GF Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Winner Probability" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+    </cacheField>
+    <cacheField name="Loser" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GA Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Loser Probability" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="85 &lt;"/>
+        <s v="80-85"/>
+        <s v="70-80"/>
+        <s v="60-70"/>
+        <s v="50-60"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GF Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="GA Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+    </cacheField>
+    <cacheField name="GF ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GA ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="121">
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.876"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.124"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.85"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.15"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.79800000000000004"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.71199999999999997"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.64200000000000002"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.87"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.13"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82199999999999995"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.17799999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.80200000000000005"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.70199999999999996"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.69"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.31"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.60199999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.68799999999999994"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.312"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.502"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.498"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.82399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.17599999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.77800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.222"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.68200000000000005"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.318"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.32"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.65200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57199999999999995"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.56200000000000006"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.438"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.51600000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.48399999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.73"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.27"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.622"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.378"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.56999999999999995"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.43"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.74399999999999999"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.69799999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.54200000000000004"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.53800000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.52200000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.50600000000000001"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.75800000000000001"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.72399999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <m/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.71"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.28999999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.69199999999999995"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.308"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.57999999999999996"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.42"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.50800000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New York Islanders"/>
+    <m/>
+    <n v="0.76400000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <m/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <m/>
+    <n v="0.72199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <m/>
+    <n v="0.67800000000000005"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.32200000000000001"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <m/>
+    <n v="0.67400000000000004"/>
+    <s v="New York Rangers"/>
+    <m/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <m/>
+    <n v="0.65600000000000003"/>
+    <s v="Pittsburgh Penguins"/>
+    <m/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <m/>
+    <n v="0.628"/>
+    <s v="Columbus Blue Jackets"/>
+    <m/>
+    <n v="0.372"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <m/>
+    <n v="0.624"/>
+    <s v="Arizona Coyotes"/>
+    <m/>
+    <n v="0.376"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <m/>
+    <n v="0.61"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.39"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <m/>
+    <n v="0.59199999999999997"/>
+    <s v="Tampa Bay Lightning"/>
+    <m/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <m/>
+    <n v="0.57399999999999995"/>
+    <s v="Detroit Red Wings"/>
+    <m/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <m/>
+    <n v="0.56599999999999995"/>
+    <s v="Florida Panthers"/>
+    <m/>
+    <n v="0.434"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <m/>
+    <n v="0.55200000000000005"/>
+    <s v="St. Louis Blues"/>
+    <m/>
+    <n v="0.44800000000000001"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <m/>
+    <n v="0.504"/>
+    <s v="Seattle Kraken"/>
+    <m/>
+    <n v="0.496"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <m/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <m/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <m/>
+    <n v="0.748"/>
+    <s v="San Jose Sharks"/>
+    <m/>
+    <n v="0.252"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <m/>
+    <n v="0.70599999999999996"/>
+    <s v="Ottawa Senators"/>
+    <m/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <m/>
+    <n v="0.69399999999999995"/>
+    <s v="Washington Capitals"/>
+    <m/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <s v="GF Prediction"/>
+    <n v="0.57399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <s v="GA Prediction"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <s v="GF Actual"/>
+    <s v="GA Actual"/>
+    <s v="GF ABS Error"/>
+    <s v="GA ABS Error"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.72"/>
+    <s v="Montreal Canadiens"/>
+    <n v="3"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.67400000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="2"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="1"/>
+    <n v="0.58599999999999997"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.58399999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.502"/>
+    <s v="Anaheim Ducks"/>
+    <n v="3"/>
+    <n v="0.498"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="2"/>
+    <n v="0.84399999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.156"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="2"/>
+    <n v="0.80200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="5"/>
+    <n v="0.72199999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="2"/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.67400000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.63200000000000001"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="3"/>
+    <n v="0.61399999999999999"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="2"/>
+    <n v="0.60399999999999998"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.58399999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="4"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.56000000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="3"/>
+    <n v="0.44"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.54800000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="4"/>
+    <n v="0.45200000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.71199999999999997"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.66600000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="2"/>
+    <n v="0.55400000000000005"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="4"/>
+    <n v="0.80400000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.75"/>
+    <s v="St. Louis Blues"/>
+    <n v="3"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="2"/>
+    <n v="0.72"/>
+    <s v="San Jose Sharks"/>
+    <n v="4"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="3"/>
+    <n v="0.71599999999999997"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.70799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="4"/>
+    <n v="0.66800000000000004"/>
+    <s v="Vancouver Canucks"/>
+    <n v="3"/>
+    <n v="0.33200000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.63400000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36599999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="3"/>
+    <n v="0.622"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.52"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.48"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="3"/>
+    <n v="0.51800000000000002"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.48199999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="3"/>
+    <n v="0.51400000000000001"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="2"/>
+    <n v="0.748"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.66200000000000003"/>
+    <s v="Edmonton Oilers"/>
+    <n v="3"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="4"/>
+    <n v="0.51400000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="2"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="5"/>
+    <n v="0.75800000000000001"/>
+    <s v="San Jose Sharks"/>
+    <n v="2"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="4"/>
+    <n v="0.752"/>
+    <s v="Arizona Coyotes"/>
+    <n v="3"/>
+    <n v="0.248"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="3"/>
+    <n v="0.70599999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="3"/>
+    <n v="0.67"/>
+    <s v="New York Islanders"/>
+    <n v="3"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="4"/>
+    <n v="0.65200000000000002"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="3"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="4"/>
+    <n v="0.63600000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="3"/>
+    <n v="0.36399999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="4"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="3"/>
+    <n v="0.37"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="3"/>
+    <n v="0.62"/>
+    <s v="Calgary Flames"/>
+    <n v="4"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.60599999999999998"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.60399999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="4"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="3"/>
+    <n v="0.58199999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="4"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="4"/>
+    <n v="0.57799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.42199999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.56999999999999995"/>
+    <s v="Dallas Stars"/>
+    <n v="3"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.56200000000000006"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.438"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="135">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -3110,1948 +5051,245 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="2"/>
+    <n v="0.79600000000000004"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="4"/>
+    <n v="0.20399999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="2"/>
+    <n v="0.76600000000000001"/>
+    <s v="Anaheim Ducks"/>
+    <n v="4"/>
+    <n v="0.23400000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="3"/>
+    <n v="0.75600000000000001"/>
+    <s v="Detroit Red Wings"/>
+    <n v="3"/>
+    <n v="0.24399999999999999"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="4"/>
+    <n v="0.754"/>
+    <s v="San Jose Sharks"/>
+    <n v="3"/>
+    <n v="0.246"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="4"/>
+    <n v="0.71399999999999997"/>
+    <s v="Florida Panthers"/>
+    <n v="3"/>
+    <n v="0.28599999999999998"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="3"/>
+    <n v="0.70199999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="2"/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="3"/>
+    <n v="0.68400000000000005"/>
+    <s v="Buffalo Sabres"/>
+    <n v="4"/>
+    <n v="0.316"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="4"/>
+    <n v="0.66600000000000004"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="3"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="3"/>
+    <n v="0.66200000000000003"/>
+    <s v="Ottawa Senators"/>
+    <n v="3"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="3"/>
+    <n v="0.64400000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <n v="3"/>
+    <n v="0.35599999999999998"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="3"/>
+    <n v="0.61"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="2"/>
+    <n v="0.39"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="4"/>
+    <n v="0.57599999999999996"/>
+    <s v="Seattle Kraken"/>
+    <n v="2"/>
+    <n v="0.42399999999999999"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="3"/>
+    <n v="0.52800000000000002"/>
+    <s v="St. Louis Blues"/>
+    <n v="4"/>
+    <n v="0.47199999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="2"/>
+    <n v="0.52"/>
+    <s v="Nashville Predators"/>
+    <n v="3"/>
+    <n v="0.48"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
     <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="121">
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.876"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.124"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.85"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.15"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.79800000000000004"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.20200000000000001"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.71199999999999997"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.64200000000000002"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.87"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.13"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82199999999999995"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.17799999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.80200000000000005"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.70199999999999996"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.69"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.31"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.60199999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.68799999999999994"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.312"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.502"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.498"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82399999999999995"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.17599999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.68200000000000005"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.318"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.68"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.32"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.65200000000000002"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57199999999999995"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.42799999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.56200000000000006"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.438"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.51600000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.48399999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.73"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.27"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.54200000000000004"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.75800000000000001"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.72399999999999998"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.27600000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.71"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.28999999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.50800000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.49199999999999999"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.72199999999999998"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.67800000000000005"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.32200000000000001"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.67400000000000004"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.65600000000000003"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.34399999999999997"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.628"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.372"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.61"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.39"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.59199999999999997"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.40799999999999997"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.56599999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.434"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.55200000000000005"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.44800000000000001"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.504"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.496"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.748"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.252"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.69399999999999995"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.30599999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <s v="GF Prediction"/>
-    <n v="0.57399999999999995"/>
-    <s v="Anaheim Ducks"/>
-    <s v="GA Prediction"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <s v="GF Actual"/>
-    <s v="GA Actual"/>
-    <s v="GF ABS Error"/>
-    <s v="GA ABS Error"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.72"/>
-    <s v="Montreal Canadiens"/>
-    <n v="3"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.67400000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="2"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="1"/>
-    <n v="0.58599999999999997"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.41399999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="4"/>
-    <n v="0.58399999999999996"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.502"/>
-    <s v="Anaheim Ducks"/>
-    <n v="3"/>
-    <n v="0.498"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="2"/>
-    <n v="0.84399999999999997"/>
-    <s v="San Jose Sharks"/>
-    <n v="4"/>
-    <n v="0.156"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="2"/>
-    <n v="0.80200000000000005"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="5"/>
-    <n v="0.72199999999999998"/>
-    <s v="St. Louis Blues"/>
-    <n v="2"/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.67400000000000004"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.63200000000000001"/>
-    <s v="Vancouver Canucks"/>
-    <n v="3"/>
-    <n v="0.36799999999999999"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="3"/>
-    <n v="0.61399999999999999"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="3"/>
-    <n v="0.38600000000000001"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.60599999999999998"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="2"/>
-    <n v="0.60399999999999998"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.58399999999999996"/>
-    <s v="New York Islanders"/>
-    <n v="4"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.56000000000000005"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="3"/>
-    <n v="0.44"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.54800000000000004"/>
-    <s v="Arizona Coyotes"/>
-    <n v="4"/>
-    <n v="0.45200000000000001"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.71199999999999997"/>
-    <s v="Detroit Red Wings"/>
-    <n v="3"/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="3"/>
-    <n v="0.66600000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="3"/>
-    <n v="0.33400000000000002"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="2"/>
-    <n v="0.55400000000000005"/>
-    <s v="Washington Capitals"/>
-    <n v="3"/>
-    <n v="0.44600000000000001"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="4"/>
-    <n v="0.80400000000000005"/>
-    <s v="Montreal Canadiens"/>
-    <n v="2"/>
-    <n v="0.19600000000000001"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="4"/>
-    <n v="0.75"/>
-    <s v="St. Louis Blues"/>
-    <n v="3"/>
-    <n v="0.25"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="2"/>
-    <n v="0.72"/>
-    <s v="San Jose Sharks"/>
-    <n v="4"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.71599999999999997"/>
-    <s v="Anaheim Ducks"/>
-    <n v="4"/>
-    <n v="0.28399999999999997"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="4"/>
-    <n v="0.70799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.29199999999999998"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.66800000000000004"/>
-    <s v="Vancouver Canucks"/>
-    <n v="3"/>
-    <n v="0.33200000000000002"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="3"/>
-    <n v="0.63400000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.36599999999999999"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="3"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.37"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <n v="3"/>
-    <n v="0.622"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="4"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.52"/>
-    <s v="New Jersey Devils"/>
-    <n v="4"/>
-    <n v="0.48"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="3"/>
-    <n v="0.51800000000000002"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.48199999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="3"/>
-    <n v="0.51400000000000001"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <n v="2"/>
-    <n v="0.748"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.252"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.66200000000000003"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.56999999999999995"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.51400000000000001"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="2"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="7"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="5"/>
-    <n v="0.75800000000000001"/>
-    <s v="San Jose Sharks"/>
-    <n v="2"/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="4"/>
-    <n v="0.752"/>
-    <s v="Arizona Coyotes"/>
-    <n v="3"/>
-    <n v="0.248"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="3"/>
-    <n v="0.70599999999999996"/>
-    <s v="Anaheim Ducks"/>
-    <n v="4"/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.67"/>
-    <s v="New York Islanders"/>
-    <n v="3"/>
-    <n v="0.33"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="4"/>
-    <n v="0.65200000000000002"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="3"/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="4"/>
-    <n v="0.63600000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.36399999999999999"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="3"/>
-    <n v="0.37"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="3"/>
-    <n v="0.62"/>
-    <s v="Calgary Flames"/>
-    <n v="4"/>
-    <n v="0.38"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.60599999999999998"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="3"/>
-    <n v="0.60399999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="4"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="3"/>
-    <n v="0.58199999999999996"/>
-    <s v="Washington Capitals"/>
-    <n v="4"/>
-    <n v="0.41799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="4"/>
-    <n v="0.57799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.42199999999999999"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.56999999999999995"/>
-    <s v="Dallas Stars"/>
-    <n v="3"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="3"/>
-    <n v="0.56200000000000006"/>
-    <s v="New Jersey Devils"/>
-    <n v="4"/>
-    <n v="0.438"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
     <m/>
     <m/>
     <m/>
@@ -5071,7 +5309,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5547,14 +5785,14 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5600,7 +5838,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,18 +5865,18 @@
         <v>53</v>
       </c>
       <c r="B6" s="8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8">
         <v>20</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.71794871794871795</v>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5646,14 +5884,14 @@
         <v>54</v>
       </c>
       <c r="B7" s="8">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8">
         <v>24</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.58536585365853655</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -5664,18 +5902,18 @@
         <v>55</v>
       </c>
       <c r="B8" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8">
         <v>21</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5683,14 +5921,14 @@
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C9" s="8">
         <v>73</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.60833333333333328</v>
+        <v>0.54477611940298509</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
@@ -5701,7 +5939,7 @@
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.55555555555555558</v>
+        <v>0.5056179775280899</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5792,10 +6030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M122" sqref="M122"/>
+      <selection activeCell="O121" sqref="O121:O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8087,11 +8325,11 @@
         <v>3</v>
       </c>
       <c r="N74">
-        <f t="shared" ref="N74:N121" si="0">ABS(D74-L74)</f>
+        <f t="shared" ref="N74:N135" si="0">ABS(D74-L74)</f>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:O121" si="1">ABS(G74-M74)</f>
+        <f t="shared" ref="O74:O135" si="1">ABS(G74-M74)</f>
         <v>1</v>
       </c>
     </row>
@@ -10443,6 +10681,580 @@
       <c r="O121">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" t="str" cm="1">
+        <f t="array" ref="K122">_xlfn.IFS(E122 &gt;= 0.85, "85  &lt;", AND(E122 &gt;=0.8, E122 &lt; 0.85), "80-85", AND(E122 &gt;= 0.7, E122 &lt; 0.8), "70-80", AND(E122 &gt;= 0.6, E122 &lt; 0.7),  "60-70", AND(E122 &gt;= 0.5, E122 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" t="str" cm="1">
+        <f t="array" ref="K123">_xlfn.IFS(E123 &gt;= 0.85, "85  &lt;", AND(E123 &gt;=0.8, E123 &lt; 0.85), "80-85", AND(E123 &gt;= 0.7, E123 &lt; 0.8), "70-80", AND(E123 &gt;= 0.6, E123 &lt; 0.7),  "60-70", AND(E123 &gt;= 0.5, E123 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I124" t="s">
+        <v>77</v>
+      </c>
+      <c r="K124" t="str" cm="1">
+        <f t="array" ref="K124">_xlfn.IFS(E124 &gt;= 0.85, "85  &lt;", AND(E124 &gt;=0.8, E124 &lt; 0.85), "80-85", AND(E124 &gt;= 0.7, E124 &lt; 0.8), "70-80", AND(E124 &gt;= 0.6, E124 &lt; 0.7),  "60-70", AND(E124 &gt;= 0.5, E124 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="F125" t="s">
+        <v>61</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="I125" t="s">
+        <v>74</v>
+      </c>
+      <c r="K125" t="str" cm="1">
+        <f t="array" ref="K125">_xlfn.IFS(E125 &gt;= 0.85, "85  &lt;", AND(E125 &gt;=0.8, E125 &lt; 0.85), "80-85", AND(E125 &gt;= 0.7, E125 &lt; 0.8), "70-80", AND(E125 &gt;= 0.6, E125 &lt; 0.7),  "60-70", AND(E125 &gt;= 0.5, E125 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F126" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="I126" t="s">
+        <v>91</v>
+      </c>
+      <c r="K126" t="str" cm="1">
+        <f t="array" ref="K126">_xlfn.IFS(E126 &gt;= 0.85, "85  &lt;", AND(E126 &gt;=0.8, E126 &lt; 0.85), "80-85", AND(E126 &gt;= 0.7, E126 &lt; 0.8), "70-80", AND(E126 &gt;= 0.6, E126 &lt; 0.7),  "60-70", AND(E126 &gt;= 0.5, E126 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F127" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="I127" t="s">
+        <v>65</v>
+      </c>
+      <c r="K127" t="str" cm="1">
+        <f t="array" ref="K127">_xlfn.IFS(E127 &gt;= 0.85, "85  &lt;", AND(E127 &gt;=0.8, E127 &lt; 0.85), "80-85", AND(E127 &gt;= 0.7, E127 &lt; 0.8), "70-80", AND(E127 &gt;= 0.6, E127 &lt; 0.7),  "60-70", AND(E127 &gt;= 0.5, E127 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F128" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.316</v>
+      </c>
+      <c r="I128" t="s">
+        <v>49</v>
+      </c>
+      <c r="K128" t="str" cm="1">
+        <f t="array" ref="K128">_xlfn.IFS(E128 &gt;= 0.85, "85  &lt;", AND(E128 &gt;=0.8, E128 &lt; 0.85), "80-85", AND(E128 &gt;= 0.7, E128 &lt; 0.8), "70-80", AND(E128 &gt;= 0.6, E128 &lt; 0.7),  "60-70", AND(E128 &gt;= 0.5, E128 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>99</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F129" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I129" t="s">
+        <v>73</v>
+      </c>
+      <c r="K129" t="str" cm="1">
+        <f t="array" ref="K129">_xlfn.IFS(E129 &gt;= 0.85, "85  &lt;", AND(E129 &gt;=0.8, E129 &lt; 0.85), "80-85", AND(E129 &gt;= 0.7, E129 &lt; 0.8), "70-80", AND(E129 &gt;= 0.6, E129 &lt; 0.7),  "60-70", AND(E129 &gt;= 0.5, E129 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F130" t="s">
+        <v>38</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I130" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" t="str" cm="1">
+        <f t="array" ref="K130">_xlfn.IFS(E130 &gt;= 0.85, "85  &lt;", AND(E130 &gt;=0.8, E130 &lt; 0.85), "80-85", AND(E130 &gt;= 0.7, E130 &lt; 0.8), "70-80", AND(E130 &gt;= 0.6, E130 &lt; 0.7),  "60-70", AND(E130 &gt;= 0.5, E130 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>99</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I131" t="s">
+        <v>80</v>
+      </c>
+      <c r="K131" t="str" cm="1">
+        <f t="array" ref="K131">_xlfn.IFS(E131 &gt;= 0.85, "85  &lt;", AND(E131 &gt;=0.8, E131 &lt; 0.85), "80-85", AND(E131 &gt;= 0.7, E131 &lt; 0.8), "70-80", AND(E131 &gt;= 0.6, E131 &lt; 0.7),  "60-70", AND(E131 &gt;= 0.5, E131 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F132" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="I132" t="s">
+        <v>43</v>
+      </c>
+      <c r="K132" t="str" cm="1">
+        <f t="array" ref="K132">_xlfn.IFS(E132 &gt;= 0.85, "85  &lt;", AND(E132 &gt;=0.8, E132 &lt; 0.85), "80-85", AND(E132 &gt;= 0.7, E132 &lt; 0.8), "70-80", AND(E132 &gt;= 0.6, E132 &lt; 0.7),  "60-70", AND(E132 &gt;= 0.5, E132 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133" s="2">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F133" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I133" t="s">
+        <v>34</v>
+      </c>
+      <c r="K133" t="str" cm="1">
+        <f t="array" ref="K133">_xlfn.IFS(E133 &gt;= 0.85, "85  &lt;", AND(E133 &gt;=0.8, E133 &lt; 0.85), "80-85", AND(E133 &gt;= 0.7, E133 &lt; 0.8), "70-80", AND(E133 &gt;= 0.6, E133 &lt; 0.7),  "60-70", AND(E133 &gt;= 0.5, E133 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I134" t="s">
+        <v>70</v>
+      </c>
+      <c r="K134" t="str" cm="1">
+        <f t="array" ref="K134">_xlfn.IFS(E134 &gt;= 0.85, "85  &lt;", AND(E134 &gt;=0.8, E134 &lt; 0.85), "80-85", AND(E134 &gt;= 0.7, E134 &lt; 0.8), "70-80", AND(E134 &gt;= 0.6, E134 &lt; 0.7),  "60-70", AND(E134 &gt;= 0.5, E134 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45287</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="F135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I135" t="s">
+        <v>68</v>
+      </c>
+      <c r="K135" t="str" cm="1">
+        <f t="array" ref="K135">_xlfn.IFS(E135 &gt;= 0.85, "85  &lt;", AND(E135 &gt;=0.8, E135 &lt; 0.85), "80-85", AND(E135 &gt;= 0.7, E135 &lt; 0.8), "70-80", AND(E135 &gt;= 0.6, E135 &lt; 0.7),  "60-70", AND(E135 &gt;= 0.5, E135 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362B5F1C-20DF-44D4-9B68-4222ECC9B27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CE977-A0C7-4956-85F6-62EDF0DC4830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45289.373941319442" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="148" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45290.440638541666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1009,7 +1009,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-30T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-31T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3234,7 +3234,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="157">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -5589,7 +5589,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.218"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5606,7 +5606,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.35799999999999998"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5623,7 +5623,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.376"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5640,7 +5640,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.42199999999999999"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5657,7 +5657,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.44800000000000001"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5674,7 +5674,7 @@
     <s v="Colorado Avalanche"/>
     <n v="0.46800000000000003"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5691,7 +5691,7 @@
     <s v="Washington Capitals"/>
     <n v="0.47"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5708,7 +5708,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.47399999999999998"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5725,6 +5725,159 @@
     <s v="New York Rangers"/>
     <n v="0.49199999999999999"/>
     <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.67"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.65600000000000003"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.62"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.61599999999999999"/>
+    <s v="New York Rangers"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.60199999999999998"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.6"/>
+    <s v="Washington Capitals"/>
+    <n v="0.4"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.59799999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.40200000000000002"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.55400000000000005"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.51"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.49"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <m/>
     <x v="4"/>
     <m/>
@@ -5755,7 +5908,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5838,7 +5991,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6231,20 +6384,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -6252,7 +6405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6269,7 +6422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -6288,7 +6441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -6304,10 +6457,10 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -6315,81 +6468,81 @@
         <v>36</v>
       </c>
       <c r="C6" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.68085106382978722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.7021276595744681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="8">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.53061224489795922</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.46</v>
+        <v>0.50943396226415094</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C9" s="8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.5547945205479452</v>
+        <v>0.56129032258064515</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.49494949494949497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -6400,21 +6553,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -6425,7 +6578,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -6436,7 +6589,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -6447,7 +6600,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -6458,7 +6611,7 @@
         <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -6477,32 +6630,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -6549,7 +6702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -6578,7 +6731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -6607,7 +6760,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -6636,7 +6789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -6665,7 +6818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -6694,7 +6847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -6723,7 +6876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -6752,7 +6905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -6781,7 +6934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -6810,7 +6963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -6839,7 +6992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -6868,7 +7021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6897,7 +7050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -6926,7 +7079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -6955,7 +7108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -6984,7 +7137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7013,7 +7166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7042,7 +7195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7071,7 +7224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7100,7 +7253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7129,7 +7282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7159,7 +7312,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -7189,7 +7342,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -7219,7 +7372,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -7249,7 +7402,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -7279,7 +7432,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -7309,7 +7462,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -7339,7 +7492,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -7369,7 +7522,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7399,7 +7552,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -7429,7 +7582,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -7459,7 +7612,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -7489,7 +7642,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -7519,7 +7672,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7549,7 +7702,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -7579,7 +7732,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -7609,7 +7762,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -7639,7 +7792,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -7669,7 +7822,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -7699,7 +7852,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -7729,7 +7882,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -7759,7 +7912,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -7789,7 +7942,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -7819,7 +7972,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -7849,7 +8002,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -7879,7 +8032,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -7909,7 +8062,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -7939,7 +8092,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -7969,7 +8122,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -7999,7 +8152,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -8029,7 +8182,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -8059,7 +8212,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -8089,7 +8242,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -8119,7 +8272,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -8149,7 +8302,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -8179,7 +8332,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8209,7 +8362,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -8239,7 +8392,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -8269,7 +8422,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -8299,7 +8452,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -8329,7 +8482,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -8359,7 +8512,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -8389,7 +8542,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -8419,7 +8572,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -8449,7 +8602,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -8479,7 +8632,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -8509,7 +8662,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -8542,7 +8695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -8572,7 +8725,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -8602,7 +8755,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -8632,7 +8785,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -8680,7 +8833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -8730,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -8780,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -8830,7 +8983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -8880,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -8930,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -8980,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9030,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9080,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -9130,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -9180,7 +9333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -9230,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9280,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9330,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -9380,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -9430,7 +9583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -9480,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -9530,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -9580,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -9630,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -9680,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -9730,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -9780,7 +9933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -9830,7 +9983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -9880,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -9930,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -9980,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10030,7 +10183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -10130,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -10180,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -10230,7 +10383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -10280,7 +10433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -10330,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -10380,7 +10533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -10430,7 +10583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -10480,7 +10633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -10530,7 +10683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10580,7 +10733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -10630,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -10680,7 +10833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -10730,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -10780,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -10830,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -10880,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -10930,7 +11083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -10980,7 +11133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -11030,7 +11183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11080,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -11130,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -11180,7 +11333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -11230,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -11280,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -11330,7 +11483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -11380,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -11430,7 +11583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -11480,7 +11633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -11530,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -11580,7 +11733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -11630,7 +11783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -11680,7 +11833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -11730,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -11780,7 +11933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -11830,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -11860,7 +12013,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -11890,7 +12043,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -11920,7 +12073,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -11950,7 +12103,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -11971,13 +12124,16 @@
       </c>
       <c r="G140" t="s">
         <v>32</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
       </c>
       <c r="I140" t="str" cm="1">
         <f t="array" ref="I140">_xlfn.IFS(D140 &gt;= 0.85, "85  &lt;", AND(D140 &gt;=0.8, D140 &lt; 0.85), "80-85", AND(D140 &gt;= 0.7, D140 &lt; 0.8), "70-80", AND(D140 &gt;= 0.6, D140 &lt; 0.7),  "60-70", AND(D140 &gt;= 0.5, D140 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -11998,13 +12154,16 @@
       </c>
       <c r="G141" t="s">
         <v>37</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
       </c>
       <c r="I141" t="str" cm="1">
         <f t="array" ref="I141">_xlfn.IFS(D141 &gt;= 0.85, "85  &lt;", AND(D141 &gt;=0.8, D141 &lt; 0.85), "80-85", AND(D141 &gt;= 0.7, D141 &lt; 0.8), "70-80", AND(D141 &gt;= 0.6, D141 &lt; 0.7),  "60-70", AND(D141 &gt;= 0.5, D141 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -12025,13 +12184,16 @@
       </c>
       <c r="G142" t="s">
         <v>20</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
       </c>
       <c r="I142" t="str" cm="1">
         <f t="array" ref="I142">_xlfn.IFS(D142 &gt;= 0.85, "85  &lt;", AND(D142 &gt;=0.8, D142 &lt; 0.85), "80-85", AND(D142 &gt;= 0.7, D142 &lt; 0.8), "70-80", AND(D142 &gt;= 0.6, D142 &lt; 0.7),  "60-70", AND(D142 &gt;= 0.5, D142 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -12052,13 +12214,16 @@
       </c>
       <c r="G143" t="s">
         <v>26</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
       </c>
       <c r="I143" t="str" cm="1">
         <f t="array" ref="I143">_xlfn.IFS(D143 &gt;= 0.85, "85  &lt;", AND(D143 &gt;=0.8, D143 &lt; 0.85), "80-85", AND(D143 &gt;= 0.7, D143 &lt; 0.8), "70-80", AND(D143 &gt;= 0.6, D143 &lt; 0.7),  "60-70", AND(D143 &gt;= 0.5, D143 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -12079,13 +12244,16 @@
       </c>
       <c r="G144" t="s">
         <v>69</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
       </c>
       <c r="I144" t="str" cm="1">
         <f t="array" ref="I144">_xlfn.IFS(D144 &gt;= 0.85, "85  &lt;", AND(D144 &gt;=0.8, D144 &lt; 0.85), "80-85", AND(D144 &gt;= 0.7, D144 &lt; 0.8), "70-80", AND(D144 &gt;= 0.6, D144 &lt; 0.7),  "60-70", AND(D144 &gt;= 0.5, D144 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -12106,13 +12274,16 @@
       </c>
       <c r="G145" t="s">
         <v>70</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
       </c>
       <c r="I145" t="str" cm="1">
         <f t="array" ref="I145">_xlfn.IFS(D145 &gt;= 0.85, "85  &lt;", AND(D145 &gt;=0.8, D145 &lt; 0.85), "80-85", AND(D145 &gt;= 0.7, D145 &lt; 0.8), "70-80", AND(D145 &gt;= 0.6, D145 &lt; 0.7),  "60-70", AND(D145 &gt;= 0.5, D145 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -12133,13 +12304,16 @@
       </c>
       <c r="G146" t="s">
         <v>43</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
       </c>
       <c r="I146" t="str" cm="1">
         <f t="array" ref="I146">_xlfn.IFS(D146 &gt;= 0.85, "85  &lt;", AND(D146 &gt;=0.8, D146 &lt; 0.85), "80-85", AND(D146 &gt;= 0.7, D146 &lt; 0.8), "70-80", AND(D146 &gt;= 0.6, D146 &lt; 0.7),  "60-70", AND(D146 &gt;= 0.5, D146 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -12160,13 +12334,16 @@
       </c>
       <c r="G147" t="s">
         <v>40</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
       </c>
       <c r="I147" t="str" cm="1">
         <f t="array" ref="I147">_xlfn.IFS(D147 &gt;= 0.85, "85  &lt;", AND(D147 &gt;=0.8, D147 &lt; 0.85), "80-85", AND(D147 &gt;= 0.7, D147 &lt; 0.8), "70-80", AND(D147 &gt;= 0.6, D147 &lt; 0.7),  "60-70", AND(D147 &gt;= 0.5, D147 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12188,8 +12365,254 @@
       <c r="G148" t="s">
         <v>93</v>
       </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
       <c r="I148" t="str" cm="1">
         <f t="array" ref="I148">_xlfn.IFS(D148 &gt;= 0.85, "85  &lt;", AND(D148 &gt;=0.8, D148 &lt; 0.85), "80-85", AND(D148 &gt;= 0.7, D148 &lt; 0.8), "70-80", AND(D148 &gt;= 0.6, D148 &lt; 0.7),  "60-70", AND(D148 &gt;= 0.5, D148 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E149" t="s">
+        <v>47</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G149" t="s">
+        <v>93</v>
+      </c>
+      <c r="I149" t="str" cm="1">
+        <f t="array" ref="I149">_xlfn.IFS(D149 &gt;= 0.85, "85  &lt;", AND(D149 &gt;=0.8, D149 &lt; 0.85), "80-85", AND(D149 &gt;= 0.7, D149 &lt; 0.8), "70-80", AND(D149 &gt;= 0.6, D149 &lt; 0.7),  "60-70", AND(D149 &gt;= 0.5, D149 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E150" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G150" t="s">
+        <v>81</v>
+      </c>
+      <c r="I150" t="str" cm="1">
+        <f t="array" ref="I150">_xlfn.IFS(D150 &gt;= 0.85, "85  &lt;", AND(D150 &gt;=0.8, D150 &lt; 0.85), "80-85", AND(D150 &gt;= 0.7, D150 &lt; 0.8), "70-80", AND(D150 &gt;= 0.6, D150 &lt; 0.7),  "60-70", AND(D150 &gt;= 0.5, D150 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>99</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151" t="str" cm="1">
+        <f t="array" ref="I151">_xlfn.IFS(D151 &gt;= 0.85, "85  &lt;", AND(D151 &gt;=0.8, D151 &lt; 0.85), "80-85", AND(D151 &gt;= 0.7, D151 &lt; 0.8), "70-80", AND(D151 &gt;= 0.6, D151 &lt; 0.7),  "60-70", AND(D151 &gt;= 0.5, D151 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E152" t="s">
+        <v>27</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G152" t="s">
+        <v>91</v>
+      </c>
+      <c r="I152" t="str" cm="1">
+        <f t="array" ref="I152">_xlfn.IFS(D152 &gt;= 0.85, "85  &lt;", AND(D152 &gt;=0.8, D152 &lt; 0.85), "80-85", AND(D152 &gt;= 0.7, D152 &lt; 0.8), "70-80", AND(D152 &gt;= 0.6, D152 &lt; 0.7),  "60-70", AND(D152 &gt;= 0.5, D152 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>99</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" t="str" cm="1">
+        <f t="array" ref="I153">_xlfn.IFS(D153 &gt;= 0.85, "85  &lt;", AND(D153 &gt;=0.8, D153 &lt; 0.85), "80-85", AND(D153 &gt;= 0.7, D153 &lt; 0.8), "70-80", AND(D153 &gt;= 0.6, D153 &lt; 0.7),  "60-70", AND(D153 &gt;= 0.5, D153 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>99</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" t="str" cm="1">
+        <f t="array" ref="I154">_xlfn.IFS(D154 &gt;= 0.85, "85  &lt;", AND(D154 &gt;=0.8, D154 &lt; 0.85), "80-85", AND(D154 &gt;= 0.7, D154 &lt; 0.8), "70-80", AND(D154 &gt;= 0.6, D154 &lt; 0.7),  "60-70", AND(D154 &gt;= 0.5, D154 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>99</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C155" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E155" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G155" t="s">
+        <v>49</v>
+      </c>
+      <c r="I155" t="str" cm="1">
+        <f t="array" ref="I155">_xlfn.IFS(D155 &gt;= 0.85, "85  &lt;", AND(D155 &gt;=0.8, D155 &lt; 0.85), "80-85", AND(D155 &gt;= 0.7, D155 &lt; 0.8), "70-80", AND(D155 &gt;= 0.6, D155 &lt; 0.7),  "60-70", AND(D155 &gt;= 0.5, D155 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>99</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C156" t="s">
+        <v>71</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G156" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156" t="str" cm="1">
+        <f t="array" ref="I156">_xlfn.IFS(D156 &gt;= 0.85, "85  &lt;", AND(D156 &gt;=0.8, D156 &lt; 0.85), "80-85", AND(D156 &gt;= 0.7, D156 &lt; 0.8), "70-80", AND(D156 &gt;= 0.6, D156 &lt; 0.7),  "60-70", AND(D156 &gt;= 0.5, D156 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>99</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45290</v>
+      </c>
+      <c r="C157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E157" t="s">
+        <v>45</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="G157" t="s">
+        <v>23</v>
+      </c>
+      <c r="I157" t="str" cm="1">
+        <f t="array" ref="I157">_xlfn.IFS(D157 &gt;= 0.85, "85  &lt;", AND(D157 &gt;=0.8, D157 &lt; 0.85), "80-85", AND(D157 &gt;= 0.7, D157 &lt; 0.8), "70-80", AND(D157 &gt;= 0.6, D157 &lt; 0.7),  "60-70", AND(D157 &gt;= 0.5, D157 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07CE977-A0C7-4956-85F6-62EDF0DC4830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F932AB-4A6E-4B13-B50F-012118CB4727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>RF6</t>
   </si>
 </sst>
 </file>
@@ -993,23 +996,24 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45290.440638541666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45291.412549652778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="166" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="7">
         <s v="RF1"/>
         <s v="RF2"/>
         <s v="RF3"/>
         <s v="RF4"/>
         <s v="RF5"/>
+        <s v="RF6"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-31T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-01T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3234,7 +3238,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="157">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="166">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -5742,7 +5746,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.33"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5759,7 +5763,7 @@
     <s v="Minnesota Wild"/>
     <n v="0.34399999999999997"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5776,7 +5780,7 @@
     <s v="Edmonton Oilers"/>
     <n v="0.38"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5793,7 +5797,7 @@
     <s v="New York Rangers"/>
     <n v="0.38400000000000001"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5810,7 +5814,7 @@
     <s v="New Jersey Devils"/>
     <n v="0.39800000000000002"/>
     <s v="Playing At:  Boston Bruins   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5827,7 +5831,7 @@
     <s v="Washington Capitals"/>
     <n v="0.4"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5844,7 +5848,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.40200000000000002"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5861,7 +5865,7 @@
     <s v="St. Louis Blues"/>
     <n v="0.44600000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5878,7 +5882,7 @@
     <s v="Carolina Hurricanes"/>
     <n v="0.49"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5889,6 +5893,159 @@
   </r>
   <r>
     <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.83799999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.16200000000000001"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.79800000000000004"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.79"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.21"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.64600000000000002"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.35399999999999998"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.63"/>
+    <s v="New York Islanders"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.624"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.376"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.622"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.60799999999999998"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.39200000000000002"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.54400000000000004"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.45600000000000002"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -5995,12 +6152,13 @@
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="6"/>
         <item x="5"/>
         <item t="default"/>
       </items>
@@ -6385,19 +6543,19 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -6405,7 +6563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6422,7 +6580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -6438,111 +6596,111 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8">
         <v>6</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8">
         <v>25</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.69444444444444442</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.7021276595744681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.49090909090909091</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.50943396226415094</v>
+        <v>0.53703703703703709</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C9" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.56129032258064515</v>
+        <v>0.56707317073170727</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -6553,21 +6711,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -6578,7 +6736,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -6589,7 +6747,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -6600,7 +6758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -6611,7 +6769,7 @@
         <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -6630,32 +6788,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView topLeftCell="A117" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149:H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -6702,7 +6860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -6731,7 +6889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -6760,7 +6918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -6789,7 +6947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -6818,7 +6976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -6847,7 +7005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -6876,7 +7034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -6905,7 +7063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -6934,7 +7092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -6963,7 +7121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -6992,7 +7150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7021,7 +7179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7050,7 +7208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -7079,7 +7237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -7108,7 +7266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -7137,7 +7295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7166,7 +7324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7195,7 +7353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7224,7 +7382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7253,7 +7411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7282,7 +7440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7312,7 +7470,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -7342,7 +7500,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -7372,7 +7530,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -7402,7 +7560,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -7432,7 +7590,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -7462,7 +7620,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -7492,7 +7650,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -7522,7 +7680,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7552,7 +7710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -7582,7 +7740,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -7612,7 +7770,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -7642,7 +7800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -7672,7 +7830,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7702,7 +7860,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -7732,7 +7890,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -7762,7 +7920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -7792,7 +7950,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -7822,7 +7980,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -7852,7 +8010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -7882,7 +8040,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -7912,7 +8070,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -7942,7 +8100,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -7972,7 +8130,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -8002,7 +8160,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8032,7 +8190,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -8062,7 +8220,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -8092,7 +8250,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -8122,7 +8280,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8152,7 +8310,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -8182,7 +8340,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -8212,7 +8370,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -8242,7 +8400,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -8272,7 +8430,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -8302,7 +8460,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -8332,7 +8490,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8362,7 +8520,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -8392,7 +8550,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -8422,7 +8580,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -8452,7 +8610,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -8482,7 +8640,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -8512,7 +8670,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -8542,7 +8700,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -8572,7 +8730,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -8602,7 +8760,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -8632,7 +8790,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -8662,7 +8820,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -8695,7 +8853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -8725,7 +8883,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -8755,7 +8913,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -8785,7 +8943,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -8833,7 +8991,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -8883,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -8933,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -8983,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -9033,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -9083,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -9133,7 +9291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9183,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9233,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -9283,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -9333,7 +9491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -9383,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9433,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9483,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -9533,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -9583,7 +9741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -9633,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -9683,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -9733,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -9783,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -9833,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -9883,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -9933,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -9983,7 +10141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -10033,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10083,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -10133,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10183,7 +10341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10233,7 +10391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -10283,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -10333,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -10383,7 +10541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -10433,7 +10591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -10483,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -10533,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -10583,7 +10741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -10633,7 +10791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -10683,7 +10841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10733,7 +10891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -10783,7 +10941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -10833,7 +10991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -10883,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -10933,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -10983,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -11033,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -11083,7 +11241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -11133,7 +11291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -11183,7 +11341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11233,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -11283,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -11333,7 +11491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -11383,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -11433,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -11483,7 +11641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -11533,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -11583,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -11633,7 +11791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -11683,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -11733,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -11783,7 +11941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -11833,7 +11991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -11883,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -11933,7 +12091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -11983,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -12013,7 +12171,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -12043,7 +12201,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -12073,7 +12231,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -12103,7 +12261,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -12133,7 +12291,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -12163,7 +12321,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -12193,7 +12351,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -12223,7 +12381,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -12253,7 +12411,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -12283,7 +12441,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -12313,7 +12471,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -12343,7 +12501,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12373,7 +12531,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -12394,13 +12552,16 @@
       </c>
       <c r="G149" t="s">
         <v>93</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
       </c>
       <c r="I149" t="str" cm="1">
         <f t="array" ref="I149">_xlfn.IFS(D149 &gt;= 0.85, "85  &lt;", AND(D149 &gt;=0.8, D149 &lt; 0.85), "80-85", AND(D149 &gt;= 0.7, D149 &lt; 0.8), "70-80", AND(D149 &gt;= 0.6, D149 &lt; 0.7),  "60-70", AND(D149 &gt;= 0.5, D149 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -12421,13 +12582,16 @@
       </c>
       <c r="G150" t="s">
         <v>81</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
       </c>
       <c r="I150" t="str" cm="1">
         <f t="array" ref="I150">_xlfn.IFS(D150 &gt;= 0.85, "85  &lt;", AND(D150 &gt;=0.8, D150 &lt; 0.85), "80-85", AND(D150 &gt;= 0.7, D150 &lt; 0.8), "70-80", AND(D150 &gt;= 0.6, D150 &lt; 0.7),  "60-70", AND(D150 &gt;= 0.5, D150 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -12448,13 +12612,16 @@
       </c>
       <c r="G151" t="s">
         <v>74</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
       </c>
       <c r="I151" t="str" cm="1">
         <f t="array" ref="I151">_xlfn.IFS(D151 &gt;= 0.85, "85  &lt;", AND(D151 &gt;=0.8, D151 &lt; 0.85), "80-85", AND(D151 &gt;= 0.7, D151 &lt; 0.8), "70-80", AND(D151 &gt;= 0.6, D151 &lt; 0.7),  "60-70", AND(D151 &gt;= 0.5, D151 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -12475,13 +12642,16 @@
       </c>
       <c r="G152" t="s">
         <v>91</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
       </c>
       <c r="I152" t="str" cm="1">
         <f t="array" ref="I152">_xlfn.IFS(D152 &gt;= 0.85, "85  &lt;", AND(D152 &gt;=0.8, D152 &lt; 0.85), "80-85", AND(D152 &gt;= 0.7, D152 &lt; 0.8), "70-80", AND(D152 &gt;= 0.6, D152 &lt; 0.7),  "60-70", AND(D152 &gt;= 0.5, D152 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -12502,13 +12672,16 @@
       </c>
       <c r="G153" t="s">
         <v>8</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
       </c>
       <c r="I153" t="str" cm="1">
         <f t="array" ref="I153">_xlfn.IFS(D153 &gt;= 0.85, "85  &lt;", AND(D153 &gt;=0.8, D153 &lt; 0.85), "80-85", AND(D153 &gt;= 0.7, D153 &lt; 0.8), "70-80", AND(D153 &gt;= 0.6, D153 &lt; 0.7),  "60-70", AND(D153 &gt;= 0.5, D153 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -12529,13 +12702,16 @@
       </c>
       <c r="G154" t="s">
         <v>29</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
       </c>
       <c r="I154" t="str" cm="1">
         <f t="array" ref="I154">_xlfn.IFS(D154 &gt;= 0.85, "85  &lt;", AND(D154 &gt;=0.8, D154 &lt; 0.85), "80-85", AND(D154 &gt;= 0.7, D154 &lt; 0.8), "70-80", AND(D154 &gt;= 0.6, D154 &lt; 0.7),  "60-70", AND(D154 &gt;= 0.5, D154 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -12556,13 +12732,16 @@
       </c>
       <c r="G155" t="s">
         <v>49</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
       </c>
       <c r="I155" t="str" cm="1">
         <f t="array" ref="I155">_xlfn.IFS(D155 &gt;= 0.85, "85  &lt;", AND(D155 &gt;=0.8, D155 &lt; 0.85), "80-85", AND(D155 &gt;= 0.7, D155 &lt; 0.8), "70-80", AND(D155 &gt;= 0.6, D155 &lt; 0.7),  "60-70", AND(D155 &gt;= 0.5, D155 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -12583,13 +12762,16 @@
       </c>
       <c r="G156" t="s">
         <v>72</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
       </c>
       <c r="I156" t="str" cm="1">
         <f t="array" ref="I156">_xlfn.IFS(D156 &gt;= 0.85, "85  &lt;", AND(D156 &gt;=0.8, D156 &lt; 0.85), "80-85", AND(D156 &gt;= 0.7, D156 &lt; 0.8), "70-80", AND(D156 &gt;= 0.6, D156 &lt; 0.7),  "60-70", AND(D156 &gt;= 0.5, D156 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -12611,8 +12793,254 @@
       <c r="G157" t="s">
         <v>23</v>
       </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
       <c r="I157" t="str" cm="1">
         <f t="array" ref="I157">_xlfn.IFS(D157 &gt;= 0.85, "85  &lt;", AND(D157 &gt;=0.8, D157 &lt; 0.85), "80-85", AND(D157 &gt;= 0.7, D157 &lt; 0.8), "70-80", AND(D157 &gt;= 0.6, D157 &lt; 0.7),  "60-70", AND(D157 &gt;= 0.5, D157 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>101</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E158" t="s">
+        <v>61</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" t="str" cm="1">
+        <f t="array" ref="I158">_xlfn.IFS(D158 &gt;= 0.85, "85  &lt;", AND(D158 &gt;=0.8, D158 &lt; 0.85), "80-85", AND(D158 &gt;= 0.7, D158 &lt; 0.8), "70-80", AND(D158 &gt;= 0.6, D158 &lt; 0.7),  "60-70", AND(D158 &gt;= 0.5, D158 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="str" cm="1">
+        <f t="array" ref="I159">_xlfn.IFS(D159 &gt;= 0.85, "85  &lt;", AND(D159 &gt;=0.8, D159 &lt; 0.85), "80-85", AND(D159 &gt;= 0.7, D159 &lt; 0.8), "70-80", AND(D159 &gt;= 0.6, D159 &lt; 0.7),  "60-70", AND(D159 &gt;= 0.5, D159 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E160" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" t="str" cm="1">
+        <f t="array" ref="I160">_xlfn.IFS(D160 &gt;= 0.85, "85  &lt;", AND(D160 &gt;=0.8, D160 &lt; 0.85), "80-85", AND(D160 &gt;= 0.7, D160 &lt; 0.8), "70-80", AND(D160 &gt;= 0.6, D160 &lt; 0.7),  "60-70", AND(D160 &gt;= 0.5, D160 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E161" t="s">
+        <v>47</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G161" t="s">
+        <v>91</v>
+      </c>
+      <c r="I161" t="str" cm="1">
+        <f t="array" ref="I161">_xlfn.IFS(D161 &gt;= 0.85, "85  &lt;", AND(D161 &gt;=0.8, D161 &lt; 0.85), "80-85", AND(D161 &gt;= 0.7, D161 &lt; 0.8), "70-80", AND(D161 &gt;= 0.6, D161 &lt; 0.7),  "60-70", AND(D161 &gt;= 0.5, D161 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C162" t="s">
+        <v>71</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162" t="str" cm="1">
+        <f t="array" ref="I162">_xlfn.IFS(D162 &gt;= 0.85, "85  &lt;", AND(D162 &gt;=0.8, D162 &lt; 0.85), "80-85", AND(D162 &gt;= 0.7, D162 &lt; 0.8), "70-80", AND(D162 &gt;= 0.6, D162 &lt; 0.7),  "60-70", AND(D162 &gt;= 0.5, D162 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>101</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="E163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="G163" t="s">
+        <v>40</v>
+      </c>
+      <c r="I163" t="str" cm="1">
+        <f t="array" ref="I163">_xlfn.IFS(D163 &gt;= 0.85, "85  &lt;", AND(D163 &gt;=0.8, D163 &lt; 0.85), "80-85", AND(D163 &gt;= 0.7, D163 &lt; 0.8), "70-80", AND(D163 &gt;= 0.6, D163 &lt; 0.7),  "60-70", AND(D163 &gt;= 0.5, D163 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>101</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="E164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="I164" t="str" cm="1">
+        <f t="array" ref="I164">_xlfn.IFS(D164 &gt;= 0.85, "85  &lt;", AND(D164 &gt;=0.8, D164 &lt; 0.85), "80-85", AND(D164 &gt;= 0.7, D164 &lt; 0.8), "70-80", AND(D164 &gt;= 0.6, D164 &lt; 0.7),  "60-70", AND(D164 &gt;= 0.5, D164 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>101</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G165" t="s">
+        <v>34</v>
+      </c>
+      <c r="I165" t="str" cm="1">
+        <f t="array" ref="I165">_xlfn.IFS(D165 &gt;= 0.85, "85  &lt;", AND(D165 &gt;=0.8, D165 &lt; 0.85), "80-85", AND(D165 &gt;= 0.7, D165 &lt; 0.8), "70-80", AND(D165 &gt;= 0.6, D165 &lt; 0.7),  "60-70", AND(D165 &gt;= 0.5, D165 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E166" t="s">
+        <v>48</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G166" t="s">
+        <v>69</v>
+      </c>
+      <c r="I166" t="str" cm="1">
+        <f t="array" ref="I166">_xlfn.IFS(D166 &gt;= 0.85, "85  &lt;", AND(D166 &gt;=0.8, D166 &lt; 0.85), "80-85", AND(D166 &gt;= 0.7, D166 &lt; 0.8), "70-80", AND(D166 &gt;= 0.6, D166 &lt; 0.7),  "60-70", AND(D166 &gt;= 0.5, D166 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F932AB-4A6E-4B13-B50F-012118CB4727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D29E0-6A51-4E80-B952-1025F132DD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -870,7 +870,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -996,7 +995,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45291.412549652778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="166" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45291.416022685182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="166" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -6148,7 +6147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6543,7 +6542,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6584,10 +6583,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -6603,10 +6602,10 @@
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" s="7">
@@ -6622,10 +6621,10 @@
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>38</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" s="7">
@@ -6641,10 +6640,10 @@
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>60</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>31</v>
       </c>
       <c r="D7" s="7">
@@ -6659,10 +6658,10 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>54</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>29</v>
       </c>
       <c r="D8" s="7">
@@ -6678,10 +6677,10 @@
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>164</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>93</v>
       </c>
       <c r="D9" s="7">
@@ -6791,7 +6790,7 @@
   <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView topLeftCell="A117" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149:H157"/>
+      <selection activeCell="A158" sqref="A158:I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D29E0-6A51-4E80-B952-1025F132DD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9AC98-1AD3-419E-B4B9-2D82BF020355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -870,6 +870,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -995,7 +996,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45291.416022685182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="166" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45292.408453240743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="166" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -5898,7 +5899,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.16200000000000001"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -5915,7 +5916,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.20200000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5932,7 +5933,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.21"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5949,7 +5950,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.35399999999999998"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5966,7 +5967,7 @@
     <s v="New York Islanders"/>
     <n v="0.37"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5983,7 +5984,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.376"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6000,7 +6001,7 @@
     <s v="Winnipeg Jets"/>
     <n v="0.378"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6017,7 +6018,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.39200000000000002"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6034,7 +6035,7 @@
     <s v="Buffalo Sabres"/>
     <n v="0.45600000000000002"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6541,20 +6542,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -6606,18 +6607,18 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -6625,18 +6626,18 @@
         <v>38</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.65789473684210531</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -6644,17 +6645,17 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -6662,18 +6663,18 @@
         <v>54</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.53703703703703709</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -6681,25 +6682,25 @@
         <v>164</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.56707317073170727</v>
+        <v>0.61585365853658536</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.57017543859649122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -6710,21 +6711,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -6787,32 +6788,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:I166"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7469,7 +7470,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -7679,7 +7680,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -8369,7 +8370,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -8489,7 +8490,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -8882,7 +8883,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -9690,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -9890,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -9940,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -9990,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -10190,7 +10191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10240,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10340,7 +10341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -10540,7 +10541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -10690,7 +10691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -10790,7 +10791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -10840,7 +10841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10890,7 +10891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -10990,7 +10991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -11140,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -11340,7 +11341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11390,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -11440,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -11990,7 +11991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -12230,7 +12231,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -12320,7 +12321,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -12350,7 +12351,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -12380,7 +12381,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -12590,7 +12591,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -12620,7 +12621,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -12710,7 +12711,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -12800,7 +12801,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -12821,13 +12822,16 @@
       </c>
       <c r="G158" t="s">
         <v>11</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
       </c>
       <c r="I158" t="str" cm="1">
         <f t="array" ref="I158">_xlfn.IFS(D158 &gt;= 0.85, "85  &lt;", AND(D158 &gt;=0.8, D158 &lt; 0.85), "80-85", AND(D158 &gt;= 0.7, D158 &lt; 0.8), "70-80", AND(D158 &gt;= 0.6, D158 &lt; 0.7),  "60-70", AND(D158 &gt;= 0.5, D158 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -12848,13 +12852,16 @@
       </c>
       <c r="G159" t="s">
         <v>20</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
       </c>
       <c r="I159" t="str" cm="1">
         <f t="array" ref="I159">_xlfn.IFS(D159 &gt;= 0.85, "85  &lt;", AND(D159 &gt;=0.8, D159 &lt; 0.85), "80-85", AND(D159 &gt;= 0.7, D159 &lt; 0.8), "70-80", AND(D159 &gt;= 0.6, D159 &lt; 0.7),  "60-70", AND(D159 &gt;= 0.5, D159 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -12875,13 +12882,16 @@
       </c>
       <c r="G160" t="s">
         <v>32</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
       </c>
       <c r="I160" t="str" cm="1">
         <f t="array" ref="I160">_xlfn.IFS(D160 &gt;= 0.85, "85  &lt;", AND(D160 &gt;=0.8, D160 &lt; 0.85), "80-85", AND(D160 &gt;= 0.7, D160 &lt; 0.8), "70-80", AND(D160 &gt;= 0.6, D160 &lt; 0.7),  "60-70", AND(D160 &gt;= 0.5, D160 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>101</v>
       </c>
@@ -12902,13 +12912,16 @@
       </c>
       <c r="G161" t="s">
         <v>91</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
       </c>
       <c r="I161" t="str" cm="1">
         <f t="array" ref="I161">_xlfn.IFS(D161 &gt;= 0.85, "85  &lt;", AND(D161 &gt;=0.8, D161 &lt; 0.85), "80-85", AND(D161 &gt;= 0.7, D161 &lt; 0.8), "70-80", AND(D161 &gt;= 0.6, D161 &lt; 0.7),  "60-70", AND(D161 &gt;= 0.5, D161 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>101</v>
       </c>
@@ -12929,13 +12942,16 @@
       </c>
       <c r="G162" t="s">
         <v>72</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
       </c>
       <c r="I162" t="str" cm="1">
         <f t="array" ref="I162">_xlfn.IFS(D162 &gt;= 0.85, "85  &lt;", AND(D162 &gt;=0.8, D162 &lt; 0.85), "80-85", AND(D162 &gt;= 0.7, D162 &lt; 0.8), "70-80", AND(D162 &gt;= 0.6, D162 &lt; 0.7),  "60-70", AND(D162 &gt;= 0.5, D162 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>101</v>
       </c>
@@ -12956,13 +12972,16 @@
       </c>
       <c r="G163" t="s">
         <v>40</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
       </c>
       <c r="I163" t="str" cm="1">
         <f t="array" ref="I163">_xlfn.IFS(D163 &gt;= 0.85, "85  &lt;", AND(D163 &gt;=0.8, D163 &lt; 0.85), "80-85", AND(D163 &gt;= 0.7, D163 &lt; 0.8), "70-80", AND(D163 &gt;= 0.6, D163 &lt; 0.7),  "60-70", AND(D163 &gt;= 0.5, D163 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>101</v>
       </c>
@@ -12983,13 +13002,16 @@
       </c>
       <c r="G164" t="s">
         <v>77</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
       </c>
       <c r="I164" t="str" cm="1">
         <f t="array" ref="I164">_xlfn.IFS(D164 &gt;= 0.85, "85  &lt;", AND(D164 &gt;=0.8, D164 &lt; 0.85), "80-85", AND(D164 &gt;= 0.7, D164 &lt; 0.8), "70-80", AND(D164 &gt;= 0.6, D164 &lt; 0.7),  "60-70", AND(D164 &gt;= 0.5, D164 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>101</v>
       </c>
@@ -13010,13 +13032,16 @@
       </c>
       <c r="G165" t="s">
         <v>34</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
       </c>
       <c r="I165" t="str" cm="1">
         <f t="array" ref="I165">_xlfn.IFS(D165 &gt;= 0.85, "85  &lt;", AND(D165 &gt;=0.8, D165 &lt; 0.85), "80-85", AND(D165 &gt;= 0.7, D165 &lt; 0.8), "70-80", AND(D165 &gt;= 0.6, D165 &lt; 0.7),  "60-70", AND(D165 &gt;= 0.5, D165 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -13038,8 +13063,38 @@
       <c r="G166" t="s">
         <v>69</v>
       </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
       <c r="I166" t="str" cm="1">
         <f t="array" ref="I166">_xlfn.IFS(D166 &gt;= 0.85, "85  &lt;", AND(D166 &gt;=0.8, D166 &lt; 0.85), "80-85", AND(D166 &gt;= 0.7, D166 &lt; 0.8), "70-80", AND(D166 &gt;= 0.6, D166 &lt; 0.7),  "60-70", AND(D166 &gt;= 0.5, D166 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>101</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="E167" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="G167" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" t="str" cm="1">
+        <f t="array" ref="I167">_xlfn.IFS(D167 &gt;= 0.85, "85  &lt;", AND(D167 &gt;=0.8, D167 &lt; 0.85), "80-85", AND(D167 &gt;= 0.7, D167 &lt; 0.8), "70-80", AND(D167 &gt;= 0.6, D167 &lt; 0.7),  "60-70", AND(D167 &gt;= 0.5, D167 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB9AC98-1AD3-419E-B4B9-2D82BF020355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48A28F-01F7-4949-9008-4C6D6F177859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -871,6 +871,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -996,7 +997,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45292.408453240743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="166" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45293.363586574073" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="180" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1013,7 +1014,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-01T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-03T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3238,7 +3239,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="166">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="180">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -6036,6 +6037,244 @@
     <n v="0.45600000000000002"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-01T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.53"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.47"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.84599999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.154"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.75800000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.748"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.70599999999999996"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.69199999999999995"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.68600000000000005"/>
+    <s v="New York Islanders"/>
+    <n v="0.314"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.68200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.318"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.67200000000000004"/>
+    <s v="Washington Capitals"/>
+    <n v="0.32800000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.66"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.34"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.64200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.61599999999999999"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.56200000000000006"/>
+    <s v="Florida Panthers"/>
+    <n v="0.438"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <m/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6148,7 +6387,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6542,20 +6781,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -6563,7 +6802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6580,14 +6819,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -6596,111 +6835,111 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="9">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
         <v>7</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.77777777777777779</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
-        <v>38</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="9">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9">
         <v>27</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.71052631578947367</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="9">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9">
         <v>35</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.51470588235294112</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>54</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="9">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9">
         <v>30</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <v>164</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="9">
+        <v>178</v>
+      </c>
+      <c r="C9" s="9">
         <v>101</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.61585365853658536</v>
+        <v>0.56741573033707871</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.57017543859649122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.52419354838709675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -6711,21 +6950,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -6736,7 +6975,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -6747,7 +6986,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -6758,7 +6997,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -6769,7 +7008,7 @@
         <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -6788,32 +7027,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView topLeftCell="A148" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -6860,7 +7099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -6889,7 +7128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -6918,7 +7157,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -6947,7 +7186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -6976,7 +7215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -7005,7 +7244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -7034,7 +7273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -7063,7 +7302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7092,7 +7331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7121,7 +7360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7150,7 +7389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7179,7 +7418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7208,7 +7447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -7237,7 +7476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -7266,7 +7505,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -7295,7 +7534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7324,7 +7563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7353,7 +7592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7382,7 +7621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7411,7 +7650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7440,7 +7679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7470,7 +7709,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -7500,7 +7739,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -7530,7 +7769,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -7560,7 +7799,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -7590,7 +7829,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -7620,7 +7859,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -7650,7 +7889,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -7680,7 +7919,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7710,7 +7949,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -7740,7 +7979,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -7770,7 +8009,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -7800,7 +8039,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -7830,7 +8069,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7860,7 +8099,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -7890,7 +8129,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -7920,7 +8159,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -7950,7 +8189,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -7980,7 +8219,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -8010,7 +8249,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -8040,7 +8279,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -8070,7 +8309,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -8100,7 +8339,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -8130,7 +8369,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -8160,7 +8399,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8190,7 +8429,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -8220,7 +8459,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -8250,7 +8489,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -8280,7 +8519,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8310,7 +8549,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -8340,7 +8579,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -8370,7 +8609,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -8400,7 +8639,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -8430,7 +8669,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -8460,7 +8699,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -8490,7 +8729,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8520,7 +8759,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -8550,7 +8789,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -8580,7 +8819,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -8610,7 +8849,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -8640,7 +8879,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -8670,7 +8909,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -8700,7 +8939,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -8730,7 +8969,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -8760,7 +8999,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -8790,7 +9029,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -8820,7 +9059,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -8853,7 +9092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -8883,7 +9122,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -8913,7 +9152,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -8943,7 +9182,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -8991,7 +9230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -9041,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -9091,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -9141,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -9191,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -9241,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -9291,7 +9530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9341,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9391,7 +9630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -9441,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -9491,7 +9730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -9541,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9591,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9641,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -9691,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -9741,7 +9980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -9791,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -9841,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -9891,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -9941,7 +10180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -9991,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -10041,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -10091,7 +10330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -10141,7 +10380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -10191,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10241,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -10291,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10341,7 +10580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10391,7 +10630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -10441,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -10491,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -10541,7 +10780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -10591,7 +10830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -10641,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -10691,7 +10930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -10741,7 +10980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -10791,7 +11030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -10841,7 +11080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10891,7 +11130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -10941,7 +11180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -10991,7 +11230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -11041,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -11091,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -11141,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -11191,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -11241,7 +11480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -11291,7 +11530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -11341,7 +11580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11391,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -11441,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -11491,7 +11730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -11541,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -11591,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -11641,7 +11880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -11691,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -11741,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -11791,7 +12030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -11841,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -11891,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -11941,7 +12180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -11991,7 +12230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -12041,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -12091,7 +12330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -12141,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -12171,7 +12410,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -12201,7 +12440,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -12231,7 +12470,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -12261,7 +12500,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -12291,7 +12530,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -12321,7 +12560,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -12351,7 +12590,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -12381,7 +12620,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -12411,7 +12650,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -12441,7 +12680,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -12471,7 +12710,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -12501,7 +12740,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12531,7 +12770,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -12561,7 +12800,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -12591,7 +12830,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -12621,7 +12860,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -12651,7 +12890,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -12681,7 +12920,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -12711,7 +12950,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -12741,7 +12980,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -12771,7 +13010,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -12801,7 +13040,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -12831,7 +13070,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -12861,7 +13100,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -12891,7 +13130,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>101</v>
       </c>
@@ -12921,7 +13160,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>101</v>
       </c>
@@ -12951,7 +13190,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>101</v>
       </c>
@@ -12981,7 +13220,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>101</v>
       </c>
@@ -13011,7 +13250,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>101</v>
       </c>
@@ -13041,7 +13280,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -13071,7 +13310,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>101</v>
       </c>
@@ -13093,8 +13332,362 @@
       <c r="G167" t="s">
         <v>26</v>
       </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
       <c r="I167" t="str" cm="1">
         <f t="array" ref="I167">_xlfn.IFS(D167 &gt;= 0.85, "85  &lt;", AND(D167 &gt;=0.8, D167 &lt; 0.85), "80-85", AND(D167 &gt;= 0.7, D167 &lt; 0.8), "70-80", AND(D167 &gt;= 0.6, D167 &lt; 0.7),  "60-70", AND(D167 &gt;= 0.5, D167 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>101</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E168" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0.154</v>
+      </c>
+      <c r="G168" t="s">
+        <v>67</v>
+      </c>
+      <c r="I168" t="str" cm="1">
+        <f t="array" ref="I168">_xlfn.IFS(D168 &gt;= 0.85, "85  &lt;", AND(D168 &gt;=0.8, D168 &lt; 0.85), "80-85", AND(D168 &gt;= 0.7, D168 &lt; 0.8), "70-80", AND(D168 &gt;= 0.6, D168 &lt; 0.7),  "60-70", AND(D168 &gt;= 0.5, D168 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E169" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G169" t="s">
+        <v>32</v>
+      </c>
+      <c r="I169" t="str" cm="1">
+        <f t="array" ref="I169">_xlfn.IFS(D169 &gt;= 0.85, "85  &lt;", AND(D169 &gt;=0.8, D169 &lt; 0.85), "80-85", AND(D169 &gt;= 0.7, D169 &lt; 0.8), "70-80", AND(D169 &gt;= 0.6, D169 &lt; 0.7),  "60-70", AND(D169 &gt;= 0.5, D169 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>101</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="E170" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0.252</v>
+      </c>
+      <c r="G170" t="s">
+        <v>81</v>
+      </c>
+      <c r="I170" t="str" cm="1">
+        <f t="array" ref="I170">_xlfn.IFS(D170 &gt;= 0.85, "85  &lt;", AND(D170 &gt;=0.8, D170 &lt; 0.85), "80-85", AND(D170 &gt;= 0.7, D170 &lt; 0.8), "70-80", AND(D170 &gt;= 0.6, D170 &lt; 0.7),  "60-70", AND(D170 &gt;= 0.5, D170 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="E171" t="s">
+        <v>36</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G171" t="s">
+        <v>37</v>
+      </c>
+      <c r="I171" t="str" cm="1">
+        <f t="array" ref="I171">_xlfn.IFS(D171 &gt;= 0.85, "85  &lt;", AND(D171 &gt;=0.8, D171 &lt; 0.85), "80-85", AND(D171 &gt;= 0.7, D171 &lt; 0.8), "70-80", AND(D171 &gt;= 0.6, D171 &lt; 0.7),  "60-70", AND(D171 &gt;= 0.5, D171 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>101</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="str" cm="1">
+        <f t="array" ref="I172">_xlfn.IFS(D172 &gt;= 0.85, "85  &lt;", AND(D172 &gt;=0.8, D172 &lt; 0.85), "80-85", AND(D172 &gt;= 0.7, D172 &lt; 0.8), "70-80", AND(D172 &gt;= 0.6, D172 &lt; 0.7),  "60-70", AND(D172 &gt;= 0.5, D172 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>101</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E173" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="G173" t="s">
+        <v>77</v>
+      </c>
+      <c r="I173" t="str" cm="1">
+        <f t="array" ref="I173">_xlfn.IFS(D173 &gt;= 0.85, "85  &lt;", AND(D173 &gt;=0.8, D173 &lt; 0.85), "80-85", AND(D173 &gt;= 0.7, D173 &lt; 0.8), "70-80", AND(D173 &gt;= 0.6, D173 &lt; 0.7),  "60-70", AND(D173 &gt;= 0.5, D173 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>101</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E174" t="s">
+        <v>41</v>
+      </c>
+      <c r="F174" s="2">
+        <v>0.314</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="I174" t="str" cm="1">
+        <f t="array" ref="I174">_xlfn.IFS(D174 &gt;= 0.85, "85  &lt;", AND(D174 &gt;=0.8, D174 &lt; 0.85), "80-85", AND(D174 &gt;= 0.7, D174 &lt; 0.8), "70-80", AND(D174 &gt;= 0.6, D174 &lt; 0.7),  "60-70", AND(D174 &gt;= 0.5, D174 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>101</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E175" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="G175" t="s">
+        <v>68</v>
+      </c>
+      <c r="I175" t="str" cm="1">
+        <f t="array" ref="I175">_xlfn.IFS(D175 &gt;= 0.85, "85  &lt;", AND(D175 &gt;=0.8, D175 &lt; 0.85), "80-85", AND(D175 &gt;= 0.7, D175 &lt; 0.8), "70-80", AND(D175 &gt;= 0.6, D175 &lt; 0.7),  "60-70", AND(D175 &gt;= 0.5, D175 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>101</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C176" t="s">
+        <v>71</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E176" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176" t="str" cm="1">
+        <f t="array" ref="I176">_xlfn.IFS(D176 &gt;= 0.85, "85  &lt;", AND(D176 &gt;=0.8, D176 &lt; 0.85), "80-85", AND(D176 &gt;= 0.7, D176 &lt; 0.8), "70-80", AND(D176 &gt;= 0.6, D176 &lt; 0.7),  "60-70", AND(D176 &gt;= 0.5, D176 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>101</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C177" t="s">
+        <v>44</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G177" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177" t="str" cm="1">
+        <f t="array" ref="I177">_xlfn.IFS(D177 &gt;= 0.85, "85  &lt;", AND(D177 &gt;=0.8, D177 &lt; 0.85), "80-85", AND(D177 &gt;= 0.7, D177 &lt; 0.8), "70-80", AND(D177 &gt;= 0.6, D177 &lt; 0.7),  "60-70", AND(D177 &gt;= 0.5, D177 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>101</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C178" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E178" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178" t="str" cm="1">
+        <f t="array" ref="I178">_xlfn.IFS(D178 &gt;= 0.85, "85  &lt;", AND(D178 &gt;=0.8, D178 &lt; 0.85), "80-85", AND(D178 &gt;= 0.7, D178 &lt; 0.8), "70-80", AND(D178 &gt;= 0.6, D178 &lt; 0.7),  "60-70", AND(D178 &gt;= 0.5, D178 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E179" t="s">
+        <v>45</v>
+      </c>
+      <c r="F179" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G179" t="s">
+        <v>65</v>
+      </c>
+      <c r="I179" t="str" cm="1">
+        <f t="array" ref="I179">_xlfn.IFS(D179 &gt;= 0.85, "85  &lt;", AND(D179 &gt;=0.8, D179 &lt; 0.85), "80-85", AND(D179 &gt;= 0.7, D179 &lt; 0.8), "70-80", AND(D179 &gt;= 0.6, D179 &lt; 0.7),  "60-70", AND(D179 &gt;= 0.5, D179 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>101</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="G180" t="s">
+        <v>80</v>
+      </c>
+      <c r="I180" t="str" cm="1">
+        <f t="array" ref="I180">_xlfn.IFS(D180 &gt;= 0.85, "85  &lt;", AND(D180 &gt;=0.8, D180 &lt; 0.85), "80-85", AND(D180 &gt;= 0.7, D180 &lt; 0.8), "70-80", AND(D180 &gt;= 0.6, D180 &lt; 0.7),  "60-70", AND(D180 &gt;= 0.5, D180 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48A28F-01F7-4949-9008-4C6D6F177859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E6D932-0963-47C7-B193-6A05B74E9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -871,7 +871,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -997,7 +996,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45293.363586574073" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="180" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45294.371040509257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="180" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -6070,7 +6069,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.154"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -6087,7 +6086,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.24199999999999999"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6104,7 +6103,7 @@
     <s v="Tampa Bay Lightning"/>
     <n v="0.252"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6121,7 +6120,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6138,7 +6137,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.308"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6155,7 +6154,7 @@
     <s v="Calgary Flames"/>
     <n v="0.308"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6172,7 +6171,7 @@
     <s v="New York Islanders"/>
     <n v="0.314"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6189,7 +6188,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.318"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6206,7 +6205,7 @@
     <s v="Washington Capitals"/>
     <n v="0.32800000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6223,7 +6222,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.34"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6240,7 +6239,7 @@
     <s v="Toronto Maple Leafs"/>
     <n v="0.35799999999999998"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6257,7 +6256,7 @@
     <s v="Carolina Hurricanes"/>
     <n v="0.38400000000000001"/>
     <s v="Playing At:  New York Rangers   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6274,7 +6273,7 @@
     <s v="Florida Panthers"/>
     <n v="0.438"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6387,7 +6386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6781,20 +6780,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6819,14 +6818,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -6838,70 +6837,70 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
-        <v>7</v>
+      <c r="C5">
+        <v>8</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>41</v>
       </c>
-      <c r="C6" s="9">
-        <v>27</v>
+      <c r="C6">
+        <v>29</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.65853658536585369</v>
+        <v>0.70731707317073167</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>68</v>
       </c>
-      <c r="C7" s="9">
-        <v>35</v>
+      <c r="C7">
+        <v>39</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.51470588235294112</v>
+        <v>0.57352941176470584</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>56</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>30</v>
       </c>
       <c r="D8" s="7">
@@ -6913,33 +6912,33 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>178</v>
       </c>
-      <c r="C9" s="9">
-        <v>101</v>
+      <c r="C9">
+        <v>108</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.56741573033707871</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.52419354838709675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.55645161290322576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -6950,21 +6949,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -6997,7 +6996,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -7027,32 +7026,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7331,7 +7330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -7919,7 +7918,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -8459,7 +8458,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -8579,7 +8578,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -8909,7 +8908,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -8999,7 +8998,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -9152,7 +9151,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10580,7 +10579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -10680,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -10880,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -11030,7 +11029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -11180,7 +11179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11630,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -11830,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -12080,7 +12079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -12180,7 +12179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -12230,7 +12229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -12440,7 +12439,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -12500,7 +12499,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -12530,7 +12529,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -12680,7 +12679,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -12770,7 +12769,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -12830,7 +12829,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -12860,7 +12859,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -12920,7 +12919,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -12980,7 +12979,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>101</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>101</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>101</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>101</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>101</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -13310,7 +13309,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>101</v>
       </c>
@@ -13340,7 +13339,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>101</v>
       </c>
@@ -13361,13 +13360,16 @@
       </c>
       <c r="G168" t="s">
         <v>67</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
       </c>
       <c r="I168" t="str" cm="1">
         <f t="array" ref="I168">_xlfn.IFS(D168 &gt;= 0.85, "85  &lt;", AND(D168 &gt;=0.8, D168 &lt; 0.85), "80-85", AND(D168 &gt;= 0.7, D168 &lt; 0.8), "70-80", AND(D168 &gt;= 0.6, D168 &lt; 0.7),  "60-70", AND(D168 &gt;= 0.5, D168 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>101</v>
       </c>
@@ -13388,13 +13390,16 @@
       </c>
       <c r="G169" t="s">
         <v>32</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
       </c>
       <c r="I169" t="str" cm="1">
         <f t="array" ref="I169">_xlfn.IFS(D169 &gt;= 0.85, "85  &lt;", AND(D169 &gt;=0.8, D169 &lt; 0.85), "80-85", AND(D169 &gt;= 0.7, D169 &lt; 0.8), "70-80", AND(D169 &gt;= 0.6, D169 &lt; 0.7),  "60-70", AND(D169 &gt;= 0.5, D169 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>101</v>
       </c>
@@ -13415,13 +13420,16 @@
       </c>
       <c r="G170" t="s">
         <v>81</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
       </c>
       <c r="I170" t="str" cm="1">
         <f t="array" ref="I170">_xlfn.IFS(D170 &gt;= 0.85, "85  &lt;", AND(D170 &gt;=0.8, D170 &lt; 0.85), "80-85", AND(D170 &gt;= 0.7, D170 &lt; 0.8), "70-80", AND(D170 &gt;= 0.6, D170 &lt; 0.7),  "60-70", AND(D170 &gt;= 0.5, D170 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>101</v>
       </c>
@@ -13442,13 +13450,16 @@
       </c>
       <c r="G171" t="s">
         <v>37</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
       </c>
       <c r="I171" t="str" cm="1">
         <f t="array" ref="I171">_xlfn.IFS(D171 &gt;= 0.85, "85  &lt;", AND(D171 &gt;=0.8, D171 &lt; 0.85), "80-85", AND(D171 &gt;= 0.7, D171 &lt; 0.8), "70-80", AND(D171 &gt;= 0.6, D171 &lt; 0.7),  "60-70", AND(D171 &gt;= 0.5, D171 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>101</v>
       </c>
@@ -13469,13 +13480,16 @@
       </c>
       <c r="G172" t="s">
         <v>14</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
       </c>
       <c r="I172" t="str" cm="1">
         <f t="array" ref="I172">_xlfn.IFS(D172 &gt;= 0.85, "85  &lt;", AND(D172 &gt;=0.8, D172 &lt; 0.85), "80-85", AND(D172 &gt;= 0.7, D172 &lt; 0.8), "70-80", AND(D172 &gt;= 0.6, D172 &lt; 0.7),  "60-70", AND(D172 &gt;= 0.5, D172 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>101</v>
       </c>
@@ -13496,13 +13510,16 @@
       </c>
       <c r="G173" t="s">
         <v>77</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
       </c>
       <c r="I173" t="str" cm="1">
         <f t="array" ref="I173">_xlfn.IFS(D173 &gt;= 0.85, "85  &lt;", AND(D173 &gt;=0.8, D173 &lt; 0.85), "80-85", AND(D173 &gt;= 0.7, D173 &lt; 0.8), "70-80", AND(D173 &gt;= 0.6, D173 &lt; 0.7),  "60-70", AND(D173 &gt;= 0.5, D173 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>101</v>
       </c>
@@ -13523,13 +13540,16 @@
       </c>
       <c r="G174" t="s">
         <v>11</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
       </c>
       <c r="I174" t="str" cm="1">
         <f t="array" ref="I174">_xlfn.IFS(D174 &gt;= 0.85, "85  &lt;", AND(D174 &gt;=0.8, D174 &lt; 0.85), "80-85", AND(D174 &gt;= 0.7, D174 &lt; 0.8), "70-80", AND(D174 &gt;= 0.6, D174 &lt; 0.7),  "60-70", AND(D174 &gt;= 0.5, D174 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>101</v>
       </c>
@@ -13550,13 +13570,16 @@
       </c>
       <c r="G175" t="s">
         <v>68</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
       </c>
       <c r="I175" t="str" cm="1">
         <f t="array" ref="I175">_xlfn.IFS(D175 &gt;= 0.85, "85  &lt;", AND(D175 &gt;=0.8, D175 &lt; 0.85), "80-85", AND(D175 &gt;= 0.7, D175 &lt; 0.8), "70-80", AND(D175 &gt;= 0.6, D175 &lt; 0.7),  "60-70", AND(D175 &gt;= 0.5, D175 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -13577,13 +13600,16 @@
       </c>
       <c r="G176" t="s">
         <v>72</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
       </c>
       <c r="I176" t="str" cm="1">
         <f t="array" ref="I176">_xlfn.IFS(D176 &gt;= 0.85, "85  &lt;", AND(D176 &gt;=0.8, D176 &lt; 0.85), "80-85", AND(D176 &gt;= 0.7, D176 &lt; 0.8), "70-80", AND(D176 &gt;= 0.6, D176 &lt; 0.7),  "60-70", AND(D176 &gt;= 0.5, D176 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>101</v>
       </c>
@@ -13604,13 +13630,16 @@
       </c>
       <c r="G177" t="s">
         <v>46</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
       </c>
       <c r="I177" t="str" cm="1">
         <f t="array" ref="I177">_xlfn.IFS(D177 &gt;= 0.85, "85  &lt;", AND(D177 &gt;=0.8, D177 &lt; 0.85), "80-85", AND(D177 &gt;= 0.7, D177 &lt; 0.8), "70-80", AND(D177 &gt;= 0.6, D177 &lt; 0.7),  "60-70", AND(D177 &gt;= 0.5, D177 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>101</v>
       </c>
@@ -13631,13 +13660,16 @@
       </c>
       <c r="G178" t="s">
         <v>74</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
       </c>
       <c r="I178" t="str" cm="1">
         <f t="array" ref="I178">_xlfn.IFS(D178 &gt;= 0.85, "85  &lt;", AND(D178 &gt;=0.8, D178 &lt; 0.85), "80-85", AND(D178 &gt;= 0.7, D178 &lt; 0.8), "70-80", AND(D178 &gt;= 0.6, D178 &lt; 0.7),  "60-70", AND(D178 &gt;= 0.5, D178 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>101</v>
       </c>
@@ -13658,13 +13690,16 @@
       </c>
       <c r="G179" t="s">
         <v>65</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
       </c>
       <c r="I179" t="str" cm="1">
         <f t="array" ref="I179">_xlfn.IFS(D179 &gt;= 0.85, "85  &lt;", AND(D179 &gt;=0.8, D179 &lt; 0.85), "80-85", AND(D179 &gt;= 0.7, D179 &lt; 0.8), "70-80", AND(D179 &gt;= 0.6, D179 &lt; 0.7),  "60-70", AND(D179 &gt;= 0.5, D179 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>101</v>
       </c>
@@ -13685,10 +13720,67 @@
       </c>
       <c r="G180" t="s">
         <v>80</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
       </c>
       <c r="I180" t="str" cm="1">
         <f t="array" ref="I180">_xlfn.IFS(D180 &gt;= 0.85, "85  &lt;", AND(D180 &gt;=0.8, D180 &lt; 0.85), "80-85", AND(D180 &gt;= 0.7, D180 &lt; 0.8), "70-80", AND(D180 &gt;= 0.6, D180 &lt; 0.7),  "60-70", AND(D180 &gt;= 0.5, D180 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>101</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C181" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="G181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" t="str" cm="1">
+        <f t="array" ref="I181">_xlfn.IFS(D181 &gt;= 0.85, "85  &lt;", AND(D181 &gt;=0.8, D181 &lt; 0.85), "80-85", AND(D181 &gt;= 0.7, D181 &lt; 0.8), "70-80", AND(D181 &gt;= 0.6, D181 &lt; 0.7),  "60-70", AND(D181 &gt;= 0.5, D181 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45294</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="E182" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
+      <c r="I182" t="str" cm="1">
+        <f t="array" ref="I182">_xlfn.IFS(D182 &gt;= 0.85, "85  &lt;", AND(D182 &gt;=0.8, D182 &lt; 0.85), "80-85", AND(D182 &gt;= 0.7, D182 &lt; 0.8), "70-80", AND(D182 &gt;= 0.6, D182 &lt; 0.7),  "60-70", AND(D182 &gt;= 0.5, D182 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E6D932-0963-47C7-B193-6A05B74E9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2750C-95FF-4F63-8E4F-1A9D6E39AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45294.371040509257" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="180" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45295.344763657406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="182" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1013,7 +1013,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-03T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-04T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3238,7 +3238,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="180">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="182">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -6275,6 +6275,40 @@
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
     <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.76"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.24"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.63"/>
+    <s v="Washington Capitals"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -6780,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6834,7 +6868,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -6853,7 +6887,7 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -6861,18 +6895,18 @@
         <v>53</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.70731707317073167</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.72222222222222221</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -6880,14 +6914,14 @@
         <v>54</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.57352941176470584</v>
+        <v>0.57971014492753625</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -6909,7 +6943,7 @@
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -6917,25 +6951,25 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.6067415730337079</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.55645161290322576</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -7026,10 +7060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView topLeftCell="A176" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13751,6 +13785,9 @@
       <c r="G181" t="s">
         <v>20</v>
       </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
       <c r="I181" t="str" cm="1">
         <f t="array" ref="I181">_xlfn.IFS(D181 &gt;= 0.85, "85  &lt;", AND(D181 &gt;=0.8, D181 &lt; 0.85), "80-85", AND(D181 &gt;= 0.7, D181 &lt; 0.8), "70-80", AND(D181 &gt;= 0.6, D181 &lt; 0.7),  "60-70", AND(D181 &gt;= 0.5, D181 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -13778,9 +13815,363 @@
       <c r="G182" t="s">
         <v>29</v>
       </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
       <c r="I182" t="str" cm="1">
         <f t="array" ref="I182">_xlfn.IFS(D182 &gt;= 0.85, "85  &lt;", AND(D182 &gt;=0.8, D182 &lt; 0.85), "80-85", AND(D182 &gt;= 0.7, D182 &lt; 0.8), "70-80", AND(D182 &gt;= 0.6, D182 &lt; 0.7),  "60-70", AND(D182 &gt;= 0.5, D182 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>101</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E183" t="s">
+        <v>61</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G183" t="s">
+        <v>67</v>
+      </c>
+      <c r="I183" t="str" cm="1">
+        <f t="array" ref="I183">_xlfn.IFS(D183 &gt;= 0.85, "85  &lt;", AND(D183 &gt;=0.8, D183 &lt; 0.85), "80-85", AND(D183 &gt;= 0.7, D183 &lt; 0.8), "70-80", AND(D183 &gt;= 0.6, D183 &lt; 0.7),  "60-70", AND(D183 &gt;= 0.5, D183 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>101</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E184" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G184" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" t="str" cm="1">
+        <f t="array" ref="I184">_xlfn.IFS(D184 &gt;= 0.85, "85  &lt;", AND(D184 &gt;=0.8, D184 &lt; 0.85), "80-85", AND(D184 &gt;= 0.7, D184 &lt; 0.8), "70-80", AND(D184 &gt;= 0.6, D184 &lt; 0.7),  "60-70", AND(D184 &gt;= 0.5, D184 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>101</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C185" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="E185" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G185" t="s">
+        <v>65</v>
+      </c>
+      <c r="I185" t="str" cm="1">
+        <f t="array" ref="I185">_xlfn.IFS(D185 &gt;= 0.85, "85  &lt;", AND(D185 &gt;=0.8, D185 &lt; 0.85), "80-85", AND(D185 &gt;= 0.7, D185 &lt; 0.8), "70-80", AND(D185 &gt;= 0.6, D185 &lt; 0.7),  "60-70", AND(D185 &gt;= 0.5, D185 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C186" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186" t="str" cm="1">
+        <f t="array" ref="I186">_xlfn.IFS(D186 &gt;= 0.85, "85  &lt;", AND(D186 &gt;=0.8, D186 &lt; 0.85), "80-85", AND(D186 &gt;= 0.7, D186 &lt; 0.8), "70-80", AND(D186 &gt;= 0.6, D186 &lt; 0.7),  "60-70", AND(D186 &gt;= 0.5, D186 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>101</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E187" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G187" t="s">
+        <v>77</v>
+      </c>
+      <c r="I187" t="str" cm="1">
+        <f t="array" ref="I187">_xlfn.IFS(D187 &gt;= 0.85, "85  &lt;", AND(D187 &gt;=0.8, D187 &lt; 0.85), "80-85", AND(D187 &gt;= 0.7, D187 &lt; 0.8), "70-80", AND(D187 &gt;= 0.6, D187 &lt; 0.7),  "60-70", AND(D187 &gt;= 0.5, D187 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>101</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E188" t="s">
+        <v>33</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G188" t="s">
+        <v>68</v>
+      </c>
+      <c r="I188" t="str" cm="1">
+        <f t="array" ref="I188">_xlfn.IFS(D188 &gt;= 0.85, "85  &lt;", AND(D188 &gt;=0.8, D188 &lt; 0.85), "80-85", AND(D188 &gt;= 0.7, D188 &lt; 0.8), "70-80", AND(D188 &gt;= 0.6, D188 &lt; 0.7),  "60-70", AND(D188 &gt;= 0.5, D188 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>101</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C189" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E189" t="s">
+        <v>47</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G189" t="s">
+        <v>64</v>
+      </c>
+      <c r="I189" t="str" cm="1">
+        <f t="array" ref="I189">_xlfn.IFS(D189 &gt;= 0.85, "85  &lt;", AND(D189 &gt;=0.8, D189 &lt; 0.85), "80-85", AND(D189 &gt;= 0.7, D189 &lt; 0.8), "70-80", AND(D189 &gt;= 0.6, D189 &lt; 0.7),  "60-70", AND(D189 &gt;= 0.5, D189 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>101</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="E190" t="s">
+        <v>35</v>
+      </c>
+      <c r="F190" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="G190" t="s">
+        <v>62</v>
+      </c>
+      <c r="I190" t="str" cm="1">
+        <f t="array" ref="I190">_xlfn.IFS(D190 &gt;= 0.85, "85  &lt;", AND(D190 &gt;=0.8, D190 &lt; 0.85), "80-85", AND(D190 &gt;= 0.7, D190 &lt; 0.8), "70-80", AND(D190 &gt;= 0.6, D190 &lt; 0.7),  "60-70", AND(D190 &gt;= 0.5, D190 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G191" t="s">
+        <v>32</v>
+      </c>
+      <c r="I191" t="str" cm="1">
+        <f t="array" ref="I191">_xlfn.IFS(D191 &gt;= 0.85, "85  &lt;", AND(D191 &gt;=0.8, D191 &lt; 0.85), "80-85", AND(D191 &gt;= 0.7, D191 &lt; 0.8), "70-80", AND(D191 &gt;= 0.6, D191 &lt; 0.7),  "60-70", AND(D191 &gt;= 0.5, D191 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G192" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" t="str" cm="1">
+        <f t="array" ref="I192">_xlfn.IFS(D192 &gt;= 0.85, "85  &lt;", AND(D192 &gt;=0.8, D192 &lt; 0.85), "80-85", AND(D192 &gt;= 0.7, D192 &lt; 0.8), "70-80", AND(D192 &gt;= 0.6, D192 &lt; 0.7),  "60-70", AND(D192 &gt;= 0.5, D192 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>101</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E193" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G193" t="s">
+        <v>80</v>
+      </c>
+      <c r="I193" t="str" cm="1">
+        <f t="array" ref="I193">_xlfn.IFS(D193 &gt;= 0.85, "85  &lt;", AND(D193 &gt;=0.8, D193 &lt; 0.85), "80-85", AND(D193 &gt;= 0.7, D193 &lt; 0.8), "70-80", AND(D193 &gt;= 0.6, D193 &lt; 0.7),  "60-70", AND(D193 &gt;= 0.5, D193 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>101</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E194" t="s">
+        <v>44</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="G194" t="s">
+        <v>70</v>
+      </c>
+      <c r="I194" t="str" cm="1">
+        <f t="array" ref="I194">_xlfn.IFS(D194 &gt;= 0.85, "85  &lt;", AND(D194 &gt;=0.8, D194 &lt; 0.85), "80-85", AND(D194 &gt;= 0.7, D194 &lt; 0.8), "70-80", AND(D194 &gt;= 0.6, D194 &lt; 0.7),  "60-70", AND(D194 &gt;= 0.5, D194 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>101</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45295</v>
+      </c>
+      <c r="C195" t="s">
+        <v>36</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G195" t="s">
+        <v>78</v>
+      </c>
+      <c r="I195" t="str" cm="1">
+        <f t="array" ref="I195">_xlfn.IFS(D195 &gt;= 0.85, "85  &lt;", AND(D195 &gt;=0.8, D195 &lt; 0.85), "80-85", AND(D195 &gt;= 0.7, D195 &lt; 0.8), "70-80", AND(D195 &gt;= 0.6, D195 &lt; 0.7),  "60-70", AND(D195 &gt;= 0.5, D195 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2750C-95FF-4F63-8E4F-1A9D6E39AA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35366E80-0731-48EF-8E44-9325DF5B069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -871,6 +871,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -996,7 +997,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45295.344763657406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="182" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45296.341157523151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="198" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1013,7 +1014,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-04T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-06T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3238,7 +3239,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="182">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="198">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -6308,6 +6309,278 @@
     <n v="0.37"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.80400000000000005"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.73"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.27"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.68"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.32"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.67"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.66200000000000003"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.65200000000000002"/>
+    <s v="Calgary Flames"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.64800000000000002"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.35199999999999998"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.622"/>
+    <s v="Florida Panthers"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.6"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.4"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.58799999999999997"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.41199999999999998"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.53200000000000003"/>
+    <s v="New York Islanders"/>
+    <n v="0.46800000000000003"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.53"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.47"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.51200000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.48799999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.70799999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.69399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.626"/>
+    <s v="Washington Capitals"/>
+    <n v="0.374"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <m/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6420,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6815,7 +7088,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6856,10 +7129,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -6868,60 +7141,60 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
+      <c r="B5" s="9">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.8</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
-        <v>42</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="9">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9">
         <v>30</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.72727272727272729</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
+      <c r="B7" s="9">
+        <v>78</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.57971014492753625</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -6931,45 +7204,45 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
+      <c r="B8" s="9">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9">
+        <v>33</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.5357142857142857</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <v>180</v>
-      </c>
-      <c r="C9">
-        <v>110</v>
+      <c r="B9" s="9">
+        <v>196</v>
+      </c>
+      <c r="C9" s="9">
+        <v>116</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.59183673469387754</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.56000000000000005</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -7060,10 +7333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView topLeftCell="A184" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13845,6 +14118,9 @@
       <c r="G183" t="s">
         <v>67</v>
       </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
       <c r="I183" t="str" cm="1">
         <f t="array" ref="I183">_xlfn.IFS(D183 &gt;= 0.85, "85  &lt;", AND(D183 &gt;=0.8, D183 &lt; 0.85), "80-85", AND(D183 &gt;= 0.7, D183 &lt; 0.8), "70-80", AND(D183 &gt;= 0.6, D183 &lt; 0.7),  "60-70", AND(D183 &gt;= 0.5, D183 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
@@ -13872,6 +14148,9 @@
       <c r="G184" t="s">
         <v>8</v>
       </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
       <c r="I184" t="str" cm="1">
         <f t="array" ref="I184">_xlfn.IFS(D184 &gt;= 0.85, "85  &lt;", AND(D184 &gt;=0.8, D184 &lt; 0.85), "80-85", AND(D184 &gt;= 0.7, D184 &lt; 0.8), "70-80", AND(D184 &gt;= 0.6, D184 &lt; 0.7),  "60-70", AND(D184 &gt;= 0.5, D184 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -13899,6 +14178,9 @@
       <c r="G185" t="s">
         <v>65</v>
       </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
       <c r="I185" t="str" cm="1">
         <f t="array" ref="I185">_xlfn.IFS(D185 &gt;= 0.85, "85  &lt;", AND(D185 &gt;=0.8, D185 &lt; 0.85), "80-85", AND(D185 &gt;= 0.7, D185 &lt; 0.8), "70-80", AND(D185 &gt;= 0.6, D185 &lt; 0.7),  "60-70", AND(D185 &gt;= 0.5, D185 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -13926,6 +14208,9 @@
       <c r="G186" t="s">
         <v>74</v>
       </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
       <c r="I186" t="str" cm="1">
         <f t="array" ref="I186">_xlfn.IFS(D186 &gt;= 0.85, "85  &lt;", AND(D186 &gt;=0.8, D186 &lt; 0.85), "80-85", AND(D186 &gt;= 0.7, D186 &lt; 0.8), "70-80", AND(D186 &gt;= 0.6, D186 &lt; 0.7),  "60-70", AND(D186 &gt;= 0.5, D186 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -13953,6 +14238,9 @@
       <c r="G187" t="s">
         <v>77</v>
       </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
       <c r="I187" t="str" cm="1">
         <f t="array" ref="I187">_xlfn.IFS(D187 &gt;= 0.85, "85  &lt;", AND(D187 &gt;=0.8, D187 &lt; 0.85), "80-85", AND(D187 &gt;= 0.7, D187 &lt; 0.8), "70-80", AND(D187 &gt;= 0.6, D187 &lt; 0.7),  "60-70", AND(D187 &gt;= 0.5, D187 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -13980,6 +14268,9 @@
       <c r="G188" t="s">
         <v>68</v>
       </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
       <c r="I188" t="str" cm="1">
         <f t="array" ref="I188">_xlfn.IFS(D188 &gt;= 0.85, "85  &lt;", AND(D188 &gt;=0.8, D188 &lt; 0.85), "80-85", AND(D188 &gt;= 0.7, D188 &lt; 0.8), "70-80", AND(D188 &gt;= 0.6, D188 &lt; 0.7),  "60-70", AND(D188 &gt;= 0.5, D188 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -14007,6 +14298,9 @@
       <c r="G189" t="s">
         <v>64</v>
       </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
       <c r="I189" t="str" cm="1">
         <f t="array" ref="I189">_xlfn.IFS(D189 &gt;= 0.85, "85  &lt;", AND(D189 &gt;=0.8, D189 &lt; 0.85), "80-85", AND(D189 &gt;= 0.7, D189 &lt; 0.8), "70-80", AND(D189 &gt;= 0.6, D189 &lt; 0.7),  "60-70", AND(D189 &gt;= 0.5, D189 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -14034,6 +14328,9 @@
       <c r="G190" t="s">
         <v>62</v>
       </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
       <c r="I190" t="str" cm="1">
         <f t="array" ref="I190">_xlfn.IFS(D190 &gt;= 0.85, "85  &lt;", AND(D190 &gt;=0.8, D190 &lt; 0.85), "80-85", AND(D190 &gt;= 0.7, D190 &lt; 0.8), "70-80", AND(D190 &gt;= 0.6, D190 &lt; 0.7),  "60-70", AND(D190 &gt;= 0.5, D190 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -14061,6 +14358,9 @@
       <c r="G191" t="s">
         <v>32</v>
       </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
       <c r="I191" t="str" cm="1">
         <f t="array" ref="I191">_xlfn.IFS(D191 &gt;= 0.85, "85  &lt;", AND(D191 &gt;=0.8, D191 &lt; 0.85), "80-85", AND(D191 &gt;= 0.7, D191 &lt; 0.8), "70-80", AND(D191 &gt;= 0.6, D191 &lt; 0.7),  "60-70", AND(D191 &gt;= 0.5, D191 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -14088,6 +14388,9 @@
       <c r="G192" t="s">
         <v>26</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
       <c r="I192" t="str" cm="1">
         <f t="array" ref="I192">_xlfn.IFS(D192 &gt;= 0.85, "85  &lt;", AND(D192 &gt;=0.8, D192 &lt; 0.85), "80-85", AND(D192 &gt;= 0.7, D192 &lt; 0.8), "70-80", AND(D192 &gt;= 0.6, D192 &lt; 0.7),  "60-70", AND(D192 &gt;= 0.5, D192 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -14115,6 +14418,9 @@
       <c r="G193" t="s">
         <v>80</v>
       </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
       <c r="I193" t="str" cm="1">
         <f t="array" ref="I193">_xlfn.IFS(D193 &gt;= 0.85, "85  &lt;", AND(D193 &gt;=0.8, D193 &lt; 0.85), "80-85", AND(D193 &gt;= 0.7, D193 &lt; 0.8), "70-80", AND(D193 &gt;= 0.6, D193 &lt; 0.7),  "60-70", AND(D193 &gt;= 0.5, D193 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -14142,6 +14448,9 @@
       <c r="G194" t="s">
         <v>70</v>
       </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
       <c r="I194" t="str" cm="1">
         <f t="array" ref="I194">_xlfn.IFS(D194 &gt;= 0.85, "85  &lt;", AND(D194 &gt;=0.8, D194 &lt; 0.85), "80-85", AND(D194 &gt;= 0.7, D194 &lt; 0.8), "70-80", AND(D194 &gt;= 0.6, D194 &lt; 0.7),  "60-70", AND(D194 &gt;= 0.5, D194 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -14169,9 +14478,93 @@
       <c r="G195" t="s">
         <v>78</v>
       </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
       <c r="I195" t="str" cm="1">
         <f t="array" ref="I195">_xlfn.IFS(D195 &gt;= 0.85, "85  &lt;", AND(D195 &gt;=0.8, D195 &lt; 0.85), "80-85", AND(D195 &gt;= 0.7, D195 &lt; 0.8), "70-80", AND(D195 &gt;= 0.6, D195 &lt; 0.7),  "60-70", AND(D195 &gt;= 0.5, D195 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>101</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G196" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" t="str" cm="1">
+        <f t="array" ref="I196">_xlfn.IFS(D196 &gt;= 0.85, "85  &lt;", AND(D196 &gt;=0.8, D196 &lt; 0.85), "80-85", AND(D196 &gt;= 0.7, D196 &lt; 0.8), "70-80", AND(D196 &gt;= 0.6, D196 &lt; 0.7),  "60-70", AND(D196 &gt;= 0.5, D196 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>101</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="E197" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G197" t="s">
+        <v>73</v>
+      </c>
+      <c r="I197" t="str" cm="1">
+        <f t="array" ref="I197">_xlfn.IFS(D197 &gt;= 0.85, "85  &lt;", AND(D197 &gt;=0.8, D197 &lt; 0.85), "80-85", AND(D197 &gt;= 0.7, D197 &lt; 0.8), "70-80", AND(D197 &gt;= 0.6, D197 &lt; 0.7),  "60-70", AND(D197 &gt;= 0.5, D197 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>101</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45296</v>
+      </c>
+      <c r="C198" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="E198" t="s">
+        <v>28</v>
+      </c>
+      <c r="F198" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="I198" t="str" cm="1">
+        <f t="array" ref="I198">_xlfn.IFS(D198 &gt;= 0.85, "85  &lt;", AND(D198 &gt;=0.8, D198 &lt; 0.85), "80-85", AND(D198 &gt;= 0.7, D198 &lt; 0.8), "70-80", AND(D198 &gt;= 0.6, D198 &lt; 0.7),  "60-70", AND(D198 &gt;= 0.5, D198 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35366E80-0731-48EF-8E44-9325DF5B069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81082F7F-0C3A-474B-BA5B-A0290F7E3A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -997,7 +997,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45296.341157523151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="198" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45297.377572569443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="210" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1014,7 +1014,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-06T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-07T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3239,7 +3239,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="198">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="210">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -6546,7 +6546,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.29199999999999998"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6563,7 +6563,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.30599999999999999"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6580,8 +6580,212 @@
     <s v="Washington Capitals"/>
     <n v="0.374"/>
     <s v="Playing At:  Washington Capitals   Home"/>
-    <m/>
-    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.81599999999999995"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.184"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.76800000000000002"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.23200000000000001"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.75"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.73599999999999999"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.26400000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.70799999999999996"/>
+    <s v="Nashville Predators"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.64"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.36"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.61399999999999999"/>
+    <s v="Florida Panthers"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.60399999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.60199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.59399999999999997"/>
+    <s v="New York Islanders"/>
+    <n v="0.40600000000000003"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.54200000000000004"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.53800000000000003"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <m/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -6693,7 +6897,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -7088,7 +7292,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7141,7 +7345,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -7149,18 +7353,18 @@
         <v>52</v>
       </c>
       <c r="B5" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9">
         <v>9</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.81818181818181823</v>
+        <v>0.75</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -7168,18 +7372,18 @@
         <v>53</v>
       </c>
       <c r="B6" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.68181818181818177</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.7068965517241379</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -7187,14 +7391,14 @@
         <v>54</v>
       </c>
       <c r="B7" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -7205,18 +7409,18 @@
         <v>55</v>
       </c>
       <c r="B8" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9">
         <v>33</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -7224,25 +7428,25 @@
         <v>57</v>
       </c>
       <c r="B9" s="9">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C9" s="9">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.59183673469387754</v>
+        <v>0.57211538461538458</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.54347826086956519</v>
+        <v>0.53103448275862064</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -7333,10 +7537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O198"/>
+  <dimension ref="A1:O210"/>
   <sheetViews>
     <sheetView topLeftCell="A184" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="A199" sqref="A199:A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14508,6 +14712,9 @@
       <c r="G196" t="s">
         <v>20</v>
       </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
       <c r="I196" t="str" cm="1">
         <f t="array" ref="I196">_xlfn.IFS(D196 &gt;= 0.85, "85  &lt;", AND(D196 &gt;=0.8, D196 &lt; 0.85), "80-85", AND(D196 &gt;= 0.7, D196 &lt; 0.8), "70-80", AND(D196 &gt;= 0.6, D196 &lt; 0.7),  "60-70", AND(D196 &gt;= 0.5, D196 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -14535,6 +14742,9 @@
       <c r="G197" t="s">
         <v>73</v>
       </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
       <c r="I197" t="str" cm="1">
         <f t="array" ref="I197">_xlfn.IFS(D197 &gt;= 0.85, "85  &lt;", AND(D197 &gt;=0.8, D197 &lt; 0.85), "80-85", AND(D197 &gt;= 0.7, D197 &lt; 0.8), "70-80", AND(D197 &gt;= 0.6, D197 &lt; 0.7),  "60-70", AND(D197 &gt;= 0.5, D197 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -14562,9 +14772,336 @@
       <c r="G198" t="s">
         <v>29</v>
       </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
       <c r="I198" t="str" cm="1">
         <f t="array" ref="I198">_xlfn.IFS(D198 &gt;= 0.85, "85  &lt;", AND(D198 &gt;=0.8, D198 &lt; 0.85), "80-85", AND(D198 &gt;= 0.7, D198 &lt; 0.8), "70-80", AND(D198 &gt;= 0.6, D198 &lt; 0.7),  "60-70", AND(D198 &gt;= 0.5, D198 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>101</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="E199" t="s">
+        <v>61</v>
+      </c>
+      <c r="F199" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="G199" t="s">
+        <v>67</v>
+      </c>
+      <c r="I199" t="str" cm="1">
+        <f t="array" ref="I199">_xlfn.IFS(D199 &gt;= 0.85, "85  &lt;", AND(D199 &gt;=0.8, D199 &lt; 0.85), "80-85", AND(D199 &gt;= 0.7, D199 &lt; 0.8), "70-80", AND(D199 &gt;= 0.6, D199 &lt; 0.7),  "60-70", AND(D199 &gt;= 0.5, D199 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>101</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C200" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G200" t="s">
+        <v>79</v>
+      </c>
+      <c r="I200" t="str" cm="1">
+        <f t="array" ref="I200">_xlfn.IFS(D200 &gt;= 0.85, "85  &lt;", AND(D200 &gt;=0.8, D200 &lt; 0.85), "80-85", AND(D200 &gt;= 0.7, D200 &lt; 0.8), "70-80", AND(D200 &gt;= 0.6, D200 &lt; 0.7),  "60-70", AND(D200 &gt;= 0.5, D200 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>101</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E201" t="s">
+        <v>47</v>
+      </c>
+      <c r="F201" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>64</v>
+      </c>
+      <c r="I201" t="str" cm="1">
+        <f t="array" ref="I201">_xlfn.IFS(D201 &gt;= 0.85, "85  &lt;", AND(D201 &gt;=0.8, D201 &lt; 0.85), "80-85", AND(D201 &gt;= 0.7, D201 &lt; 0.8), "70-80", AND(D201 &gt;= 0.6, D201 &lt; 0.7),  "60-70", AND(D201 &gt;= 0.5, D201 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>101</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" t="str" cm="1">
+        <f t="array" ref="I202">_xlfn.IFS(D202 &gt;= 0.85, "85  &lt;", AND(D202 &gt;=0.8, D202 &lt; 0.85), "80-85", AND(D202 &gt;= 0.7, D202 &lt; 0.8), "70-80", AND(D202 &gt;= 0.6, D202 &lt; 0.7),  "60-70", AND(D202 &gt;= 0.5, D202 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>101</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C203" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E203" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G203" t="s">
+        <v>32</v>
+      </c>
+      <c r="I203" t="str" cm="1">
+        <f t="array" ref="I203">_xlfn.IFS(D203 &gt;= 0.85, "85  &lt;", AND(D203 &gt;=0.8, D203 &lt; 0.85), "80-85", AND(D203 &gt;= 0.7, D203 &lt; 0.8), "70-80", AND(D203 &gt;= 0.6, D203 &lt; 0.7),  "60-70", AND(D203 &gt;= 0.5, D203 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>101</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E204" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G204" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" t="str" cm="1">
+        <f t="array" ref="I204">_xlfn.IFS(D204 &gt;= 0.85, "85  &lt;", AND(D204 &gt;=0.8, D204 &lt; 0.85), "80-85", AND(D204 &gt;= 0.7, D204 &lt; 0.8), "70-80", AND(D204 &gt;= 0.6, D204 &lt; 0.7),  "60-70", AND(D204 &gt;= 0.5, D204 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>101</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E205" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" t="str" cm="1">
+        <f t="array" ref="I205">_xlfn.IFS(D205 &gt;= 0.85, "85  &lt;", AND(D205 &gt;=0.8, D205 &lt; 0.85), "80-85", AND(D205 &gt;= 0.7, D205 &lt; 0.8), "70-80", AND(D205 &gt;= 0.6, D205 &lt; 0.7),  "60-70", AND(D205 &gt;= 0.5, D205 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>101</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E206" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G206" t="s">
+        <v>37</v>
+      </c>
+      <c r="I206" t="str" cm="1">
+        <f t="array" ref="I206">_xlfn.IFS(D206 &gt;= 0.85, "85  &lt;", AND(D206 &gt;=0.8, D206 &lt; 0.85), "80-85", AND(D206 &gt;= 0.7, D206 &lt; 0.8), "70-80", AND(D206 &gt;= 0.6, D206 &lt; 0.7),  "60-70", AND(D206 &gt;= 0.5, D206 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E207" t="s">
+        <v>44</v>
+      </c>
+      <c r="F207" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="I207" t="str" cm="1">
+        <f t="array" ref="I207">_xlfn.IFS(D207 &gt;= 0.85, "85  &lt;", AND(D207 &gt;=0.8, D207 &lt; 0.85), "80-85", AND(D207 &gt;= 0.7, D207 &lt; 0.8), "70-80", AND(D207 &gt;= 0.6, D207 &lt; 0.7),  "60-70", AND(D207 &gt;= 0.5, D207 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>101</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C208" t="s">
+        <v>31</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E208" t="s">
+        <v>41</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G208" t="s">
+        <v>62</v>
+      </c>
+      <c r="I208" t="str" cm="1">
+        <f t="array" ref="I208">_xlfn.IFS(D208 &gt;= 0.85, "85  &lt;", AND(D208 &gt;=0.8, D208 &lt; 0.85), "80-85", AND(D208 &gt;= 0.7, D208 &lt; 0.8), "70-80", AND(D208 &gt;= 0.6, D208 &lt; 0.7),  "60-70", AND(D208 &gt;= 0.5, D208 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>101</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C209" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G209" t="s">
+        <v>78</v>
+      </c>
+      <c r="I209" t="str" cm="1">
+        <f t="array" ref="I209">_xlfn.IFS(D209 &gt;= 0.85, "85  &lt;", AND(D209 &gt;=0.8, D209 &lt; 0.85), "80-85", AND(D209 &gt;= 0.7, D209 &lt; 0.8), "70-80", AND(D209 &gt;= 0.6, D209 &lt; 0.7),  "60-70", AND(D209 &gt;= 0.5, D209 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>101</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45297</v>
+      </c>
+      <c r="C210" t="s">
+        <v>71</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E210" t="s">
+        <v>48</v>
+      </c>
+      <c r="F210" s="2">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="G210" t="s">
+        <v>72</v>
+      </c>
+      <c r="I210" t="str" cm="1">
+        <f t="array" ref="I210">_xlfn.IFS(D210 &gt;= 0.85, "85  &lt;", AND(D210 &gt;=0.8, D210 &lt; 0.85), "80-85", AND(D210 &gt;= 0.7, D210 &lt; 0.8), "70-80", AND(D210 &gt;= 0.6, D210 &lt; 0.7),  "60-70", AND(D210 &gt;= 0.5, D210 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81082F7F-0C3A-474B-BA5B-A0290F7E3A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A685B-F253-4A58-8AD4-3E120F3769BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -366,6 +367,9 @@
   </si>
   <si>
     <t>RF6</t>
+  </si>
+  <si>
+    <t>RF7</t>
   </si>
 </sst>
 </file>
@@ -997,24 +1001,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45297.377572569443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="210" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45300.419749074077" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="228" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="RF1"/>
         <s v="RF2"/>
         <s v="RF3"/>
         <s v="RF4"/>
         <s v="RF5"/>
         <s v="RF6"/>
+        <s v="RF7"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-07T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-10T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1073,6 +1078,75 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45300.421286342593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="227" xr:uid="{B5339DB5-02DD-4C61-B0B8-F6F1BFD119D6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O228" sheet="Predictions"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="Model Used" numFmtId="0">
+      <sharedItems count="7">
+        <s v="RF1"/>
+        <s v="RF2"/>
+        <s v="RF3"/>
+        <s v="RF4"/>
+        <s v="RF5"/>
+        <s v="RF6"/>
+        <s v="RF7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-12-09T00:00:00" maxDate="2024-01-10T00:00:00"/>
+    </cacheField>
+    <cacheField name="Winner" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Winner Probability" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+    </cacheField>
+    <cacheField name="Loser" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Loser Probability" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+    </cacheField>
+    <cacheField name="Site" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GF Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="GA Prediction" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GF Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+    <cacheField name="GA Actual" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
+    </cacheField>
+    <cacheField name="GF ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="GA ABS Error" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Accuracy" numFmtId="0" formula="SUM(Model )/COUNT(Winner )" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="135">
   <r>
@@ -3239,7 +3313,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="210">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="228">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -6597,7 +6671,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.184"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -6614,7 +6688,7 @@
     <s v="St. Louis Blues"/>
     <n v="0.23200000000000001"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6631,7 +6705,7 @@
     <s v="Montreal Canadiens"/>
     <n v="0.25"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6648,7 +6722,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.26400000000000001"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6665,7 +6739,7 @@
     <s v="Nashville Predators"/>
     <n v="0.29199999999999998"/>
     <s v="Playing At:  Dallas Stars   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -6682,7 +6756,7 @@
     <s v="Tampa Bay Lightning"/>
     <n v="0.36"/>
     <s v="Playing At:  Boston Bruins   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6699,7 +6773,7 @@
     <s v="Florida Panthers"/>
     <n v="0.38600000000000001"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6716,7 +6790,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.39600000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6733,7 +6807,7 @@
     <s v="Vancouver Canucks"/>
     <n v="0.39800000000000002"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -6750,7 +6824,7 @@
     <s v="New York Islanders"/>
     <n v="0.40600000000000003"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6767,7 +6841,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.45800000000000002"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6784,7 +6858,143 @@
     <s v="Buffalo Sabres"/>
     <n v="0.46200000000000002"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <m/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.71599999999999997"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.69599999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.30399999999999999"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.61799999999999999"/>
+    <s v="Washington Capitals"/>
+    <n v="0.38200000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.57199999999999995"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.69199999999999995"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.308"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.62"/>
+    <s v="Dallas Stars"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.54200000000000004"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.54"/>
+    <s v="Boston Bruins"/>
+    <n v="0.46"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6795,14 +7005,4048 @@
   </r>
   <r>
     <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.8"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.2"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.76800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.23200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.754"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.246"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.628"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.372"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.61599999999999999"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.60799999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.39200000000000002"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.59199999999999997"/>
+    <s v="Florida Panthers"/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.58199999999999996"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.56799999999999995"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.432"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.55000000000000004"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.45"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="227">
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.876"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.124"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <s v="85 &lt;"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.85"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.15"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <s v="85 &lt;"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.79800000000000004"/>
+    <s v="Nashville Predators"/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.77800000000000002"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.222"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.71199999999999997"/>
+    <s v="Washington Capitals"/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.69799999999999995"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.64200000000000002"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.57999999999999996"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.42"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.56999999999999995"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.43"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.53800000000000003"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-09T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.50600000000000001"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.87"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.13"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <s v="85 &lt;"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.82199999999999995"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.17799999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.80200000000000005"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.76400000000000001"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.74399999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="0.70199999999999996"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.69"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.31"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-10T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.60199999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.68799999999999994"/>
+    <s v="Calgary Flames"/>
+    <n v="0.312"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.622"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.52200000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2023-12-11T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.502"/>
+    <s v="New York Islanders"/>
+    <n v="0.498"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.82399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.17599999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.77800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.222"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.68200000000000005"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.318"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.68"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.32"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.65200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.57199999999999995"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.56200000000000006"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.438"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.52200000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-12T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.51600000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.48399999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.73"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.27"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.376"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.622"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.622"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.378"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.56999999999999995"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.74399999999999999"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.25600000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.70599999999999996"/>
+    <s v="Calgary Flames"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.69799999999999995"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.57399999999999995"/>
+    <s v="Florida Panthers"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.54200000000000004"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.53800000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="0.52200000000000002"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.47799999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.50600000000000001"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.49399999999999999"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.75800000000000001"/>
+    <s v="Nashville Predators"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.72399999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.71"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.28999999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.69199999999999995"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.57999999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="0.42"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.50800000000000001"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.76400000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.23599999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.72199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.67800000000000005"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.32200000000000001"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.67400000000000004"/>
+    <s v="New York Rangers"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.65600000000000003"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.628"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.372"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.624"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.376"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.61"/>
+    <s v="Washington Capitals"/>
+    <n v="0.39"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.59199999999999997"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.57399999999999995"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.56599999999999995"/>
+    <s v="Florida Panthers"/>
+    <n v="0.434"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.55200000000000005"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.44800000000000001"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2023-12-16T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.504"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.496"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.81"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.19"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.748"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.70599999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.69399999999999995"/>
+    <s v="Washington Capitals"/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.57399999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.42599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <s v="GF Prediction"/>
+    <s v="GA Prediction"/>
+    <s v="GF Actual"/>
+    <s v="GA Actual"/>
+    <s v="GF ABS Error"/>
+    <s v="GA ABS Error"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.72"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.67400000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.58599999999999997"/>
+    <s v="Calgary Flames"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.58399999999999996"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2023-12-18T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.502"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.498"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.84399999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.156"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.80200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.19800000000000001"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <s v="80-85"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.72199999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.27800000000000002"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.67400000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.32600000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.63200000000000001"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.36799999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.61399999999999999"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.60599999999999998"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.60399999999999998"/>
+    <s v="New York Rangers"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.58399999999999996"/>
+    <s v="New York Islanders"/>
+    <n v="0.41599999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.56000000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.44"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-19T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.54800000000000004"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.45200000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.71199999999999997"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.28799999999999998"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.66600000000000004"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-20T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.55400000000000005"/>
+    <s v="Washington Capitals"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.80400000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.75"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.72"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.28000000000000003"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.71599999999999997"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.70799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.66800000000000004"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.33200000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.63400000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.36599999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Washington Capitals"/>
+    <n v="0.622"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.52"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.48"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.51800000000000002"/>
+    <s v="Nashville Predators"/>
+    <n v="0.48199999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-21T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.51400000000000001"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.748"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.66200000000000003"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.56999999999999995"/>
+    <s v="Boston Bruins"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.51400000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.48599999999999999"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.75800000000000001"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.752"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.248"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.70599999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.67"/>
+    <s v="New York Islanders"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.65200000000000002"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.63600000000000001"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.36399999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.63"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.37"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.62"/>
+    <s v="Calgary Flames"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.60599999999999998"/>
+    <s v="Boston Bruins"/>
+    <n v="0.39400000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.60399999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.58199999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.57799999999999996"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.42199999999999999"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.56999999999999995"/>
+    <s v="Dallas Stars"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-23T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.56200000000000006"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.438"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.79600000000000004"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.20399999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.76600000000000001"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.23400000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.75600000000000001"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.24399999999999999"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.754"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.246"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.71399999999999997"/>
+    <s v="Florida Panthers"/>
+    <n v="0.28599999999999998"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.70199999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="0.29799999999999999"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.68400000000000005"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.316"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.66600000000000004"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.66200000000000003"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.64400000000000002"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.35599999999999998"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.61"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.39"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.57599999999999996"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.42399999999999999"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.52800000000000002"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.47199999999999998"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-27T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.52"/>
+    <s v="Nashville Predators"/>
+    <n v="0.48"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.85799999999999998"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.14199999999999999"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <s v="85  &lt;"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.72399999999999998"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.27600000000000002"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.68600000000000005"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.314"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-28T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.54"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.46"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.78200000000000003"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.218"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.64200000000000002"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.624"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.376"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.57799999999999996"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.42199999999999999"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.55200000000000005"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.44800000000000001"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.53200000000000003"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.46800000000000003"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.53"/>
+    <s v="Washington Capitals"/>
+    <n v="0.47"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.52600000000000002"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.47399999999999998"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.50800000000000001"/>
+    <s v="New York Rangers"/>
+    <n v="0.49199999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.67"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.65600000000000003"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.34399999999999997"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.62"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.61599999999999999"/>
+    <s v="New York Rangers"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.60199999999999998"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.6"/>
+    <s v="Washington Capitals"/>
+    <n v="0.4"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.59799999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.40200000000000002"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.55400000000000005"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.44600000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2023-12-30T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.51"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.49"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.83799999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.16200000000000001"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.79800000000000004"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.20200000000000001"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.79"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.21"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.64600000000000002"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.35399999999999998"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.63"/>
+    <s v="New York Islanders"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.624"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.376"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.622"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.60799999999999998"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.39200000000000002"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2023-12-31T00:00:00"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.54400000000000004"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.45600000000000002"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-01T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.53"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.47"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.84599999999999997"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.154"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.75800000000000001"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.24199999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.748"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.252"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.70599999999999996"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.29399999999999998"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.69199999999999995"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.69199999999999995"/>
+    <s v="Calgary Flames"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.68600000000000005"/>
+    <s v="New York Islanders"/>
+    <n v="0.314"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.68200000000000005"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.318"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.67200000000000004"/>
+    <s v="Washington Capitals"/>
+    <n v="0.32800000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.66"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.34"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.64200000000000002"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.61599999999999999"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.56200000000000006"/>
+    <s v="Florida Panthers"/>
+    <n v="0.438"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.76"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.24"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.63"/>
+    <s v="Washington Capitals"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.80400000000000005"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.19600000000000001"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.73"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.27"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.68"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.32"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.67"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.33"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.66200000000000003"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.33800000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.65200000000000002"/>
+    <s v="Calgary Flames"/>
+    <n v="0.34799999999999998"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.64800000000000002"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.35199999999999998"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.622"/>
+    <s v="Florida Panthers"/>
+    <n v="0.378"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.6"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.4"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.58799999999999997"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.41199999999999998"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.53200000000000003"/>
+    <s v="New York Islanders"/>
+    <n v="0.46800000000000003"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.53"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.47"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-04T00:00:00"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.51200000000000001"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.48799999999999999"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.70799999999999996"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.69399999999999995"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.30599999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.626"/>
+    <s v="Washington Capitals"/>
+    <n v="0.374"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.81599999999999995"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.184"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <n v="1"/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.76800000000000002"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.23200000000000001"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.75"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.73599999999999999"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.26400000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <n v="1"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.70799999999999996"/>
+    <s v="Nashville Predators"/>
+    <n v="0.29199999999999998"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.64"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.36"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.61399999999999999"/>
+    <s v="Florida Panthers"/>
+    <n v="0.38600000000000001"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.60399999999999998"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.39600000000000002"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.60199999999999998"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.59399999999999997"/>
+    <s v="New York Islanders"/>
+    <n v="0.40600000000000003"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.54200000000000004"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-06T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.53800000000000003"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.46200000000000002"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.71599999999999997"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.28399999999999997"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="0"/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.69599999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.30399999999999999"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <n v="1"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.61799999999999999"/>
+    <s v="Washington Capitals"/>
+    <n v="0.38200000000000001"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-07T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.57199999999999995"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.69199999999999995"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.308"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.62"/>
+    <s v="Dallas Stars"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.54200000000000004"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.45800000000000002"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="0"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.54"/>
+    <s v="Boston Bruins"/>
+    <n v="0.46"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.8"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.2"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <m/>
+    <s v="80-85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.76800000000000002"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.23200000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <m/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.754"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.246"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <m/>
+    <s v="70-80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.628"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.372"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <m/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.61599999999999999"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <m/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.60799999999999998"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.39200000000000002"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <s v="60-70"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.59199999999999997"/>
+    <s v="Florida Panthers"/>
+    <n v="0.40799999999999997"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.58199999999999996"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <m/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Calgary Flames"/>
+    <n v="0.56799999999999995"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.432"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <m/>
+    <s v="50-60"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-09T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.55000000000000004"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.45"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <s v="50-60"/>
     <m/>
     <m/>
     <m/>
@@ -6814,6 +11058,94 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE9196C9-13DA-4B46-86E5-2392AEDC56A6}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -6896,19 +11228,20 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="7"/>
+        <item x="5"/>
         <item x="6"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7289,22 +11622,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -7312,7 +11649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -7328,15 +11665,24 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -7345,111 +11691,211 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="9">
+        <v>24</v>
+      </c>
+      <c r="O4" s="9">
+        <v>18</v>
+      </c>
+      <c r="P4" s="5">
+        <f>O4/N4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="9">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9">
-        <v>9</v>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.75</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
+        <v>44</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="O5" s="9">
+        <v>24</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" ref="P5:P10" si="1">O5/N5</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9">
-        <v>31</v>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.65671641791044777</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="9">
+        <v>10</v>
+      </c>
+      <c r="O6" s="9">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9">
-        <v>82</v>
-      </c>
-      <c r="C7" s="9">
-        <v>44</v>
+      <c r="B7">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.53658536585365857</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9">
+        <v>30</v>
+      </c>
+      <c r="O7" s="9">
+        <v>16</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9">
-        <v>63</v>
-      </c>
-      <c r="C8" s="9">
-        <v>33</v>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.52380952380952384</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="9">
+        <v>50</v>
+      </c>
+      <c r="O8" s="9">
+        <v>31</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="9">
-        <v>208</v>
-      </c>
-      <c r="C9" s="9">
-        <v>119</v>
+      <c r="B9">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>127</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.57211538461538458</v>
+        <v>0.56194690265486724</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="9">
+        <v>61</v>
+      </c>
+      <c r="O9" s="9">
+        <v>34</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55737704918032782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.53103448275862064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.5220125786163522</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="9">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="9">
+        <v>227</v>
+      </c>
+      <c r="O11" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -7460,21 +11906,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
@@ -7485,7 +11931,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -7496,7 +11942,7 @@
         <v>1.411764705882353</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -7507,7 +11953,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>55</v>
       </c>
@@ -7518,7 +11964,7 @@
         <v>1.5263157894736843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -7531,38 +11977,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O210"/>
+  <dimension ref="A1:O228"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199:A210"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -7609,7 +12055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -7638,7 +12084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -7667,7 +12113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -7696,7 +12142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -7725,7 +12171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -7754,7 +12200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -7783,7 +12229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -7812,7 +12258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -7841,7 +12287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7870,7 +12316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7899,7 +12345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7928,7 +12374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -7957,7 +12403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -7986,7 +12432,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -8015,7 +12461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -8044,7 +12490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -8073,7 +12519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -8102,7 +12548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -8131,7 +12577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -8160,7 +12606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -8189,7 +12635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -8219,7 +12665,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -8249,7 +12695,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -8279,7 +12725,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -8309,7 +12755,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -8339,7 +12785,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -8369,7 +12815,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -8399,7 +12845,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -8429,7 +12875,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -8459,7 +12905,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -8489,7 +12935,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -8519,7 +12965,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -8549,7 +12995,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -8579,7 +13025,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -8609,7 +13055,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -8639,7 +13085,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -8669,7 +13115,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -8699,7 +13145,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -8729,7 +13175,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -8759,7 +13205,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -8789,7 +13235,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -8819,7 +13265,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -8849,7 +13295,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -8879,7 +13325,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -8909,7 +13355,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -8939,7 +13385,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -8969,7 +13415,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -8999,7 +13445,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -9029,7 +13475,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -9059,7 +13505,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -9089,7 +13535,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -9119,7 +13565,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -9149,7 +13595,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -9179,7 +13625,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -9209,7 +13655,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -9239,7 +13685,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -9269,7 +13715,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -9299,7 +13745,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -9329,7 +13775,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -9359,7 +13805,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -9389,7 +13835,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -9419,7 +13865,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -9449,7 +13895,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -9479,7 +13925,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -9509,7 +13955,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -9539,7 +13985,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -9569,7 +14015,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -9602,7 +14048,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -9632,7 +14078,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -9662,7 +14108,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -9692,7 +14138,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -9740,7 +14186,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -9790,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -9840,7 +14286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -9890,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -9940,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -9990,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -10040,7 +14486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -10090,7 +14536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -10140,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -10190,7 +14636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -10240,7 +14686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -10290,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -10340,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -10390,7 +14836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -10440,7 +14886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -10490,7 +14936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -10540,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -10590,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -10640,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -10690,7 +15136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -10740,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -10790,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -10840,7 +15286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -10890,7 +15336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -10940,7 +15386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -10990,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -11040,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -11090,7 +15536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -11140,7 +15586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -11190,7 +15636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -11240,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -11290,7 +15736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -11340,7 +15786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -11390,7 +15836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>98</v>
       </c>
@@ -11440,7 +15886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -11490,7 +15936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -11540,7 +15986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -11590,7 +16036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -11640,7 +16086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -11690,7 +16136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -11740,7 +16186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>99</v>
       </c>
@@ -11790,7 +16236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>99</v>
       </c>
@@ -11840,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>99</v>
       </c>
@@ -11890,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -11940,7 +16386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -11990,7 +16436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -12040,7 +16486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -12090,7 +16536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -12140,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -12190,7 +16636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -12240,7 +16686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -12290,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -12340,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -12390,7 +16836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -12440,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -12490,7 +16936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -12540,7 +16986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -12590,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -12640,7 +17086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -12690,7 +17136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -12740,7 +17186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -12790,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -12840,7 +17286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -12890,7 +17336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -12920,7 +17366,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -12950,7 +17396,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -12980,7 +17426,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -13010,7 +17456,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -13040,7 +17486,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -13070,7 +17516,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -13100,7 +17546,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -13130,7 +17576,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -13160,7 +17606,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -13190,7 +17636,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -13220,7 +17666,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -13250,7 +17696,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -13280,7 +17726,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -13310,7 +17756,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>99</v>
       </c>
@@ -13340,7 +17786,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>99</v>
       </c>
@@ -13370,7 +17816,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>99</v>
       </c>
@@ -13400,7 +17846,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>99</v>
       </c>
@@ -13430,7 +17876,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>99</v>
       </c>
@@ -13460,7 +17906,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>99</v>
       </c>
@@ -13490,7 +17936,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
@@ -13520,7 +17966,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>99</v>
       </c>
@@ -13550,7 +17996,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>101</v>
       </c>
@@ -13580,7 +18026,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>101</v>
       </c>
@@ -13610,7 +18056,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>101</v>
       </c>
@@ -13640,7 +18086,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>101</v>
       </c>
@@ -13670,7 +18116,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>101</v>
       </c>
@@ -13700,7 +18146,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>101</v>
       </c>
@@ -13730,7 +18176,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>101</v>
       </c>
@@ -13760,7 +18206,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>101</v>
       </c>
@@ -13790,7 +18236,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -13820,7 +18266,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>101</v>
       </c>
@@ -13850,7 +18296,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>101</v>
       </c>
@@ -13880,7 +18326,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>101</v>
       </c>
@@ -13910,7 +18356,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>101</v>
       </c>
@@ -13940,7 +18386,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>101</v>
       </c>
@@ -13970,7 +18416,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>101</v>
       </c>
@@ -14000,7 +18446,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>101</v>
       </c>
@@ -14030,7 +18476,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>101</v>
       </c>
@@ -14060,7 +18506,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>101</v>
       </c>
@@ -14090,7 +18536,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -14120,7 +18566,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>101</v>
       </c>
@@ -14150,7 +18596,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>101</v>
       </c>
@@ -14180,7 +18626,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>101</v>
       </c>
@@ -14210,7 +18656,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>101</v>
       </c>
@@ -14240,7 +18686,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>101</v>
       </c>
@@ -14270,7 +18716,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>101</v>
       </c>
@@ -14300,7 +18746,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>101</v>
       </c>
@@ -14330,7 +18776,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -14360,7 +18806,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>101</v>
       </c>
@@ -14390,7 +18836,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>101</v>
       </c>
@@ -14420,7 +18866,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -14450,7 +18896,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>101</v>
       </c>
@@ -14480,7 +18926,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -14510,7 +18956,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -14540,7 +18986,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>101</v>
       </c>
@@ -14570,7 +19016,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -14600,7 +19046,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>101</v>
       </c>
@@ -14630,7 +19076,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>101</v>
       </c>
@@ -14660,7 +19106,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -14690,7 +19136,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>101</v>
       </c>
@@ -14720,7 +19166,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -14750,7 +19196,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>101</v>
       </c>
@@ -14780,7 +19226,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>101</v>
       </c>
@@ -14801,13 +19247,16 @@
       </c>
       <c r="G199" t="s">
         <v>67</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
       </c>
       <c r="I199" t="str" cm="1">
         <f t="array" ref="I199">_xlfn.IFS(D199 &gt;= 0.85, "85  &lt;", AND(D199 &gt;=0.8, D199 &lt; 0.85), "80-85", AND(D199 &gt;= 0.7, D199 &lt; 0.8), "70-80", AND(D199 &gt;= 0.6, D199 &lt; 0.7),  "60-70", AND(D199 &gt;= 0.5, D199 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>101</v>
       </c>
@@ -14828,13 +19277,16 @@
       </c>
       <c r="G200" t="s">
         <v>79</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
       </c>
       <c r="I200" t="str" cm="1">
         <f t="array" ref="I200">_xlfn.IFS(D200 &gt;= 0.85, "85  &lt;", AND(D200 &gt;=0.8, D200 &lt; 0.85), "80-85", AND(D200 &gt;= 0.7, D200 &lt; 0.8), "70-80", AND(D200 &gt;= 0.6, D200 &lt; 0.7),  "60-70", AND(D200 &gt;= 0.5, D200 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>101</v>
       </c>
@@ -14855,13 +19307,16 @@
       </c>
       <c r="G201" t="s">
         <v>64</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
       </c>
       <c r="I201" t="str" cm="1">
         <f t="array" ref="I201">_xlfn.IFS(D201 &gt;= 0.85, "85  &lt;", AND(D201 &gt;=0.8, D201 &lt; 0.85), "80-85", AND(D201 &gt;= 0.7, D201 &lt; 0.8), "70-80", AND(D201 &gt;= 0.6, D201 &lt; 0.7),  "60-70", AND(D201 &gt;= 0.5, D201 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>101</v>
       </c>
@@ -14882,13 +19337,16 @@
       </c>
       <c r="G202" t="s">
         <v>14</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
       </c>
       <c r="I202" t="str" cm="1">
         <f t="array" ref="I202">_xlfn.IFS(D202 &gt;= 0.85, "85  &lt;", AND(D202 &gt;=0.8, D202 &lt; 0.85), "80-85", AND(D202 &gt;= 0.7, D202 &lt; 0.8), "70-80", AND(D202 &gt;= 0.6, D202 &lt; 0.7),  "60-70", AND(D202 &gt;= 0.5, D202 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>101</v>
       </c>
@@ -14909,13 +19367,16 @@
       </c>
       <c r="G203" t="s">
         <v>32</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
       </c>
       <c r="I203" t="str" cm="1">
         <f t="array" ref="I203">_xlfn.IFS(D203 &gt;= 0.85, "85  &lt;", AND(D203 &gt;=0.8, D203 &lt; 0.85), "80-85", AND(D203 &gt;= 0.7, D203 &lt; 0.8), "70-80", AND(D203 &gt;= 0.6, D203 &lt; 0.7),  "60-70", AND(D203 &gt;= 0.5, D203 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>101</v>
       </c>
@@ -14936,13 +19397,16 @@
       </c>
       <c r="G204" t="s">
         <v>8</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
       </c>
       <c r="I204" t="str" cm="1">
         <f t="array" ref="I204">_xlfn.IFS(D204 &gt;= 0.85, "85  &lt;", AND(D204 &gt;=0.8, D204 &lt; 0.85), "80-85", AND(D204 &gt;= 0.7, D204 &lt; 0.8), "70-80", AND(D204 &gt;= 0.6, D204 &lt; 0.7),  "60-70", AND(D204 &gt;= 0.5, D204 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>101</v>
       </c>
@@ -14963,13 +19427,16 @@
       </c>
       <c r="G205" t="s">
         <v>11</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
       </c>
       <c r="I205" t="str" cm="1">
         <f t="array" ref="I205">_xlfn.IFS(D205 &gt;= 0.85, "85  &lt;", AND(D205 &gt;=0.8, D205 &lt; 0.85), "80-85", AND(D205 &gt;= 0.7, D205 &lt; 0.8), "70-80", AND(D205 &gt;= 0.6, D205 &lt; 0.7),  "60-70", AND(D205 &gt;= 0.5, D205 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -14990,13 +19457,16 @@
       </c>
       <c r="G206" t="s">
         <v>37</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
       </c>
       <c r="I206" t="str" cm="1">
         <f t="array" ref="I206">_xlfn.IFS(D206 &gt;= 0.85, "85  &lt;", AND(D206 &gt;=0.8, D206 &lt; 0.85), "80-85", AND(D206 &gt;= 0.7, D206 &lt; 0.8), "70-80", AND(D206 &gt;= 0.6, D206 &lt; 0.7),  "60-70", AND(D206 &gt;= 0.5, D206 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>101</v>
       </c>
@@ -15017,13 +19487,16 @@
       </c>
       <c r="G207" t="s">
         <v>73</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
       </c>
       <c r="I207" t="str" cm="1">
         <f t="array" ref="I207">_xlfn.IFS(D207 &gt;= 0.85, "85  &lt;", AND(D207 &gt;=0.8, D207 &lt; 0.85), "80-85", AND(D207 &gt;= 0.7, D207 &lt; 0.8), "70-80", AND(D207 &gt;= 0.6, D207 &lt; 0.7),  "60-70", AND(D207 &gt;= 0.5, D207 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>101</v>
       </c>
@@ -15044,13 +19517,16 @@
       </c>
       <c r="G208" t="s">
         <v>62</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
       </c>
       <c r="I208" t="str" cm="1">
         <f t="array" ref="I208">_xlfn.IFS(D208 &gt;= 0.85, "85  &lt;", AND(D208 &gt;=0.8, D208 &lt; 0.85), "80-85", AND(D208 &gt;= 0.7, D208 &lt; 0.8), "70-80", AND(D208 &gt;= 0.6, D208 &lt; 0.7),  "60-70", AND(D208 &gt;= 0.5, D208 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>101</v>
       </c>
@@ -15071,13 +19547,16 @@
       </c>
       <c r="G209" t="s">
         <v>78</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
       </c>
       <c r="I209" t="str" cm="1">
         <f t="array" ref="I209">_xlfn.IFS(D209 &gt;= 0.85, "85  &lt;", AND(D209 &gt;=0.8, D209 &lt; 0.85), "80-85", AND(D209 &gt;= 0.7, D209 &lt; 0.8), "70-80", AND(D209 &gt;= 0.6, D209 &lt; 0.7),  "60-70", AND(D209 &gt;= 0.5, D209 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>101</v>
       </c>
@@ -15099,8 +19578,521 @@
       <c r="G210" t="s">
         <v>72</v>
       </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
       <c r="I210" t="str" cm="1">
         <f t="array" ref="I210">_xlfn.IFS(D210 &gt;= 0.85, "85  &lt;", AND(D210 &gt;=0.8, D210 &lt; 0.85), "80-85", AND(D210 &gt;= 0.7, D210 &lt; 0.8), "70-80", AND(D210 &gt;= 0.6, D210 &lt; 0.7),  "60-70", AND(D210 &gt;= 0.5, D210 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>101</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C211" t="s">
+        <v>33</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E211" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211" t="str" cm="1">
+        <f t="array" ref="I211">_xlfn.IFS(D211 &gt;= 0.85, "85  &lt;", AND(D211 &gt;=0.8, D211 &lt; 0.85), "80-85", AND(D211 &gt;= 0.7, D211 &lt; 0.8), "70-80", AND(D211 &gt;= 0.6, D211 &lt; 0.7),  "60-70", AND(D211 &gt;= 0.5, D211 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>101</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C212" t="s">
+        <v>39</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E212" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G212" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212" t="str" cm="1">
+        <f t="array" ref="I212">_xlfn.IFS(D212 &gt;= 0.85, "85  &lt;", AND(D212 &gt;=0.8, D212 &lt; 0.85), "80-85", AND(D212 &gt;= 0.7, D212 &lt; 0.8), "70-80", AND(D212 &gt;= 0.6, D212 &lt; 0.7),  "60-70", AND(D212 &gt;= 0.5, D212 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>101</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C213" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E213" t="s">
+        <v>28</v>
+      </c>
+      <c r="F213" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G213" t="s">
+        <v>29</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" t="str" cm="1">
+        <f t="array" ref="I213">_xlfn.IFS(D213 &gt;= 0.85, "85  &lt;", AND(D213 &gt;=0.8, D213 &lt; 0.85), "80-85", AND(D213 &gt;= 0.7, D213 &lt; 0.8), "70-80", AND(D213 &gt;= 0.6, D213 &lt; 0.7),  "60-70", AND(D213 &gt;= 0.5, D213 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>101</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45298</v>
+      </c>
+      <c r="C214" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G214" t="s">
+        <v>80</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214" t="str" cm="1">
+        <f t="array" ref="I214">_xlfn.IFS(D214 &gt;= 0.85, "85  &lt;", AND(D214 &gt;=0.8, D214 &lt; 0.85), "80-85", AND(D214 &gt;= 0.7, D214 &lt; 0.8), "70-80", AND(D214 &gt;= 0.6, D214 &lt; 0.7),  "60-70", AND(D214 &gt;= 0.5, D214 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>101</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E215" t="s">
+        <v>44</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="G215" t="s">
+        <v>65</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" t="str" cm="1">
+        <f t="array" ref="I215">_xlfn.IFS(D215 &gt;= 0.85, "85  &lt;", AND(D215 &gt;=0.8, D215 &lt; 0.85), "80-85", AND(D215 &gt;= 0.7, D215 &lt; 0.8), "70-80", AND(D215 &gt;= 0.6, D215 &lt; 0.7),  "60-70", AND(D215 &gt;= 0.5, D215 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>101</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216" t="str" cm="1">
+        <f t="array" ref="I216">_xlfn.IFS(D216 &gt;= 0.85, "85  &lt;", AND(D216 &gt;=0.8, D216 &lt; 0.85), "80-85", AND(D216 &gt;= 0.7, D216 &lt; 0.8), "70-80", AND(D216 &gt;= 0.6, D216 &lt; 0.7),  "60-70", AND(D216 &gt;= 0.5, D216 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>101</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E217" t="s">
+        <v>71</v>
+      </c>
+      <c r="F217" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G217" t="s">
+        <v>78</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" t="str" cm="1">
+        <f t="array" ref="I217">_xlfn.IFS(D217 &gt;= 0.85, "85  &lt;", AND(D217 &gt;=0.8, D217 &lt; 0.85), "80-85", AND(D217 &gt;= 0.7, D217 &lt; 0.8), "70-80", AND(D217 &gt;= 0.6, D217 &lt; 0.7),  "60-70", AND(D217 &gt;= 0.5, D217 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>101</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45299</v>
+      </c>
+      <c r="C218" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218" t="str" cm="1">
+        <f t="array" ref="I218">_xlfn.IFS(D218 &gt;= 0.85, "85  &lt;", AND(D218 &gt;=0.8, D218 &lt; 0.85), "80-85", AND(D218 &gt;= 0.7, D218 &lt; 0.8), "70-80", AND(D218 &gt;= 0.6, D218 &lt; 0.7),  "60-70", AND(D218 &gt;= 0.5, D218 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E219" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G219" t="s">
+        <v>17</v>
+      </c>
+      <c r="I219" t="str" cm="1">
+        <f t="array" ref="I219">_xlfn.IFS(D219 &gt;= 0.85, "85  &lt;", AND(D219 &gt;=0.8, D219 &lt; 0.85), "80-85", AND(D219 &gt;= 0.7, D219 &lt; 0.8), "70-80", AND(D219 &gt;= 0.6, D219 &lt; 0.7),  "60-70", AND(D219 &gt;= 0.5, D219 &lt; 0.6), "50-60")</f>
+        <v>80-85</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>102</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C220" t="s">
+        <v>21</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E220" t="s">
+        <v>61</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G220" t="s">
+        <v>23</v>
+      </c>
+      <c r="I220" t="str" cm="1">
+        <f t="array" ref="I220">_xlfn.IFS(D220 &gt;= 0.85, "85  &lt;", AND(D220 &gt;=0.8, D220 &lt; 0.85), "80-85", AND(D220 &gt;= 0.7, D220 &lt; 0.8), "70-80", AND(D220 &gt;= 0.6, D220 &lt; 0.7),  "60-70", AND(D220 &gt;= 0.5, D220 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>102</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C221" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="E221" t="s">
+        <v>36</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="G221" t="s">
+        <v>81</v>
+      </c>
+      <c r="I221" t="str" cm="1">
+        <f t="array" ref="I221">_xlfn.IFS(D221 &gt;= 0.85, "85  &lt;", AND(D221 &gt;=0.8, D221 &lt; 0.85), "80-85", AND(D221 &gt;= 0.7, D221 &lt; 0.8), "70-80", AND(D221 &gt;= 0.6, D221 &lt; 0.7),  "60-70", AND(D221 &gt;= 0.5, D221 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>102</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="E222" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="G222" t="s">
+        <v>80</v>
+      </c>
+      <c r="I222" t="str" cm="1">
+        <f t="array" ref="I222">_xlfn.IFS(D222 &gt;= 0.85, "85  &lt;", AND(D222 &gt;=0.8, D222 &lt; 0.85), "80-85", AND(D222 &gt;= 0.7, D222 &lt; 0.8), "70-80", AND(D222 &gt;= 0.6, D222 &lt; 0.7),  "60-70", AND(D222 &gt;= 0.5, D222 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>102</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E223" t="s">
+        <v>42</v>
+      </c>
+      <c r="F223" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G223" t="s">
+        <v>91</v>
+      </c>
+      <c r="I223" t="str" cm="1">
+        <f t="array" ref="I223">_xlfn.IFS(D223 &gt;= 0.85, "85  &lt;", AND(D223 &gt;=0.8, D223 &lt; 0.85), "80-85", AND(D223 &gt;= 0.7, D223 &lt; 0.8), "70-80", AND(D223 &gt;= 0.6, D223 &lt; 0.7),  "60-70", AND(D223 &gt;= 0.5, D223 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>102</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C224" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G224" t="s">
+        <v>68</v>
+      </c>
+      <c r="I224" t="str" cm="1">
+        <f t="array" ref="I224">_xlfn.IFS(D224 &gt;= 0.85, "85  &lt;", AND(D224 &gt;=0.8, D224 &lt; 0.85), "80-85", AND(D224 &gt;= 0.7, D224 &lt; 0.8), "70-80", AND(D224 &gt;= 0.6, D224 &lt; 0.7),  "60-70", AND(D224 &gt;= 0.5, D224 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>102</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E225" t="s">
+        <v>35</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G225" t="s">
+        <v>70</v>
+      </c>
+      <c r="I225" t="str" cm="1">
+        <f t="array" ref="I225">_xlfn.IFS(D225 &gt;= 0.85, "85  &lt;", AND(D225 &gt;=0.8, D225 &lt; 0.85), "80-85", AND(D225 &gt;= 0.7, D225 &lt; 0.8), "70-80", AND(D225 &gt;= 0.6, D225 &lt; 0.7),  "60-70", AND(D225 &gt;= 0.5, D225 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>102</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C226" t="s">
+        <v>41</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E226" t="s">
+        <v>44</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G226" t="s">
+        <v>43</v>
+      </c>
+      <c r="I226" t="str" cm="1">
+        <f t="array" ref="I226">_xlfn.IFS(D226 &gt;= 0.85, "85  &lt;", AND(D226 &gt;=0.8, D226 &lt; 0.85), "80-85", AND(D226 &gt;= 0.7, D226 &lt; 0.8), "70-80", AND(D226 &gt;= 0.6, D226 &lt; 0.7),  "60-70", AND(D226 &gt;= 0.5, D226 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>102</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C227" t="s">
+        <v>33</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E227" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="G227" t="s">
+        <v>34</v>
+      </c>
+      <c r="I227" t="str" cm="1">
+        <f t="array" ref="I227">_xlfn.IFS(D227 &gt;= 0.85, "85  &lt;", AND(D227 &gt;=0.8, D227 &lt; 0.85), "80-85", AND(D227 &gt;= 0.7, D227 &lt; 0.8), "70-80", AND(D227 &gt;= 0.6, D227 &lt; 0.7),  "60-70", AND(D227 &gt;= 0.5, D227 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>102</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45300</v>
+      </c>
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E228" t="s">
+        <v>48</v>
+      </c>
+      <c r="F228" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G228" t="s">
+        <v>49</v>
+      </c>
+      <c r="I228" t="str" cm="1">
+        <f t="array" ref="I228">_xlfn.IFS(D228 &gt;= 0.85, "85  &lt;", AND(D228 &gt;=0.8, D228 &lt; 0.85), "80-85", AND(D228 &gt;= 0.7, D228 &lt; 0.8), "70-80", AND(D228 &gt;= 0.6, D228 &lt; 0.7),  "60-70", AND(D228 &gt;= 0.5, D228 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A685B-F253-4A58-8AD4-3E120F3769BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59260634-C7A9-4061-BB82-BDAEAED70A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -370,6 +369,9 @@
   </si>
   <si>
     <t>RF7</t>
+  </si>
+  <si>
+    <t>85  &lt;</t>
   </si>
 </sst>
 </file>
@@ -936,72 +938,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45288.424094444446" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="135" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2023-12-28T00:00:00"/>
-    </cacheField>
-    <cacheField name="Winner" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GF Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
-    </cacheField>
-    <cacheField name="Loser" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="GA Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
-    </cacheField>
-    <cacheField name="Site" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Model" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="85 &lt;"/>
-        <s v="80-85"/>
-        <s v="70-80"/>
-        <s v="60-70"/>
-        <s v="50-60"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
-    </cacheField>
-    <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
-    </cacheField>
-    <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
-    </cacheField>
-    <cacheField name="GA ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
-    </cacheField>
-    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45300.419749074077" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="228" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45301.352081134261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="231" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1019,7 +956,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-11T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1078,46 +1015,43 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45300.421286342593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="227" xr:uid="{B5339DB5-02DD-4C61-B0B8-F6F1BFD119D6}">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45301.352081481484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="231" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O228" sheet="Predictions"/>
+    <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
   </cacheSource>
-  <cacheFields count="16">
-    <cacheField name="Model Used" numFmtId="0">
-      <sharedItems count="7">
-        <s v="RF1"/>
-        <s v="RF2"/>
-        <s v="RF3"/>
-        <s v="RF4"/>
-        <s v="RF5"/>
-        <s v="RF6"/>
-        <s v="RF7"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-12-09T00:00:00" maxDate="2024-01-10T00:00:00"/>
+  <cacheFields count="15">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-11T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Model" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1" count="7">
+        <s v="85 &lt;"/>
+        <s v="80-85"/>
+        <s v="70-80"/>
+        <s v="60-70"/>
+        <s v="50-60"/>
+        <s v="85  &lt;"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="GF Prediction" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
@@ -1137,7 +1071,7 @@
     <cacheField name="GA ABS Error" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
-    <cacheField name="Accuracy" numFmtId="0" formula="SUM(Model )/COUNT(Winner )" databaseField="0"/>
+    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1148,2172 +1082,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="135">
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.876"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.124"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.85"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.15"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.79800000000000004"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.20200000000000001"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.71199999999999997"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.64200000000000002"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.87"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.13"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82199999999999995"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.17799999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.80200000000000005"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.70199999999999996"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.69"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.31"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.60199999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.68799999999999994"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.312"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.502"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.498"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.82399999999999995"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.17599999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.77800000000000002"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.222"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.68200000000000005"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.318"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.68"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.32"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.65200000000000002"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57199999999999995"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.42799999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.56200000000000006"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.438"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.51600000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.48399999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.73"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.27"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.622"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.378"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.56999999999999995"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.43"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.74399999999999999"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.69799999999999995"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.54200000000000004"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.53800000000000003"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.52200000000000002"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.50600000000000001"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.75800000000000001"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.72399999999999998"/>
-    <s v="Anaheim Ducks"/>
-    <m/>
-    <n v="0.27600000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.71"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.28999999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.69199999999999995"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.308"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.57999999999999996"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.42"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.50800000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.49199999999999999"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New York Islanders"/>
-    <m/>
-    <n v="0.76400000000000001"/>
-    <s v="Montreal Canadiens"/>
-    <m/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <m/>
-    <n v="0.72199999999999998"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <m/>
-    <n v="0.67800000000000005"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.32200000000000001"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <m/>
-    <n v="0.67400000000000004"/>
-    <s v="New York Rangers"/>
-    <m/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <m/>
-    <n v="0.65600000000000003"/>
-    <s v="Pittsburgh Penguins"/>
-    <m/>
-    <n v="0.34399999999999997"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <m/>
-    <n v="0.628"/>
-    <s v="Columbus Blue Jackets"/>
-    <m/>
-    <n v="0.372"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <m/>
-    <n v="0.624"/>
-    <s v="Arizona Coyotes"/>
-    <m/>
-    <n v="0.376"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <m/>
-    <n v="0.61"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.39"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <m/>
-    <n v="0.59199999999999997"/>
-    <s v="Tampa Bay Lightning"/>
-    <m/>
-    <n v="0.40799999999999997"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <m/>
-    <n v="0.57399999999999995"/>
-    <s v="Detroit Red Wings"/>
-    <m/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <m/>
-    <n v="0.56599999999999995"/>
-    <s v="Florida Panthers"/>
-    <m/>
-    <n v="0.434"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <m/>
-    <n v="0.55200000000000005"/>
-    <s v="St. Louis Blues"/>
-    <m/>
-    <n v="0.44800000000000001"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <m/>
-    <n v="0.504"/>
-    <s v="Seattle Kraken"/>
-    <m/>
-    <n v="0.496"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <m/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <m/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <m/>
-    <n v="0.748"/>
-    <s v="San Jose Sharks"/>
-    <m/>
-    <n v="0.252"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <m/>
-    <n v="0.70599999999999996"/>
-    <s v="Ottawa Senators"/>
-    <m/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <m/>
-    <n v="0.69399999999999995"/>
-    <s v="Washington Capitals"/>
-    <m/>
-    <n v="0.30599999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <s v="GF Prediction"/>
-    <n v="0.57399999999999995"/>
-    <s v="Anaheim Ducks"/>
-    <s v="GA Prediction"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <s v="GF Actual"/>
-    <s v="GA Actual"/>
-    <s v="GF ABS Error"/>
-    <s v="GA ABS Error"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.72"/>
-    <s v="Montreal Canadiens"/>
-    <n v="3"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.67400000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="2"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="1"/>
-    <n v="0.58599999999999997"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.41399999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="4"/>
-    <n v="0.58399999999999996"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.502"/>
-    <s v="Anaheim Ducks"/>
-    <n v="3"/>
-    <n v="0.498"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="2"/>
-    <n v="0.84399999999999997"/>
-    <s v="San Jose Sharks"/>
-    <n v="4"/>
-    <n v="0.156"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="2"/>
-    <n v="0.80200000000000005"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="5"/>
-    <n v="0.72199999999999998"/>
-    <s v="St. Louis Blues"/>
-    <n v="2"/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.67400000000000004"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.63200000000000001"/>
-    <s v="Vancouver Canucks"/>
-    <n v="3"/>
-    <n v="0.36799999999999999"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="3"/>
-    <n v="0.61399999999999999"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="3"/>
-    <n v="0.38600000000000001"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.60599999999999998"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="2"/>
-    <n v="0.60399999999999998"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.58399999999999996"/>
-    <s v="New York Islanders"/>
-    <n v="4"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.56000000000000005"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="3"/>
-    <n v="0.44"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.54800000000000004"/>
-    <s v="Arizona Coyotes"/>
-    <n v="4"/>
-    <n v="0.45200000000000001"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.71199999999999997"/>
-    <s v="Detroit Red Wings"/>
-    <n v="3"/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="3"/>
-    <n v="0.66600000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="3"/>
-    <n v="0.33400000000000002"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="2"/>
-    <n v="0.55400000000000005"/>
-    <s v="Washington Capitals"/>
-    <n v="3"/>
-    <n v="0.44600000000000001"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="4"/>
-    <n v="0.80400000000000005"/>
-    <s v="Montreal Canadiens"/>
-    <n v="2"/>
-    <n v="0.19600000000000001"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="4"/>
-    <n v="0.75"/>
-    <s v="St. Louis Blues"/>
-    <n v="3"/>
-    <n v="0.25"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="2"/>
-    <n v="0.72"/>
-    <s v="San Jose Sharks"/>
-    <n v="4"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="3"/>
-    <n v="0.71599999999999997"/>
-    <s v="Anaheim Ducks"/>
-    <n v="4"/>
-    <n v="0.28399999999999997"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="4"/>
-    <n v="0.70799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.29199999999999998"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="4"/>
-    <n v="0.66800000000000004"/>
-    <s v="Vancouver Canucks"/>
-    <n v="3"/>
-    <n v="0.33200000000000002"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="3"/>
-    <n v="0.63400000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.36599999999999999"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="3"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.37"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <n v="3"/>
-    <n v="0.622"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="4"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.52"/>
-    <s v="New Jersey Devils"/>
-    <n v="4"/>
-    <n v="0.48"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="3"/>
-    <n v="0.51800000000000002"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.48199999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="3"/>
-    <n v="0.51400000000000001"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <n v="2"/>
-    <n v="0.748"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.252"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.66200000000000003"/>
-    <s v="Edmonton Oilers"/>
-    <n v="3"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="3"/>
-    <n v="0.56999999999999995"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="4"/>
-    <n v="0.51400000000000001"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="2"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="7"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="5"/>
-    <n v="0.75800000000000001"/>
-    <s v="San Jose Sharks"/>
-    <n v="2"/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="4"/>
-    <n v="0.752"/>
-    <s v="Arizona Coyotes"/>
-    <n v="3"/>
-    <n v="0.248"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="3"/>
-    <n v="0.70599999999999996"/>
-    <s v="Anaheim Ducks"/>
-    <n v="4"/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="3"/>
-    <n v="0.67"/>
-    <s v="New York Islanders"/>
-    <n v="3"/>
-    <n v="0.33"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="4"/>
-    <n v="0.65200000000000002"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="3"/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="4"/>
-    <n v="0.63600000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="3"/>
-    <n v="0.36399999999999999"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="4"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="3"/>
-    <n v="0.37"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="3"/>
-    <n v="0.62"/>
-    <s v="Calgary Flames"/>
-    <n v="4"/>
-    <n v="0.38"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.60599999999999998"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="3"/>
-    <n v="0.60399999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="4"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="3"/>
-    <n v="0.58199999999999996"/>
-    <s v="Washington Capitals"/>
-    <n v="4"/>
-    <n v="0.41799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="4"/>
-    <n v="0.57799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.42199999999999999"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.56999999999999995"/>
-    <s v="Dallas Stars"/>
-    <n v="3"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="3"/>
-    <n v="0.56200000000000006"/>
-    <s v="New Jersey Devils"/>
-    <n v="4"/>
-    <n v="0.438"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="2"/>
-    <n v="0.79600000000000004"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="4"/>
-    <n v="0.20399999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="2"/>
-    <n v="0.76600000000000001"/>
-    <s v="Anaheim Ducks"/>
-    <n v="4"/>
-    <n v="0.23400000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="3"/>
-    <n v="0.75600000000000001"/>
-    <s v="Detroit Red Wings"/>
-    <n v="3"/>
-    <n v="0.24399999999999999"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="4"/>
-    <n v="0.754"/>
-    <s v="San Jose Sharks"/>
-    <n v="3"/>
-    <n v="0.246"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="4"/>
-    <n v="0.71399999999999997"/>
-    <s v="Florida Panthers"/>
-    <n v="3"/>
-    <n v="0.28599999999999998"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="3"/>
-    <n v="0.70199999999999996"/>
-    <s v="Washington Capitals"/>
-    <n v="2"/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="3"/>
-    <n v="0.68400000000000005"/>
-    <s v="Buffalo Sabres"/>
-    <n v="4"/>
-    <n v="0.316"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="4"/>
-    <n v="0.66600000000000004"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="3"/>
-    <n v="0.33400000000000002"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="3"/>
-    <n v="0.66200000000000003"/>
-    <s v="Ottawa Senators"/>
-    <n v="3"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="3"/>
-    <n v="0.64400000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <n v="3"/>
-    <n v="0.35599999999999998"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="3"/>
-    <n v="0.61"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="2"/>
-    <n v="0.39"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="7"/>
-    <n v="3"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="4"/>
-    <n v="0.57599999999999996"/>
-    <s v="Seattle Kraken"/>
-    <n v="2"/>
-    <n v="0.42399999999999999"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="3"/>
-    <n v="0.52800000000000002"/>
-    <s v="St. Louis Blues"/>
-    <n v="4"/>
-    <n v="0.47199999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="2"/>
-    <n v="0.52"/>
-    <s v="Nashville Predators"/>
-    <n v="3"/>
-    <n v="0.48"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="228">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="231">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -7011,7 +4780,7 @@
     <s v="Chicago Blackhawks"/>
     <n v="0.2"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="1"/>
     <m/>
     <m/>
@@ -7028,7 +4797,7 @@
     <s v="San Jose Sharks"/>
     <n v="0.23200000000000001"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -7045,7 +4814,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.246"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -7062,7 +4831,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.372"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -7079,7 +4848,7 @@
     <s v="Los Angeles Kings"/>
     <n v="0.38400000000000001"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -7096,7 +4865,7 @@
     <s v="Anaheim Ducks"/>
     <n v="0.39200000000000002"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -7113,7 +4882,7 @@
     <s v="Florida Panthers"/>
     <n v="0.40799999999999997"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -7130,7 +4899,7 @@
     <s v="Vancouver Canucks"/>
     <n v="0.41799999999999998"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -7147,7 +4916,7 @@
     <s v="Ottawa Senators"/>
     <n v="0.432"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -7164,7 +4933,58 @@
     <s v="Buffalo Sabres"/>
     <n v="0.45"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.67200000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.32800000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.628"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.372"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.59"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.41"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -7193,10 +5013,9 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="227">
-  <r>
-    <x v="0"/>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="231">
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.876"/>
@@ -7204,16 +5023,15 @@
     <n v="0.124"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="1"/>
-    <s v="85 &lt;"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.85"/>
@@ -7221,16 +5039,15 @@
     <n v="0.15"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="0"/>
-    <s v="85 &lt;"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.81"/>
@@ -7238,16 +5055,15 @@
     <n v="0.19"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="0"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.79800000000000004"/>
@@ -7255,16 +5071,15 @@
     <n v="0.20200000000000001"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.77800000000000002"/>
@@ -7272,16 +5087,15 @@
     <n v="0.222"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.71199999999999997"/>
@@ -7289,16 +5103,15 @@
     <n v="0.28799999999999998"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.69799999999999995"/>
@@ -7306,16 +5119,15 @@
     <n v="0.30199999999999999"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.64200000000000002"/>
@@ -7323,16 +5135,15 @@
     <n v="0.35799999999999998"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Ottawa Senators"/>
     <n v="0.57999999999999996"/>
@@ -7340,16 +5151,15 @@
     <n v="0.42"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.56999999999999995"/>
@@ -7357,16 +5167,15 @@
     <n v="0.43"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.53800000000000003"/>
@@ -7374,16 +5183,15 @@
     <n v="0.46200000000000002"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-09T00:00:00"/>
     <s v="Montreal Canadiens"/>
     <n v="0.50600000000000001"/>
@@ -7391,16 +5199,15 @@
     <n v="0.49399999999999999"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.87"/>
@@ -7408,16 +5215,15 @@
     <n v="0.13"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
-    <s v="85 &lt;"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.82199999999999995"/>
@@ -7425,16 +5231,15 @@
     <n v="0.17799999999999999"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.80200000000000005"/>
@@ -7442,16 +5247,15 @@
     <n v="0.19800000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.76400000000000001"/>
@@ -7459,16 +5263,15 @@
     <n v="0.23599999999999999"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.74399999999999999"/>
@@ -7476,16 +5279,15 @@
     <n v="0.25600000000000001"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Washington Capitals"/>
     <n v="0.70199999999999996"/>
@@ -7493,16 +5295,15 @@
     <n v="0.29799999999999999"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.69"/>
@@ -7510,16 +5311,15 @@
     <n v="0.31"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-10T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.60199999999999998"/>
@@ -7527,16 +5327,15 @@
     <n v="0.39800000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.68799999999999994"/>
@@ -7544,16 +5343,15 @@
     <n v="0.312"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.622"/>
@@ -7561,16 +5359,15 @@
     <n v="0.378"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Buffalo Sabres"/>
     <n v="0.52200000000000002"/>
@@ -7578,16 +5375,15 @@
     <n v="0.47799999999999998"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-11T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.502"/>
@@ -7595,16 +5391,15 @@
     <n v="0.498"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.82399999999999995"/>
@@ -7612,16 +5407,15 @@
     <n v="0.17599999999999999"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.77800000000000002"/>
@@ -7629,16 +5423,15 @@
     <n v="0.222"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.69199999999999995"/>
@@ -7646,16 +5439,15 @@
     <n v="0.308"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.68200000000000005"/>
@@ -7663,16 +5455,15 @@
     <n v="0.318"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.68"/>
@@ -7680,16 +5471,15 @@
     <n v="0.32"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.65200000000000002"/>
@@ -7697,16 +5487,15 @@
     <n v="0.34799999999999998"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.57199999999999995"/>
@@ -7714,16 +5503,15 @@
     <n v="0.42799999999999999"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Ottawa Senators"/>
     <n v="0.56200000000000006"/>
@@ -7731,16 +5519,15 @@
     <n v="0.438"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.52200000000000002"/>
@@ -7748,16 +5535,15 @@
     <n v="0.47799999999999998"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-12T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.51600000000000001"/>
@@ -7765,16 +5551,15 @@
     <n v="0.48399999999999999"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.73"/>
@@ -7782,16 +5567,15 @@
     <n v="0.27"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.624"/>
@@ -7799,16 +5583,15 @@
     <n v="0.376"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.622"/>
@@ -7816,16 +5599,15 @@
     <n v="0.378"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.622"/>
@@ -7833,16 +5615,15 @@
     <n v="0.378"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-13T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.56999999999999995"/>
@@ -7850,16 +5631,15 @@
     <n v="0.43"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.74399999999999999"/>
@@ -7867,16 +5647,15 @@
     <n v="0.25600000000000001"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.70599999999999996"/>
@@ -7884,16 +5663,15 @@
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.69799999999999995"/>
@@ -7901,16 +5679,15 @@
     <n v="0.30199999999999999"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.57399999999999995"/>
@@ -7918,16 +5695,15 @@
     <n v="0.42599999999999999"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.54200000000000004"/>
@@ -7935,16 +5711,15 @@
     <n v="0.45800000000000002"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Seattle Kraken"/>
     <n v="0.53800000000000003"/>
@@ -7952,16 +5727,15 @@
     <n v="0.46200000000000002"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="Washington Capitals"/>
     <n v="0.52200000000000002"/>
@@ -7969,16 +5743,15 @@
     <n v="0.47799999999999998"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-14T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.50600000000000001"/>
@@ -7986,16 +5759,15 @@
     <n v="0.49399999999999999"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.75800000000000001"/>
@@ -8003,16 +5775,15 @@
     <n v="0.24199999999999999"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.72399999999999998"/>
@@ -8020,16 +5791,15 @@
     <n v="0.27600000000000002"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.71"/>
@@ -8037,16 +5807,15 @@
     <n v="0.28999999999999998"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.69199999999999995"/>
@@ -8054,16 +5823,15 @@
     <n v="0.308"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.57999999999999996"/>
@@ -8071,16 +5839,15 @@
     <n v="0.42"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-15T00:00:00"/>
     <s v="San Jose Sharks"/>
     <n v="0.50800000000000001"/>
@@ -8088,16 +5855,15 @@
     <n v="0.49199999999999999"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.76400000000000001"/>
@@ -8105,16 +5871,15 @@
     <n v="0.23599999999999999"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.72199999999999998"/>
@@ -8122,16 +5887,15 @@
     <n v="0.27800000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.67800000000000005"/>
@@ -8139,16 +5903,15 @@
     <n v="0.32200000000000001"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.67400000000000004"/>
@@ -8156,16 +5919,15 @@
     <n v="0.32600000000000001"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.65600000000000003"/>
@@ -8173,16 +5935,15 @@
     <n v="0.34399999999999997"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.628"/>
@@ -8190,16 +5951,15 @@
     <n v="0.372"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Buffalo Sabres"/>
     <n v="0.624"/>
@@ -8207,16 +5967,15 @@
     <n v="0.376"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.61"/>
@@ -8224,16 +5983,15 @@
     <n v="0.39"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.59199999999999997"/>
@@ -8241,16 +5999,15 @@
     <n v="0.40799999999999997"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Philadelphia Flyers"/>
     <n v="0.57399999999999995"/>
@@ -8258,16 +6015,15 @@
     <n v="0.42599999999999999"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.56599999999999995"/>
@@ -8275,16 +6031,15 @@
     <n v="0.434"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.55200000000000005"/>
@@ -8292,16 +6047,15 @@
     <n v="0.44800000000000001"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-16T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.504"/>
@@ -8309,16 +6063,15 @@
     <n v="0.496"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.81"/>
@@ -8326,7 +6079,7 @@
     <n v="0.19"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
@@ -8335,7 +6088,6 @@
     <m/>
   </r>
   <r>
-    <x v="2"/>
     <d v="2023-12-17T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.748"/>
@@ -8343,16 +6095,15 @@
     <n v="0.252"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.70599999999999996"/>
@@ -8360,16 +6111,15 @@
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.69399999999999995"/>
@@ -8377,16 +6127,15 @@
     <n v="0.30599999999999999"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-17T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.57399999999999995"/>
@@ -8394,7 +6143,7 @@
     <n v="0.42599999999999999"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <s v="GF Prediction"/>
     <s v="GA Prediction"/>
     <s v="GF Actual"/>
@@ -8403,7 +6152,6 @@
     <s v="GA ABS Error"/>
   </r>
   <r>
-    <x v="2"/>
     <d v="2023-12-18T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.72"/>
@@ -8411,7 +6159,7 @@
     <n v="0.28000000000000003"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -8420,7 +6168,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="2"/>
     <d v="2023-12-18T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.67400000000000004"/>
@@ -8428,7 +6175,7 @@
     <n v="0.32600000000000001"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="2"/>
     <n v="4"/>
@@ -8437,7 +6184,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="2"/>
     <d v="2023-12-18T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.58599999999999997"/>
@@ -8445,7 +6191,7 @@
     <n v="0.41399999999999998"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="1"/>
     <n v="3"/>
     <n v="3"/>
@@ -8454,7 +6200,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="2"/>
     <d v="2023-12-18T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.58399999999999996"/>
@@ -8462,7 +6207,7 @@
     <n v="0.41599999999999998"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -8471,7 +6216,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="2"/>
     <d v="2023-12-18T00:00:00"/>
     <s v="Detroit Red Wings"/>
     <n v="0.502"/>
@@ -8479,7 +6223,7 @@
     <n v="0.498"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="3"/>
     <n v="3"/>
@@ -8488,7 +6232,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.84399999999999997"/>
@@ -8496,7 +6239,7 @@
     <n v="0.156"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="4"/>
     <n v="4"/>
@@ -8505,7 +6248,6 @@
     <n v="3"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.80200000000000005"/>
@@ -8513,7 +6255,7 @@
     <n v="0.19800000000000001"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="0"/>
-    <s v="80-85"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="4"/>
     <n v="2"/>
@@ -8522,7 +6264,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.72199999999999998"/>
@@ -8530,7 +6271,7 @@
     <n v="0.27800000000000002"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="5"/>
     <n v="2"/>
     <n v="6"/>
@@ -8539,7 +6280,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.67400000000000004"/>
@@ -8547,7 +6287,7 @@
     <n v="0.32600000000000001"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="3"/>
@@ -8556,7 +6296,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.63200000000000001"/>
@@ -8564,7 +6303,7 @@
     <n v="0.36799999999999999"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -8573,7 +6312,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.61399999999999999"/>
@@ -8581,7 +6319,7 @@
     <n v="0.38600000000000001"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -8590,7 +6328,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.60599999999999998"/>
@@ -8598,7 +6335,7 @@
     <n v="0.39400000000000002"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="6"/>
@@ -8607,7 +6344,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.60399999999999998"/>
@@ -8615,7 +6351,7 @@
     <n v="0.39600000000000002"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="2"/>
     <n v="4"/>
     <n v="2"/>
@@ -8624,7 +6360,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.58399999999999996"/>
@@ -8632,7 +6367,7 @@
     <n v="0.41599999999999998"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="4"/>
     <n v="1"/>
@@ -8641,7 +6376,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Buffalo Sabres"/>
     <n v="0.56000000000000005"/>
@@ -8649,7 +6383,7 @@
     <n v="0.44"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -8658,7 +6392,6 @@
     <n v="6"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-19T00:00:00"/>
     <s v="Ottawa Senators"/>
     <n v="0.54800000000000004"/>
@@ -8666,7 +6399,7 @@
     <n v="0.45200000000000001"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="4"/>
     <n v="3"/>
@@ -8675,7 +6408,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-20T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.71199999999999997"/>
@@ -8683,7 +6415,7 @@
     <n v="0.28799999999999998"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <n v="5"/>
@@ -8692,7 +6424,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-20T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.66600000000000004"/>
@@ -8700,7 +6431,7 @@
     <n v="0.33400000000000002"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="1"/>
@@ -8709,7 +6440,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-20T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.55400000000000005"/>
@@ -8717,7 +6447,7 @@
     <n v="0.44600000000000001"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="2"/>
     <n v="3"/>
     <n v="3"/>
@@ -8726,7 +6456,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.80400000000000005"/>
@@ -8734,7 +6463,7 @@
     <n v="0.19600000000000001"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="2"/>
     <n v="4"/>
@@ -8743,7 +6472,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.75"/>
@@ -8751,7 +6479,7 @@
     <n v="0.25"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <n v="1"/>
@@ -8760,7 +6488,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Arizona Coyotes"/>
     <n v="0.72"/>
@@ -8768,7 +6495,7 @@
     <n v="0.28000000000000003"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="4"/>
     <n v="5"/>
@@ -8777,7 +6504,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.71599999999999997"/>
@@ -8785,7 +6511,7 @@
     <n v="0.28399999999999997"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <n v="3"/>
@@ -8794,7 +6520,6 @@
     <n v="4"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.70799999999999996"/>
@@ -8802,7 +6527,7 @@
     <n v="0.29199999999999998"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <n v="6"/>
@@ -8811,7 +6536,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.66800000000000004"/>
@@ -8819,7 +6543,7 @@
     <n v="0.33200000000000002"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -8828,7 +6552,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.63400000000000001"/>
@@ -8836,7 +6559,7 @@
     <n v="0.36599999999999999"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="5"/>
@@ -8845,7 +6568,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.63"/>
@@ -8853,7 +6575,7 @@
     <n v="0.37"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="4"/>
     <n v="3"/>
@@ -8862,7 +6584,6 @@
     <n v="5"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Washington Capitals"/>
     <n v="0.622"/>
@@ -8870,7 +6591,7 @@
     <n v="0.378"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="4"/>
     <n v="3"/>
@@ -8879,7 +6600,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.52"/>
@@ -8887,7 +6607,7 @@
     <n v="0.48"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="4"/>
     <n v="6"/>
@@ -8896,7 +6616,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Philadelphia Flyers"/>
     <n v="0.51800000000000002"/>
@@ -8904,7 +6623,7 @@
     <n v="0.48199999999999998"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -8913,7 +6632,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-21T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.51400000000000001"/>
@@ -8921,7 +6639,7 @@
     <n v="0.48599999999999999"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -8930,7 +6648,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-22T00:00:00"/>
     <s v="Montreal Canadiens"/>
     <n v="0.748"/>
@@ -8938,7 +6655,7 @@
     <n v="0.252"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="4"/>
     <n v="5"/>
@@ -8947,7 +6664,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-22T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.66200000000000003"/>
@@ -8955,7 +6671,7 @@
     <n v="0.33800000000000002"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="3"/>
     <n v="3"/>
@@ -8964,7 +6680,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-22T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.56999999999999995"/>
@@ -8972,7 +6687,7 @@
     <n v="0.43"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="3"/>
     <n v="5"/>
@@ -8981,7 +6696,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="3"/>
     <d v="2023-12-22T00:00:00"/>
     <s v="Detroit Red Wings"/>
     <n v="0.51400000000000001"/>
@@ -8989,7 +6703,7 @@
     <n v="0.48599999999999999"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="2"/>
     <n v="7"/>
@@ -8998,7 +6712,6 @@
     <n v="4"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.75800000000000001"/>
@@ -9006,7 +6719,7 @@
     <n v="0.24199999999999999"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="5"/>
     <n v="2"/>
     <n v="7"/>
@@ -9015,7 +6728,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.752"/>
@@ -9023,7 +6735,7 @@
     <n v="0.248"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -9032,7 +6744,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Seattle Kraken"/>
     <n v="0.70599999999999996"/>
@@ -9040,7 +6751,7 @@
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <n v="3"/>
@@ -9049,7 +6760,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.67"/>
@@ -9057,7 +6767,7 @@
     <n v="0.33"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="4"/>
@@ -9066,7 +6776,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.65200000000000002"/>
@@ -9074,7 +6783,7 @@
     <n v="0.34799999999999998"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="3"/>
     <n v="7"/>
@@ -9083,7 +6792,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.63600000000000001"/>
@@ -9091,7 +6799,7 @@
     <n v="0.36399999999999999"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -9100,7 +6808,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.63"/>
@@ -9108,7 +6815,7 @@
     <n v="0.37"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -9117,7 +6824,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.62"/>
@@ -9125,7 +6831,7 @@
     <n v="0.38"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="4"/>
     <n v="5"/>
@@ -9134,7 +6840,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.60599999999999998"/>
@@ -9142,7 +6847,7 @@
     <n v="0.39400000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="3"/>
@@ -9151,7 +6856,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.60399999999999998"/>
@@ -9159,7 +6863,7 @@
     <n v="0.39600000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="4"/>
     <n v="4"/>
@@ -9168,7 +6872,6 @@
     <n v="3"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.58199999999999996"/>
@@ -9176,7 +6879,7 @@
     <n v="0.41799999999999998"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="4"/>
     <n v="2"/>
@@ -9185,7 +6888,6 @@
     <n v="3"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.57799999999999996"/>
@@ -9193,7 +6895,7 @@
     <n v="0.42199999999999999"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -9202,7 +6904,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.56999999999999995"/>
@@ -9210,7 +6911,7 @@
     <n v="0.43"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -9219,7 +6920,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-23T00:00:00"/>
     <s v="Detroit Red Wings"/>
     <n v="0.56200000000000006"/>
@@ -9227,7 +6927,7 @@
     <n v="0.438"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="4"/>
     <n v="2"/>
@@ -9236,7 +6936,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.79600000000000004"/>
@@ -9244,7 +6943,7 @@
     <n v="0.20399999999999999"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="4"/>
     <n v="1"/>
@@ -9253,7 +6952,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.76600000000000001"/>
@@ -9261,7 +6959,7 @@
     <n v="0.23400000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="4"/>
     <n v="2"/>
@@ -9270,7 +6968,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.75600000000000001"/>
@@ -9278,7 +6975,7 @@
     <n v="0.24399999999999999"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <n v="6"/>
@@ -9287,7 +6984,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.754"/>
@@ -9295,7 +6991,7 @@
     <n v="0.246"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <n v="5"/>
@@ -9304,7 +7000,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.71399999999999997"/>
@@ -9312,7 +7007,7 @@
     <n v="0.28599999999999998"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <n v="2"/>
@@ -9321,7 +7016,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.70199999999999996"/>
@@ -9329,7 +7023,7 @@
     <n v="0.29799999999999999"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="2"/>
     <n v="5"/>
@@ -9338,7 +7032,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.68400000000000005"/>
@@ -9346,7 +7039,7 @@
     <n v="0.316"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="4"/>
     <n v="4"/>
@@ -9355,7 +7048,6 @@
     <n v="3"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.66600000000000004"/>
@@ -9363,7 +7055,7 @@
     <n v="0.33400000000000002"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="3"/>
     <n v="4"/>
@@ -9372,7 +7064,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.66200000000000003"/>
@@ -9380,7 +7071,7 @@
     <n v="0.33800000000000002"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="2"/>
@@ -9389,7 +7080,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.64400000000000002"/>
@@ -9397,7 +7087,7 @@
     <n v="0.35599999999999998"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <n v="4"/>
@@ -9406,7 +7096,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.61"/>
@@ -9414,7 +7103,7 @@
     <n v="0.39"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="2"/>
     <n v="0"/>
@@ -9423,7 +7112,6 @@
     <n v="5"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.57599999999999996"/>
@@ -9431,7 +7119,7 @@
     <n v="0.42399999999999999"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="2"/>
     <n v="1"/>
@@ -9440,7 +7128,6 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.52800000000000002"/>
@@ -9448,7 +7135,7 @@
     <n v="0.47199999999999998"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="3"/>
     <n v="4"/>
     <n v="1"/>
@@ -9457,7 +7144,6 @@
     <n v="2"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-27T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.52"/>
@@ -9465,7 +7151,7 @@
     <n v="0.48"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
+    <x v="4"/>
     <n v="2"/>
     <n v="3"/>
     <n v="5"/>
@@ -9474,7 +7160,6 @@
     <n v="1"/>
   </r>
   <r>
-    <x v="4"/>
     <d v="2023-12-28T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.85799999999999998"/>
@@ -9482,16 +7167,15 @@
     <n v="0.14199999999999999"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <s v="85  &lt;"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-28T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.72399999999999998"/>
@@ -9499,16 +7183,15 @@
     <n v="0.27600000000000002"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-28T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.68600000000000005"/>
@@ -9516,16 +7199,15 @@
     <n v="0.314"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-28T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.54"/>
@@ -9533,16 +7215,15 @@
     <n v="0.46"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.78200000000000003"/>
@@ -9550,16 +7231,15 @@
     <n v="0.218"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.64200000000000002"/>
@@ -9567,16 +7247,15 @@
     <n v="0.35799999999999998"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="Arizona Coyotes"/>
     <n v="0.624"/>
@@ -9584,16 +7263,15 @@
     <n v="0.376"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="Seattle Kraken"/>
     <n v="0.57799999999999996"/>
@@ -9601,16 +7279,15 @@
     <n v="0.42199999999999999"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.55200000000000005"/>
@@ -9618,16 +7295,15 @@
     <n v="0.44800000000000001"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.53200000000000003"/>
@@ -9635,16 +7311,15 @@
     <n v="0.46800000000000003"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.53"/>
@@ -9652,16 +7327,15 @@
     <n v="0.47"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.52600000000000002"/>
@@ -9669,16 +7343,15 @@
     <n v="0.47399999999999998"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-29T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.50800000000000001"/>
@@ -9686,16 +7359,15 @@
     <n v="0.49199999999999999"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Florida Panthers"/>
     <n v="0.67"/>
@@ -9703,16 +7375,15 @@
     <n v="0.33"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.65600000000000003"/>
@@ -9720,16 +7391,15 @@
     <n v="0.34399999999999997"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.62"/>
@@ -9737,16 +7407,15 @@
     <n v="0.38"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.61599999999999999"/>
@@ -9754,16 +7423,15 @@
     <n v="0.38400000000000001"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.60199999999999998"/>
@@ -9771,16 +7439,15 @@
     <n v="0.39800000000000002"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.6"/>
@@ -9788,16 +7455,15 @@
     <n v="0.4"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Buffalo Sabres"/>
     <n v="0.59799999999999998"/>
@@ -9805,16 +7471,15 @@
     <n v="0.40200000000000002"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.55400000000000005"/>
@@ -9822,16 +7487,15 @@
     <n v="0.44600000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-30T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.51"/>
@@ -9839,16 +7503,15 @@
     <n v="0.49"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.83799999999999997"/>
@@ -9856,16 +7519,15 @@
     <n v="0.16200000000000001"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.79800000000000004"/>
@@ -9873,16 +7535,15 @@
     <n v="0.20200000000000001"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.79"/>
@@ -9890,16 +7551,15 @@
     <n v="0.21"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.64600000000000002"/>
@@ -9907,16 +7567,15 @@
     <n v="0.35399999999999998"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.63"/>
@@ -9924,16 +7583,15 @@
     <n v="0.37"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.624"/>
@@ -9941,16 +7599,15 @@
     <n v="0.376"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.622"/>
@@ -9958,16 +7615,15 @@
     <n v="0.378"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.60799999999999998"/>
@@ -9975,16 +7631,15 @@
     <n v="0.39200000000000002"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2023-12-31T00:00:00"/>
     <s v="Ottawa Senators"/>
     <n v="0.54400000000000004"/>
@@ -9992,16 +7647,15 @@
     <n v="0.45600000000000002"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-01T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.53"/>
@@ -10009,16 +7663,15 @@
     <n v="0.47"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Detroit Red Wings"/>
     <n v="0.84599999999999997"/>
@@ -10026,16 +7679,15 @@
     <n v="0.154"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.75800000000000001"/>
@@ -10043,16 +7695,15 @@
     <n v="0.24199999999999999"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.748"/>
@@ -10060,16 +7711,15 @@
     <n v="0.252"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.70599999999999996"/>
@@ -10077,16 +7727,15 @@
     <n v="0.29399999999999998"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.69199999999999995"/>
@@ -10094,16 +7743,15 @@
     <n v="0.308"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.69199999999999995"/>
@@ -10111,16 +7759,15 @@
     <n v="0.308"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.68600000000000005"/>
@@ -10128,16 +7775,15 @@
     <n v="0.314"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.68200000000000005"/>
@@ -10145,16 +7791,15 @@
     <n v="0.318"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.67200000000000004"/>
@@ -10162,16 +7807,15 @@
     <n v="0.32800000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Vancouver Canucks"/>
     <n v="0.66"/>
@@ -10179,16 +7823,15 @@
     <n v="0.34"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.64200000000000002"/>
@@ -10196,16 +7839,15 @@
     <n v="0.35799999999999998"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.61599999999999999"/>
@@ -10213,16 +7855,15 @@
     <n v="0.38400000000000001"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-02T00:00:00"/>
     <s v="Arizona Coyotes"/>
     <n v="0.56200000000000006"/>
@@ -10230,16 +7871,15 @@
     <n v="0.438"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-03T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.76"/>
@@ -10247,16 +7887,15 @@
     <n v="0.24"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-03T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.63"/>
@@ -10264,16 +7903,15 @@
     <n v="0.37"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.80400000000000005"/>
@@ -10281,16 +7919,15 @@
     <n v="0.19600000000000001"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.73"/>
@@ -10298,16 +7935,15 @@
     <n v="0.27"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.68"/>
@@ -10315,16 +7951,15 @@
     <n v="0.32"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.67"/>
@@ -10332,16 +7967,15 @@
     <n v="0.33"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.66200000000000003"/>
@@ -10349,16 +7983,15 @@
     <n v="0.33800000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.65200000000000002"/>
@@ -10366,16 +7999,15 @@
     <n v="0.34799999999999998"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Buffalo Sabres"/>
     <n v="0.64800000000000002"/>
@@ -10383,16 +8015,15 @@
     <n v="0.35199999999999998"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.622"/>
@@ -10400,16 +8031,15 @@
     <n v="0.378"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.6"/>
@@ -10417,16 +8047,15 @@
     <n v="0.4"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Seattle Kraken"/>
     <n v="0.58799999999999997"/>
@@ -10434,16 +8063,15 @@
     <n v="0.41199999999999998"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Arizona Coyotes"/>
     <n v="0.53200000000000003"/>
@@ -10451,16 +8079,15 @@
     <n v="0.46800000000000003"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.53"/>
@@ -10468,16 +8095,15 @@
     <n v="0.47"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-04T00:00:00"/>
     <s v="Columbus Blue Jackets"/>
     <n v="0.51200000000000001"/>
@@ -10485,16 +8111,15 @@
     <n v="0.48799999999999999"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-05T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.70799999999999996"/>
@@ -10502,16 +8127,15 @@
     <n v="0.29199999999999998"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-05T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.69399999999999995"/>
@@ -10519,16 +8143,15 @@
     <n v="0.30599999999999999"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-05T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.626"/>
@@ -10536,16 +8159,15 @@
     <n v="0.374"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.81599999999999995"/>
@@ -10553,16 +8175,15 @@
     <n v="0.184"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Carolina Hurricanes"/>
     <n v="0.76800000000000002"/>
@@ -10570,16 +8191,15 @@
     <n v="0.23200000000000001"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.75"/>
@@ -10587,16 +8207,15 @@
     <n v="0.25"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.73599999999999999"/>
@@ -10604,16 +8223,15 @@
     <n v="0.26400000000000001"/>
     <s v="Playing At:  Edmonton Oilers   Home"/>
     <n v="1"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Dallas Stars"/>
     <n v="0.70799999999999996"/>
@@ -10621,16 +8239,15 @@
     <n v="0.29199999999999998"/>
     <s v="Playing At:  Dallas Stars   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.64"/>
@@ -10638,16 +8255,15 @@
     <n v="0.36"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.61399999999999999"/>
@@ -10655,16 +8271,15 @@
     <n v="0.38600000000000001"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.60399999999999998"/>
@@ -10672,16 +8287,15 @@
     <n v="0.39600000000000002"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="New Jersey Devils"/>
     <n v="0.60199999999999998"/>
@@ -10689,16 +8303,15 @@
     <n v="0.39800000000000002"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Vegas Golden Knights"/>
     <n v="0.59399999999999997"/>
@@ -10706,16 +8319,15 @@
     <n v="0.40600000000000003"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.54200000000000004"/>
@@ -10723,16 +8335,15 @@
     <n v="0.45800000000000002"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-06T00:00:00"/>
     <s v="Pittsburgh Penguins"/>
     <n v="0.53800000000000003"/>
@@ -10740,16 +8351,15 @@
     <n v="0.46200000000000002"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-07T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.71599999999999997"/>
@@ -10757,16 +8367,15 @@
     <n v="0.28399999999999997"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="0"/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-07T00:00:00"/>
     <s v="Detroit Red Wings"/>
     <n v="0.69599999999999995"/>
@@ -10774,16 +8383,15 @@
     <n v="0.30399999999999999"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <n v="1"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-07T00:00:00"/>
     <s v="Los Angeles Kings"/>
     <n v="0.61799999999999999"/>
@@ -10791,16 +8399,15 @@
     <n v="0.38200000000000001"/>
     <s v="Playing At:  Washington Capitals   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-07T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.57199999999999995"/>
@@ -10808,16 +8415,15 @@
     <n v="0.42799999999999999"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-08T00:00:00"/>
     <s v="New York Rangers"/>
     <n v="0.69199999999999995"/>
@@ -10825,16 +8431,15 @@
     <n v="0.308"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-08T00:00:00"/>
     <s v="Minnesota Wild"/>
     <n v="0.62"/>
@@ -10842,16 +8447,15 @@
     <n v="0.38"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <n v="0"/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-08T00:00:00"/>
     <s v="Philadelphia Flyers"/>
     <n v="0.54200000000000004"/>
@@ -10859,16 +8463,15 @@
     <n v="0.45800000000000002"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <n v="0"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-08T00:00:00"/>
     <s v="Colorado Avalanche"/>
     <n v="0.54"/>
@@ -10876,177 +8479,231 @@
     <n v="0.46"/>
     <s v="Playing At:  Colorado Avalanche   Home"/>
     <n v="1"/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Edmonton Oilers"/>
     <n v="0.8"/>
     <s v="Chicago Blackhawks"/>
     <n v="0.2"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <m/>
-    <s v="80-85"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Toronto Maple Leafs"/>
     <n v="0.76800000000000002"/>
     <s v="San Jose Sharks"/>
     <n v="0.23200000000000001"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Winnipeg Jets"/>
     <n v="0.754"/>
     <s v="Columbus Blue Jackets"/>
     <n v="0.246"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <m/>
-    <s v="70-80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Boston Bruins"/>
     <n v="0.628"/>
     <s v="Arizona Coyotes"/>
     <n v="0.372"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <m/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Tampa Bay Lightning"/>
     <n v="0.61599999999999999"/>
     <s v="Los Angeles Kings"/>
     <n v="0.38400000000000001"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <m/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Nashville Predators"/>
     <n v="0.60799999999999998"/>
     <s v="Anaheim Ducks"/>
     <n v="0.39200000000000002"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
-    <s v="60-70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="St. Louis Blues"/>
     <n v="0.59199999999999997"/>
     <s v="Florida Panthers"/>
     <n v="0.40799999999999997"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="New York Islanders"/>
     <n v="0.58199999999999996"/>
     <s v="Vancouver Canucks"/>
     <n v="0.41799999999999998"/>
     <s v="Playing At:  New York Islanders   Home"/>
-    <m/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Calgary Flames"/>
     <n v="0.56799999999999995"/>
     <s v="Ottawa Senators"/>
     <n v="0.432"/>
     <s v="Playing At:  Calgary Flames   Home"/>
-    <m/>
-    <s v="50-60"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <d v="2024-01-09T00:00:00"/>
     <s v="Seattle Kraken"/>
     <n v="0.55000000000000004"/>
     <s v="Buffalo Sabres"/>
     <n v="0.45"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
-    <s v="50-60"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.67200000000000004"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.32800000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.628"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.372"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2024-01-10T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.59"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.41"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -11058,11 +8715,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE9196C9-13DA-4B46-86E5-2392AEDC56A6}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -11070,6 +8727,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11087,7 +8745,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -11146,22 +8804,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:C25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="10" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
+      <items count="8">
+        <item x="6"/>
+        <item x="0"/>
         <item x="5"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -11171,14 +8828,16 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="9"/>
+    <field x="7"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -11196,6 +8855,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -11229,7 +8891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -11622,17 +9284,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -11679,10 +9341,10 @@
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="7">
@@ -11711,19 +9373,19 @@
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>10</v>
+      <c r="C5" s="9">
+        <v>11</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.76923076923076927</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>96</v>
@@ -11743,19 +9405,19 @@
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>51</v>
       </c>
-      <c r="C6">
-        <v>32</v>
+      <c r="C6" s="9">
+        <v>34</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0.62745098039215685</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="7">
         <f>F5/F4</f>
-        <v>0.65671641791044777</v>
+        <v>0.70149253731343286</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>97</v>
@@ -11775,15 +9437,15 @@
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>47</v>
+      <c r="B7" s="9">
+        <v>91</v>
+      </c>
+      <c r="C7" s="9">
+        <v>50</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>0.5280898876404494</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -11806,19 +9468,19 @@
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
+      <c r="B8" s="9">
+        <v>71</v>
+      </c>
+      <c r="C8" s="9">
+        <v>39</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.51428571428571423</v>
+        <v>0.54929577464788737</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>99</v>
@@ -11838,19 +9500,19 @@
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9">
-        <v>226</v>
-      </c>
-      <c r="C9">
-        <v>127</v>
+      <c r="B9" s="9">
+        <v>229</v>
+      </c>
+      <c r="C9" s="9">
+        <v>136</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.56194690265486724</v>
+        <v>0.59388646288209612</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>101</v>
@@ -11870,18 +9532,20 @@
       <c r="D10" s="5"/>
       <c r="F10" s="7">
         <f>F9/F8</f>
-        <v>0.5220125786163522</v>
+        <v>0.54938271604938271</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N10" s="9">
-        <v>10</v>
-      </c>
-      <c r="O10" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="O10" s="9">
+        <v>9</v>
+      </c>
       <c r="P10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -11889,10 +9553,10 @@
         <v>57</v>
       </c>
       <c r="N11" s="9">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O11" s="9">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11922,56 +9586,63 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1.6666666666666667</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="6">
-        <v>1.5294117647058822</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C21" s="6">
-        <v>1.411764705882353</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6">
-        <v>0.95833333333333337</v>
+        <v>1.5294117647058822</v>
       </c>
       <c r="C22" s="6">
-        <v>1.5</v>
+        <v>1.411764705882353</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="6">
-        <v>1.4210526315789473</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C23" s="6">
-        <v>1.5263157894736843</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1.4210526315789473</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.5263157894736843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="6">
         <v>1.2380952380952381</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>1.4920634920634921</v>
       </c>
     </row>
@@ -11983,10 +9654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O228"/>
+  <dimension ref="A1:O231"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19848,6 +17519,9 @@
       <c r="G219" t="s">
         <v>17</v>
       </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
       <c r="I219" t="str" cm="1">
         <f t="array" ref="I219">_xlfn.IFS(D219 &gt;= 0.85, "85  &lt;", AND(D219 &gt;=0.8, D219 &lt; 0.85), "80-85", AND(D219 &gt;= 0.7, D219 &lt; 0.8), "70-80", AND(D219 &gt;= 0.6, D219 &lt; 0.7),  "60-70", AND(D219 &gt;= 0.5, D219 &lt; 0.6), "50-60")</f>
         <v>80-85</v>
@@ -19875,6 +17549,9 @@
       <c r="G220" t="s">
         <v>23</v>
       </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
       <c r="I220" t="str" cm="1">
         <f t="array" ref="I220">_xlfn.IFS(D220 &gt;= 0.85, "85  &lt;", AND(D220 &gt;=0.8, D220 &lt; 0.85), "80-85", AND(D220 &gt;= 0.7, D220 &lt; 0.8), "70-80", AND(D220 &gt;= 0.6, D220 &lt; 0.7),  "60-70", AND(D220 &gt;= 0.5, D220 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -19902,6 +17579,9 @@
       <c r="G221" t="s">
         <v>81</v>
       </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
       <c r="I221" t="str" cm="1">
         <f t="array" ref="I221">_xlfn.IFS(D221 &gt;= 0.85, "85  &lt;", AND(D221 &gt;=0.8, D221 &lt; 0.85), "80-85", AND(D221 &gt;= 0.7, D221 &lt; 0.8), "70-80", AND(D221 &gt;= 0.6, D221 &lt; 0.7),  "60-70", AND(D221 &gt;= 0.5, D221 &lt; 0.6), "50-60")</f>
         <v>70-80</v>
@@ -19929,6 +17609,9 @@
       <c r="G222" t="s">
         <v>80</v>
       </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
       <c r="I222" t="str" cm="1">
         <f t="array" ref="I222">_xlfn.IFS(D222 &gt;= 0.85, "85  &lt;", AND(D222 &gt;=0.8, D222 &lt; 0.85), "80-85", AND(D222 &gt;= 0.7, D222 &lt; 0.8), "70-80", AND(D222 &gt;= 0.6, D222 &lt; 0.7),  "60-70", AND(D222 &gt;= 0.5, D222 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -19956,6 +17639,9 @@
       <c r="G223" t="s">
         <v>91</v>
       </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
       <c r="I223" t="str" cm="1">
         <f t="array" ref="I223">_xlfn.IFS(D223 &gt;= 0.85, "85  &lt;", AND(D223 &gt;=0.8, D223 &lt; 0.85), "80-85", AND(D223 &gt;= 0.7, D223 &lt; 0.8), "70-80", AND(D223 &gt;= 0.6, D223 &lt; 0.7),  "60-70", AND(D223 &gt;= 0.5, D223 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -19983,6 +17669,9 @@
       <c r="G224" t="s">
         <v>68</v>
       </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
       <c r="I224" t="str" cm="1">
         <f t="array" ref="I224">_xlfn.IFS(D224 &gt;= 0.85, "85  &lt;", AND(D224 &gt;=0.8, D224 &lt; 0.85), "80-85", AND(D224 &gt;= 0.7, D224 &lt; 0.8), "70-80", AND(D224 &gt;= 0.6, D224 &lt; 0.7),  "60-70", AND(D224 &gt;= 0.5, D224 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -20010,6 +17699,9 @@
       <c r="G225" t="s">
         <v>70</v>
       </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
       <c r="I225" t="str" cm="1">
         <f t="array" ref="I225">_xlfn.IFS(D225 &gt;= 0.85, "85  &lt;", AND(D225 &gt;=0.8, D225 &lt; 0.85), "80-85", AND(D225 &gt;= 0.7, D225 &lt; 0.8), "70-80", AND(D225 &gt;= 0.6, D225 &lt; 0.7),  "60-70", AND(D225 &gt;= 0.5, D225 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -20037,6 +17729,9 @@
       <c r="G226" t="s">
         <v>43</v>
       </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
       <c r="I226" t="str" cm="1">
         <f t="array" ref="I226">_xlfn.IFS(D226 &gt;= 0.85, "85  &lt;", AND(D226 &gt;=0.8, D226 &lt; 0.85), "80-85", AND(D226 &gt;= 0.7, D226 &lt; 0.8), "70-80", AND(D226 &gt;= 0.6, D226 &lt; 0.7),  "60-70", AND(D226 &gt;= 0.5, D226 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -20064,6 +17759,9 @@
       <c r="G227" t="s">
         <v>34</v>
       </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
       <c r="I227" t="str" cm="1">
         <f t="array" ref="I227">_xlfn.IFS(D227 &gt;= 0.85, "85  &lt;", AND(D227 &gt;=0.8, D227 &lt; 0.85), "80-85", AND(D227 &gt;= 0.7, D227 &lt; 0.8), "70-80", AND(D227 &gt;= 0.6, D227 &lt; 0.7),  "60-70", AND(D227 &gt;= 0.5, D227 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -20091,8 +17789,101 @@
       <c r="G228" t="s">
         <v>49</v>
       </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
       <c r="I228" t="str" cm="1">
         <f t="array" ref="I228">_xlfn.IFS(D228 &gt;= 0.85, "85  &lt;", AND(D228 &gt;=0.8, D228 &lt; 0.85), "80-85", AND(D228 &gt;= 0.7, D228 &lt; 0.8), "70-80", AND(D228 &gt;= 0.6, D228 &lt; 0.7),  "60-70", AND(D228 &gt;= 0.5, D228 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>102</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C229" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E229" t="s">
+        <v>63</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G229" t="s">
+        <v>32</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229" t="str" cm="1">
+        <f t="array" ref="I229">_xlfn.IFS(D229 &gt;= 0.85, "85  &lt;", AND(D229 &gt;=0.8, D229 &lt; 0.85), "80-85", AND(D229 &gt;= 0.7, D229 &lt; 0.8), "70-80", AND(D229 &gt;= 0.6, D229 &lt; 0.7),  "60-70", AND(D229 &gt;= 0.5, D229 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>102</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C230" t="s">
+        <v>47</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="G230" t="s">
+        <v>78</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="str" cm="1">
+        <f t="array" ref="I230">_xlfn.IFS(D230 &gt;= 0.85, "85  &lt;", AND(D230 &gt;=0.8, D230 &lt; 0.85), "80-85", AND(D230 &gt;= 0.7, D230 &lt; 0.8), "70-80", AND(D230 &gt;= 0.6, D230 &lt; 0.7),  "60-70", AND(D230 &gt;= 0.5, D230 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>102</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45301</v>
+      </c>
+      <c r="C231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E231" t="s">
+        <v>31</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231" t="str" cm="1">
+        <f t="array" ref="I231">_xlfn.IFS(D231 &gt;= 0.85, "85  &lt;", AND(D231 &gt;=0.8, D231 &lt; 0.85), "80-85", AND(D231 &gt;= 0.7, D231 &lt; 0.8), "70-80", AND(D231 &gt;= 0.6, D231 &lt; 0.7),  "60-70", AND(D231 &gt;= 0.5, D231 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA332E8-9039-45B0-8A74-7BDAB6125CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608859F-25DC-456C-BD9B-993407B14EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -326,19 +325,10 @@
     <t>GA ABS Error</t>
   </si>
   <si>
-    <t>Average of GF ABS Error</t>
-  </si>
-  <si>
-    <t>Average of GA ABS Error</t>
-  </si>
-  <si>
     <t>Used RF Model 3 - only 60 game location averages - poor results</t>
   </si>
   <si>
     <t>Playing At:  Tampa Bay Lightning   Home</t>
-  </si>
-  <si>
-    <t>(blank)</t>
   </si>
   <si>
     <t>Playing At:  Florida Panthers   Home</t>
@@ -369,9 +359,6 @@
   </si>
   <si>
     <t>RF7</t>
-  </si>
-  <si>
-    <t>85  &lt;</t>
   </si>
 </sst>
 </file>
@@ -865,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -874,7 +861,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -938,73 +924,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45301.352081481484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="231" xr:uid="{844E4652-D6A0-4396-B3FA-9A4199B49072}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:O1048576" sheet="Predictions"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-11T00:00:00"/>
-    </cacheField>
-    <cacheField name="Winner" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
-    </cacheField>
-    <cacheField name="Loser" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
-    </cacheField>
-    <cacheField name="Site" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Model" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="85 &lt;"/>
-        <s v="80-85"/>
-        <s v="70-80"/>
-        <s v="60-70"/>
-        <s v="50-60"/>
-        <s v="85  &lt;"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="GF Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
-    </cacheField>
-    <cacheField name="GA Prediction" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="4"/>
-    </cacheField>
-    <cacheField name="GF Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
-    </cacheField>
-    <cacheField name="GA Actual" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="9"/>
-    </cacheField>
-    <cacheField name="GF ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
-    </cacheField>
-    <cacheField name="GA ABS Error" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
-    </cacheField>
-    <cacheField name="% Correct" numFmtId="0" formula="COUNT(Winner)/SUM(Model)" databaseField="0"/>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45302.296249884261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="244" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45303.358647337962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="246" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -1022,7 +942,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-12T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-13T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1082,3708 +1002,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="231">
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.876"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.124"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.85"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.15"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.79800000000000004"/>
-    <s v="Nashville Predators"/>
-    <n v="0.20200000000000001"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.77800000000000002"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.222"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.71199999999999997"/>
-    <s v="Washington Capitals"/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.69799999999999995"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.64200000000000002"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.57999999999999996"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.42"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.56999999999999995"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.43"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.53800000000000003"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-09T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.50600000000000001"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.87"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.13"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.82199999999999995"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.17799999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.80200000000000005"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.76400000000000001"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.74399999999999999"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <n v="0.70199999999999996"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.69"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.31"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-10T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.60199999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.68799999999999994"/>
-    <s v="Calgary Flames"/>
-    <n v="0.312"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.622"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.52200000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-11T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.502"/>
-    <s v="New York Islanders"/>
-    <n v="0.498"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.82399999999999995"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.17599999999999999"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.77800000000000002"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.222"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.69199999999999995"/>
-    <s v="Calgary Flames"/>
-    <n v="0.308"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.68200000000000005"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.318"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.68"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.32"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.65200000000000002"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.57199999999999995"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.42799999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.56200000000000006"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.438"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.52200000000000002"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-12T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.51600000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.48399999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.73"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.27"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.624"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.376"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.622"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.622"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.378"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-13T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.56999999999999995"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.74399999999999999"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.25600000000000001"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.70599999999999996"/>
-    <s v="Calgary Flames"/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.69799999999999995"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.30199999999999999"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.57399999999999995"/>
-    <s v="Florida Panthers"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.54200000000000004"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.53800000000000003"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <n v="0.52200000000000002"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.47799999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-14T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.50600000000000001"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.49399999999999999"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.75800000000000001"/>
-    <s v="Nashville Predators"/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.72399999999999998"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.27600000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.71"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.28999999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.69199999999999995"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.308"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.57999999999999996"/>
-    <s v="New York Islanders"/>
-    <n v="0.42"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-15T00:00:00"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.50800000000000001"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.49199999999999999"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.76400000000000001"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.23599999999999999"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.72199999999999998"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.67800000000000005"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.32200000000000001"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.67400000000000004"/>
-    <s v="New York Rangers"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.65600000000000003"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.34399999999999997"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.628"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.372"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.624"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.376"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.61"/>
-    <s v="Washington Capitals"/>
-    <n v="0.39"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.59199999999999997"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.40799999999999997"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.57399999999999995"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.56599999999999995"/>
-    <s v="Florida Panthers"/>
-    <n v="0.434"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.55200000000000005"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.44800000000000001"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-16T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.504"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.496"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.81"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.19"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <s v="Used RF Model 3 - only 60 game location averages - poor results"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.748"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.252"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.70599999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.69399999999999995"/>
-    <s v="Washington Capitals"/>
-    <n v="0.30599999999999999"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-17T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.57399999999999995"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.42599999999999999"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <s v="GF Prediction"/>
-    <s v="GA Prediction"/>
-    <s v="GF Actual"/>
-    <s v="GA Actual"/>
-    <s v="GF ABS Error"/>
-    <s v="GA ABS Error"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.72"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.67400000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.58599999999999997"/>
-    <s v="Calgary Flames"/>
-    <n v="0.41399999999999998"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.58399999999999996"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-18T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.502"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.498"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.84399999999999997"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.156"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.80200000000000005"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.19800000000000001"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.72199999999999998"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.27800000000000002"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="6"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.67400000000000004"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.32600000000000001"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.63200000000000001"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.36799999999999999"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.61399999999999999"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.38600000000000001"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.60599999999999998"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.60399999999999998"/>
-    <s v="New York Rangers"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.58399999999999996"/>
-    <s v="New York Islanders"/>
-    <n v="0.41599999999999998"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.56000000000000005"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.44"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <d v="2023-12-19T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.54800000000000004"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.45200000000000001"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.71199999999999997"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.28799999999999998"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.66600000000000004"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.33400000000000002"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-20T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.55400000000000005"/>
-    <s v="Washington Capitals"/>
-    <n v="0.44600000000000001"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.80400000000000005"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.19600000000000001"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.75"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.25"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.72"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.28000000000000003"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.71599999999999997"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.28399999999999997"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.70799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.29199999999999998"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="6"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.66800000000000004"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.33200000000000002"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.63400000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.36599999999999999"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.37"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="9"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Washington Capitals"/>
-    <n v="0.622"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.52"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.48"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.51800000000000002"/>
-    <s v="Nashville Predators"/>
-    <n v="0.48199999999999998"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-21T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.51400000000000001"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.748"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.252"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.66200000000000003"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.56999999999999995"/>
-    <s v="Boston Bruins"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-22T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.51400000000000001"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.48599999999999999"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="7"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.75800000000000001"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="7"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.752"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.248"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.70599999999999996"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.67"/>
-    <s v="New York Islanders"/>
-    <n v="0.33"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.65200000000000002"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="7"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.63600000000000001"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.36399999999999999"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.63"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.37"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.62"/>
-    <s v="Calgary Flames"/>
-    <n v="0.38"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.60599999999999998"/>
-    <s v="Boston Bruins"/>
-    <n v="0.39400000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.60399999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.58199999999999996"/>
-    <s v="Washington Capitals"/>
-    <n v="0.41799999999999998"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.57799999999999996"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.42199999999999999"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.56999999999999995"/>
-    <s v="Dallas Stars"/>
-    <n v="0.43"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-23T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.56200000000000006"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.438"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.79600000000000004"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.20399999999999999"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.76600000000000001"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.23400000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.75600000000000001"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.24399999999999999"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="6"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.754"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.246"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.71399999999999997"/>
-    <s v="Florida Panthers"/>
-    <n v="0.28599999999999998"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.70199999999999996"/>
-    <s v="Washington Capitals"/>
-    <n v="0.29799999999999999"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.68400000000000005"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.316"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.66600000000000004"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.33400000000000002"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.66200000000000003"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.64400000000000002"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.35599999999999998"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.61"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.39"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <n v="3"/>
-    <n v="2"/>
-    <n v="0"/>
-    <n v="7"/>
-    <n v="3"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.57599999999999996"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.42399999999999999"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.52800000000000002"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.47199999999999998"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <d v="2023-12-27T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.52"/>
-    <s v="Nashville Predators"/>
-    <n v="0.48"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <d v="2023-12-28T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.85799999999999998"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.14199999999999999"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-28T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.72399999999999998"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.27600000000000002"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-28T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.68600000000000005"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.314"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-28T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.54"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.46"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.78200000000000003"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.218"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.64200000000000002"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.624"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.376"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.57799999999999996"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.42199999999999999"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.55200000000000005"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.44800000000000001"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.53200000000000003"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.46800000000000003"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.53"/>
-    <s v="Washington Capitals"/>
-    <n v="0.47"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.52600000000000002"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.47399999999999998"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-29T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.50800000000000001"/>
-    <s v="New York Rangers"/>
-    <n v="0.49199999999999999"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Florida Panthers"/>
-    <n v="0.67"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.33"/>
-    <s v="Playing At:  Florida Panthers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.65600000000000003"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.34399999999999997"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.62"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.38"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.61599999999999999"/>
-    <s v="New York Rangers"/>
-    <n v="0.38400000000000001"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.60199999999999998"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.6"/>
-    <s v="Washington Capitals"/>
-    <n v="0.4"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.59799999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.40200000000000002"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.55400000000000005"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.44600000000000001"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-30T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.51"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.49"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.83799999999999997"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.16200000000000001"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.79800000000000004"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.20200000000000001"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.79"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.21"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.64600000000000002"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.35399999999999998"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.63"/>
-    <s v="New York Islanders"/>
-    <n v="0.37"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.624"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.376"/>
-    <s v="Playing At:  Detroit Red Wings   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.622"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.60799999999999998"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.39200000000000002"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2023-12-31T00:00:00"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.54400000000000004"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.45600000000000002"/>
-    <s v="Playing At:  Ottawa Senators   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-01T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.53"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.47"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.84599999999999997"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.154"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.75800000000000001"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.24199999999999999"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.748"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.252"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.70599999999999996"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.29399999999999998"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.69199999999999995"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.308"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.69199999999999995"/>
-    <s v="Calgary Flames"/>
-    <n v="0.308"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.68600000000000005"/>
-    <s v="New York Islanders"/>
-    <n v="0.314"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.68200000000000005"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.318"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.67200000000000004"/>
-    <s v="Washington Capitals"/>
-    <n v="0.32800000000000001"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.66"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.34"/>
-    <s v="Playing At:  Vancouver Canucks   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.64200000000000002"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.35799999999999998"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.61599999999999999"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.38400000000000001"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-02T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.56200000000000006"/>
-    <s v="Florida Panthers"/>
-    <n v="0.438"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-03T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.76"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.24"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-03T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.63"/>
-    <s v="Washington Capitals"/>
-    <n v="0.37"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.80400000000000005"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.19600000000000001"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.73"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.27"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.68"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.32"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.67"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.33"/>
-    <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.66200000000000003"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.33800000000000002"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.65200000000000002"/>
-    <s v="Calgary Flames"/>
-    <n v="0.34799999999999998"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.64800000000000002"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.35199999999999998"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.622"/>
-    <s v="Florida Panthers"/>
-    <n v="0.378"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.6"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.4"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.58799999999999997"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.41199999999999998"/>
-    <s v="Playing At:  Seattle Kraken   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.53200000000000003"/>
-    <s v="New York Islanders"/>
-    <n v="0.46800000000000003"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.53"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.47"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-04T00:00:00"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.51200000000000001"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.48799999999999999"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.70799999999999996"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.29199999999999998"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.69399999999999995"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.30599999999999999"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-05T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.626"/>
-    <s v="Washington Capitals"/>
-    <n v="0.374"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.81599999999999995"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.184"/>
-    <s v="Playing At:  San Jose Sharks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Carolina Hurricanes"/>
-    <n v="0.76800000000000002"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.23200000000000001"/>
-    <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.75"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.25"/>
-    <s v="Playing At:  Montreal Canadiens   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.73599999999999999"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.26400000000000001"/>
-    <s v="Playing At:  Edmonton Oilers   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.70799999999999996"/>
-    <s v="Nashville Predators"/>
-    <n v="0.29199999999999998"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.64"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.36"/>
-    <s v="Playing At:  Boston Bruins   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.61399999999999999"/>
-    <s v="Florida Panthers"/>
-    <n v="0.38600000000000001"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.60399999999999998"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.39600000000000002"/>
-    <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="New Jersey Devils"/>
-    <n v="0.60199999999999998"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.39800000000000002"/>
-    <s v="Playing At:  New Jersey Devils   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.59399999999999997"/>
-    <s v="New York Islanders"/>
-    <n v="0.40600000000000003"/>
-    <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.54200000000000004"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-06T00:00:00"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.53800000000000003"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.46200000000000002"/>
-    <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-07T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.71599999999999997"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.28399999999999997"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="0"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-07T00:00:00"/>
-    <s v="Detroit Red Wings"/>
-    <n v="0.69599999999999995"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.30399999999999999"/>
-    <s v="Playing At:  Anaheim Ducks   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-07T00:00:00"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.61799999999999999"/>
-    <s v="Washington Capitals"/>
-    <n v="0.38200000000000001"/>
-    <s v="Playing At:  Washington Capitals   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-07T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.57199999999999995"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.42799999999999999"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="New York Rangers"/>
-    <n v="0.69199999999999995"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.308"/>
-    <s v="Playing At:  New York Rangers   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.62"/>
-    <s v="Dallas Stars"/>
-    <n v="0.38"/>
-    <s v="Playing At:  Minnesota Wild   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.54200000000000004"/>
-    <s v="Pittsburgh Penguins"/>
-    <n v="0.45800000000000002"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-08T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.54"/>
-    <s v="Boston Bruins"/>
-    <n v="0.46"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Edmonton Oilers"/>
-    <n v="0.8"/>
-    <s v="Chicago Blackhawks"/>
-    <n v="0.2"/>
-    <s v="Playing At:  Chicago Blackhawks   Home"/>
-    <n v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Toronto Maple Leafs"/>
-    <n v="0.76800000000000002"/>
-    <s v="San Jose Sharks"/>
-    <n v="0.23200000000000001"/>
-    <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Winnipeg Jets"/>
-    <n v="0.754"/>
-    <s v="Columbus Blue Jackets"/>
-    <n v="0.246"/>
-    <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Boston Bruins"/>
-    <n v="0.628"/>
-    <s v="Arizona Coyotes"/>
-    <n v="0.372"/>
-    <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Tampa Bay Lightning"/>
-    <n v="0.61599999999999999"/>
-    <s v="Los Angeles Kings"/>
-    <n v="0.38400000000000001"/>
-    <s v="Playing At:  Tampa Bay Lightning   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Nashville Predators"/>
-    <n v="0.60799999999999998"/>
-    <s v="Anaheim Ducks"/>
-    <n v="0.39200000000000002"/>
-    <s v="Playing At:  Nashville Predators   Home"/>
-    <n v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="St. Louis Blues"/>
-    <n v="0.59199999999999997"/>
-    <s v="Florida Panthers"/>
-    <n v="0.40799999999999997"/>
-    <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="New York Islanders"/>
-    <n v="0.58199999999999996"/>
-    <s v="Vancouver Canucks"/>
-    <n v="0.41799999999999998"/>
-    <s v="Playing At:  New York Islanders   Home"/>
-    <n v="0"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Calgary Flames"/>
-    <n v="0.56799999999999995"/>
-    <s v="Ottawa Senators"/>
-    <n v="0.432"/>
-    <s v="Playing At:  Calgary Flames   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-09T00:00:00"/>
-    <s v="Seattle Kraken"/>
-    <n v="0.55000000000000004"/>
-    <s v="Buffalo Sabres"/>
-    <n v="0.45"/>
-    <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-10T00:00:00"/>
-    <s v="Dallas Stars"/>
-    <n v="0.67200000000000004"/>
-    <s v="Minnesota Wild"/>
-    <n v="0.32800000000000001"/>
-    <s v="Playing At:  Dallas Stars   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-10T00:00:00"/>
-    <s v="Montreal Canadiens"/>
-    <n v="0.628"/>
-    <s v="Philadelphia Flyers"/>
-    <n v="0.372"/>
-    <s v="Playing At:  Philadelphia Flyers   Home"/>
-    <n v="1"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <d v="2024-01-10T00:00:00"/>
-    <s v="Colorado Avalanche"/>
-    <n v="0.59"/>
-    <s v="Vegas Golden Knights"/>
-    <n v="0.41"/>
-    <s v="Playing At:  Colorado Avalanche   Home"/>
-    <n v="1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="244">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="246">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -8787,7 +5006,7 @@
     <s v="Vancouver Canucks"/>
     <n v="0.39"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -8855,7 +5074,7 @@
     <s v="Buffalo Sabres"/>
     <n v="0.46400000000000002"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -8872,7 +5091,7 @@
     <s v="Calgary Flames"/>
     <n v="0.46600000000000003"/>
     <s v="Playing At:  Arizona Coyotes   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -8889,7 +5108,7 @@
     <s v="St. Louis Blues"/>
     <n v="0.46600000000000003"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -8916,6 +5135,40 @@
     <m/>
   </r>
   <r>
+    <x v="6"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.65800000000000003"/>
+    <s v="Nashville Predators"/>
+    <n v="0.34200000000000003"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-12T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.62"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="7"/>
     <m/>
     <m/>
@@ -8936,93 +5189,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07AF6306-A9F5-4ADE-8E79-1FFC11D51B23}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:C25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of GF ABS Error" fld="12" subtotal="average" baseField="9" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of GA ABS Error" fld="13" subtotal="average" baseField="9" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -9119,7 +5285,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -9505,34 +5671,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -9558,17 +5724,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>C4/B4</f>
         <v>0.66666666666666663</v>
       </c>
@@ -9577,12 +5743,12 @@
         <v>68</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="9">
+        <v>92</v>
+      </c>
+      <c r="N4" s="8">
         <v>24</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>18</v>
       </c>
       <c r="P4" s="5">
@@ -9590,17 +5756,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>13</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
         <v>0.84615384615384615</v>
       </c>
@@ -9609,12 +5775,12 @@
         <v>48</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" s="9">
+        <v>93</v>
+      </c>
+      <c r="N5" s="8">
         <v>42</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>24</v>
       </c>
       <c r="P5" s="5">
@@ -9622,31 +5788,31 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>52</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>35</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0.67307692307692313</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>F5/F4</f>
         <v>0.70588235294117652</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="9">
+        <v>94</v>
+      </c>
+      <c r="N6" s="8">
         <v>10</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>5</v>
       </c>
       <c r="P6" s="5">
@@ -9654,30 +5820,30 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9">
-        <v>97</v>
-      </c>
-      <c r="C7" s="9">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="8">
+        <v>99</v>
+      </c>
+      <c r="C7" s="8">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5670103092783505</v>
+        <v>0.56565656565656564</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="9">
+        <v>95</v>
+      </c>
+      <c r="N7" s="8">
         <v>30</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>16</v>
       </c>
       <c r="P7" s="5">
@@ -9685,31 +5851,31 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>77</v>
       </c>
-      <c r="C8" s="9">
-        <v>45</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="8">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.58441558441558439</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="9">
+        <v>96</v>
+      </c>
+      <c r="N8" s="8">
         <v>50</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>31</v>
       </c>
       <c r="P8" s="5">
@@ -9717,31 +5883,31 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="9">
-        <v>242</v>
-      </c>
-      <c r="C9" s="9">
-        <v>148</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="8">
+        <v>244</v>
+      </c>
+      <c r="C9" s="8">
+        <v>146</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.61157024793388426</v>
+        <v>0.59836065573770492</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="9">
+        <v>98</v>
+      </c>
+      <c r="N9" s="8">
         <v>61</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>34</v>
       </c>
       <c r="P9" s="5">
@@ -9749,160 +5915,73 @@
         <v>0.55737704918032782</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.57471264367816088</v>
+        <v>0.55681818181818177</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="9">
-        <v>26</v>
-      </c>
-      <c r="O10" s="9">
-        <v>21</v>
+        <v>99</v>
+      </c>
+      <c r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8">
+        <v>19</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="1"/>
-        <v>0.80769230769230771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="9">
-        <v>243</v>
-      </c>
-      <c r="O11" s="9">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.5294117647058822</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1.411764705882353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1.4210526315789473</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1.5263157894736843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1.2380952380952381</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1.4920634920634921</v>
+      <c r="N11" s="8">
+        <v>245</v>
+      </c>
+      <c r="O11" s="8">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247"/>
+    <sheetView topLeftCell="A215" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H247" sqref="H247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -9947,9 +6026,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1">
         <v>45269</v>
@@ -9976,9 +6055,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1">
         <v>45269</v>
@@ -10005,9 +6084,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1">
         <v>45269</v>
@@ -10034,9 +6113,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1">
         <v>45269</v>
@@ -10063,9 +6142,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1">
         <v>45269</v>
@@ -10092,9 +6171,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <v>45269</v>
@@ -10121,9 +6200,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>45269</v>
@@ -10150,9 +6229,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1">
         <v>45269</v>
@@ -10179,9 +6258,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>45269</v>
@@ -10208,9 +6287,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>45269</v>
@@ -10237,9 +6316,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1">
         <v>45269</v>
@@ -10266,9 +6345,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1">
         <v>45269</v>
@@ -10295,9 +6374,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1">
         <v>45270</v>
@@ -10324,9 +6403,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1">
         <v>45270</v>
@@ -10353,9 +6432,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1">
         <v>45270</v>
@@ -10382,9 +6461,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1">
         <v>45270</v>
@@ -10411,9 +6490,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1">
         <v>45270</v>
@@ -10440,9 +6519,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1">
         <v>45270</v>
@@ -10469,9 +6548,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1">
         <v>45270</v>
@@ -10498,9 +6577,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1">
         <v>45270</v>
@@ -10527,9 +6606,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1">
         <v>45271</v>
@@ -10557,9 +6636,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1">
         <v>45271</v>
@@ -10587,9 +6666,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
         <v>45271</v>
@@ -10617,9 +6696,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1">
         <v>45271</v>
@@ -10647,9 +6726,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1">
         <v>45272</v>
@@ -10677,9 +6756,9 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1">
         <v>45272</v>
@@ -10707,9 +6786,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1">
         <v>45272</v>
@@ -10737,9 +6816,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1">
         <v>45272</v>
@@ -10767,9 +6846,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1">
         <v>45272</v>
@@ -10797,9 +6876,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1">
         <v>45272</v>
@@ -10827,9 +6906,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1">
         <v>45272</v>
@@ -10857,9 +6936,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1">
         <v>45272</v>
@@ -10887,9 +6966,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1">
         <v>45272</v>
@@ -10917,9 +6996,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1">
         <v>45272</v>
@@ -10947,9 +7026,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1">
         <v>45273</v>
@@ -10977,9 +7056,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1">
         <v>45273</v>
@@ -11007,9 +7086,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1">
         <v>45273</v>
@@ -11037,9 +7116,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1">
         <v>45273</v>
@@ -11067,9 +7146,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1">
         <v>45273</v>
@@ -11097,9 +7176,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1">
         <v>45274</v>
@@ -11127,9 +7206,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1">
         <v>45274</v>
@@ -11157,9 +7236,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1">
         <v>45274</v>
@@ -11187,9 +7266,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1">
         <v>45274</v>
@@ -11217,9 +7296,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1">
         <v>45274</v>
@@ -11247,9 +7326,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1">
         <v>45274</v>
@@ -11277,9 +7356,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1">
         <v>45274</v>
@@ -11307,9 +7386,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>45274</v>
@@ -11337,9 +7416,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>45275</v>
@@ -11367,9 +7446,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1">
         <v>45275</v>
@@ -11397,9 +7476,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1">
         <v>45275</v>
@@ -11427,9 +7506,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1">
         <v>45275</v>
@@ -11457,9 +7536,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1">
         <v>45275</v>
@@ -11487,9 +7566,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1">
         <v>45275</v>
@@ -11517,9 +7596,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1">
         <v>45276</v>
@@ -11547,9 +7626,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1">
         <v>45276</v>
@@ -11577,9 +7656,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1">
         <v>45276</v>
@@ -11607,9 +7686,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B58" s="1">
         <v>45276</v>
@@ -11637,9 +7716,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1">
         <v>45276</v>
@@ -11667,9 +7746,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1">
         <v>45276</v>
@@ -11697,9 +7776,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1">
         <v>45276</v>
@@ -11727,9 +7806,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B62" s="1">
         <v>45276</v>
@@ -11757,9 +7836,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1">
         <v>45276</v>
@@ -11787,9 +7866,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1">
         <v>45276</v>
@@ -11817,9 +7896,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1">
         <v>45276</v>
@@ -11847,9 +7926,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B66" s="1">
         <v>45276</v>
@@ -11877,9 +7956,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1">
         <v>45276</v>
@@ -11907,9 +7986,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1">
         <v>45277</v>
@@ -11937,12 +8016,12 @@
         <v>80-85</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1">
         <v>45277</v>
@@ -11970,9 +8049,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1">
         <v>45277</v>
@@ -12000,9 +8079,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1">
         <v>45277</v>
@@ -12030,9 +8109,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1">
         <v>45277</v>
@@ -12078,9 +8157,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1">
         <v>45278</v>
@@ -12128,9 +8207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B74" s="1">
         <v>45278</v>
@@ -12178,9 +8257,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B75" s="1">
         <v>45278</v>
@@ -12228,9 +8307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B76" s="1">
         <v>45278</v>
@@ -12278,9 +8357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1">
         <v>45278</v>
@@ -12328,9 +8407,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1">
         <v>45279</v>
@@ -12378,9 +8457,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1">
         <v>45279</v>
@@ -12428,9 +8507,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1">
         <v>45279</v>
@@ -12448,7 +8527,7 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="G80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -12478,9 +8557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1">
         <v>45279</v>
@@ -12528,9 +8607,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1">
         <v>45279</v>
@@ -12578,9 +8657,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1">
         <v>45279</v>
@@ -12628,9 +8707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1">
         <v>45279</v>
@@ -12678,9 +8757,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1">
         <v>45279</v>
@@ -12728,9 +8807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1">
         <v>45279</v>
@@ -12778,9 +8857,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1">
         <v>45279</v>
@@ -12828,9 +8907,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1">
         <v>45279</v>
@@ -12878,9 +8957,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1">
         <v>45280</v>
@@ -12928,9 +9007,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1">
         <v>45280</v>
@@ -12978,9 +9057,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1">
         <v>45280</v>
@@ -13028,9 +9107,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1">
         <v>45281</v>
@@ -13078,9 +9157,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1">
         <v>45281</v>
@@ -13098,7 +9177,7 @@
         <v>0.25</v>
       </c>
       <c r="G93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -13128,9 +9207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1">
         <v>45281</v>
@@ -13178,9 +9257,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>45281</v>
@@ -13228,9 +9307,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>45281</v>
@@ -13278,9 +9357,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>45281</v>
@@ -13328,9 +9407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1">
         <v>45281</v>
@@ -13348,7 +9427,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="G98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -13378,9 +9457,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1">
         <v>45281</v>
@@ -13428,9 +9507,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B100" s="1">
         <v>45281</v>
@@ -13478,9 +9557,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1">
         <v>45281</v>
@@ -13528,9 +9607,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B102" s="1">
         <v>45281</v>
@@ -13578,9 +9657,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B103" s="1">
         <v>45281</v>
@@ -13628,9 +9707,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B104" s="1">
         <v>45282</v>
@@ -13678,9 +9757,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B105" s="1">
         <v>45282</v>
@@ -13728,9 +9807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B106" s="1">
         <v>45282</v>
@@ -13778,9 +9857,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B107" s="1">
         <v>45282</v>
@@ -13828,9 +9907,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B108" s="1">
         <v>45283</v>
@@ -13878,9 +9957,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1">
         <v>45283</v>
@@ -13928,9 +10007,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B110" s="1">
         <v>45283</v>
@@ -13978,9 +10057,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B111" s="1">
         <v>45283</v>
@@ -14028,9 +10107,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B112" s="1">
         <v>45283</v>
@@ -14078,9 +10157,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B113" s="1">
         <v>45283</v>
@@ -14098,7 +10177,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="G113" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -14128,9 +10207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B114" s="1">
         <v>45283</v>
@@ -14178,9 +10257,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B115" s="1">
         <v>45283</v>
@@ -14228,9 +10307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B116" s="1">
         <v>45283</v>
@@ -14278,9 +10357,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B117" s="1">
         <v>45283</v>
@@ -14328,9 +10407,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B118" s="1">
         <v>45283</v>
@@ -14378,9 +10457,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B119" s="1">
         <v>45283</v>
@@ -14428,9 +10507,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B120" s="1">
         <v>45283</v>
@@ -14478,9 +10557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B121" s="1">
         <v>45283</v>
@@ -14528,9 +10607,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B122" s="1">
         <v>45287</v>
@@ -14578,9 +10657,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B123" s="1">
         <v>45287</v>
@@ -14628,9 +10707,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B124" s="1">
         <v>45287</v>
@@ -14678,9 +10757,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B125" s="1">
         <v>45287</v>
@@ -14728,9 +10807,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B126" s="1">
         <v>45287</v>
@@ -14748,7 +10827,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="G126" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -14778,9 +10857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B127" s="1">
         <v>45287</v>
@@ -14828,9 +10907,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B128" s="1">
         <v>45287</v>
@@ -14878,9 +10957,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B129" s="1">
         <v>45287</v>
@@ -14928,9 +11007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B130" s="1">
         <v>45287</v>
@@ -14978,9 +11057,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B131" s="1">
         <v>45287</v>
@@ -15028,9 +11107,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B132" s="1">
         <v>45287</v>
@@ -15078,9 +11157,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B133" s="1">
         <v>45287</v>
@@ -15128,9 +11207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B134" s="1">
         <v>45287</v>
@@ -15178,9 +11257,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B135" s="1">
         <v>45287</v>
@@ -15228,9 +11307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B136" s="1">
         <v>45288</v>
@@ -15258,9 +11337,9 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B137" s="1">
         <v>45288</v>
@@ -15288,9 +11367,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B138" s="1">
         <v>45288</v>
@@ -15318,9 +11397,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B139" s="1">
         <v>45288</v>
@@ -15348,9 +11427,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B140" s="1">
         <v>45289</v>
@@ -15378,9 +11457,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B141" s="1">
         <v>45289</v>
@@ -15408,9 +11487,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B142" s="1">
         <v>45289</v>
@@ -15438,9 +11517,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B143" s="1">
         <v>45289</v>
@@ -15468,9 +11547,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B144" s="1">
         <v>45289</v>
@@ -15498,9 +11577,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B145" s="1">
         <v>45289</v>
@@ -15528,9 +11607,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B146" s="1">
         <v>45289</v>
@@ -15558,9 +11637,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B147" s="1">
         <v>45289</v>
@@ -15588,9 +11667,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B148" s="1">
         <v>45289</v>
@@ -15608,7 +11687,7 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="G148" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -15618,9 +11697,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B149" s="1">
         <v>45290</v>
@@ -15638,7 +11717,7 @@
         <v>0.33</v>
       </c>
       <c r="G149" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -15648,9 +11727,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B150" s="1">
         <v>45290</v>
@@ -15678,9 +11757,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B151" s="1">
         <v>45290</v>
@@ -15708,9 +11787,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B152" s="1">
         <v>45290</v>
@@ -15728,7 +11807,7 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="G152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -15738,9 +11817,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B153" s="1">
         <v>45290</v>
@@ -15768,9 +11847,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B154" s="1">
         <v>45290</v>
@@ -15798,9 +11877,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B155" s="1">
         <v>45290</v>
@@ -15828,9 +11907,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B156" s="1">
         <v>45290</v>
@@ -15858,9 +11937,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B157" s="1">
         <v>45290</v>
@@ -15888,9 +11967,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B158" s="1">
         <v>45291</v>
@@ -15918,9 +11997,9 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B159" s="1">
         <v>45291</v>
@@ -15948,9 +12027,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B160" s="1">
         <v>45291</v>
@@ -15978,9 +12057,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B161" s="1">
         <v>45291</v>
@@ -15998,7 +12077,7 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="G161" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -16008,9 +12087,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B162" s="1">
         <v>45291</v>
@@ -16038,9 +12117,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B163" s="1">
         <v>45291</v>
@@ -16068,9 +12147,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B164" s="1">
         <v>45291</v>
@@ -16098,9 +12177,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B165" s="1">
         <v>45291</v>
@@ -16128,9 +12207,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B166" s="1">
         <v>45291</v>
@@ -16158,9 +12237,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B167" s="1">
         <v>45292</v>
@@ -16168,13 +12247,13 @@
       <c r="C167" t="s">
         <v>31</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="7">
         <v>0.53</v>
       </c>
       <c r="E167" t="s">
         <v>25</v>
       </c>
-      <c r="F167" s="8">
+      <c r="F167" s="7">
         <v>0.47</v>
       </c>
       <c r="G167" t="s">
@@ -16188,9 +12267,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B168" s="1">
         <v>45293</v>
@@ -16218,9 +12297,9 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B169" s="1">
         <v>45293</v>
@@ -16248,9 +12327,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B170" s="1">
         <v>45293</v>
@@ -16278,9 +12357,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B171" s="1">
         <v>45293</v>
@@ -16308,9 +12387,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B172" s="1">
         <v>45293</v>
@@ -16338,9 +12417,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B173" s="1">
         <v>45293</v>
@@ -16368,9 +12447,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B174" s="1">
         <v>45293</v>
@@ -16398,9 +12477,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B175" s="1">
         <v>45293</v>
@@ -16428,9 +12507,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B176" s="1">
         <v>45293</v>
@@ -16458,9 +12537,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B177" s="1">
         <v>45293</v>
@@ -16488,9 +12567,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B178" s="1">
         <v>45293</v>
@@ -16518,9 +12597,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B179" s="1">
         <v>45293</v>
@@ -16548,9 +12627,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B180" s="1">
         <v>45293</v>
@@ -16578,9 +12657,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B181" s="1">
         <v>45294</v>
@@ -16588,13 +12667,13 @@
       <c r="C181" t="s">
         <v>21</v>
       </c>
-      <c r="D181" s="8">
+      <c r="D181" s="7">
         <v>0.76</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
       </c>
-      <c r="F181" s="8">
+      <c r="F181" s="7">
         <v>0.24</v>
       </c>
       <c r="G181" t="s">
@@ -16608,9 +12687,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B182" s="1">
         <v>45294</v>
@@ -16618,13 +12697,13 @@
       <c r="C182" t="s">
         <v>13</v>
       </c>
-      <c r="D182" s="8">
+      <c r="D182" s="7">
         <v>0.63</v>
       </c>
       <c r="E182" t="s">
         <v>28</v>
       </c>
-      <c r="F182" s="8">
+      <c r="F182" s="7">
         <v>0.37</v>
       </c>
       <c r="G182" t="s">
@@ -16638,9 +12717,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B183" s="1">
         <v>45295</v>
@@ -16668,9 +12747,9 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B184" s="1">
         <v>45295</v>
@@ -16698,9 +12777,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B185" s="1">
         <v>45295</v>
@@ -16728,9 +12807,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B186" s="1">
         <v>45295</v>
@@ -16758,9 +12837,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B187" s="1">
         <v>45295</v>
@@ -16788,9 +12867,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B188" s="1">
         <v>45295</v>
@@ -16818,9 +12897,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B189" s="1">
         <v>45295</v>
@@ -16848,9 +12927,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B190" s="1">
         <v>45295</v>
@@ -16878,9 +12957,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B191" s="1">
         <v>45295</v>
@@ -16908,9 +12987,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B192" s="1">
         <v>45295</v>
@@ -16938,9 +13017,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B193" s="1">
         <v>45295</v>
@@ -16968,9 +13047,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B194" s="1">
         <v>45295</v>
@@ -16998,9 +13077,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B195" s="1">
         <v>45295</v>
@@ -17028,9 +13107,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B196" s="1">
         <v>45296</v>
@@ -17058,9 +13137,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B197" s="1">
         <v>45296</v>
@@ -17088,9 +13167,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B198" s="1">
         <v>45296</v>
@@ -17118,9 +13197,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B199" s="1">
         <v>45297</v>
@@ -17148,9 +13227,9 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B200" s="1">
         <v>45297</v>
@@ -17178,9 +13257,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B201" s="1">
         <v>45297</v>
@@ -17208,9 +13287,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B202" s="1">
         <v>45297</v>
@@ -17238,9 +13317,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B203" s="1">
         <v>45297</v>
@@ -17268,9 +13347,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B204" s="1">
         <v>45297</v>
@@ -17298,9 +13377,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B205" s="1">
         <v>45297</v>
@@ -17328,9 +13407,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B206" s="1">
         <v>45297</v>
@@ -17358,9 +13437,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B207" s="1">
         <v>45297</v>
@@ -17388,9 +13467,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B208" s="1">
         <v>45297</v>
@@ -17418,9 +13497,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B209" s="1">
         <v>45297</v>
@@ -17448,9 +13527,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B210" s="1">
         <v>45297</v>
@@ -17478,9 +13557,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B211" s="1">
         <v>45298</v>
@@ -17508,9 +13587,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B212" s="1">
         <v>45298</v>
@@ -17538,9 +13617,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B213" s="1">
         <v>45298</v>
@@ -17568,9 +13647,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B214" s="1">
         <v>45298</v>
@@ -17598,9 +13677,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B215" s="1">
         <v>45299</v>
@@ -17628,9 +13707,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B216" s="1">
         <v>45299</v>
@@ -17658,9 +13737,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B217" s="1">
         <v>45299</v>
@@ -17688,9 +13767,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B218" s="1">
         <v>45299</v>
@@ -17718,9 +13797,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B219" s="1">
         <v>45300</v>
@@ -17748,9 +13827,9 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B220" s="1">
         <v>45300</v>
@@ -17778,9 +13857,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B221" s="1">
         <v>45300</v>
@@ -17808,9 +13887,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B222" s="1">
         <v>45300</v>
@@ -17838,9 +13917,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B223" s="1">
         <v>45300</v>
@@ -17858,7 +13937,7 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="G223" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -17868,9 +13947,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B224" s="1">
         <v>45300</v>
@@ -17898,9 +13977,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B225" s="1">
         <v>45300</v>
@@ -17928,9 +14007,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B226" s="1">
         <v>45300</v>
@@ -17958,9 +14037,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B227" s="1">
         <v>45300</v>
@@ -17988,9 +14067,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B228" s="1">
         <v>45300</v>
@@ -18018,9 +14097,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B229" s="1">
         <v>45301</v>
@@ -18048,9 +14127,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B230" s="1">
         <v>45301</v>
@@ -18078,9 +14157,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B231" s="1">
         <v>45301</v>
@@ -18108,9 +14187,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B232" s="1">
         <v>45302</v>
@@ -18138,9 +14217,9 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B233" s="1">
         <v>45302</v>
@@ -18168,9 +14247,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B234" s="1">
         <v>45302</v>
@@ -18188,7 +14267,7 @@
         <v>0.33</v>
       </c>
       <c r="G234" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -18198,9 +14277,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B235" s="1">
         <v>45302</v>
@@ -18228,9 +14307,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B236" s="1">
         <v>45302</v>
@@ -18258,9 +14337,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B237" s="1">
         <v>45302</v>
@@ -18281,16 +14360,16 @@
         <v>72</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="str" cm="1">
         <f t="array" ref="I237">_xlfn.IFS(D237 &gt;= 0.85, "85  &lt;", AND(D237 &gt;=0.8, D237 &lt; 0.85), "80-85", AND(D237 &gt;= 0.7, D237 &lt; 0.8), "70-80", AND(D237 &gt;= 0.6, D237 &lt; 0.7),  "60-70", AND(D237 &gt;= 0.5, D237 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B238" s="1">
         <v>45302</v>
@@ -18308,7 +14387,7 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="G238" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -18318,9 +14397,9 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B239" s="1">
         <v>45302</v>
@@ -18348,9 +14427,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B240" s="1">
         <v>45302</v>
@@ -18378,9 +14457,9 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B241" s="1">
         <v>45302</v>
@@ -18401,16 +14480,16 @@
         <v>49</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="str" cm="1">
         <f t="array" ref="I241">_xlfn.IFS(D241 &gt;= 0.85, "85  &lt;", AND(D241 &gt;=0.8, D241 &lt; 0.85), "80-85", AND(D241 &gt;= 0.7, D241 &lt; 0.8), "70-80", AND(D241 &gt;= 0.6, D241 &lt; 0.7),  "60-70", AND(D241 &gt;= 0.5, D241 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B242" s="1">
         <v>45302</v>
@@ -18431,16 +14510,16 @@
         <v>80</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="str" cm="1">
         <f t="array" ref="I242">_xlfn.IFS(D242 &gt;= 0.85, "85  &lt;", AND(D242 &gt;=0.8, D242 &lt; 0.85), "80-85", AND(D242 &gt;= 0.7, D242 &lt; 0.8), "70-80", AND(D242 &gt;= 0.6, D242 &lt; 0.7),  "60-70", AND(D242 &gt;= 0.5, D242 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B243" s="1">
         <v>45302</v>
@@ -18461,16 +14540,16 @@
         <v>70</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="str" cm="1">
         <f t="array" ref="I243">_xlfn.IFS(D243 &gt;= 0.85, "85  &lt;", AND(D243 &gt;=0.8, D243 &lt; 0.85), "80-85", AND(D243 &gt;= 0.7, D243 &lt; 0.8), "70-80", AND(D243 &gt;= 0.6, D243 &lt; 0.7),  "60-70", AND(D243 &gt;= 0.5, D243 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B244" s="1">
         <v>45302</v>
@@ -18496,6 +14575,66 @@
       <c r="I244" t="str" cm="1">
         <f t="array" ref="I244">_xlfn.IFS(D244 &gt;= 0.85, "85  &lt;", AND(D244 &gt;=0.8, D244 &lt; 0.85), "80-85", AND(D244 &gt;= 0.7, D244 &lt; 0.8), "70-80", AND(D244 &gt;= 0.6, D244 &lt; 0.7),  "60-70", AND(D244 &gt;= 0.5, D244 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C245" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E245" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G245" t="s">
+        <v>32</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" t="str" cm="1">
+        <f t="array" ref="I245">_xlfn.IFS(D245 &gt;= 0.85, "85  &lt;", AND(D245 &gt;=0.8, D245 &lt; 0.85), "80-85", AND(D245 &gt;= 0.7, D245 &lt; 0.8), "70-80", AND(D245 &gt;= 0.6, D245 &lt; 0.7),  "60-70", AND(D245 &gt;= 0.5, D245 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>99</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45303</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G246" t="s">
+        <v>77</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246" t="str" cm="1">
+        <f t="array" ref="I246">_xlfn.IFS(D246 &gt;= 0.85, "85  &lt;", AND(D246 &gt;=0.8, D246 &lt; 0.85), "80-85", AND(D246 &gt;= 0.7, D246 &lt; 0.8), "70-80", AND(D246 &gt;= 0.6, D246 &lt; 0.7),  "60-70", AND(D246 &gt;= 0.5, D246 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608859F-25DC-456C-BD9B-993407B14EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E517FB-34C7-425D-A31D-4B3256FE241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45303.358647337962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="246" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45304.781461226848" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="262" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -942,19 +942,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-13T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-14T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.876"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.502" maxValue="0.88200000000000001"/>
     </cacheField>
     <cacheField name="Loser" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.124" maxValue="0.498"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.11799999999999999" maxValue="0.498"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="246">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="262">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -5169,6 +5169,278 @@
     <m/>
   </r>
   <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Dallas Stars"/>
+    <n v="0.88200000000000001"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.11799999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <n v="1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.752"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.248"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Edmonton Oilers"/>
+    <n v="0.73799999999999999"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.26200000000000001"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.73"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.27"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.70399999999999996"/>
+    <s v="Calgary Flames"/>
+    <n v="0.29599999999999999"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.69799999999999995"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.69599999999999995"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.30399999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.67800000000000005"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.32200000000000001"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.60799999999999998"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.39200000000000002"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.60199999999999998"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.58599999999999997"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.41399999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.57999999999999996"/>
+    <s v="Washington Capitals"/>
+    <n v="0.42"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.57599999999999996"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.42399999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Nashville Predators"/>
+    <n v="0.56200000000000006"/>
+    <s v="New York Islanders"/>
+    <n v="0.438"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.55600000000000005"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.44400000000000001"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.504"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.496"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="7"/>
     <m/>
     <m/>
@@ -5189,7 +5461,96 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5269,95 +5630,6 @@
   <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
@@ -5674,23 +5946,23 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -5698,7 +5970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -5724,7 +5996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
@@ -5740,7 +6012,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>92</v>
@@ -5756,7 +6028,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -5772,7 +6044,7 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>93</v>
@@ -5788,23 +6060,23 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.67307692307692313</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.70588235294117652</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>94</v>
@@ -5820,19 +6092,19 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C7" s="8">
         <v>56</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.56565656565656564</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -5851,23 +6123,23 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="8">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8">
         <v>42</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>96</v>
@@ -5883,19 +6155,19 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C9" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.59836065573770492</v>
+        <v>0.5791505791505791</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
@@ -5915,35 +6187,35 @@
         <v>0.55737704918032782</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.55681818181818177</v>
+        <v>0.52406417112299464</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N10" s="8">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="O10" s="8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N11" s="8">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="O11" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5954,32 +6226,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O246"/>
+  <dimension ref="A1:O262"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H247" sqref="H247"/>
+    <sheetView topLeftCell="A237" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H252" sqref="H252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -6026,7 +6298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -6055,7 +6327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -6084,7 +6356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -6113,7 +6385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -6171,7 +6443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -6200,7 +6472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -6229,7 +6501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -6258,7 +6530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -6287,7 +6559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -6316,7 +6588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -6345,7 +6617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -6374,7 +6646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -6403,7 +6675,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -6432,7 +6704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -6461,7 +6733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -6490,7 +6762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -6519,7 +6791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -6548,7 +6820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -6577,7 +6849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -6606,7 +6878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -6636,7 +6908,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -6666,7 +6938,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -6696,7 +6968,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -6726,7 +6998,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -6756,7 +7028,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -6786,7 +7058,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -6816,7 +7088,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -6846,7 +7118,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -6876,7 +7148,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -6906,7 +7178,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -6936,7 +7208,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -6966,7 +7238,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -6996,7 +7268,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -7026,7 +7298,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -7056,7 +7328,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -7086,7 +7358,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -7116,7 +7388,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -7146,7 +7418,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -7176,7 +7448,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -7206,7 +7478,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -7236,7 +7508,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -7266,7 +7538,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -7296,7 +7568,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -7326,7 +7598,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -7356,7 +7628,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -7386,7 +7658,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -7416,7 +7688,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -7446,7 +7718,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -7476,7 +7748,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -7506,7 +7778,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -7536,7 +7808,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -7566,7 +7838,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -7596,7 +7868,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -7626,7 +7898,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -7656,7 +7928,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -7686,7 +7958,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -7716,7 +7988,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -7746,7 +8018,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -7776,7 +8048,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -7806,7 +8078,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -7836,7 +8108,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -7866,7 +8138,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -7896,7 +8168,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -7926,7 +8198,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -7956,7 +8228,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -7986,7 +8258,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -8019,7 +8291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -8049,7 +8321,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -8079,7 +8351,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -8109,7 +8381,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -8157,7 +8429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -8207,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -8257,7 +8529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -8307,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -8357,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -8407,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -8457,7 +8729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -8507,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -8557,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -8607,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -8657,7 +8929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -8707,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -8757,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -8807,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -8857,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -8907,7 +9179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -8957,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -9007,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -9057,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -9107,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -9157,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -9207,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -9257,7 +9529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -9307,7 +9579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -9357,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -9407,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -9457,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -9507,7 +9779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -9557,7 +9829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -9607,7 +9879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -9657,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -9707,7 +9979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -9757,7 +10029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -9807,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -9857,7 +10129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -9907,7 +10179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>96</v>
       </c>
@@ -9957,7 +10229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -10007,7 +10279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -10057,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>96</v>
       </c>
@@ -10107,7 +10379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -10157,7 +10429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -10207,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -10257,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -10307,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -10357,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -10407,7 +10679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>96</v>
       </c>
@@ -10457,7 +10729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -10507,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>96</v>
       </c>
@@ -10557,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -10607,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -10657,7 +10929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>96</v>
       </c>
@@ -10707,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -10757,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -10807,7 +11079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>96</v>
       </c>
@@ -10857,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>96</v>
       </c>
@@ -10907,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -10957,7 +11229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -11007,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -11057,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>96</v>
       </c>
@@ -11107,7 +11379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>96</v>
       </c>
@@ -11157,7 +11429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>96</v>
       </c>
@@ -11207,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -11257,7 +11529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>96</v>
       </c>
@@ -11307,7 +11579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -11337,7 +11609,7 @@
         <v>85  &lt;</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>96</v>
       </c>
@@ -11367,7 +11639,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>96</v>
       </c>
@@ -11397,7 +11669,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>96</v>
       </c>
@@ -11427,7 +11699,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>96</v>
       </c>
@@ -11457,7 +11729,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>96</v>
       </c>
@@ -11487,7 +11759,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>96</v>
       </c>
@@ -11517,7 +11789,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>96</v>
       </c>
@@ -11547,7 +11819,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>96</v>
       </c>
@@ -11577,7 +11849,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>96</v>
       </c>
@@ -11607,7 +11879,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>96</v>
       </c>
@@ -11637,7 +11909,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>96</v>
       </c>
@@ -11667,7 +11939,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>96</v>
       </c>
@@ -11697,7 +11969,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>96</v>
       </c>
@@ -11727,7 +11999,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>96</v>
       </c>
@@ -11757,7 +12029,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -11787,7 +12059,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>96</v>
       </c>
@@ -11817,7 +12089,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>96</v>
       </c>
@@ -11847,7 +12119,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>96</v>
       </c>
@@ -11877,7 +12149,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>96</v>
       </c>
@@ -11907,7 +12179,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>96</v>
       </c>
@@ -11937,7 +12209,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>96</v>
       </c>
@@ -11967,7 +12239,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>98</v>
       </c>
@@ -11997,7 +12269,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>98</v>
       </c>
@@ -12027,7 +12299,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>98</v>
       </c>
@@ -12057,7 +12329,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>98</v>
       </c>
@@ -12087,7 +12359,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>98</v>
       </c>
@@ -12117,7 +12389,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>98</v>
       </c>
@@ -12147,7 +12419,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>98</v>
       </c>
@@ -12177,7 +12449,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>98</v>
       </c>
@@ -12207,7 +12479,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>98</v>
       </c>
@@ -12237,7 +12509,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>98</v>
       </c>
@@ -12267,7 +12539,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>98</v>
       </c>
@@ -12297,7 +12569,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>98</v>
       </c>
@@ -12327,7 +12599,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>98</v>
       </c>
@@ -12357,7 +12629,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>98</v>
       </c>
@@ -12387,7 +12659,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>98</v>
       </c>
@@ -12417,7 +12689,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>98</v>
       </c>
@@ -12447,7 +12719,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>98</v>
       </c>
@@ -12477,7 +12749,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>98</v>
       </c>
@@ -12507,7 +12779,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>98</v>
       </c>
@@ -12537,7 +12809,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>98</v>
       </c>
@@ -12567,7 +12839,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>98</v>
       </c>
@@ -12597,7 +12869,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>98</v>
       </c>
@@ -12627,7 +12899,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>98</v>
       </c>
@@ -12657,7 +12929,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>98</v>
       </c>
@@ -12687,7 +12959,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>98</v>
       </c>
@@ -12717,7 +12989,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>98</v>
       </c>
@@ -12747,7 +13019,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>98</v>
       </c>
@@ -12777,7 +13049,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>98</v>
       </c>
@@ -12807,7 +13079,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>98</v>
       </c>
@@ -12837,7 +13109,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>98</v>
       </c>
@@ -12867,7 +13139,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>98</v>
       </c>
@@ -12897,7 +13169,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>98</v>
       </c>
@@ -12927,7 +13199,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>98</v>
       </c>
@@ -12957,7 +13229,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>98</v>
       </c>
@@ -12987,7 +13259,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>98</v>
       </c>
@@ -13017,7 +13289,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>98</v>
       </c>
@@ -13047,7 +13319,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>98</v>
       </c>
@@ -13077,7 +13349,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>98</v>
       </c>
@@ -13107,7 +13379,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>98</v>
       </c>
@@ -13137,7 +13409,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>98</v>
       </c>
@@ -13167,7 +13439,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>98</v>
       </c>
@@ -13197,7 +13469,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>98</v>
       </c>
@@ -13227,7 +13499,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>98</v>
       </c>
@@ -13257,7 +13529,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>98</v>
       </c>
@@ -13287,7 +13559,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>98</v>
       </c>
@@ -13317,7 +13589,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>98</v>
       </c>
@@ -13347,7 +13619,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>98</v>
       </c>
@@ -13377,7 +13649,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>98</v>
       </c>
@@ -13407,7 +13679,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>98</v>
       </c>
@@ -13437,7 +13709,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>98</v>
       </c>
@@ -13467,7 +13739,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>98</v>
       </c>
@@ -13497,7 +13769,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>98</v>
       </c>
@@ -13527,7 +13799,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>98</v>
       </c>
@@ -13557,7 +13829,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>98</v>
       </c>
@@ -13587,7 +13859,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>98</v>
       </c>
@@ -13617,7 +13889,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>98</v>
       </c>
@@ -13647,7 +13919,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>98</v>
       </c>
@@ -13677,7 +13949,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>98</v>
       </c>
@@ -13707,7 +13979,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>98</v>
       </c>
@@ -13737,7 +14009,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>98</v>
       </c>
@@ -13767,7 +14039,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>98</v>
       </c>
@@ -13797,7 +14069,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>99</v>
       </c>
@@ -13827,7 +14099,7 @@
         <v>80-85</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>99</v>
       </c>
@@ -13857,7 +14129,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>99</v>
       </c>
@@ -13887,7 +14159,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>99</v>
       </c>
@@ -13917,7 +14189,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>99</v>
       </c>
@@ -13947,7 +14219,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>99</v>
       </c>
@@ -13977,7 +14249,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>99</v>
       </c>
@@ -14007,7 +14279,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>99</v>
       </c>
@@ -14037,7 +14309,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>99</v>
       </c>
@@ -14067,7 +14339,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>99</v>
       </c>
@@ -14097,7 +14369,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>99</v>
       </c>
@@ -14127,7 +14399,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>99</v>
       </c>
@@ -14157,7 +14429,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>99</v>
       </c>
@@ -14187,7 +14459,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>99</v>
       </c>
@@ -14217,7 +14489,7 @@
         <v>70-80</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>99</v>
       </c>
@@ -14247,7 +14519,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>99</v>
       </c>
@@ -14277,7 +14549,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>99</v>
       </c>
@@ -14307,7 +14579,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>99</v>
       </c>
@@ -14337,7 +14609,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>99</v>
       </c>
@@ -14367,7 +14639,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -14397,7 +14669,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>99</v>
       </c>
@@ -14427,7 +14699,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>99</v>
       </c>
@@ -14457,7 +14729,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>99</v>
       </c>
@@ -14487,7 +14759,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>99</v>
       </c>
@@ -14517,7 +14789,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>99</v>
       </c>
@@ -14547,7 +14819,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>99</v>
       </c>
@@ -14577,7 +14849,7 @@
         <v>50-60</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>99</v>
       </c>
@@ -14607,7 +14879,7 @@
         <v>60-70</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>99</v>
       </c>
@@ -14635,6 +14907,459 @@
       <c r="I246" t="str" cm="1">
         <f t="array" ref="I246">_xlfn.IFS(D246 &gt;= 0.85, "85  &lt;", AND(D246 &gt;=0.8, D246 &lt; 0.85), "80-85", AND(D246 &gt;= 0.7, D246 &lt; 0.8), "70-80", AND(D246 &gt;= 0.6, D246 &lt; 0.7),  "60-70", AND(D246 &gt;= 0.5, D246 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>99</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C247" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E247" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G247" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247" t="str" cm="1">
+        <f t="array" ref="I247">_xlfn.IFS(D247 &gt;= 0.85, "85  &lt;", AND(D247 &gt;=0.8, D247 &lt; 0.85), "80-85", AND(D247 &gt;= 0.7, D247 &lt; 0.8), "70-80", AND(D247 &gt;= 0.6, D247 &lt; 0.7),  "60-70", AND(D247 &gt;= 0.5, D247 &lt; 0.6), "50-60")</f>
+        <v>85  &lt;</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>99</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C248" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="G248" t="s">
+        <v>81</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248" t="str" cm="1">
+        <f t="array" ref="I248">_xlfn.IFS(D248 &gt;= 0.85, "85  &lt;", AND(D248 &gt;=0.8, D248 &lt; 0.85), "80-85", AND(D248 &gt;= 0.7, D248 &lt; 0.8), "70-80", AND(D248 &gt;= 0.6, D248 &lt; 0.7),  "60-70", AND(D248 &gt;= 0.5, D248 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>99</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="E249" t="s">
+        <v>47</v>
+      </c>
+      <c r="F249" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G249" t="s">
+        <v>64</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249" t="str" cm="1">
+        <f t="array" ref="I249">_xlfn.IFS(D249 &gt;= 0.85, "85  &lt;", AND(D249 &gt;=0.8, D249 &lt; 0.85), "80-85", AND(D249 &gt;= 0.7, D249 &lt; 0.8), "70-80", AND(D249 &gt;= 0.6, D249 &lt; 0.7),  "60-70", AND(D249 &gt;= 0.5, D249 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>99</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C250" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E250" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G250" t="s">
+        <v>89</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250" t="str" cm="1">
+        <f t="array" ref="I250">_xlfn.IFS(D250 &gt;= 0.85, "85  &lt;", AND(D250 &gt;=0.8, D250 &lt; 0.85), "80-85", AND(D250 &gt;= 0.7, D250 &lt; 0.8), "70-80", AND(D250 &gt;= 0.6, D250 &lt; 0.7),  "60-70", AND(D250 &gt;= 0.5, D250 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>99</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C251" t="s">
+        <v>31</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E251" t="s">
+        <v>33</v>
+      </c>
+      <c r="F251" s="2">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G251" t="s">
+        <v>62</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251" t="str" cm="1">
+        <f t="array" ref="I251">_xlfn.IFS(D251 &gt;= 0.85, "85  &lt;", AND(D251 &gt;=0.8, D251 &lt; 0.85), "80-85", AND(D251 &gt;= 0.7, D251 &lt; 0.8), "70-80", AND(D251 &gt;= 0.6, D251 &lt; 0.7),  "60-70", AND(D251 &gt;= 0.5, D251 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>99</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C252" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E252" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G252" t="s">
+        <v>90</v>
+      </c>
+      <c r="I252" t="str" cm="1">
+        <f t="array" ref="I252">_xlfn.IFS(D252 &gt;= 0.85, "85  &lt;", AND(D252 &gt;=0.8, D252 &lt; 0.85), "80-85", AND(D252 &gt;= 0.7, D252 &lt; 0.8), "70-80", AND(D252 &gt;= 0.6, D252 &lt; 0.7),  "60-70", AND(D252 &gt;= 0.5, D252 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>99</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C253" t="s">
+        <v>45</v>
+      </c>
+      <c r="D253" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E253" t="s">
+        <v>71</v>
+      </c>
+      <c r="F253" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G253" t="s">
+        <v>79</v>
+      </c>
+      <c r="I253" t="str" cm="1">
+        <f t="array" ref="I253">_xlfn.IFS(D253 &gt;= 0.85, "85  &lt;", AND(D253 &gt;=0.8, D253 &lt; 0.85), "80-85", AND(D253 &gt;= 0.7, D253 &lt; 0.8), "70-80", AND(D253 &gt;= 0.6, D253 &lt; 0.7),  "60-70", AND(D253 &gt;= 0.5, D253 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>99</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C254" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" s="2">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E254" t="s">
+        <v>36</v>
+      </c>
+      <c r="F254" s="2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="G254" t="s">
+        <v>37</v>
+      </c>
+      <c r="I254" t="str" cm="1">
+        <f t="array" ref="I254">_xlfn.IFS(D254 &gt;= 0.85, "85  &lt;", AND(D254 &gt;=0.8, D254 &lt; 0.85), "80-85", AND(D254 &gt;= 0.7, D254 &lt; 0.8), "70-80", AND(D254 &gt;= 0.6, D254 &lt; 0.7),  "60-70", AND(D254 &gt;= 0.5, D254 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G255" t="s">
+        <v>77</v>
+      </c>
+      <c r="I255" t="str" cm="1">
+        <f t="array" ref="I255">_xlfn.IFS(D255 &gt;= 0.85, "85  &lt;", AND(D255 &gt;=0.8, D255 &lt; 0.85), "80-85", AND(D255 &gt;= 0.7, D255 &lt; 0.8), "70-80", AND(D255 &gt;= 0.6, D255 &lt; 0.7),  "60-70", AND(D255 &gt;= 0.5, D255 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>99</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="2">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G256" t="s">
+        <v>70</v>
+      </c>
+      <c r="I256" t="str" cm="1">
+        <f t="array" ref="I256">_xlfn.IFS(D256 &gt;= 0.85, "85  &lt;", AND(D256 &gt;=0.8, D256 &lt; 0.85), "80-85", AND(D256 &gt;= 0.7, D256 &lt; 0.8), "70-80", AND(D256 &gt;= 0.6, D256 &lt; 0.7),  "60-70", AND(D256 &gt;= 0.5, D256 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>99</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C257" t="s">
+        <v>44</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E257" t="s">
+        <v>48</v>
+      </c>
+      <c r="F257" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G257" t="s">
+        <v>49</v>
+      </c>
+      <c r="I257" t="str" cm="1">
+        <f t="array" ref="I257">_xlfn.IFS(D257 &gt;= 0.85, "85  &lt;", AND(D257 &gt;=0.8, D257 &lt; 0.85), "80-85", AND(D257 &gt;= 0.7, D257 &lt; 0.8), "70-80", AND(D257 &gt;= 0.6, D257 &lt; 0.7),  "60-70", AND(D257 &gt;= 0.5, D257 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>99</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C258" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E258" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G258" t="s">
+        <v>29</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258" t="str" cm="1">
+        <f t="array" ref="I258">_xlfn.IFS(D258 &gt;= 0.85, "85  &lt;", AND(D258 &gt;=0.8, D258 &lt; 0.85), "80-85", AND(D258 &gt;= 0.7, D258 &lt; 0.8), "70-80", AND(D258 &gt;= 0.6, D258 &lt; 0.7),  "60-70", AND(D258 &gt;= 0.5, D258 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>99</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="2">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G259" t="s">
+        <v>23</v>
+      </c>
+      <c r="I259" t="str" cm="1">
+        <f t="array" ref="I259">_xlfn.IFS(D259 &gt;= 0.85, "85  &lt;", AND(D259 &gt;=0.8, D259 &lt; 0.85), "80-85", AND(D259 &gt;= 0.7, D259 &lt; 0.8), "70-80", AND(D259 &gt;= 0.6, D259 &lt; 0.7),  "60-70", AND(D259 &gt;= 0.5, D259 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>99</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E260" t="s">
+        <v>41</v>
+      </c>
+      <c r="F260" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="G260" t="s">
+        <v>68</v>
+      </c>
+      <c r="I260" t="str" cm="1">
+        <f t="array" ref="I260">_xlfn.IFS(D260 &gt;= 0.85, "85  &lt;", AND(D260 &gt;=0.8, D260 &lt; 0.85), "80-85", AND(D260 &gt;= 0.7, D260 &lt; 0.8), "70-80", AND(D260 &gt;= 0.6, D260 &lt; 0.7),  "60-70", AND(D260 &gt;= 0.5, D260 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>99</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C261" t="s">
+        <v>42</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E261" t="s">
+        <v>39</v>
+      </c>
+      <c r="F261" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G261" t="s">
+        <v>40</v>
+      </c>
+      <c r="I261" t="str" cm="1">
+        <f t="array" ref="I261">_xlfn.IFS(D261 &gt;= 0.85, "85  &lt;", AND(D261 &gt;=0.8, D261 &lt; 0.85), "80-85", AND(D261 &gt;= 0.7, D261 &lt; 0.8), "70-80", AND(D261 &gt;= 0.6, D261 &lt; 0.7),  "60-70", AND(D261 &gt;= 0.5, D261 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>99</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45304</v>
+      </c>
+      <c r="C262" t="s">
+        <v>61</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="E262" t="s">
+        <v>38</v>
+      </c>
+      <c r="F262" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="G262" t="s">
+        <v>69</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262" t="str" cm="1">
+        <f t="array" ref="I262">_xlfn.IFS(D262 &gt;= 0.85, "85  &lt;", AND(D262 &gt;=0.8, D262 &lt; 0.85), "80-85", AND(D262 &gt;= 0.7, D262 &lt; 0.8), "70-80", AND(D262 &gt;= 0.6, D262 &lt; 0.7),  "60-70", AND(D262 &gt;= 0.5, D262 &lt; 0.6), "50-60")</f>
+        <v>50-60</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E517FB-34C7-425D-A31D-4B3256FE241D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F4E991-AF2D-4CBA-9245-E1F43E77E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>RF7</t>
+  </si>
+  <si>
+    <t>RF8</t>
   </si>
 </sst>
 </file>
@@ -924,13 +927,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45304.781461226848" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="262" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45305.462777546294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="264" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="9">
         <s v="RF1"/>
         <s v="RF2"/>
         <s v="RF3"/>
@@ -938,11 +941,12 @@
         <s v="RF5"/>
         <s v="RF6"/>
         <s v="RF7"/>
+        <s v="RF8"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-14T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-15T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1002,7 +1006,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="262">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="264">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -5193,7 +5197,7 @@
     <s v="Philadelphia Flyers"/>
     <n v="0.248"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5244,7 +5248,7 @@
     <s v="Calgary Flames"/>
     <n v="0.29599999999999999"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="2"/>
     <m/>
     <m/>
@@ -5261,7 +5265,7 @@
     <s v="New Jersey Devils"/>
     <n v="0.30199999999999999"/>
     <s v="Playing At:  Florida Panthers   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5278,7 +5282,7 @@
     <s v="Pittsburgh Penguins"/>
     <n v="0.30399999999999999"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5295,7 +5299,7 @@
     <s v="Columbus Blue Jackets"/>
     <n v="0.32200000000000001"/>
     <s v="Playing At:  Columbus Blue Jackets   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5312,7 +5316,7 @@
     <s v="Arizona Coyotes"/>
     <n v="0.39200000000000002"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5329,7 +5333,7 @@
     <s v="St. Louis Blues"/>
     <n v="0.39800000000000002"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5346,7 +5350,7 @@
     <s v="Buffalo Sabres"/>
     <n v="0.41399999999999998"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5380,7 +5384,7 @@
     <s v="Colorado Avalanche"/>
     <n v="0.42399999999999999"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5397,7 +5401,7 @@
     <s v="New York Islanders"/>
     <n v="0.438"/>
     <s v="Playing At:  Nashville Predators   Home"/>
-    <m/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5414,7 +5418,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.44400000000000001"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
-    <m/>
+    <n v="0"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -5442,6 +5446,40 @@
   </r>
   <r>
     <x v="7"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="New York Rangers"/>
+    <n v="0.7"/>
+    <s v="Washington Capitals"/>
+    <n v="0.3"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <n v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.66"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.34"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
     <m/>
     <m/>
     <m/>
@@ -5461,11 +5499,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5473,6 +5511,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item t="default"/>
       </items>
@@ -5550,19 +5589,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="7"/>
+        <item x="8"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5946,7 +5986,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6012,7 +6052,7 @@
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>92</v>
@@ -6044,7 +6084,7 @@
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>93</v>
@@ -6065,18 +6105,18 @@
         <v>53</v>
       </c>
       <c r="B6" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.6964285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.72222222222222221</v>
+        <v>0.69863013698630139</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>94</v>
@@ -6097,14 +6137,14 @@
         <v>54</v>
       </c>
       <c r="B7" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -6131,15 +6171,15 @@
         <v>83</v>
       </c>
       <c r="C8" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.50602409638554213</v>
+        <v>0.53012048192771088</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>96</v>
@@ -6160,18 +6200,18 @@
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9" s="8">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.5791505791505791</v>
+        <v>0.5938697318007663</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>98</v>
@@ -6191,7 +6231,7 @@
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.52406417112299464</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>99</v>
@@ -6200,11 +6240,11 @@
         <v>44</v>
       </c>
       <c r="O10" s="8">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="1"/>
-        <v>0.54545454545454541</v>
+        <v>0.61363636363636365</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -6215,7 +6255,7 @@
         <v>261</v>
       </c>
       <c r="O11" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6226,10 +6266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O262"/>
+  <dimension ref="A1:O264"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H252" sqref="H252"/>
+    <sheetView topLeftCell="A241" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H265" sqref="H265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14962,7 +15002,7 @@
         <v>81</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="str" cm="1">
         <f t="array" ref="I248">_xlfn.IFS(D248 &gt;= 0.85, "85  &lt;", AND(D248 &gt;=0.8, D248 &lt; 0.85), "80-85", AND(D248 &gt;= 0.7, D248 &lt; 0.8), "70-80", AND(D248 &gt;= 0.6, D248 &lt; 0.7),  "60-70", AND(D248 &gt;= 0.5, D248 &lt; 0.6), "50-60")</f>
@@ -15052,7 +15092,7 @@
         <v>62</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="str" cm="1">
         <f t="array" ref="I251">_xlfn.IFS(D251 &gt;= 0.85, "85  &lt;", AND(D251 &gt;=0.8, D251 &lt; 0.85), "80-85", AND(D251 &gt;= 0.7, D251 &lt; 0.8), "70-80", AND(D251 &gt;= 0.6, D251 &lt; 0.7),  "60-70", AND(D251 &gt;= 0.5, D251 &lt; 0.6), "50-60")</f>
@@ -15081,6 +15121,9 @@
       <c r="G252" t="s">
         <v>90</v>
       </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
       <c r="I252" t="str" cm="1">
         <f t="array" ref="I252">_xlfn.IFS(D252 &gt;= 0.85, "85  &lt;", AND(D252 &gt;=0.8, D252 &lt; 0.85), "80-85", AND(D252 &gt;= 0.7, D252 &lt; 0.8), "70-80", AND(D252 &gt;= 0.6, D252 &lt; 0.7),  "60-70", AND(D252 &gt;= 0.5, D252 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -15108,6 +15151,9 @@
       <c r="G253" t="s">
         <v>79</v>
       </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
       <c r="I253" t="str" cm="1">
         <f t="array" ref="I253">_xlfn.IFS(D253 &gt;= 0.85, "85  &lt;", AND(D253 &gt;=0.8, D253 &lt; 0.85), "80-85", AND(D253 &gt;= 0.7, D253 &lt; 0.8), "70-80", AND(D253 &gt;= 0.6, D253 &lt; 0.7),  "60-70", AND(D253 &gt;= 0.5, D253 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -15135,6 +15181,9 @@
       <c r="G254" t="s">
         <v>37</v>
       </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
       <c r="I254" t="str" cm="1">
         <f t="array" ref="I254">_xlfn.IFS(D254 &gt;= 0.85, "85  &lt;", AND(D254 &gt;=0.8, D254 &lt; 0.85), "80-85", AND(D254 &gt;= 0.7, D254 &lt; 0.8), "70-80", AND(D254 &gt;= 0.6, D254 &lt; 0.7),  "60-70", AND(D254 &gt;= 0.5, D254 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -15162,6 +15211,9 @@
       <c r="G255" t="s">
         <v>77</v>
       </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
       <c r="I255" t="str" cm="1">
         <f t="array" ref="I255">_xlfn.IFS(D255 &gt;= 0.85, "85  &lt;", AND(D255 &gt;=0.8, D255 &lt; 0.85), "80-85", AND(D255 &gt;= 0.7, D255 &lt; 0.8), "70-80", AND(D255 &gt;= 0.6, D255 &lt; 0.7),  "60-70", AND(D255 &gt;= 0.5, D255 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -15189,6 +15241,9 @@
       <c r="G256" t="s">
         <v>70</v>
       </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
       <c r="I256" t="str" cm="1">
         <f t="array" ref="I256">_xlfn.IFS(D256 &gt;= 0.85, "85  &lt;", AND(D256 &gt;=0.8, D256 &lt; 0.85), "80-85", AND(D256 &gt;= 0.7, D256 &lt; 0.8), "70-80", AND(D256 &gt;= 0.6, D256 &lt; 0.7),  "60-70", AND(D256 &gt;= 0.5, D256 &lt; 0.6), "50-60")</f>
         <v>60-70</v>
@@ -15216,6 +15271,9 @@
       <c r="G257" t="s">
         <v>49</v>
       </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
       <c r="I257" t="str" cm="1">
         <f t="array" ref="I257">_xlfn.IFS(D257 &gt;= 0.85, "85  &lt;", AND(D257 &gt;=0.8, D257 &lt; 0.85), "80-85", AND(D257 &gt;= 0.7, D257 &lt; 0.8), "70-80", AND(D257 &gt;= 0.6, D257 &lt; 0.7),  "60-70", AND(D257 &gt;= 0.5, D257 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -15273,6 +15331,9 @@
       <c r="G259" t="s">
         <v>23</v>
       </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
       <c r="I259" t="str" cm="1">
         <f t="array" ref="I259">_xlfn.IFS(D259 &gt;= 0.85, "85  &lt;", AND(D259 &gt;=0.8, D259 &lt; 0.85), "80-85", AND(D259 &gt;= 0.7, D259 &lt; 0.8), "70-80", AND(D259 &gt;= 0.6, D259 &lt; 0.7),  "60-70", AND(D259 &gt;= 0.5, D259 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -15300,6 +15361,9 @@
       <c r="G260" t="s">
         <v>68</v>
       </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
       <c r="I260" t="str" cm="1">
         <f t="array" ref="I260">_xlfn.IFS(D260 &gt;= 0.85, "85  &lt;", AND(D260 &gt;=0.8, D260 &lt; 0.85), "80-85", AND(D260 &gt;= 0.7, D260 &lt; 0.8), "70-80", AND(D260 &gt;= 0.6, D260 &lt; 0.7),  "60-70", AND(D260 &gt;= 0.5, D260 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -15327,6 +15391,9 @@
       <c r="G261" t="s">
         <v>40</v>
       </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
       <c r="I261" t="str" cm="1">
         <f t="array" ref="I261">_xlfn.IFS(D261 &gt;= 0.85, "85  &lt;", AND(D261 &gt;=0.8, D261 &lt; 0.85), "80-85", AND(D261 &gt;= 0.7, D261 &lt; 0.8), "70-80", AND(D261 &gt;= 0.6, D261 &lt; 0.7),  "60-70", AND(D261 &gt;= 0.5, D261 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
@@ -15360,6 +15427,66 @@
       <c r="I262" t="str" cm="1">
         <f t="array" ref="I262">_xlfn.IFS(D262 &gt;= 0.85, "85  &lt;", AND(D262 &gt;=0.8, D262 &lt; 0.85), "80-85", AND(D262 &gt;= 0.7, D262 &lt; 0.8), "70-80", AND(D262 &gt;= 0.6, D262 &lt; 0.7),  "60-70", AND(D262 &gt;= 0.5, D262 &lt; 0.6), "50-60")</f>
         <v>50-60</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>100</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45305</v>
+      </c>
+      <c r="C263" t="s">
+        <v>27</v>
+      </c>
+      <c r="D263" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>28</v>
+      </c>
+      <c r="F263" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G263" t="s">
+        <v>65</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263" t="str" cm="1">
+        <f t="array" ref="I263">_xlfn.IFS(D263 &gt;= 0.85, "85  &lt;", AND(D263 &gt;=0.8, D263 &lt; 0.85), "80-85", AND(D263 &gt;= 0.7, D263 &lt; 0.8), "70-80", AND(D263 &gt;= 0.6, D263 &lt; 0.7),  "60-70", AND(D263 &gt;= 0.5, D263 &lt; 0.6), "50-60")</f>
+        <v>70-80</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>100</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45305</v>
+      </c>
+      <c r="C264" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="E264" t="s">
+        <v>39</v>
+      </c>
+      <c r="F264" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="G264" t="s">
+        <v>23</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264" t="str" cm="1">
+        <f t="array" ref="I264">_xlfn.IFS(D264 &gt;= 0.85, "85  &lt;", AND(D264 &gt;=0.8, D264 &lt; 0.85), "80-85", AND(D264 &gt;= 0.7, D264 &lt; 0.8), "70-80", AND(D264 &gt;= 0.6, D264 &lt; 0.7),  "60-70", AND(D264 &gt;= 0.5, D264 &lt; 0.6), "50-60")</f>
+        <v>60-70</v>
       </c>
     </row>
   </sheetData>

--- a/RF Lifetime Predictions.xlsx
+++ b/RF Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F4E991-AF2D-4CBA-9245-E1F43E77E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262AFCF3-626F-496B-975E-BB30FD749786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>RF8</t>
+  </si>
+  <si>
+    <t>80% or greater</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45305.462777546294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="264" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45306.950853703704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="274" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -946,7 +949,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-15T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-16T00:00:00"/>
     </cacheField>
     <cacheField name="Winner" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -973,8 +976,8 @@
         <s v="70-80"/>
         <s v="60-70"/>
         <s v="50-60"/>
-        <s v="85  &lt;"/>
         <m/>
+        <s v="85  &lt;" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="GF Prediction" numFmtId="0">
@@ -1006,7 +1009,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="264">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="274">
   <r>
     <x v="0"/>
     <d v="2023-12-09T00:00:00"/>
@@ -3294,7 +3297,7 @@
     <n v="0.14199999999999999"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <n v="1"/>
-    <x v="5"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5181,7 +5184,7 @@
     <n v="0.11799999999999999"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <n v="1"/>
-    <x v="5"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -5469,7 +5472,7 @@
     <s v="Detroit Red Wings"/>
     <n v="0.34"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
-    <n v="1"/>
+    <n v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -5479,6 +5482,176 @@
     <m/>
   </r>
   <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.80800000000000005"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.192"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.79400000000000004"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.20599999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <n v="0"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Florida Panthers"/>
+    <n v="0.69199999999999995"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.308"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Boston Bruins"/>
+    <n v="0.64200000000000002"/>
+    <s v="New Jersey Devils"/>
+    <n v="0.35799999999999998"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.624"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.376"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.61599999999999999"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.38400000000000001"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <n v="0"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.61"/>
+    <s v="Nashville Predators"/>
+    <n v="0.39"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <n v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.54"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.46"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <n v="1"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="New York Islanders"/>
+    <n v="0.53400000000000003"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.46600000000000003"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-01-15T00:00:00"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.51800000000000002"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.48199999999999998"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <n v="0"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <x v="8"/>
     <m/>
     <m/>
@@ -5487,7 +5660,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -5499,96 +5672,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M3:O11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item h="1" x="8"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
@@ -5615,9 +5698,9 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="8">
-        <item h="1" x="6"/>
+        <item h="1" x="5"/>
         <item x="0"/>
-        <item h="1" x="5"/>
+        <item h="1" m="1" x="6"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -5670,6 +5753,99 @@
   <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item h="1" x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
@@ -5983,10 +6159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5996,6 +6172,7 @@
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
@@ -6026,6 +6203,9 @@
       <c r="F3" t="s">
         <v>75</v>
       </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>56</v>
       </c>
@@ -6041,18 +6221,22 @@
         <v>66</v>
       </c>
       <c r="B4" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6">
         <f>C4/B4</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
         <f>SUM(B4:B6)</f>
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4:B5)</f>
+        <v>19</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>92</v>
@@ -6073,18 +6257,22 @@
         <v>52</v>
       </c>
       <c r="B5" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8">
         <v>11</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D9" si="0">C5/B5</f>
-        <v>0.84615384615384615</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F5">
         <f>SUM(C4:C6)</f>
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C4:C5)</f>
+        <v>15</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>93</v>
@@ -6096,7 +6284,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" ref="P5:P10" si="1">O5/N5</f>
+        <f t="shared" ref="P5:P11" si="1">O5/N5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -6105,18 +6293,22 @@
         <v>53</v>
       </c>
       <c r="B6" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="8">
         <v>38</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="F6" s="6">
         <f>F5/F4</f>
-        <v>0.69863013698630139</v>
+        <v>0.68831168831168832</v>
+      </c>
+      <c r="G6" s="6">
+        <f>G5/G4</f>
+        <v>0.78947368421052633</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>94</v>
@@ -6137,14 +6329,14 @@
         <v>54</v>
       </c>
       <c r="B7" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C7" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.55454545454545456</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -6168,18 +6360,18 @@
         <v>55</v>
       </c>
       <c r="B8" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.53012048192771088</v>
+        <v>0.52325581395348841</v>
       </c>
       <c r="F8">
         <f>SUM(B7:B8)</f>
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>96</v>
@@ -6200,18 +6392,18 @@
         <v>57</v>
       </c>
       <c r="B9" s="8">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C9" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.5938697318007663</v>
+        <v>0.58241758241758246</v>
       </c>
       <c r="F9">
         <f>SUM(C7:C8)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>98</v>
@@ -6231,7 +6423,7 @@
       <c r="D10" s="5"/>
       <c r="F10" s="6">
         <f>F9/F8</f>
-        <v>0.55319148936170215</v>
+        <v>0.54081632653061229</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>99</v>
@@ -6249,13 +6441,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="8">
+        <v>12</v>
+      </c>
+      <c r="O11" s="8">
+        <v>4</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="8">
-        <v>261</v>
-      </c>
-      <c r="O11" s="8">
-        <v>155</v>
+      <c r="N12" s="